--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,12 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['8', '28', '51']</t>
+  </si>
+  <si>
+    <t>['72', '89']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -725,6 +731,9 @@
   </si>
   <si>
     <t>['45+4', '65', '77']</t>
+  </si>
+  <si>
+    <t>['3', '87']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1712,7 +1721,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1990,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
         <v>0.73</v>
@@ -2094,7 +2103,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2285,7 +2294,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2476,7 +2485,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2667,7 +2676,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2858,7 +2867,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2948,7 +2957,7 @@
         <v>2.17</v>
       </c>
       <c r="AT10">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>1.03</v>
@@ -3049,7 +3058,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3136,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>2</v>
@@ -3431,7 +3440,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3518,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT13">
         <v>0.73</v>
@@ -3622,7 +3631,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3813,7 +3822,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3900,7 +3909,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
         <v>1.5</v>
@@ -4195,7 +4204,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4285,7 +4294,7 @@
         <v>0.55</v>
       </c>
       <c r="AT17">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU17">
         <v>0.9</v>
@@ -4577,7 +4586,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4664,7 +4673,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>1.67</v>
@@ -4768,7 +4777,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4858,7 +4867,7 @@
         <v>0.55</v>
       </c>
       <c r="AT20">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>0.8</v>
@@ -4959,7 +4968,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5049,7 +5058,7 @@
         <v>2.17</v>
       </c>
       <c r="AT21">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU21">
         <v>1.16</v>
@@ -5150,7 +5159,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5341,7 +5350,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5810,7 +5819,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT25">
         <v>1.5</v>
@@ -6487,7 +6496,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6574,10 +6583,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU29">
         <v>1.02</v>
@@ -6869,7 +6878,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7251,7 +7260,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7442,7 +7451,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7532,7 +7541,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU34">
         <v>1.92</v>
@@ -7824,7 +7833,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8105,7 +8114,7 @@
         <v>1.36</v>
       </c>
       <c r="AT37">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8397,7 +8406,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8484,10 +8493,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU39">
         <v>1.14</v>
@@ -8588,7 +8597,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8675,7 +8684,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT40">
         <v>1.5</v>
@@ -8779,7 +8788,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8866,10 +8875,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT41">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU41">
         <v>1.4</v>
@@ -8970,7 +8979,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9352,7 +9361,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9543,7 +9552,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9734,7 +9743,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9925,7 +9934,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10116,7 +10125,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10203,10 +10212,10 @@
         <v>2.33</v>
       </c>
       <c r="AS48">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU48">
         <v>1.06</v>
@@ -10498,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10689,7 +10698,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10776,10 +10785,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT51">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU51">
         <v>1.46</v>
@@ -10880,7 +10889,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11349,10 +11358,10 @@
         <v>1.33</v>
       </c>
       <c r="AS54">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT54">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -12026,7 +12035,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12217,7 +12226,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12498,7 +12507,7 @@
         <v>2.67</v>
       </c>
       <c r="AT60">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>1.98</v>
@@ -12686,7 +12695,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
         <v>1.42</v>
@@ -12880,7 +12889,7 @@
         <v>1.36</v>
       </c>
       <c r="AT62">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU62">
         <v>1.09</v>
@@ -13172,7 +13181,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13259,10 +13268,10 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13554,7 +13563,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13641,7 +13650,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT66">
         <v>2</v>
@@ -13745,7 +13754,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13936,7 +13945,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14217,7 +14226,7 @@
         <v>1.42</v>
       </c>
       <c r="AT69">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU69">
         <v>1.46</v>
@@ -14318,7 +14327,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14408,7 +14417,7 @@
         <v>1.09</v>
       </c>
       <c r="AT70">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU70">
         <v>1.31</v>
@@ -14509,7 +14518,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14596,10 +14605,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT71">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>1.27</v>
@@ -14891,7 +14900,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14978,7 +14987,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15273,7 +15282,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15464,7 +15473,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15554,7 +15563,7 @@
         <v>1.67</v>
       </c>
       <c r="AT76">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU76">
         <v>1.48</v>
@@ -15655,7 +15664,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15742,7 +15751,7 @@
         <v>1.83</v>
       </c>
       <c r="AS77">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT77">
         <v>1.67</v>
@@ -16037,7 +16046,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16124,7 +16133,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
         <v>0.91</v>
@@ -16506,7 +16515,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT81">
         <v>1.42</v>
@@ -16610,7 +16619,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16700,7 +16709,7 @@
         <v>1.09</v>
       </c>
       <c r="AT82">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU82">
         <v>1.26</v>
@@ -16992,7 +17001,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17183,7 +17192,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17273,7 +17282,7 @@
         <v>1.45</v>
       </c>
       <c r="AT85">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU85">
         <v>1.37</v>
@@ -17461,7 +17470,7 @@
         <v>0.43</v>
       </c>
       <c r="AS86">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT86">
         <v>0.5</v>
@@ -17655,7 +17664,7 @@
         <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -18416,7 +18425,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT91">
         <v>0.91</v>
@@ -19093,7 +19102,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19180,10 +19189,10 @@
         <v>2.29</v>
       </c>
       <c r="AS95">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT95">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU95">
         <v>1.38</v>
@@ -19374,7 +19383,7 @@
         <v>0.55</v>
       </c>
       <c r="AT96">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU96">
         <v>1.12</v>
@@ -19753,7 +19762,7 @@
         <v>0.88</v>
       </c>
       <c r="AS98">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
         <v>1.17</v>
@@ -19857,7 +19866,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19944,7 +19953,7 @@
         <v>0.38</v>
       </c>
       <c r="AS99">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT99">
         <v>0.5</v>
@@ -20048,7 +20057,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20138,7 +20147,7 @@
         <v>2.67</v>
       </c>
       <c r="AT100">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20239,7 +20248,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20329,7 +20338,7 @@
         <v>1.67</v>
       </c>
       <c r="AT101">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU101">
         <v>1.45</v>
@@ -20430,7 +20439,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20708,7 +20717,7 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT103">
         <v>0.91</v>
@@ -20812,7 +20821,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21284,7 +21293,7 @@
         <v>1.42</v>
       </c>
       <c r="AT106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21385,7 +21394,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22048,7 +22057,7 @@
         <v>2.67</v>
       </c>
       <c r="AT110">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU110">
         <v>1.8</v>
@@ -22149,7 +22158,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22340,7 +22349,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22430,7 +22439,7 @@
         <v>1.45</v>
       </c>
       <c r="AT112">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU112">
         <v>1.34</v>
@@ -22618,7 +22627,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT113">
         <v>0.5</v>
@@ -22809,7 +22818,7 @@
         <v>0.78</v>
       </c>
       <c r="AS114">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
         <v>1.17</v>
@@ -23295,7 +23304,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23382,7 +23391,7 @@
         <v>2.11</v>
       </c>
       <c r="AS117">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT117">
         <v>2</v>
@@ -23486,7 +23495,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23576,7 +23585,7 @@
         <v>1.36</v>
       </c>
       <c r="AT118">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU118">
         <v>1.5</v>
@@ -23677,7 +23686,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23868,7 +23877,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24059,7 +24068,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24250,7 +24259,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24340,7 +24349,7 @@
         <v>1.45</v>
       </c>
       <c r="AT122">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU122">
         <v>1.28</v>
@@ -24632,7 +24641,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24722,7 +24731,7 @@
         <v>1.42</v>
       </c>
       <c r="AT124">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU124">
         <v>1.46</v>
@@ -24910,7 +24919,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25205,7 +25214,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25292,7 +25301,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT127">
         <v>1.17</v>
@@ -25396,7 +25405,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25865,7 +25874,7 @@
         <v>1.6</v>
       </c>
       <c r="AS130">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT130">
         <v>1.67</v>
@@ -25969,7 +25978,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26160,7 +26169,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26250,7 +26259,7 @@
         <v>1.09</v>
       </c>
       <c r="AT132">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU132">
         <v>1.19</v>
@@ -26351,7 +26360,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26629,7 +26638,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -26924,7 +26933,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27115,7 +27124,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27306,7 +27315,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27497,7 +27506,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27639,6 +27648,579 @@
       </c>
       <c r="BK139">
         <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>6603971</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45122.70833333334</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" t="s">
+        <v>70</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>3</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>5</v>
+      </c>
+      <c r="O140" t="s">
+        <v>170</v>
+      </c>
+      <c r="P140" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140">
+        <v>6</v>
+      </c>
+      <c r="S140">
+        <v>7</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+      <c r="AC140">
+        <v>4.73</v>
+      </c>
+      <c r="AD140">
+        <v>3.76</v>
+      </c>
+      <c r="AE140">
+        <v>1.69</v>
+      </c>
+      <c r="AF140">
+        <v>0</v>
+      </c>
+      <c r="AG140">
+        <v>0</v>
+      </c>
+      <c r="AH140">
+        <v>0</v>
+      </c>
+      <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
+        <v>1.85</v>
+      </c>
+      <c r="AK140">
+        <v>1.85</v>
+      </c>
+      <c r="AL140">
+        <v>0</v>
+      </c>
+      <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>0</v>
+      </c>
+      <c r="AO140">
+        <v>0</v>
+      </c>
+      <c r="AP140">
+        <v>0</v>
+      </c>
+      <c r="AQ140">
+        <v>0.83</v>
+      </c>
+      <c r="AR140">
+        <v>1.36</v>
+      </c>
+      <c r="AS140">
+        <v>1</v>
+      </c>
+      <c r="AT140">
+        <v>1.25</v>
+      </c>
+      <c r="AU140">
+        <v>1.52</v>
+      </c>
+      <c r="AV140">
+        <v>1.41</v>
+      </c>
+      <c r="AW140">
+        <v>2.93</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>0</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>4</v>
+      </c>
+      <c r="BG140">
+        <v>8</v>
+      </c>
+      <c r="BH140">
+        <v>1</v>
+      </c>
+      <c r="BI140">
+        <v>10</v>
+      </c>
+      <c r="BJ140">
+        <v>5</v>
+      </c>
+      <c r="BK140">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>6603973</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45122.8125</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s">
+        <v>69</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>85</v>
+      </c>
+      <c r="P141" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q141">
+        <v>-1</v>
+      </c>
+      <c r="R141">
+        <v>-1</v>
+      </c>
+      <c r="S141">
+        <v>-1</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>3.77</v>
+      </c>
+      <c r="AD141">
+        <v>3.56</v>
+      </c>
+      <c r="AE141">
+        <v>1.91</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>1.8</v>
+      </c>
+      <c r="AK141">
+        <v>1.9</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>0</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>0</v>
+      </c>
+      <c r="AQ141">
+        <v>1.18</v>
+      </c>
+      <c r="AR141">
+        <v>1.91</v>
+      </c>
+      <c r="AS141">
+        <v>1.08</v>
+      </c>
+      <c r="AT141">
+        <v>2</v>
+      </c>
+      <c r="AU141">
+        <v>1.52</v>
+      </c>
+      <c r="AV141">
+        <v>1.32</v>
+      </c>
+      <c r="AW141">
+        <v>2.84</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>-1</v>
+      </c>
+      <c r="BG141">
+        <v>-1</v>
+      </c>
+      <c r="BH141">
+        <v>-1</v>
+      </c>
+      <c r="BI141">
+        <v>-1</v>
+      </c>
+      <c r="BJ141">
+        <v>-1</v>
+      </c>
+      <c r="BK141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>6603972</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45123.70833333334</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>68</v>
+      </c>
+      <c r="H142" t="s">
+        <v>66</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>171</v>
+      </c>
+      <c r="P142" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>4</v>
+      </c>
+      <c r="S142">
+        <v>8</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <v>3.25</v>
+      </c>
+      <c r="AD142">
+        <v>3</v>
+      </c>
+      <c r="AE142">
+        <v>2.25</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>0</v>
+      </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>1.75</v>
+      </c>
+      <c r="AK142">
+        <v>1.95</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>0</v>
+      </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
+      <c r="AP142">
+        <v>0</v>
+      </c>
+      <c r="AQ142">
+        <v>1.18</v>
+      </c>
+      <c r="AR142">
+        <v>1.36</v>
+      </c>
+      <c r="AS142">
+        <v>1.33</v>
+      </c>
+      <c r="AT142">
+        <v>1.25</v>
+      </c>
+      <c r="AU142">
+        <v>1.21</v>
+      </c>
+      <c r="AV142">
+        <v>1.29</v>
+      </c>
+      <c r="AW142">
+        <v>2.5</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>2</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>4</v>
+      </c>
+      <c r="BI142">
+        <v>4</v>
+      </c>
+      <c r="BJ142">
+        <v>6</v>
+      </c>
+      <c r="BK142">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,12 @@
     <t>['72', '89']</t>
   </si>
   <si>
+    <t>['21', '45+2']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -667,9 +673,6 @@
     <t>['32', '44']</t>
   </si>
   <si>
-    <t>['69']</t>
-  </si>
-  <si>
     <t>['22', '90+4']</t>
   </si>
   <si>
@@ -734,6 +737,15 @@
   </si>
   <si>
     <t>['3', '87']</t>
+  </si>
+  <si>
+    <t>['34', '56', '78']</t>
+  </si>
+  <si>
+    <t>['55', '90']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1620,7 +1632,7 @@
         <v>2.17</v>
       </c>
       <c r="AT3">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1721,7 +1733,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1808,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT4">
         <v>1.5</v>
@@ -2103,7 +2115,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2294,7 +2306,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2384,7 +2396,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2485,7 +2497,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2676,7 +2688,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2763,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT9">
         <v>1.42</v>
@@ -2867,7 +2879,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3058,7 +3070,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3148,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3440,7 +3452,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3631,7 +3643,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3721,7 +3733,7 @@
         <v>2.67</v>
       </c>
       <c r="AT14">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3822,7 +3834,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4204,7 +4216,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4291,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT17">
         <v>1.25</v>
@@ -4485,7 +4497,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU18">
         <v>1.41</v>
@@ -4586,7 +4598,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4777,7 +4789,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4864,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -4968,7 +4980,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5159,7 +5171,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5246,10 +5258,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5350,7 +5362,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6201,10 +6213,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6395,7 +6407,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU28">
         <v>1.25</v>
@@ -6496,7 +6508,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6878,7 +6890,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7156,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7260,7 +7272,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7347,7 +7359,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
         <v>1.67</v>
@@ -7451,7 +7463,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7833,7 +7845,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7923,7 +7935,7 @@
         <v>2.17</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU36">
         <v>1.14</v>
@@ -8111,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>1.25</v>
@@ -8406,7 +8418,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8597,7 +8609,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8788,7 +8800,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8979,7 +8991,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9069,7 +9081,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9257,10 +9269,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU43">
         <v>1.73</v>
@@ -9361,7 +9373,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9448,7 +9460,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT44">
         <v>1.42</v>
@@ -9552,7 +9564,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9639,10 +9651,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU45">
         <v>1.06</v>
@@ -9743,7 +9755,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9833,7 +9845,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU46">
         <v>1.81</v>
@@ -9934,7 +9946,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10125,7 +10137,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10507,7 +10519,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10594,7 +10606,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
         <v>1.17</v>
@@ -10698,7 +10710,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10889,7 +10901,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11170,7 +11182,7 @@
         <v>1.42</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU53">
         <v>1.25</v>
@@ -12035,7 +12047,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12125,7 +12137,7 @@
         <v>2.17</v>
       </c>
       <c r="AT58">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU58">
         <v>1.24</v>
@@ -12226,7 +12238,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12313,7 +12325,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT59">
         <v>0.73</v>
@@ -12886,7 +12898,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT62">
         <v>1.25</v>
@@ -13181,7 +13193,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13462,7 +13474,7 @@
         <v>1.67</v>
       </c>
       <c r="AT65">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13563,7 +13575,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13653,7 +13665,7 @@
         <v>1.08</v>
       </c>
       <c r="AT66">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -13754,7 +13766,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13841,7 +13853,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -13945,7 +13957,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14032,7 +14044,7 @@
         <v>1.2</v>
       </c>
       <c r="AS68">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT68">
         <v>1.17</v>
@@ -14327,7 +14339,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14518,7 +14530,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14796,10 +14808,10 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU72">
         <v>1.46</v>
@@ -14900,7 +14912,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15178,10 +15190,10 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT74">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15282,7 +15294,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15473,7 +15485,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15664,7 +15676,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16046,7 +16058,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16136,7 +16148,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU79">
         <v>1.02</v>
@@ -16619,7 +16631,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16897,7 +16909,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17001,7 +17013,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17091,7 +17103,7 @@
         <v>1.42</v>
       </c>
       <c r="AT84">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU84">
         <v>1.4</v>
@@ -17192,7 +17204,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17279,7 +17291,7 @@
         <v>2.17</v>
       </c>
       <c r="AS85">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
         <v>2</v>
@@ -17473,7 +17485,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -18043,7 +18055,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT89">
         <v>0.73</v>
@@ -18428,7 +18440,7 @@
         <v>1.08</v>
       </c>
       <c r="AT91">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU91">
         <v>1.47</v>
@@ -18616,7 +18628,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
         <v>1.42</v>
@@ -19102,7 +19114,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19380,7 +19392,7 @@
         <v>1.57</v>
       </c>
       <c r="AS96">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT96">
         <v>1.25</v>
@@ -19574,7 +19586,7 @@
         <v>1.09</v>
       </c>
       <c r="AT97">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU97">
         <v>1.27</v>
@@ -19866,7 +19878,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19956,7 +19968,7 @@
         <v>1.08</v>
       </c>
       <c r="AT99">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU99">
         <v>1.42</v>
@@ -20057,7 +20069,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20248,7 +20260,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20439,7 +20451,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20526,7 +20538,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT102">
         <v>1.5</v>
@@ -20720,7 +20732,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU103">
         <v>1.34</v>
@@ -20821,7 +20833,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -20908,10 +20920,10 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT104">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU104">
         <v>1.08</v>
@@ -21394,7 +21406,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21863,7 +21875,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT109">
         <v>0.73</v>
@@ -22158,7 +22170,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22349,7 +22361,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22436,7 +22448,7 @@
         <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
         <v>1.25</v>
@@ -22630,7 +22642,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU113">
         <v>1.43</v>
@@ -23304,7 +23316,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23394,7 +23406,7 @@
         <v>1.33</v>
       </c>
       <c r="AT117">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU117">
         <v>1.15</v>
@@ -23495,7 +23507,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23582,7 +23594,7 @@
         <v>2.22</v>
       </c>
       <c r="AS118">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT118">
         <v>2</v>
@@ -23686,7 +23698,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23773,7 +23785,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT119">
         <v>1.67</v>
@@ -23877,7 +23889,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24068,7 +24080,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24158,7 +24170,7 @@
         <v>1.09</v>
       </c>
       <c r="AT121">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU121">
         <v>1.24</v>
@@ -24259,7 +24271,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24346,7 +24358,7 @@
         <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT122">
         <v>1.25</v>
@@ -24540,7 +24552,7 @@
         <v>1.67</v>
       </c>
       <c r="AT123">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU123">
         <v>1.49</v>
@@ -24641,7 +24653,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25110,10 +25122,10 @@
         <v>0.3</v>
       </c>
       <c r="AS126">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT126">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25214,7 +25226,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25405,7 +25417,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25492,10 +25504,10 @@
         <v>0.7</v>
       </c>
       <c r="AS128">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT128">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU128">
         <v>1.09</v>
@@ -25978,7 +25990,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26169,7 +26181,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26360,7 +26372,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26933,7 +26945,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27124,7 +27136,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27214,7 +27226,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU137">
         <v>1.64</v>
@@ -27315,7 +27327,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27506,7 +27518,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27697,7 +27709,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27891,13 +27903,13 @@
         <v>155</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R141">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S141">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T141">
         <v>0</v>
@@ -28014,22 +28026,22 @@
         <v>0</v>
       </c>
       <c r="BF141">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG141">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH141">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI141">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ141">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK141">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:63">
@@ -28082,13 +28094,13 @@
         <v>85</v>
       </c>
       <c r="Q142">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R142">
         <v>4</v>
       </c>
       <c r="S142">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T142">
         <v>0</v>
@@ -28205,22 +28217,595 @@
         <v>0</v>
       </c>
       <c r="BF142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH142">
+        <v>7</v>
+      </c>
+      <c r="BI142">
+        <v>3</v>
+      </c>
+      <c r="BJ142">
+        <v>11</v>
+      </c>
+      <c r="BK142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>6603975</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45123.8125</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143" t="s">
+        <v>65</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>85</v>
+      </c>
+      <c r="P143" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143">
+        <v>3</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <v>4.75</v>
+      </c>
+      <c r="AD143">
+        <v>3.25</v>
+      </c>
+      <c r="AE143">
+        <v>1.75</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>1.75</v>
+      </c>
+      <c r="AK143">
+        <v>1.95</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>0</v>
+      </c>
+      <c r="AO143">
+        <v>0</v>
+      </c>
+      <c r="AP143">
+        <v>0</v>
+      </c>
+      <c r="AQ143">
+        <v>1.45</v>
+      </c>
+      <c r="AR143">
+        <v>2</v>
+      </c>
+      <c r="AS143">
+        <v>1.33</v>
+      </c>
+      <c r="AT143">
+        <v>2.08</v>
+      </c>
+      <c r="AU143">
+        <v>1.28</v>
+      </c>
+      <c r="AV143">
+        <v>1.47</v>
+      </c>
+      <c r="AW143">
+        <v>2.75</v>
+      </c>
+      <c r="AX143">
+        <v>0</v>
+      </c>
+      <c r="AY143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>0</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>0</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
         <v>4</v>
       </c>
-      <c r="BI142">
+      <c r="BG143">
         <v>4</v>
       </c>
-      <c r="BJ142">
+      <c r="BH143">
+        <v>3</v>
+      </c>
+      <c r="BI143">
+        <v>5</v>
+      </c>
+      <c r="BJ143">
+        <v>7</v>
+      </c>
+      <c r="BK143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>6603974</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45124.75</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H144" t="s">
+        <v>74</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>172</v>
+      </c>
+      <c r="P144" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>4</v>
+      </c>
+      <c r="S144">
         <v>6</v>
       </c>
-      <c r="BK142">
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+      <c r="AC144">
+        <v>3.08</v>
+      </c>
+      <c r="AD144">
+        <v>3.1</v>
+      </c>
+      <c r="AE144">
+        <v>2.34</v>
+      </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>2.2</v>
+      </c>
+      <c r="AK144">
+        <v>1.57</v>
+      </c>
+      <c r="AL144">
+        <v>0</v>
+      </c>
+      <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>0</v>
+      </c>
+      <c r="AO144">
+        <v>0</v>
+      </c>
+      <c r="AP144">
+        <v>0</v>
+      </c>
+      <c r="AQ144">
+        <v>0.55</v>
+      </c>
+      <c r="AR144">
+        <v>0.91</v>
+      </c>
+      <c r="AS144">
+        <v>0.58</v>
+      </c>
+      <c r="AT144">
+        <v>0.92</v>
+      </c>
+      <c r="AU144">
+        <v>1.06</v>
+      </c>
+      <c r="AV144">
+        <v>1.32</v>
+      </c>
+      <c r="AW144">
+        <v>2.38</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>0</v>
+      </c>
+      <c r="BC144">
+        <v>0</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>3</v>
+      </c>
+      <c r="BG144">
+        <v>3</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
         <v>4</v>
+      </c>
+      <c r="BJ144">
+        <v>3</v>
+      </c>
+      <c r="BK144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>6603976</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45124.85416666666</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145" t="s">
+        <v>71</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>173</v>
+      </c>
+      <c r="P145" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145">
+        <v>3</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>1.64</v>
+      </c>
+      <c r="AD145">
+        <v>3.74</v>
+      </c>
+      <c r="AE145">
+        <v>5.05</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AK145">
+        <v>1.8</v>
+      </c>
+      <c r="AL145">
+        <v>0</v>
+      </c>
+      <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
+      <c r="AP145">
+        <v>0</v>
+      </c>
+      <c r="AQ145">
+        <v>1.36</v>
+      </c>
+      <c r="AR145">
+        <v>0.5</v>
+      </c>
+      <c r="AS145">
+        <v>1.33</v>
+      </c>
+      <c r="AT145">
+        <v>0.54</v>
+      </c>
+      <c r="AU145">
+        <v>1.5</v>
+      </c>
+      <c r="AV145">
+        <v>1.29</v>
+      </c>
+      <c r="AW145">
+        <v>2.79</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>0</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>0</v>
+      </c>
+      <c r="BG145">
+        <v>2</v>
+      </c>
+      <c r="BH145">
+        <v>7</v>
+      </c>
+      <c r="BI145">
+        <v>1</v>
+      </c>
+      <c r="BJ145">
+        <v>7</v>
+      </c>
+      <c r="BK145">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -28476,13 +28476,13 @@
         <v>242</v>
       </c>
       <c r="Q144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S144">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T144">
         <v>0</v>
@@ -28599,22 +28599,22 @@
         <v>0</v>
       </c>
       <c r="BF144">
+        <v>4</v>
+      </c>
+      <c r="BG144">
+        <v>4</v>
+      </c>
+      <c r="BH144">
         <v>3</v>
       </c>
-      <c r="BG144">
-        <v>3</v>
-      </c>
-      <c r="BH144">
-        <v>0</v>
-      </c>
       <c r="BI144">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ144">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BK144">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:63">
@@ -28667,13 +28667,13 @@
         <v>243</v>
       </c>
       <c r="Q145">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S145">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="T145">
         <v>0</v>
@@ -28796,13 +28796,13 @@
         <v>2</v>
       </c>
       <c r="BH145">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BI145">
         <v>1</v>
       </c>
       <c r="BJ145">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK145">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,18 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['40', '50']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -607,13 +619,7 @@
     <t>['55']</t>
   </si>
   <si>
-    <t>['78']</t>
-  </si>
-  <si>
     <t>['16', '61', '90+10']</t>
-  </si>
-  <si>
-    <t>['26']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -626,9 +632,6 @@
   </si>
   <si>
     <t>['9', '75']</t>
-  </si>
-  <si>
-    <t>['48']</t>
   </si>
   <si>
     <t>['12', '44']</t>
@@ -746,6 +749,18 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['56', '62']</t>
+  </si>
+  <si>
+    <t>['7', '67']</t>
+  </si>
+  <si>
+    <t>['53', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1456,7 @@
         <v>2.67</v>
       </c>
       <c r="AT2">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1629,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0.54</v>
@@ -1733,7 +1748,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1823,7 +1838,7 @@
         <v>0.58</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2014,7 +2029,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2115,7 +2130,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2202,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT6">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2306,7 +2321,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2393,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT7">
         <v>0.92</v>
@@ -2497,7 +2512,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2584,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>1.17</v>
@@ -2688,7 +2703,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2778,7 +2793,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2879,7 +2894,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2966,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>2</v>
@@ -3070,7 +3085,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3348,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3452,7 +3467,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3542,7 +3557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT13">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3643,7 +3658,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3834,7 +3849,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3924,7 +3939,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU15">
         <v>0.85</v>
@@ -4112,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT16">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU16">
         <v>1.26</v>
@@ -4216,7 +4231,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4494,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT18">
         <v>0.54</v>
@@ -4598,7 +4613,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4688,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU19">
         <v>1.16</v>
@@ -4789,7 +4804,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4980,7 +4995,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5067,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>1.25</v>
@@ -5171,7 +5186,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5362,7 +5377,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5449,10 +5464,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU23">
         <v>1.25</v>
@@ -5640,10 +5655,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT24">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU24">
         <v>1.41</v>
@@ -5834,7 +5849,7 @@
         <v>1.08</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU25">
         <v>1.49</v>
@@ -6022,10 +6037,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT26">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU26">
         <v>1.32</v>
@@ -6508,7 +6523,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6786,7 +6801,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT30">
         <v>1.17</v>
@@ -6890,7 +6905,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6977,10 +6992,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7171,7 +7186,7 @@
         <v>0.58</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU32">
         <v>0.79</v>
@@ -7272,7 +7287,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7362,7 +7377,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU33">
         <v>0.92</v>
@@ -7463,7 +7478,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7550,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT34">
         <v>2</v>
@@ -7741,10 +7756,10 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT35">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU35">
         <v>1.35</v>
@@ -7845,7 +7860,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7932,7 +7947,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT36">
         <v>2.08</v>
@@ -8418,7 +8433,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8609,7 +8624,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8699,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -8800,7 +8815,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8991,7 +9006,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9078,7 +9093,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT42">
         <v>0.92</v>
@@ -9373,7 +9388,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9463,7 +9478,7 @@
         <v>0.58</v>
       </c>
       <c r="AT44">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU44">
         <v>0.84</v>
@@ -9564,7 +9579,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9755,7 +9770,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9842,7 +9857,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT46">
         <v>2.08</v>
@@ -9946,7 +9961,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10033,10 +10048,10 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU47">
         <v>1.08</v>
@@ -10137,7 +10152,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10415,10 +10430,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU49">
         <v>1.44</v>
@@ -10519,7 +10534,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10710,7 +10725,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10901,7 +10916,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10988,10 +11003,10 @@
         <v>2.5</v>
       </c>
       <c r="AS52">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT52">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11179,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT53">
         <v>0.54</v>
@@ -11564,7 +11579,7 @@
         <v>2.67</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU55">
         <v>1.81</v>
@@ -11752,10 +11767,10 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU56">
         <v>1.36</v>
@@ -11943,10 +11958,10 @@
         <v>1.6</v>
       </c>
       <c r="AS57">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT57">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU57">
         <v>1.68</v>
@@ -12047,7 +12062,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12134,7 +12149,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT58">
         <v>0.92</v>
@@ -12238,7 +12253,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12328,7 +12343,7 @@
         <v>0.58</v>
       </c>
       <c r="AT59">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU59">
         <v>1</v>
@@ -12710,7 +12725,7 @@
         <v>1.33</v>
       </c>
       <c r="AT61">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU61">
         <v>1.02</v>
@@ -13089,7 +13104,7 @@
         <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT63">
         <v>1.17</v>
@@ -13193,7 +13208,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13471,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT65">
         <v>0.54</v>
@@ -13575,7 +13590,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13766,7 +13781,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13856,7 +13871,7 @@
         <v>1.33</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU67">
         <v>1.59</v>
@@ -13957,7 +13972,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14235,7 +14250,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT69">
         <v>1.25</v>
@@ -14339,7 +14354,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14426,7 +14441,7 @@
         <v>1.4</v>
       </c>
       <c r="AS70">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT70">
         <v>1.25</v>
@@ -14530,7 +14545,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14912,7 +14927,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15002,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU73">
         <v>1.41</v>
@@ -15294,7 +15309,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15381,10 +15396,10 @@
         <v>1.83</v>
       </c>
       <c r="AS75">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT75">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -15485,7 +15500,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15572,7 +15587,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT76">
         <v>1.25</v>
@@ -15676,7 +15691,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15766,7 +15781,7 @@
         <v>1.08</v>
       </c>
       <c r="AT77">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU77">
         <v>1.33</v>
@@ -15957,7 +15972,7 @@
         <v>2.67</v>
       </c>
       <c r="AT78">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU78">
         <v>1.9</v>
@@ -16058,7 +16073,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16336,7 +16351,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT80">
         <v>1.17</v>
@@ -16530,7 +16545,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU81">
         <v>1.43</v>
@@ -16631,7 +16646,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16718,7 +16733,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT82">
         <v>1.25</v>
@@ -16912,7 +16927,7 @@
         <v>1.33</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU83">
         <v>1.36</v>
@@ -17013,7 +17028,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17100,7 +17115,7 @@
         <v>2.17</v>
       </c>
       <c r="AS84">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT84">
         <v>2.08</v>
@@ -17204,7 +17219,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17673,7 +17688,7 @@
         <v>1.43</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT87">
         <v>1.25</v>
@@ -17864,7 +17879,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT88">
         <v>1.17</v>
@@ -18058,7 +18073,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU89">
         <v>1.37</v>
@@ -18249,7 +18264,7 @@
         <v>2.67</v>
       </c>
       <c r="AT90">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU90">
         <v>1.83</v>
@@ -18631,7 +18646,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU92">
         <v>1.44</v>
@@ -18819,10 +18834,10 @@
         <v>1.71</v>
       </c>
       <c r="AS93">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT93">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU93">
         <v>1.42</v>
@@ -19010,10 +19025,10 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT94">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU94">
         <v>1.26</v>
@@ -19114,7 +19129,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19583,7 +19598,7 @@
         <v>2.29</v>
       </c>
       <c r="AS97">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>2.08</v>
@@ -19878,7 +19893,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20260,7 +20275,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20347,7 +20362,7 @@
         <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT101">
         <v>1.25</v>
@@ -20451,7 +20466,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20541,7 +20556,7 @@
         <v>1.33</v>
       </c>
       <c r="AT102">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20833,7 +20848,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21111,10 +21126,10 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT105">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU105">
         <v>1.66</v>
@@ -21302,7 +21317,7 @@
         <v>2.38</v>
       </c>
       <c r="AS106">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT106">
         <v>2</v>
@@ -21406,7 +21421,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21493,10 +21508,10 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT107">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -21684,10 +21699,10 @@
         <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT108">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU108">
         <v>1.28</v>
@@ -21878,7 +21893,7 @@
         <v>1.33</v>
       </c>
       <c r="AT109">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU109">
         <v>1.43</v>
@@ -22170,7 +22185,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22257,10 +22272,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS111">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU111">
         <v>1.4</v>
@@ -22361,7 +22376,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -23021,10 +23036,10 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT115">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU115">
         <v>1.4</v>
@@ -23212,10 +23227,10 @@
         <v>0.89</v>
       </c>
       <c r="AS116">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT116">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23316,7 +23331,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23507,7 +23522,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23698,7 +23713,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23788,7 +23803,7 @@
         <v>0.58</v>
       </c>
       <c r="AT119">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU119">
         <v>1.07</v>
@@ -23889,7 +23904,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -23976,10 +23991,10 @@
         <v>1.44</v>
       </c>
       <c r="AS120">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT120">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU120">
         <v>1.68</v>
@@ -24080,7 +24095,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24167,7 +24182,7 @@
         <v>0.78</v>
       </c>
       <c r="AS121">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT121">
         <v>0.92</v>
@@ -24271,7 +24286,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24549,7 +24564,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT123">
         <v>2.08</v>
@@ -24653,7 +24668,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24740,7 +24755,7 @@
         <v>1.4</v>
       </c>
       <c r="AS124">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT124">
         <v>1.25</v>
@@ -24934,7 +24949,7 @@
         <v>1.08</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU125">
         <v>1.49</v>
@@ -25226,7 +25241,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25417,7 +25432,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25698,7 +25713,7 @@
         <v>2.67</v>
       </c>
       <c r="AT129">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU129">
         <v>1.75</v>
@@ -25889,7 +25904,7 @@
         <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU130">
         <v>1.19</v>
@@ -25990,7 +26005,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26077,10 +26092,10 @@
         <v>1.8</v>
       </c>
       <c r="AS131">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT131">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26181,7 +26196,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26268,7 +26283,7 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT132">
         <v>2</v>
@@ -26372,7 +26387,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26459,10 +26474,10 @@
         <v>0.8</v>
       </c>
       <c r="AS133">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT133">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>1.68</v>
@@ -26653,7 +26668,7 @@
         <v>1</v>
       </c>
       <c r="AT134">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU134">
         <v>1.53</v>
@@ -26844,7 +26859,7 @@
         <v>2.67</v>
       </c>
       <c r="AT135">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU135">
         <v>1.71</v>
@@ -26945,7 +26960,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27032,10 +27047,10 @@
         <v>1.55</v>
       </c>
       <c r="AS136">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT136">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU136">
         <v>1.34</v>
@@ -27136,7 +27151,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27223,7 +27238,7 @@
         <v>0.27</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT137">
         <v>0.54</v>
@@ -27327,7 +27342,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27414,10 +27429,10 @@
         <v>1.55</v>
       </c>
       <c r="AS138">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT138">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27518,7 +27533,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27605,7 +27620,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT139">
         <v>1.17</v>
@@ -27709,7 +27724,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28282,7 +28297,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28473,7 +28488,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28664,7 +28679,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28806,6 +28821,961 @@
       </c>
       <c r="BK145">
         <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6603978</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45128.83333333334</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>85</v>
+      </c>
+      <c r="P146" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>4</v>
+      </c>
+      <c r="S146">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>2.8</v>
+      </c>
+      <c r="AD146">
+        <v>3.1</v>
+      </c>
+      <c r="AE146">
+        <v>2.2</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>0</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>2.02</v>
+      </c>
+      <c r="AK146">
+        <v>1.78</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>0</v>
+      </c>
+      <c r="AO146">
+        <v>0</v>
+      </c>
+      <c r="AP146">
+        <v>0</v>
+      </c>
+      <c r="AQ146">
+        <v>1.09</v>
+      </c>
+      <c r="AR146">
+        <v>1.67</v>
+      </c>
+      <c r="AS146">
+        <v>1</v>
+      </c>
+      <c r="AT146">
+        <v>1.77</v>
+      </c>
+      <c r="AU146">
+        <v>1.15</v>
+      </c>
+      <c r="AV146">
+        <v>1.17</v>
+      </c>
+      <c r="AW146">
+        <v>2.32</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>0</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>4</v>
+      </c>
+      <c r="BG146">
+        <v>4</v>
+      </c>
+      <c r="BH146">
+        <v>2</v>
+      </c>
+      <c r="BI146">
+        <v>4</v>
+      </c>
+      <c r="BJ146">
+        <v>6</v>
+      </c>
+      <c r="BK146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>6603982</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45129.70833333334</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>66</v>
+      </c>
+      <c r="H147" t="s">
+        <v>73</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>174</v>
+      </c>
+      <c r="P147" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q147">
+        <v>8</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>10</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>1.66</v>
+      </c>
+      <c r="AD147">
+        <v>3.65</v>
+      </c>
+      <c r="AE147">
+        <v>4.9</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>1.82</v>
+      </c>
+      <c r="AK147">
+        <v>1.96</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>0</v>
+      </c>
+      <c r="AO147">
+        <v>0</v>
+      </c>
+      <c r="AP147">
+        <v>0</v>
+      </c>
+      <c r="AQ147">
+        <v>2.17</v>
+      </c>
+      <c r="AR147">
+        <v>0.73</v>
+      </c>
+      <c r="AS147">
+        <v>2</v>
+      </c>
+      <c r="AT147">
+        <v>0.92</v>
+      </c>
+      <c r="AU147">
+        <v>1.37</v>
+      </c>
+      <c r="AV147">
+        <v>1.28</v>
+      </c>
+      <c r="AW147">
+        <v>2.65</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>0</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>6</v>
+      </c>
+      <c r="BG147">
+        <v>4</v>
+      </c>
+      <c r="BH147">
+        <v>8</v>
+      </c>
+      <c r="BI147">
+        <v>9</v>
+      </c>
+      <c r="BJ147">
+        <v>14</v>
+      </c>
+      <c r="BK147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>6603981</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45129.8125</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>69</v>
+      </c>
+      <c r="H148" t="s">
+        <v>68</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>175</v>
+      </c>
+      <c r="P148" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q148">
+        <v>12</v>
+      </c>
+      <c r="R148">
+        <v>3</v>
+      </c>
+      <c r="S148">
+        <v>15</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>1.46</v>
+      </c>
+      <c r="AD148">
+        <v>4.05</v>
+      </c>
+      <c r="AE148">
+        <v>5.3</v>
+      </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>0</v>
+      </c>
+      <c r="AH148">
+        <v>0</v>
+      </c>
+      <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
+        <v>1.75</v>
+      </c>
+      <c r="AK148">
+        <v>2.01</v>
+      </c>
+      <c r="AL148">
+        <v>0</v>
+      </c>
+      <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>0</v>
+      </c>
+      <c r="AO148">
+        <v>0</v>
+      </c>
+      <c r="AP148">
+        <v>0</v>
+      </c>
+      <c r="AQ148">
+        <v>1.67</v>
+      </c>
+      <c r="AR148">
+        <v>1</v>
+      </c>
+      <c r="AS148">
+        <v>1.77</v>
+      </c>
+      <c r="AT148">
+        <v>0.92</v>
+      </c>
+      <c r="AU148">
+        <v>1.58</v>
+      </c>
+      <c r="AV148">
+        <v>1.25</v>
+      </c>
+      <c r="AW148">
+        <v>2.83</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>0</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>9</v>
+      </c>
+      <c r="BG148">
+        <v>4</v>
+      </c>
+      <c r="BH148">
+        <v>5</v>
+      </c>
+      <c r="BI148">
+        <v>1</v>
+      </c>
+      <c r="BJ148">
+        <v>14</v>
+      </c>
+      <c r="BK148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>6603980</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45130.70833333334</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>74</v>
+      </c>
+      <c r="H149" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>176</v>
+      </c>
+      <c r="P149" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149">
+        <v>9</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+      <c r="AC149">
+        <v>2.3</v>
+      </c>
+      <c r="AD149">
+        <v>3.1</v>
+      </c>
+      <c r="AE149">
+        <v>2.8</v>
+      </c>
+      <c r="AF149">
+        <v>0</v>
+      </c>
+      <c r="AG149">
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <v>0</v>
+      </c>
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>1.83</v>
+      </c>
+      <c r="AK149">
+        <v>1.8</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>0</v>
+      </c>
+      <c r="AO149">
+        <v>0</v>
+      </c>
+      <c r="AP149">
+        <v>0</v>
+      </c>
+      <c r="AQ149">
+        <v>1.42</v>
+      </c>
+      <c r="AR149">
+        <v>1.42</v>
+      </c>
+      <c r="AS149">
+        <v>1.31</v>
+      </c>
+      <c r="AT149">
+        <v>1.54</v>
+      </c>
+      <c r="AU149">
+        <v>1.52</v>
+      </c>
+      <c r="AV149">
+        <v>1.34</v>
+      </c>
+      <c r="AW149">
+        <v>2.86</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>0</v>
+      </c>
+      <c r="AZ149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>0</v>
+      </c>
+      <c r="BC149">
+        <v>0</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>5</v>
+      </c>
+      <c r="BG149">
+        <v>4</v>
+      </c>
+      <c r="BH149">
+        <v>4</v>
+      </c>
+      <c r="BI149">
+        <v>7</v>
+      </c>
+      <c r="BJ149">
+        <v>9</v>
+      </c>
+      <c r="BK149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>6603977</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45130.8125</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>177</v>
+      </c>
+      <c r="P150" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q150">
+        <v>5</v>
+      </c>
+      <c r="R150">
+        <v>6</v>
+      </c>
+      <c r="S150">
+        <v>11</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>1.83</v>
+      </c>
+      <c r="AD150">
+        <v>3.1</v>
+      </c>
+      <c r="AE150">
+        <v>3.9</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>2.05</v>
+      </c>
+      <c r="AK150">
+        <v>1.61</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>0</v>
+      </c>
+      <c r="AO150">
+        <v>0</v>
+      </c>
+      <c r="AP150">
+        <v>0</v>
+      </c>
+      <c r="AQ150">
+        <v>1.33</v>
+      </c>
+      <c r="AR150">
+        <v>1.5</v>
+      </c>
+      <c r="AS150">
+        <v>1.23</v>
+      </c>
+      <c r="AT150">
+        <v>1.62</v>
+      </c>
+      <c r="AU150">
+        <v>1.66</v>
+      </c>
+      <c r="AV150">
+        <v>1.16</v>
+      </c>
+      <c r="AW150">
+        <v>2.82</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>2</v>
+      </c>
+      <c r="BG150">
+        <v>3</v>
+      </c>
+      <c r="BH150">
+        <v>5</v>
+      </c>
+      <c r="BI150">
+        <v>7</v>
+      </c>
+      <c r="BJ150">
+        <v>7</v>
+      </c>
+      <c r="BK150">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,9 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['42', '54', '59', '86']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -761,6 +764,9 @@
   </si>
   <si>
     <t>['53', '90+2']</t>
+  </si>
+  <si>
+    <t>['14', '47', '53']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT2">
         <v>1.77</v>
@@ -1748,7 +1754,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2130,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2321,7 +2327,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2512,7 +2518,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2602,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2703,7 +2709,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2894,7 +2900,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3085,7 +3091,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3467,7 +3473,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3658,7 +3664,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3745,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT14">
         <v>0.92</v>
@@ -3849,7 +3855,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4231,7 +4237,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4613,7 +4619,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4804,7 +4810,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4995,7 +5001,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5186,7 +5192,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5377,7 +5383,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6419,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT28">
         <v>0.54</v>
@@ -6523,7 +6529,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6804,7 +6810,7 @@
         <v>1.23</v>
       </c>
       <c r="AT30">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU30">
         <v>1.8</v>
@@ -6905,7 +6911,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7287,7 +7293,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7478,7 +7484,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7860,7 +7866,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8329,10 +8335,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT38">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU38">
         <v>1.61</v>
@@ -8433,7 +8439,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8624,7 +8630,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9006,7 +9012,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9579,7 +9585,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9770,7 +9776,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9961,7 +9967,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10152,7 +10158,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10534,7 +10540,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10624,7 +10630,7 @@
         <v>1.33</v>
       </c>
       <c r="AT50">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10725,7 +10731,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11576,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT55">
         <v>0.92</v>
@@ -12062,7 +12068,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12253,7 +12259,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12531,7 +12537,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT60">
         <v>2</v>
@@ -13107,7 +13113,7 @@
         <v>1.31</v>
       </c>
       <c r="AT63">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU63">
         <v>1.27</v>
@@ -13208,7 +13214,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13590,7 +13596,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13781,7 +13787,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13972,7 +13978,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14062,7 +14068,7 @@
         <v>1.33</v>
       </c>
       <c r="AT68">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14354,7 +14360,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14545,7 +14551,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14927,7 +14933,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15500,7 +15506,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15691,7 +15697,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15969,7 +15975,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT78">
         <v>0.92</v>
@@ -16073,7 +16079,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16354,7 +16360,7 @@
         <v>2</v>
       </c>
       <c r="AT80">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU80">
         <v>1.21</v>
@@ -16646,7 +16652,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17028,7 +17034,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17219,7 +17225,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17882,7 +17888,7 @@
         <v>1.77</v>
       </c>
       <c r="AT88">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU88">
         <v>1.41</v>
@@ -18261,7 +18267,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT90">
         <v>1.62</v>
@@ -19129,7 +19135,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19792,7 +19798,7 @@
         <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU98">
         <v>1.13</v>
@@ -20171,7 +20177,7 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT100">
         <v>1.25</v>
@@ -20275,7 +20281,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20466,7 +20472,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20848,7 +20854,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21421,7 +21427,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22081,7 +22087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT110">
         <v>1.25</v>
@@ -22185,7 +22191,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22376,7 +22382,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22848,7 +22854,7 @@
         <v>1.08</v>
       </c>
       <c r="AT114">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -23331,7 +23337,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23522,7 +23528,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23713,7 +23719,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23904,7 +23910,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24095,7 +24101,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24286,7 +24292,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24668,7 +24674,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25241,7 +25247,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25331,7 +25337,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25432,7 +25438,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25710,7 +25716,7 @@
         <v>1.6</v>
       </c>
       <c r="AS129">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT129">
         <v>1.54</v>
@@ -26005,7 +26011,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26196,7 +26202,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26387,7 +26393,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26856,7 +26862,7 @@
         <v>1.64</v>
       </c>
       <c r="AS135">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT135">
         <v>1.62</v>
@@ -26960,7 +26966,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27151,7 +27157,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27342,7 +27348,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27533,7 +27539,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27623,7 +27629,7 @@
         <v>1.77</v>
       </c>
       <c r="AT139">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -27724,7 +27730,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28297,7 +28303,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28488,7 +28494,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28679,7 +28685,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28870,7 +28876,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29061,7 +29067,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29443,7 +29449,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29634,7 +29640,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29775,6 +29781,197 @@
         <v>7</v>
       </c>
       <c r="BK150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>6603979</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45131.83333333334</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>65</v>
+      </c>
+      <c r="H151" t="s">
+        <v>67</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>7</v>
+      </c>
+      <c r="O151" t="s">
+        <v>178</v>
+      </c>
+      <c r="P151" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q151">
+        <v>9</v>
+      </c>
+      <c r="R151">
+        <v>3</v>
+      </c>
+      <c r="S151">
+        <v>12</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <v>1.25</v>
+      </c>
+      <c r="AD151">
+        <v>5.75</v>
+      </c>
+      <c r="AE151">
+        <v>9</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
+      <c r="AH151">
+        <v>0</v>
+      </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
+        <v>1.62</v>
+      </c>
+      <c r="AK151">
+        <v>2.23</v>
+      </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>0</v>
+      </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
+      <c r="AP151">
+        <v>0</v>
+      </c>
+      <c r="AQ151">
+        <v>2.67</v>
+      </c>
+      <c r="AR151">
+        <v>1.17</v>
+      </c>
+      <c r="AS151">
+        <v>2.69</v>
+      </c>
+      <c r="AT151">
+        <v>1.08</v>
+      </c>
+      <c r="AU151">
+        <v>1.73</v>
+      </c>
+      <c r="AV151">
+        <v>1.14</v>
+      </c>
+      <c r="AW151">
+        <v>2.87</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>3</v>
+      </c>
+      <c r="BG151">
+        <v>4</v>
+      </c>
+      <c r="BH151">
+        <v>2</v>
+      </c>
+      <c r="BI151">
+        <v>6</v>
+      </c>
+      <c r="BJ151">
+        <v>5</v>
+      </c>
+      <c r="BK151">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,13 +553,16 @@
     <t>['42', '54', '59', '86']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
     <t>['11']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
   <si>
     <t>['12', '71']</t>
@@ -767,6 +770,18 @@
   </si>
   <si>
     <t>['14', '47', '53']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['56', '67']</t>
+  </si>
+  <si>
+    <t>['36', '83']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT3">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1754,7 +1769,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1841,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT4">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2032,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT5">
         <v>0.92</v>
@@ -2136,7 +2151,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2327,7 +2342,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2417,7 +2432,7 @@
         <v>1.23</v>
       </c>
       <c r="AT7">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2518,7 +2533,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2709,7 +2724,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2796,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT9">
         <v>1.54</v>
@@ -2900,7 +2915,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2987,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU10">
         <v>1.03</v>
@@ -3091,7 +3106,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3178,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT11">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3473,7 +3488,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3560,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT13">
         <v>0.92</v>
@@ -3664,7 +3679,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3754,7 +3769,7 @@
         <v>2.69</v>
       </c>
       <c r="AT14">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3855,7 +3870,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3942,10 +3957,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT15">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU15">
         <v>0.85</v>
@@ -4237,7 +4252,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4324,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT17">
         <v>1.25</v>
@@ -4518,7 +4533,7 @@
         <v>1.23</v>
       </c>
       <c r="AT18">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU18">
         <v>1.41</v>
@@ -4619,7 +4634,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4706,7 +4721,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT19">
         <v>1.77</v>
@@ -4810,7 +4825,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4897,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU20">
         <v>0.8</v>
@@ -5001,7 +5016,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5088,10 +5103,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT21">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU21">
         <v>1.16</v>
@@ -5192,7 +5207,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5282,7 +5297,7 @@
         <v>1.33</v>
       </c>
       <c r="AT22">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5383,7 +5398,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5852,10 +5867,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT25">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU25">
         <v>1.49</v>
@@ -6234,10 +6249,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT27">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6428,7 +6443,7 @@
         <v>2.69</v>
       </c>
       <c r="AT28">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU28">
         <v>1.25</v>
@@ -6529,7 +6544,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6616,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT29">
         <v>1.25</v>
@@ -6911,7 +6926,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7189,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT32">
         <v>0.92</v>
@@ -7293,7 +7308,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7484,7 +7499,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7574,7 +7589,7 @@
         <v>1.23</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU34">
         <v>1.92</v>
@@ -7866,7 +7881,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7953,10 +7968,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT36">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU36">
         <v>1.14</v>
@@ -8147,7 +8162,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8439,7 +8454,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8526,10 +8541,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT39">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU39">
         <v>1.14</v>
@@ -8630,7 +8645,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8717,10 +8732,10 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT40">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -8908,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT41">
         <v>1.25</v>
@@ -9012,7 +9027,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9102,7 +9117,7 @@
         <v>1.77</v>
       </c>
       <c r="AT42">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9290,10 +9305,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT43">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU43">
         <v>1.73</v>
@@ -9481,7 +9496,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT44">
         <v>1.54</v>
@@ -9585,7 +9600,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9675,7 +9690,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU45">
         <v>1.06</v>
@@ -9776,7 +9791,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9866,7 +9881,7 @@
         <v>1.23</v>
       </c>
       <c r="AT46">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU46">
         <v>1.81</v>
@@ -9967,7 +9982,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10054,7 +10069,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT47">
         <v>1.77</v>
@@ -10158,7 +10173,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10245,10 +10260,10 @@
         <v>2.33</v>
       </c>
       <c r="AS48">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU48">
         <v>1.06</v>
@@ -10540,7 +10555,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10627,7 +10642,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT50">
         <v>1.08</v>
@@ -10731,7 +10746,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10818,10 +10833,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU51">
         <v>1.46</v>
@@ -11012,7 +11027,7 @@
         <v>1.77</v>
       </c>
       <c r="AT52">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11203,7 +11218,7 @@
         <v>1.31</v>
       </c>
       <c r="AT53">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU53">
         <v>1.25</v>
@@ -11391,7 +11406,7 @@
         <v>1.33</v>
       </c>
       <c r="AS54">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT54">
         <v>1.25</v>
@@ -11776,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU56">
         <v>1.36</v>
@@ -12068,7 +12083,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12155,10 +12170,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT58">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU58">
         <v>1.24</v>
@@ -12259,7 +12274,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12346,7 +12361,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT59">
         <v>0.92</v>
@@ -12540,7 +12555,7 @@
         <v>2.69</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU60">
         <v>1.98</v>
@@ -12728,7 +12743,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT61">
         <v>1.54</v>
@@ -13214,7 +13229,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13301,10 +13316,10 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT64">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13495,7 +13510,7 @@
         <v>1.77</v>
       </c>
       <c r="AT65">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13596,7 +13611,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13683,10 +13698,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -13787,7 +13802,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13874,7 +13889,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT67">
         <v>0.92</v>
@@ -13978,7 +13993,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14259,7 +14274,7 @@
         <v>1.31</v>
       </c>
       <c r="AT69">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU69">
         <v>1.46</v>
@@ -14360,7 +14375,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14551,7 +14566,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14638,10 +14653,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU71">
         <v>1.27</v>
@@ -14829,10 +14844,10 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT72">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU72">
         <v>1.46</v>
@@ -14933,7 +14948,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15020,7 +15035,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT73">
         <v>0.92</v>
@@ -15211,10 +15226,10 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT74">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15405,7 +15420,7 @@
         <v>1.23</v>
       </c>
       <c r="AT75">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -15506,7 +15521,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15697,7 +15712,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15784,7 +15799,7 @@
         <v>1.83</v>
       </c>
       <c r="AS77">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT77">
         <v>1.77</v>
@@ -16079,7 +16094,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16166,10 +16181,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT79">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU79">
         <v>1.02</v>
@@ -16357,7 +16372,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT80">
         <v>1.08</v>
@@ -16548,7 +16563,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT81">
         <v>1.54</v>
@@ -16652,7 +16667,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16742,7 +16757,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU82">
         <v>1.26</v>
@@ -17034,7 +17049,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17124,7 +17139,7 @@
         <v>1.31</v>
       </c>
       <c r="AT84">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU84">
         <v>1.4</v>
@@ -17225,7 +17240,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17312,10 +17327,10 @@
         <v>2.17</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT85">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU85">
         <v>1.37</v>
@@ -17503,10 +17518,10 @@
         <v>0.43</v>
       </c>
       <c r="AS86">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT86">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -18076,7 +18091,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT89">
         <v>0.92</v>
@@ -18270,7 +18285,7 @@
         <v>2.69</v>
       </c>
       <c r="AT90">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU90">
         <v>1.83</v>
@@ -18458,10 +18473,10 @@
         <v>0.86</v>
       </c>
       <c r="AS91">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT91">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU91">
         <v>1.47</v>
@@ -19031,7 +19046,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT94">
         <v>0.92</v>
@@ -19135,7 +19150,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19222,10 +19237,10 @@
         <v>2.29</v>
       </c>
       <c r="AS95">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT95">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU95">
         <v>1.38</v>
@@ -19413,10 +19428,10 @@
         <v>1.57</v>
       </c>
       <c r="AS96">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT96">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU96">
         <v>1.12</v>
@@ -19607,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU97">
         <v>1.27</v>
@@ -19795,7 +19810,7 @@
         <v>0.88</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT98">
         <v>1.08</v>
@@ -19986,10 +20001,10 @@
         <v>0.38</v>
       </c>
       <c r="AS99">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT99">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU99">
         <v>1.42</v>
@@ -20281,7 +20296,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20371,7 +20386,7 @@
         <v>1.77</v>
       </c>
       <c r="AT101">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU101">
         <v>1.45</v>
@@ -20472,7 +20487,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20559,10 +20574,10 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT102">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20750,10 +20765,10 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT103">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU103">
         <v>1.34</v>
@@ -20854,7 +20869,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -20941,10 +20956,10 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT104">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU104">
         <v>1.08</v>
@@ -21326,7 +21341,7 @@
         <v>1.31</v>
       </c>
       <c r="AT106">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21427,7 +21442,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21705,7 +21720,7 @@
         <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT108">
         <v>1.54</v>
@@ -22090,7 +22105,7 @@
         <v>2.69</v>
       </c>
       <c r="AT110">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU110">
         <v>1.8</v>
@@ -22191,7 +22206,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22382,7 +22397,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22469,7 +22484,7 @@
         <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT112">
         <v>1.25</v>
@@ -22660,10 +22675,10 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT113">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU113">
         <v>1.43</v>
@@ -22851,7 +22866,7 @@
         <v>0.78</v>
       </c>
       <c r="AS114">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT114">
         <v>1.08</v>
@@ -23045,7 +23060,7 @@
         <v>1.31</v>
       </c>
       <c r="AT115">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU115">
         <v>1.4</v>
@@ -23233,7 +23248,7 @@
         <v>0.89</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT116">
         <v>0.92</v>
@@ -23337,7 +23352,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23424,10 +23439,10 @@
         <v>2.11</v>
       </c>
       <c r="AS117">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT117">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU117">
         <v>1.15</v>
@@ -23528,7 +23543,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23618,7 +23633,7 @@
         <v>1.33</v>
       </c>
       <c r="AT118">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU118">
         <v>1.5</v>
@@ -23719,7 +23734,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23806,7 +23821,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT119">
         <v>1.77</v>
@@ -23910,7 +23925,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24101,7 +24116,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24191,7 +24206,7 @@
         <v>1</v>
       </c>
       <c r="AT121">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU121">
         <v>1.24</v>
@@ -24292,7 +24307,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24379,10 +24394,10 @@
         <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT122">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU122">
         <v>1.28</v>
@@ -24573,7 +24588,7 @@
         <v>1.77</v>
       </c>
       <c r="AT123">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU123">
         <v>1.49</v>
@@ -24674,7 +24689,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24952,7 +24967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT125">
         <v>0.92</v>
@@ -25146,7 +25161,7 @@
         <v>1.33</v>
       </c>
       <c r="AT126">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25247,7 +25262,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25334,7 +25349,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT127">
         <v>1.08</v>
@@ -25438,7 +25453,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25525,10 +25540,10 @@
         <v>0.7</v>
       </c>
       <c r="AS128">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT128">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU128">
         <v>1.09</v>
@@ -25907,7 +25922,7 @@
         <v>1.6</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT130">
         <v>1.77</v>
@@ -26011,7 +26026,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26098,10 +26113,10 @@
         <v>1.8</v>
       </c>
       <c r="AS131">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT131">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26202,7 +26217,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26292,7 +26307,7 @@
         <v>1</v>
       </c>
       <c r="AT132">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU132">
         <v>1.19</v>
@@ -26393,7 +26408,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26671,7 +26686,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT134">
         <v>0.92</v>
@@ -26865,7 +26880,7 @@
         <v>2.69</v>
       </c>
       <c r="AT135">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU135">
         <v>1.71</v>
@@ -26966,7 +26981,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27053,7 +27068,7 @@
         <v>1.55</v>
       </c>
       <c r="AS136">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT136">
         <v>1.54</v>
@@ -27157,7 +27172,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27247,7 +27262,7 @@
         <v>1.23</v>
       </c>
       <c r="AT137">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU137">
         <v>1.64</v>
@@ -27348,7 +27363,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27539,7 +27554,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27730,7 +27745,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27817,10 +27832,10 @@
         <v>1.36</v>
       </c>
       <c r="AS140">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT140">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU140">
         <v>1.52</v>
@@ -28008,10 +28023,10 @@
         <v>1.91</v>
       </c>
       <c r="AS141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT141">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU141">
         <v>1.52</v>
@@ -28199,7 +28214,7 @@
         <v>1.36</v>
       </c>
       <c r="AS142">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT142">
         <v>1.25</v>
@@ -28303,7 +28318,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28390,10 +28405,10 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT143">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU143">
         <v>1.28</v>
@@ -28494,7 +28509,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28581,10 +28596,10 @@
         <v>0.91</v>
       </c>
       <c r="AS144">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AT144">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU144">
         <v>1.06</v>
@@ -28685,7 +28700,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28775,7 +28790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU145">
         <v>1.5</v>
@@ -28876,7 +28891,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29067,7 +29082,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29154,7 +29169,7 @@
         <v>0.73</v>
       </c>
       <c r="AS147">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT147">
         <v>0.92</v>
@@ -29449,7 +29464,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29640,7 +29655,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29730,7 +29745,7 @@
         <v>1.23</v>
       </c>
       <c r="AT150">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU150">
         <v>1.66</v>
@@ -29831,7 +29846,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -29973,6 +29988,1152 @@
       </c>
       <c r="BK151">
         <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6603985</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45135.75</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>68</v>
+      </c>
+      <c r="H152" t="s">
+        <v>74</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>81</v>
+      </c>
+      <c r="P152" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q152">
+        <v>2</v>
+      </c>
+      <c r="R152">
+        <v>9</v>
+      </c>
+      <c r="S152">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <v>2.62</v>
+      </c>
+      <c r="AD152">
+        <v>3.35</v>
+      </c>
+      <c r="AE152">
+        <v>2.28</v>
+      </c>
+      <c r="AF152">
+        <v>0</v>
+      </c>
+      <c r="AG152">
+        <v>0</v>
+      </c>
+      <c r="AH152">
+        <v>0</v>
+      </c>
+      <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152">
+        <v>1.95</v>
+      </c>
+      <c r="AK152">
+        <v>1.85</v>
+      </c>
+      <c r="AL152">
+        <v>0</v>
+      </c>
+      <c r="AM152">
+        <v>0</v>
+      </c>
+      <c r="AN152">
+        <v>0</v>
+      </c>
+      <c r="AO152">
+        <v>0</v>
+      </c>
+      <c r="AP152">
+        <v>0</v>
+      </c>
+      <c r="AQ152">
+        <v>1.33</v>
+      </c>
+      <c r="AR152">
+        <v>0.92</v>
+      </c>
+      <c r="AS152">
+        <v>1.46</v>
+      </c>
+      <c r="AT152">
+        <v>0.85</v>
+      </c>
+      <c r="AU152">
+        <v>1.22</v>
+      </c>
+      <c r="AV152">
+        <v>1.33</v>
+      </c>
+      <c r="AW152">
+        <v>2.55</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>0</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>4</v>
+      </c>
+      <c r="BG152">
+        <v>3</v>
+      </c>
+      <c r="BH152">
+        <v>5</v>
+      </c>
+      <c r="BI152">
+        <v>4</v>
+      </c>
+      <c r="BJ152">
+        <v>9</v>
+      </c>
+      <c r="BK152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>6603988</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45135.85416666666</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>72</v>
+      </c>
+      <c r="H153" t="s">
+        <v>76</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>179</v>
+      </c>
+      <c r="P153" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q153">
+        <v>8</v>
+      </c>
+      <c r="R153">
+        <v>5</v>
+      </c>
+      <c r="S153">
+        <v>13</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+      <c r="AB153">
+        <v>0</v>
+      </c>
+      <c r="AC153">
+        <v>2.71</v>
+      </c>
+      <c r="AD153">
+        <v>3.1</v>
+      </c>
+      <c r="AE153">
+        <v>2.32</v>
+      </c>
+      <c r="AF153">
+        <v>0</v>
+      </c>
+      <c r="AG153">
+        <v>0</v>
+      </c>
+      <c r="AH153">
+        <v>0</v>
+      </c>
+      <c r="AI153">
+        <v>0</v>
+      </c>
+      <c r="AJ153">
+        <v>2.3</v>
+      </c>
+      <c r="AK153">
+        <v>1.56</v>
+      </c>
+      <c r="AL153">
+        <v>0</v>
+      </c>
+      <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>0</v>
+      </c>
+      <c r="AO153">
+        <v>0</v>
+      </c>
+      <c r="AP153">
+        <v>0</v>
+      </c>
+      <c r="AQ153">
+        <v>1.33</v>
+      </c>
+      <c r="AR153">
+        <v>1.62</v>
+      </c>
+      <c r="AS153">
+        <v>1.31</v>
+      </c>
+      <c r="AT153">
+        <v>1.57</v>
+      </c>
+      <c r="AU153">
+        <v>1.26</v>
+      </c>
+      <c r="AV153">
+        <v>1.17</v>
+      </c>
+      <c r="AW153">
+        <v>2.43</v>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153">
+        <v>0</v>
+      </c>
+      <c r="AZ153">
+        <v>0</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>0</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>5</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>7</v>
+      </c>
+      <c r="BI153">
+        <v>2</v>
+      </c>
+      <c r="BJ153">
+        <v>12</v>
+      </c>
+      <c r="BK153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>6603983</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45136.72916666666</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>66</v>
+      </c>
+      <c r="H154" t="s">
+        <v>70</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>180</v>
+      </c>
+      <c r="P154" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+      <c r="AB154">
+        <v>0</v>
+      </c>
+      <c r="AC154">
+        <v>3.25</v>
+      </c>
+      <c r="AD154">
+        <v>3.6</v>
+      </c>
+      <c r="AE154">
+        <v>1.95</v>
+      </c>
+      <c r="AF154">
+        <v>0</v>
+      </c>
+      <c r="AG154">
+        <v>0</v>
+      </c>
+      <c r="AH154">
+        <v>0</v>
+      </c>
+      <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154">
+        <v>1.67</v>
+      </c>
+      <c r="AK154">
+        <v>1.96</v>
+      </c>
+      <c r="AL154">
+        <v>0</v>
+      </c>
+      <c r="AM154">
+        <v>0</v>
+      </c>
+      <c r="AN154">
+        <v>0</v>
+      </c>
+      <c r="AO154">
+        <v>0</v>
+      </c>
+      <c r="AP154">
+        <v>0</v>
+      </c>
+      <c r="AQ154">
+        <v>2</v>
+      </c>
+      <c r="AR154">
+        <v>1.25</v>
+      </c>
+      <c r="AS154">
+        <v>1.93</v>
+      </c>
+      <c r="AT154">
+        <v>1.23</v>
+      </c>
+      <c r="AU154">
+        <v>1.4</v>
+      </c>
+      <c r="AV154">
+        <v>1.47</v>
+      </c>
+      <c r="AW154">
+        <v>2.87</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>0</v>
+      </c>
+      <c r="AZ154">
+        <v>0</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
+        <v>0</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>0</v>
+      </c>
+      <c r="BG154">
+        <v>4</v>
+      </c>
+      <c r="BH154">
+        <v>0</v>
+      </c>
+      <c r="BI154">
+        <v>5</v>
+      </c>
+      <c r="BJ154">
+        <v>0</v>
+      </c>
+      <c r="BK154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>6603986</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45136.83333333334</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>85</v>
+      </c>
+      <c r="P155" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>6</v>
+      </c>
+      <c r="S155">
+        <v>11</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+      <c r="AC155">
+        <v>3.9</v>
+      </c>
+      <c r="AD155">
+        <v>3.75</v>
+      </c>
+      <c r="AE155">
+        <v>1.77</v>
+      </c>
+      <c r="AF155">
+        <v>0</v>
+      </c>
+      <c r="AG155">
+        <v>0</v>
+      </c>
+      <c r="AH155">
+        <v>0</v>
+      </c>
+      <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
+        <v>1.61</v>
+      </c>
+      <c r="AK155">
+        <v>2.1</v>
+      </c>
+      <c r="AL155">
+        <v>0</v>
+      </c>
+      <c r="AM155">
+        <v>0</v>
+      </c>
+      <c r="AN155">
+        <v>0</v>
+      </c>
+      <c r="AO155">
+        <v>0</v>
+      </c>
+      <c r="AP155">
+        <v>0</v>
+      </c>
+      <c r="AQ155">
+        <v>1.08</v>
+      </c>
+      <c r="AR155">
+        <v>2.08</v>
+      </c>
+      <c r="AS155">
+        <v>1</v>
+      </c>
+      <c r="AT155">
+        <v>2.15</v>
+      </c>
+      <c r="AU155">
+        <v>1.51</v>
+      </c>
+      <c r="AV155">
+        <v>1.46</v>
+      </c>
+      <c r="AW155">
+        <v>2.97</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="AZ155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>4</v>
+      </c>
+      <c r="BG155">
+        <v>3</v>
+      </c>
+      <c r="BH155">
+        <v>9</v>
+      </c>
+      <c r="BI155">
+        <v>7</v>
+      </c>
+      <c r="BJ155">
+        <v>13</v>
+      </c>
+      <c r="BK155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>6603987</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45137.70833333334</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>67</v>
+      </c>
+      <c r="H156" t="s">
+        <v>71</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>102</v>
+      </c>
+      <c r="P156" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q156">
+        <v>4</v>
+      </c>
+      <c r="R156">
+        <v>5</v>
+      </c>
+      <c r="S156">
+        <v>9</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>0</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+      <c r="AB156">
+        <v>0</v>
+      </c>
+      <c r="AC156">
+        <v>2.17</v>
+      </c>
+      <c r="AD156">
+        <v>3.25</v>
+      </c>
+      <c r="AE156">
+        <v>3</v>
+      </c>
+      <c r="AF156">
+        <v>0</v>
+      </c>
+      <c r="AG156">
+        <v>0</v>
+      </c>
+      <c r="AH156">
+        <v>0</v>
+      </c>
+      <c r="AI156">
+        <v>0</v>
+      </c>
+      <c r="AJ156">
+        <v>2.12</v>
+      </c>
+      <c r="AK156">
+        <v>1.68</v>
+      </c>
+      <c r="AL156">
+        <v>0</v>
+      </c>
+      <c r="AM156">
+        <v>0</v>
+      </c>
+      <c r="AN156">
+        <v>0</v>
+      </c>
+      <c r="AO156">
+        <v>0</v>
+      </c>
+      <c r="AP156">
+        <v>0</v>
+      </c>
+      <c r="AQ156">
+        <v>0.58</v>
+      </c>
+      <c r="AR156">
+        <v>0.54</v>
+      </c>
+      <c r="AS156">
+        <v>0.54</v>
+      </c>
+      <c r="AT156">
+        <v>0.71</v>
+      </c>
+      <c r="AU156">
+        <v>1.06</v>
+      </c>
+      <c r="AV156">
+        <v>1.24</v>
+      </c>
+      <c r="AW156">
+        <v>2.3</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>0</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>3</v>
+      </c>
+      <c r="BG156">
+        <v>4</v>
+      </c>
+      <c r="BH156">
+        <v>7</v>
+      </c>
+      <c r="BI156">
+        <v>5</v>
+      </c>
+      <c r="BJ156">
+        <v>10</v>
+      </c>
+      <c r="BK156">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>6603984</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45137.8125</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s">
+        <v>69</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>85</v>
+      </c>
+      <c r="P157" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q157">
+        <v>4</v>
+      </c>
+      <c r="R157">
+        <v>4</v>
+      </c>
+      <c r="S157">
+        <v>8</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>0</v>
+      </c>
+      <c r="AC157">
+        <v>4.5</v>
+      </c>
+      <c r="AD157">
+        <v>4</v>
+      </c>
+      <c r="AE157">
+        <v>1.62</v>
+      </c>
+      <c r="AF157">
+        <v>0</v>
+      </c>
+      <c r="AG157">
+        <v>0</v>
+      </c>
+      <c r="AH157">
+        <v>0</v>
+      </c>
+      <c r="AI157">
+        <v>0</v>
+      </c>
+      <c r="AJ157">
+        <v>1.66</v>
+      </c>
+      <c r="AK157">
+        <v>2.15</v>
+      </c>
+      <c r="AL157">
+        <v>0</v>
+      </c>
+      <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AN157">
+        <v>0</v>
+      </c>
+      <c r="AO157">
+        <v>0</v>
+      </c>
+      <c r="AP157">
+        <v>0</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>2</v>
+      </c>
+      <c r="AS157">
+        <v>0.93</v>
+      </c>
+      <c r="AT157">
+        <v>2.08</v>
+      </c>
+      <c r="AU157">
+        <v>1.46</v>
+      </c>
+      <c r="AV157">
+        <v>1.32</v>
+      </c>
+      <c r="AW157">
+        <v>2.78</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>0</v>
+      </c>
+      <c r="AZ157">
+        <v>0</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>0</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>7</v>
+      </c>
+      <c r="BG157">
+        <v>6</v>
+      </c>
+      <c r="BH157">
+        <v>8</v>
+      </c>
+      <c r="BI157">
+        <v>7</v>
+      </c>
+      <c r="BJ157">
+        <v>15</v>
+      </c>
+      <c r="BK157">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1143,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT2">
         <v>1.77</v>
@@ -3387,7 +3387,7 @@
         <v>1.31</v>
       </c>
       <c r="AT12">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT14">
         <v>0.85</v>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU23">
         <v>1.25</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT28">
         <v>0.71</v>
@@ -7207,7 +7207,7 @@
         <v>0.54</v>
       </c>
       <c r="AT32">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU32">
         <v>0.79</v>
@@ -8350,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT38">
         <v>1.08</v>
@@ -11597,10 +11597,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT55">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU55">
         <v>1.81</v>
@@ -12552,7 +12552,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT60">
         <v>2.08</v>
@@ -13892,7 +13892,7 @@
         <v>1.31</v>
       </c>
       <c r="AT67">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU67">
         <v>1.59</v>
@@ -15038,7 +15038,7 @@
         <v>0.93</v>
       </c>
       <c r="AT73">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU73">
         <v>1.41</v>
@@ -15990,7 +15990,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT78">
         <v>0.92</v>
@@ -16948,7 +16948,7 @@
         <v>1.33</v>
       </c>
       <c r="AT83">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU83">
         <v>1.36</v>
@@ -18282,7 +18282,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT90">
         <v>1.57</v>
@@ -19049,7 +19049,7 @@
         <v>1.93</v>
       </c>
       <c r="AT94">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU94">
         <v>1.26</v>
@@ -20192,7 +20192,7 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT100">
         <v>1.25</v>
@@ -21150,7 +21150,7 @@
         <v>1.23</v>
       </c>
       <c r="AT105">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU105">
         <v>1.66</v>
@@ -22102,7 +22102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT110">
         <v>1.23</v>
@@ -22296,7 +22296,7 @@
         <v>1.77</v>
       </c>
       <c r="AT111">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU111">
         <v>1.4</v>
@@ -24970,7 +24970,7 @@
         <v>1</v>
       </c>
       <c r="AT125">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU125">
         <v>1.49</v>
@@ -25731,7 +25731,7 @@
         <v>1.6</v>
       </c>
       <c r="AS129">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT129">
         <v>1.54</v>
@@ -26689,7 +26689,7 @@
         <v>0.93</v>
       </c>
       <c r="AT134">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU134">
         <v>1.53</v>
@@ -26877,7 +26877,7 @@
         <v>1.64</v>
       </c>
       <c r="AS135">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT135">
         <v>1.57</v>
@@ -29363,7 +29363,7 @@
         <v>1.77</v>
       </c>
       <c r="AT148">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -29933,7 +29933,7 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT151">
         <v>1.08</v>
@@ -31134,6 +31134,197 @@
       </c>
       <c r="BK157">
         <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>6603992</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45142.83333333334</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>65</v>
+      </c>
+      <c r="H158" t="s">
+        <v>68</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158" t="s">
+        <v>85</v>
+      </c>
+      <c r="P158" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q158">
+        <v>2</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>4</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <v>0</v>
+      </c>
+      <c r="AC158">
+        <v>1.36</v>
+      </c>
+      <c r="AD158">
+        <v>4.9</v>
+      </c>
+      <c r="AE158">
+        <v>6.43</v>
+      </c>
+      <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
+        <v>0</v>
+      </c>
+      <c r="AH158">
+        <v>0</v>
+      </c>
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>1.62</v>
+      </c>
+      <c r="AK158">
+        <v>2.16</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>0</v>
+      </c>
+      <c r="AO158">
+        <v>0</v>
+      </c>
+      <c r="AP158">
+        <v>0</v>
+      </c>
+      <c r="AQ158">
+        <v>2.69</v>
+      </c>
+      <c r="AR158">
+        <v>0.92</v>
+      </c>
+      <c r="AS158">
+        <v>2.57</v>
+      </c>
+      <c r="AT158">
+        <v>0.93</v>
+      </c>
+      <c r="AU158">
+        <v>1.69</v>
+      </c>
+      <c r="AV158">
+        <v>1.23</v>
+      </c>
+      <c r="AW158">
+        <v>2.92</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="AZ158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>0</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>3</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>3</v>
+      </c>
+      <c r="BI158">
+        <v>2</v>
+      </c>
+      <c r="BJ158">
+        <v>6</v>
+      </c>
+      <c r="BK158">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,21 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['2', '58', '71', '88']</t>
+  </si>
+  <si>
+    <t>['18', '57']</t>
+  </si>
+  <si>
+    <t>['19', '32', '40', '77', '85']</t>
+  </si>
+  <si>
+    <t>['79', '84']</t>
+  </si>
+  <si>
+    <t>['26', '55']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -782,6 +797,18 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['24', '75']</t>
+  </si>
+  <si>
+    <t>['37', '51', '83']</t>
+  </si>
+  <si>
+    <t>['40', '52']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1504,7 @@
         <v>2.57</v>
       </c>
       <c r="AT2">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1769,7 +1796,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2151,7 +2178,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2238,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT6">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2429,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT7">
         <v>0.85</v>
@@ -2533,7 +2560,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2623,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2724,7 +2751,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2814,7 +2841,7 @@
         <v>1.31</v>
       </c>
       <c r="AT9">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2915,7 +2942,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3106,7 +3133,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3384,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT12">
         <v>0.93</v>
@@ -3488,7 +3515,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3679,7 +3706,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3870,7 +3897,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4148,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT16">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU16">
         <v>1.26</v>
@@ -4252,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4342,7 +4369,7 @@
         <v>0.54</v>
       </c>
       <c r="AT17">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU17">
         <v>0.9</v>
@@ -4530,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT18">
         <v>0.71</v>
@@ -4634,7 +4661,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4724,7 +4751,7 @@
         <v>0.93</v>
       </c>
       <c r="AT19">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU19">
         <v>1.16</v>
@@ -4825,7 +4852,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5016,7 +5043,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5207,7 +5234,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5294,7 +5321,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT22">
         <v>2.15</v>
@@ -5398,7 +5425,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5676,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT24">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>1.41</v>
@@ -6058,7 +6085,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT26">
         <v>0.92</v>
@@ -6544,7 +6571,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6634,7 +6661,7 @@
         <v>1.46</v>
       </c>
       <c r="AT29">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU29">
         <v>1.02</v>
@@ -6822,10 +6849,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.8</v>
@@ -6926,7 +6953,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7016,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7308,7 +7335,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7395,10 +7422,10 @@
         <v>1.33</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT33">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU33">
         <v>0.92</v>
@@ -7499,7 +7526,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7586,7 +7613,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT34">
         <v>2.08</v>
@@ -7777,7 +7804,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT35">
         <v>0.92</v>
@@ -7881,7 +7908,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8159,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT37">
         <v>1.23</v>
@@ -8353,7 +8380,7 @@
         <v>2.57</v>
       </c>
       <c r="AT38">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>1.61</v>
@@ -8454,7 +8481,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8645,7 +8672,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8926,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="AT41">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU41">
         <v>1.4</v>
@@ -9027,7 +9054,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9114,7 +9141,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT42">
         <v>0.85</v>
@@ -9499,7 +9526,7 @@
         <v>0.54</v>
       </c>
       <c r="AT44">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU44">
         <v>0.84</v>
@@ -9600,7 +9627,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9687,7 +9714,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT45">
         <v>0.85</v>
@@ -9791,7 +9818,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9878,7 +9905,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT46">
         <v>2.15</v>
@@ -9982,7 +10009,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10072,7 +10099,7 @@
         <v>1.93</v>
       </c>
       <c r="AT47">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU47">
         <v>1.08</v>
@@ -10173,7 +10200,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10555,7 +10582,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10645,7 +10672,7 @@
         <v>1.31</v>
       </c>
       <c r="AT50">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10746,7 +10773,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11024,7 +11051,7 @@
         <v>2.5</v>
       </c>
       <c r="AS52">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT52">
         <v>1.57</v>
@@ -11215,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT53">
         <v>0.71</v>
@@ -11409,7 +11436,7 @@
         <v>0.93</v>
       </c>
       <c r="AT54">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11979,10 +12006,10 @@
         <v>1.6</v>
       </c>
       <c r="AS57">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT57">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU57">
         <v>1.68</v>
@@ -12083,7 +12110,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12274,7 +12301,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12746,7 +12773,7 @@
         <v>1.46</v>
       </c>
       <c r="AT61">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU61">
         <v>1.02</v>
@@ -12934,10 +12961,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT62">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU62">
         <v>1.09</v>
@@ -13125,10 +13152,10 @@
         <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT63">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.27</v>
@@ -13229,7 +13256,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13507,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT65">
         <v>0.71</v>
@@ -13611,7 +13638,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13802,7 +13829,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13993,7 +14020,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14080,10 +14107,10 @@
         <v>1.2</v>
       </c>
       <c r="AS68">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT68">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14271,7 +14298,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT69">
         <v>1.23</v>
@@ -14375,7 +14402,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14465,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU70">
         <v>1.31</v>
@@ -14566,7 +14593,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14948,7 +14975,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15417,7 +15444,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT75">
         <v>1.57</v>
@@ -15521,7 +15548,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15608,10 +15635,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT76">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU76">
         <v>1.48</v>
@@ -15712,7 +15739,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15802,7 +15829,7 @@
         <v>1</v>
       </c>
       <c r="AT77">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU77">
         <v>1.33</v>
@@ -16094,7 +16121,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16375,7 +16402,7 @@
         <v>1.93</v>
       </c>
       <c r="AT80">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.21</v>
@@ -16566,7 +16593,7 @@
         <v>0.93</v>
       </c>
       <c r="AT81">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>1.43</v>
@@ -16667,7 +16694,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16945,7 +16972,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT83">
         <v>0.93</v>
@@ -17049,7 +17076,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17136,7 +17163,7 @@
         <v>2.17</v>
       </c>
       <c r="AS84">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT84">
         <v>2.15</v>
@@ -17240,7 +17267,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17709,10 +17736,10 @@
         <v>1.43</v>
       </c>
       <c r="AS87">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -17900,10 +17927,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT88">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.41</v>
@@ -18664,10 +18691,10 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT92">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU92">
         <v>1.44</v>
@@ -18855,10 +18882,10 @@
         <v>1.71</v>
       </c>
       <c r="AS93">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT93">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU93">
         <v>1.42</v>
@@ -19150,7 +19177,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19813,7 +19840,7 @@
         <v>1.46</v>
       </c>
       <c r="AT98">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.13</v>
@@ -20195,7 +20222,7 @@
         <v>2.57</v>
       </c>
       <c r="AT100">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20296,7 +20323,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20383,7 +20410,7 @@
         <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT101">
         <v>1.23</v>
@@ -20487,7 +20514,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20869,7 +20896,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21147,7 +21174,7 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT105">
         <v>0.93</v>
@@ -21338,7 +21365,7 @@
         <v>2.38</v>
       </c>
       <c r="AS106">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT106">
         <v>2.08</v>
@@ -21442,7 +21469,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21532,7 +21559,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -21723,7 +21750,7 @@
         <v>1.93</v>
       </c>
       <c r="AT108">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU108">
         <v>1.28</v>
@@ -21911,7 +21938,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT109">
         <v>0.92</v>
@@ -22206,7 +22233,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22293,7 +22320,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS111">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT111">
         <v>0.93</v>
@@ -22397,7 +22424,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22487,7 +22514,7 @@
         <v>1.31</v>
       </c>
       <c r="AT112">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU112">
         <v>1.34</v>
@@ -22869,7 +22896,7 @@
         <v>1</v>
       </c>
       <c r="AT114">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -23057,7 +23084,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT115">
         <v>1.57</v>
@@ -23352,7 +23379,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23543,7 +23570,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23630,7 +23657,7 @@
         <v>2.22</v>
       </c>
       <c r="AS118">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT118">
         <v>2.08</v>
@@ -23734,7 +23761,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23824,7 +23851,7 @@
         <v>0.54</v>
       </c>
       <c r="AT119">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU119">
         <v>1.07</v>
@@ -23925,7 +23952,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24012,10 +24039,10 @@
         <v>1.44</v>
       </c>
       <c r="AS120">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT120">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU120">
         <v>1.68</v>
@@ -24116,7 +24143,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24307,7 +24334,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24585,7 +24612,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT123">
         <v>2.15</v>
@@ -24689,7 +24716,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24776,10 +24803,10 @@
         <v>1.4</v>
       </c>
       <c r="AS124">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT124">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU124">
         <v>1.46</v>
@@ -25158,7 +25185,7 @@
         <v>0.3</v>
       </c>
       <c r="AS126">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT126">
         <v>0.71</v>
@@ -25262,7 +25289,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25352,7 +25379,7 @@
         <v>0.93</v>
       </c>
       <c r="AT127">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25453,7 +25480,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25734,7 +25761,7 @@
         <v>2.57</v>
       </c>
       <c r="AT129">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU129">
         <v>1.75</v>
@@ -25925,7 +25952,7 @@
         <v>1.46</v>
       </c>
       <c r="AT130">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU130">
         <v>1.19</v>
@@ -26026,7 +26053,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26217,7 +26244,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26408,7 +26435,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26495,7 +26522,7 @@
         <v>0.8</v>
       </c>
       <c r="AS133">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT133">
         <v>0.92</v>
@@ -26981,7 +27008,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27071,7 +27098,7 @@
         <v>1.93</v>
       </c>
       <c r="AT136">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU136">
         <v>1.34</v>
@@ -27172,7 +27199,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27259,7 +27286,7 @@
         <v>0.27</v>
       </c>
       <c r="AS137">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT137">
         <v>0.71</v>
@@ -27363,7 +27390,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27450,10 +27477,10 @@
         <v>1.55</v>
       </c>
       <c r="AS138">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT138">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27554,7 +27581,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27641,10 +27668,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT139">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -27745,7 +27772,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28217,7 +28244,7 @@
         <v>1.46</v>
       </c>
       <c r="AT142">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU142">
         <v>1.21</v>
@@ -28318,7 +28345,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28509,7 +28536,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28700,7 +28727,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28787,7 +28814,7 @@
         <v>0.5</v>
       </c>
       <c r="AS145">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT145">
         <v>0.71</v>
@@ -28891,7 +28918,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -28981,7 +29008,7 @@
         <v>1</v>
       </c>
       <c r="AT146">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU146">
         <v>1.15</v>
@@ -29082,7 +29109,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29360,7 +29387,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT148">
         <v>0.93</v>
@@ -29464,7 +29491,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29551,10 +29578,10 @@
         <v>1.42</v>
       </c>
       <c r="AS149">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT149">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU149">
         <v>1.52</v>
@@ -29655,7 +29682,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29742,7 +29769,7 @@
         <v>1.5</v>
       </c>
       <c r="AS150">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT150">
         <v>1.57</v>
@@ -29846,7 +29873,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -29936,7 +29963,7 @@
         <v>2.57</v>
       </c>
       <c r="AT151">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>1.73</v>
@@ -30419,7 +30446,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30610,7 +30637,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30801,7 +30828,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -30992,7 +31019,7 @@
         <v>85</v>
       </c>
       <c r="P157" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31186,13 +31213,13 @@
         <v>85</v>
       </c>
       <c r="Q158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S158">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T158">
         <v>0</v>
@@ -31309,22 +31336,977 @@
         <v>0</v>
       </c>
       <c r="BF158">
+        <v>5</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>6</v>
+      </c>
+      <c r="BI158">
+        <v>6</v>
+      </c>
+      <c r="BJ158">
+        <v>11</v>
+      </c>
+      <c r="BK158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>6603994</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45143.72916666666</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>69</v>
+      </c>
+      <c r="H159" t="s">
+        <v>66</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159" t="s">
+        <v>181</v>
+      </c>
+      <c r="P159" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q159">
+        <v>5</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>7</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
+      </c>
+      <c r="AB159">
+        <v>0</v>
+      </c>
+      <c r="AC159">
+        <v>1.55</v>
+      </c>
+      <c r="AD159">
+        <v>4.1</v>
+      </c>
+      <c r="AE159">
+        <v>5</v>
+      </c>
+      <c r="AF159">
+        <v>0</v>
+      </c>
+      <c r="AG159">
+        <v>0</v>
+      </c>
+      <c r="AH159">
+        <v>0</v>
+      </c>
+      <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
+        <v>1.65</v>
+      </c>
+      <c r="AK159">
+        <v>2.17</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>0</v>
+      </c>
+      <c r="AO159">
+        <v>0</v>
+      </c>
+      <c r="AP159">
+        <v>0</v>
+      </c>
+      <c r="AQ159">
+        <v>1.77</v>
+      </c>
+      <c r="AR159">
+        <v>1.25</v>
+      </c>
+      <c r="AS159">
+        <v>1.86</v>
+      </c>
+      <c r="AT159">
+        <v>1.15</v>
+      </c>
+      <c r="AU159">
+        <v>1.63</v>
+      </c>
+      <c r="AV159">
+        <v>1.25</v>
+      </c>
+      <c r="AW159">
+        <v>2.88</v>
+      </c>
+      <c r="AX159">
+        <v>0</v>
+      </c>
+      <c r="AY159">
+        <v>0</v>
+      </c>
+      <c r="AZ159">
+        <v>0</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
+      <c r="BC159">
+        <v>0</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>0</v>
+      </c>
+      <c r="BG159">
+        <v>4</v>
+      </c>
+      <c r="BH159">
+        <v>7</v>
+      </c>
+      <c r="BI159">
+        <v>1</v>
+      </c>
+      <c r="BJ159">
+        <v>7</v>
+      </c>
+      <c r="BK159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>6603993</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45143.83333333334</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>73</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>182</v>
+      </c>
+      <c r="P160" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q160">
+        <v>1</v>
+      </c>
+      <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
         <v>3</v>
       </c>
-      <c r="BG158">
-        <v>0</v>
-      </c>
-      <c r="BH158">
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+      <c r="AC160">
+        <v>1.83</v>
+      </c>
+      <c r="AD160">
+        <v>3.45</v>
+      </c>
+      <c r="AE160">
+        <v>4</v>
+      </c>
+      <c r="AF160">
+        <v>0</v>
+      </c>
+      <c r="AG160">
+        <v>0</v>
+      </c>
+      <c r="AH160">
+        <v>0</v>
+      </c>
+      <c r="AI160">
+        <v>0</v>
+      </c>
+      <c r="AJ160">
+        <v>1.95</v>
+      </c>
+      <c r="AK160">
+        <v>1.81</v>
+      </c>
+      <c r="AL160">
+        <v>0</v>
+      </c>
+      <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AN160">
+        <v>0</v>
+      </c>
+      <c r="AO160">
+        <v>0</v>
+      </c>
+      <c r="AP160">
+        <v>0</v>
+      </c>
+      <c r="AQ160">
+        <v>1.31</v>
+      </c>
+      <c r="AR160">
+        <v>0.92</v>
+      </c>
+      <c r="AS160">
+        <v>1.29</v>
+      </c>
+      <c r="AT160">
+        <v>0.92</v>
+      </c>
+      <c r="AU160">
+        <v>1.51</v>
+      </c>
+      <c r="AV160">
+        <v>1.31</v>
+      </c>
+      <c r="AW160">
+        <v>2.82</v>
+      </c>
+      <c r="AX160">
+        <v>0</v>
+      </c>
+      <c r="AY160">
+        <v>0</v>
+      </c>
+      <c r="AZ160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
+      <c r="BC160">
+        <v>0</v>
+      </c>
+      <c r="BD160">
+        <v>0</v>
+      </c>
+      <c r="BE160">
+        <v>0</v>
+      </c>
+      <c r="BF160">
+        <v>7</v>
+      </c>
+      <c r="BG160">
+        <v>4</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>5</v>
+      </c>
+      <c r="BJ160">
+        <v>11</v>
+      </c>
+      <c r="BK160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>6603989</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45144.70833333334</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>70</v>
+      </c>
+      <c r="H161" t="s">
+        <v>72</v>
+      </c>
+      <c r="I161">
         <v>3</v>
       </c>
-      <c r="BI158">
-        <v>2</v>
-      </c>
-      <c r="BJ158">
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>4</v>
+      </c>
+      <c r="L161">
+        <v>5</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>8</v>
+      </c>
+      <c r="O161" t="s">
+        <v>183</v>
+      </c>
+      <c r="P161" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q161">
+        <v>3</v>
+      </c>
+      <c r="R161">
+        <v>7</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+      <c r="AC161">
+        <v>1.64</v>
+      </c>
+      <c r="AD161">
+        <v>3.75</v>
+      </c>
+      <c r="AE161">
+        <v>4.5</v>
+      </c>
+      <c r="AF161">
+        <v>0</v>
+      </c>
+      <c r="AG161">
+        <v>0</v>
+      </c>
+      <c r="AH161">
+        <v>0</v>
+      </c>
+      <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
+        <v>1.79</v>
+      </c>
+      <c r="AK161">
+        <v>1.96</v>
+      </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
+      <c r="AM161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>0</v>
+      </c>
+      <c r="AO161">
+        <v>0</v>
+      </c>
+      <c r="AP161">
+        <v>0</v>
+      </c>
+      <c r="AQ161">
+        <v>1.23</v>
+      </c>
+      <c r="AR161">
+        <v>1.77</v>
+      </c>
+      <c r="AS161">
+        <v>1.36</v>
+      </c>
+      <c r="AT161">
+        <v>1.64</v>
+      </c>
+      <c r="AU161">
+        <v>1.61</v>
+      </c>
+      <c r="AV161">
+        <v>1.17</v>
+      </c>
+      <c r="AW161">
+        <v>2.78</v>
+      </c>
+      <c r="AX161">
+        <v>0</v>
+      </c>
+      <c r="AY161">
+        <v>0</v>
+      </c>
+      <c r="AZ161">
+        <v>0</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>0</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>3</v>
+      </c>
+      <c r="BG161">
+        <v>2</v>
+      </c>
+      <c r="BH161">
+        <v>4</v>
+      </c>
+      <c r="BI161">
+        <v>3</v>
+      </c>
+      <c r="BJ161">
+        <v>7</v>
+      </c>
+      <c r="BK161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>6603990</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45144.8125</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s">
+        <v>67</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>184</v>
+      </c>
+      <c r="P162" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q162">
+        <v>4</v>
+      </c>
+      <c r="R162">
+        <v>5</v>
+      </c>
+      <c r="S162">
+        <v>9</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+      <c r="AB162">
+        <v>0</v>
+      </c>
+      <c r="AC162">
+        <v>1.63</v>
+      </c>
+      <c r="AD162">
+        <v>3.65</v>
+      </c>
+      <c r="AE162">
+        <v>4.82</v>
+      </c>
+      <c r="AF162">
+        <v>0</v>
+      </c>
+      <c r="AG162">
+        <v>0</v>
+      </c>
+      <c r="AH162">
+        <v>0</v>
+      </c>
+      <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
+        <v>2.12</v>
+      </c>
+      <c r="AK162">
+        <v>1.64</v>
+      </c>
+      <c r="AL162">
+        <v>0</v>
+      </c>
+      <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AN162">
+        <v>0</v>
+      </c>
+      <c r="AO162">
+        <v>0</v>
+      </c>
+      <c r="AP162">
+        <v>0</v>
+      </c>
+      <c r="AQ162">
+        <v>1.33</v>
+      </c>
+      <c r="AR162">
+        <v>1.08</v>
+      </c>
+      <c r="AS162">
+        <v>1.46</v>
+      </c>
+      <c r="AT162">
+        <v>1</v>
+      </c>
+      <c r="AU162">
+        <v>1.48</v>
+      </c>
+      <c r="AV162">
+        <v>1.15</v>
+      </c>
+      <c r="AW162">
+        <v>2.63</v>
+      </c>
+      <c r="AX162">
+        <v>0</v>
+      </c>
+      <c r="AY162">
+        <v>0</v>
+      </c>
+      <c r="AZ162">
+        <v>0</v>
+      </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>0</v>
+      </c>
+      <c r="BC162">
+        <v>0</v>
+      </c>
+      <c r="BD162">
+        <v>0</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
         <v>6</v>
       </c>
-      <c r="BK158">
-        <v>2</v>
+      <c r="BG162">
+        <v>0</v>
+      </c>
+      <c r="BH162">
+        <v>1</v>
+      </c>
+      <c r="BI162">
+        <v>4</v>
+      </c>
+      <c r="BJ162">
+        <v>7</v>
+      </c>
+      <c r="BK162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>6603991</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45145.83333333334</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>71</v>
+      </c>
+      <c r="H163" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>185</v>
+      </c>
+      <c r="P163" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q163">
+        <v>1</v>
+      </c>
+      <c r="R163">
+        <v>4</v>
+      </c>
+      <c r="S163">
+        <v>5</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <v>0</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+      <c r="AB163">
+        <v>0</v>
+      </c>
+      <c r="AC163">
+        <v>2.65</v>
+      </c>
+      <c r="AD163">
+        <v>3.15</v>
+      </c>
+      <c r="AE163">
+        <v>2.35</v>
+      </c>
+      <c r="AF163">
+        <v>0</v>
+      </c>
+      <c r="AG163">
+        <v>0</v>
+      </c>
+      <c r="AH163">
+        <v>0</v>
+      </c>
+      <c r="AI163">
+        <v>0</v>
+      </c>
+      <c r="AJ163">
+        <v>1.9</v>
+      </c>
+      <c r="AK163">
+        <v>1.8</v>
+      </c>
+      <c r="AL163">
+        <v>0</v>
+      </c>
+      <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AN163">
+        <v>0</v>
+      </c>
+      <c r="AO163">
+        <v>0</v>
+      </c>
+      <c r="AP163">
+        <v>0</v>
+      </c>
+      <c r="AQ163">
+        <v>1</v>
+      </c>
+      <c r="AR163">
+        <v>1.54</v>
+      </c>
+      <c r="AS163">
+        <v>1</v>
+      </c>
+      <c r="AT163">
+        <v>1.5</v>
+      </c>
+      <c r="AU163">
+        <v>1.13</v>
+      </c>
+      <c r="AV163">
+        <v>1.34</v>
+      </c>
+      <c r="AW163">
+        <v>2.47</v>
+      </c>
+      <c r="AX163">
+        <v>0</v>
+      </c>
+      <c r="AY163">
+        <v>0</v>
+      </c>
+      <c r="AZ163">
+        <v>0</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>0</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>2</v>
+      </c>
+      <c r="BG163">
+        <v>2</v>
+      </c>
+      <c r="BH163">
+        <v>2</v>
+      </c>
+      <c r="BI163">
+        <v>2</v>
+      </c>
+      <c r="BJ163">
+        <v>4</v>
+      </c>
+      <c r="BK163">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -32168,13 +32168,13 @@
         <v>264</v>
       </c>
       <c r="Q163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R163">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S163">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T163">
         <v>0</v>
@@ -32291,22 +32291,22 @@
         <v>0</v>
       </c>
       <c r="BF163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI163">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BJ163">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BK163">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>['26', '55']</t>
+  </si>
+  <si>
+    <t>['39', '69']</t>
+  </si>
+  <si>
+    <t>['2', '61']</t>
   </si>
   <si>
     <t>['39', '47', '68']</t>
@@ -1170,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1510,7 @@
         <v>2.57</v>
       </c>
       <c r="AT2">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1796,7 +1802,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1883,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT4">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2178,7 +2184,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2560,7 +2566,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2751,7 +2757,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2942,7 +2948,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3133,7 +3139,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3220,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT11">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3515,7 +3521,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3602,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT13">
         <v>0.92</v>
@@ -3706,7 +3712,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3897,7 +3903,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3987,7 +3993,7 @@
         <v>1.46</v>
       </c>
       <c r="AT15">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU15">
         <v>0.85</v>
@@ -4178,7 +4184,7 @@
         <v>1.86</v>
       </c>
       <c r="AT16">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU16">
         <v>1.26</v>
@@ -4279,7 +4285,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4366,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT17">
         <v>1.15</v>
@@ -4661,7 +4667,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4748,10 +4754,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT19">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU19">
         <v>1.16</v>
@@ -4852,7 +4858,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4939,7 +4945,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT20">
         <v>2.08</v>
@@ -5043,7 +5049,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5234,7 +5240,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5324,7 +5330,7 @@
         <v>1.46</v>
       </c>
       <c r="AT22">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5425,7 +5431,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5894,10 +5900,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT25">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU25">
         <v>1.49</v>
@@ -6571,7 +6577,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6953,7 +6959,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7231,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT32">
         <v>0.93</v>
@@ -7335,7 +7341,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7425,7 +7431,7 @@
         <v>1.46</v>
       </c>
       <c r="AT33">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU33">
         <v>0.92</v>
@@ -7526,7 +7532,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7908,7 +7914,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7998,7 +8004,7 @@
         <v>1.93</v>
       </c>
       <c r="AT36">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU36">
         <v>1.14</v>
@@ -8481,7 +8487,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8672,7 +8678,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8759,10 +8765,10 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT40">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -8950,7 +8956,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT41">
         <v>1.15</v>
@@ -9054,7 +9060,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9523,7 +9529,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT44">
         <v>1.5</v>
@@ -9627,7 +9633,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9818,7 +9824,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9908,7 +9914,7 @@
         <v>1.36</v>
       </c>
       <c r="AT46">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU46">
         <v>1.81</v>
@@ -10009,7 +10015,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10099,7 +10105,7 @@
         <v>1.93</v>
       </c>
       <c r="AT47">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU47">
         <v>1.08</v>
@@ -10200,7 +10206,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10582,7 +10588,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10773,7 +10779,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10860,7 +10866,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT51">
         <v>1.23</v>
@@ -11054,7 +11060,7 @@
         <v>1.86</v>
       </c>
       <c r="AT52">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11433,7 +11439,7 @@
         <v>1.33</v>
       </c>
       <c r="AS54">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT54">
         <v>1.15</v>
@@ -11818,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU56">
         <v>1.36</v>
@@ -12009,7 +12015,7 @@
         <v>1.36</v>
       </c>
       <c r="AT57">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU57">
         <v>1.68</v>
@@ -12110,7 +12116,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12301,7 +12307,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12388,7 +12394,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT59">
         <v>0.92</v>
@@ -13256,7 +13262,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13343,7 +13349,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT64">
         <v>1.23</v>
@@ -13638,7 +13644,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13725,10 +13731,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT66">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -13829,7 +13835,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14020,7 +14026,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14402,7 +14408,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14593,7 +14599,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14680,7 +14686,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT71">
         <v>2.08</v>
@@ -14874,7 +14880,7 @@
         <v>1.31</v>
       </c>
       <c r="AT72">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU72">
         <v>1.46</v>
@@ -14975,7 +14981,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15062,7 +15068,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT73">
         <v>0.93</v>
@@ -15253,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT74">
         <v>0.71</v>
@@ -15447,7 +15453,7 @@
         <v>1.36</v>
       </c>
       <c r="AT75">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -15548,7 +15554,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15739,7 +15745,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15826,10 +15832,10 @@
         <v>1.83</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT77">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU77">
         <v>1.33</v>
@@ -16121,7 +16127,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16590,7 +16596,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT81">
         <v>1.5</v>
@@ -16694,7 +16700,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17076,7 +17082,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17166,7 +17172,7 @@
         <v>1.29</v>
       </c>
       <c r="AT84">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU84">
         <v>1.4</v>
@@ -17267,7 +17273,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18312,7 +18318,7 @@
         <v>2.57</v>
       </c>
       <c r="AT90">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU90">
         <v>1.83</v>
@@ -18500,7 +18506,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT91">
         <v>0.85</v>
@@ -18885,7 +18891,7 @@
         <v>1.29</v>
       </c>
       <c r="AT93">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU93">
         <v>1.42</v>
@@ -19177,7 +19183,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19264,7 +19270,7 @@
         <v>2.29</v>
       </c>
       <c r="AS95">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT95">
         <v>2.08</v>
@@ -19455,7 +19461,7 @@
         <v>1.57</v>
       </c>
       <c r="AS96">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT96">
         <v>1.23</v>
@@ -19649,7 +19655,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU97">
         <v>1.27</v>
@@ -20028,7 +20034,7 @@
         <v>0.38</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT99">
         <v>0.71</v>
@@ -20323,7 +20329,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20514,7 +20520,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20604,7 +20610,7 @@
         <v>1.31</v>
       </c>
       <c r="AT102">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20792,7 +20798,7 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT103">
         <v>0.85</v>
@@ -20896,7 +20902,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -20983,10 +20989,10 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT104">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU104">
         <v>1.08</v>
@@ -21469,7 +21475,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21559,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -22233,7 +22239,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22424,7 +22430,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22702,7 +22708,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT113">
         <v>0.71</v>
@@ -22893,7 +22899,7 @@
         <v>0.78</v>
       </c>
       <c r="AS114">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT114">
         <v>1</v>
@@ -23087,7 +23093,7 @@
         <v>1.29</v>
       </c>
       <c r="AT115">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU115">
         <v>1.4</v>
@@ -23379,7 +23385,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23469,7 +23475,7 @@
         <v>1.46</v>
       </c>
       <c r="AT117">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU117">
         <v>1.15</v>
@@ -23570,7 +23576,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23761,7 +23767,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23848,10 +23854,10 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT119">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU119">
         <v>1.07</v>
@@ -23952,7 +23958,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24143,7 +24149,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24334,7 +24340,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24615,7 +24621,7 @@
         <v>1.86</v>
       </c>
       <c r="AT123">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU123">
         <v>1.49</v>
@@ -24716,7 +24722,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24994,7 +25000,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT125">
         <v>0.93</v>
@@ -25289,7 +25295,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25376,7 +25382,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -25480,7 +25486,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25567,7 +25573,7 @@
         <v>0.7</v>
       </c>
       <c r="AS128">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT128">
         <v>0.85</v>
@@ -25952,7 +25958,7 @@
         <v>1.46</v>
       </c>
       <c r="AT130">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU130">
         <v>1.19</v>
@@ -26053,7 +26059,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26143,7 +26149,7 @@
         <v>1.93</v>
       </c>
       <c r="AT131">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26244,7 +26250,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26435,7 +26441,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26713,7 +26719,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT134">
         <v>0.93</v>
@@ -26907,7 +26913,7 @@
         <v>2.57</v>
       </c>
       <c r="AT135">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU135">
         <v>1.71</v>
@@ -27008,7 +27014,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27199,7 +27205,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27390,7 +27396,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27480,7 +27486,7 @@
         <v>1.29</v>
       </c>
       <c r="AT138">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27581,7 +27587,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27772,7 +27778,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27859,7 +27865,7 @@
         <v>1.36</v>
       </c>
       <c r="AS140">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT140">
         <v>1.23</v>
@@ -28050,7 +28056,7 @@
         <v>1.91</v>
       </c>
       <c r="AS141">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT141">
         <v>2.08</v>
@@ -28345,7 +28351,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28435,7 +28441,7 @@
         <v>1.31</v>
       </c>
       <c r="AT143">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU143">
         <v>1.28</v>
@@ -28536,7 +28542,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28623,7 +28629,7 @@
         <v>0.91</v>
       </c>
       <c r="AS144">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT144">
         <v>0.85</v>
@@ -28727,7 +28733,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28918,7 +28924,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29008,7 +29014,7 @@
         <v>1</v>
       </c>
       <c r="AT146">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU146">
         <v>1.15</v>
@@ -29109,7 +29115,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29491,7 +29497,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29682,7 +29688,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29772,7 +29778,7 @@
         <v>1.36</v>
       </c>
       <c r="AT150">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU150">
         <v>1.66</v>
@@ -29873,7 +29879,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -30345,7 +30351,7 @@
         <v>1.31</v>
       </c>
       <c r="AT153">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU153">
         <v>1.26</v>
@@ -30446,7 +30452,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30637,7 +30643,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30724,10 +30730,10 @@
         <v>2.08</v>
       </c>
       <c r="AS155">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT155">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU155">
         <v>1.51</v>
@@ -30828,7 +30834,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -30915,7 +30921,7 @@
         <v>0.54</v>
       </c>
       <c r="AS156">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AT156">
         <v>0.71</v>
@@ -31019,7 +31025,7 @@
         <v>85</v>
       </c>
       <c r="P157" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31106,7 +31112,7 @@
         <v>2</v>
       </c>
       <c r="AS157">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT157">
         <v>2.08</v>
@@ -31401,7 +31407,7 @@
         <v>181</v>
       </c>
       <c r="P159" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31592,7 +31598,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31783,7 +31789,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31873,7 +31879,7 @@
         <v>1.36</v>
       </c>
       <c r="AT161">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU161">
         <v>1.61</v>
@@ -32165,7 +32171,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32307,6 +32313,579 @@
       </c>
       <c r="BK163">
         <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>6603999</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45149.83333333334</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>75</v>
+      </c>
+      <c r="H164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>186</v>
+      </c>
+      <c r="P164" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q164">
+        <v>9</v>
+      </c>
+      <c r="R164">
+        <v>3</v>
+      </c>
+      <c r="S164">
+        <v>12</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>0</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
+      <c r="AC164">
+        <v>2.55</v>
+      </c>
+      <c r="AD164">
+        <v>2.95</v>
+      </c>
+      <c r="AE164">
+        <v>2.55</v>
+      </c>
+      <c r="AF164">
+        <v>0</v>
+      </c>
+      <c r="AG164">
+        <v>0</v>
+      </c>
+      <c r="AH164">
+        <v>0</v>
+      </c>
+      <c r="AI164">
+        <v>0</v>
+      </c>
+      <c r="AJ164">
+        <v>2</v>
+      </c>
+      <c r="AK164">
+        <v>1.7</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>0</v>
+      </c>
+      <c r="AO164">
+        <v>0</v>
+      </c>
+      <c r="AP164">
+        <v>0</v>
+      </c>
+      <c r="AQ164">
+        <v>1</v>
+      </c>
+      <c r="AR164">
+        <v>1.57</v>
+      </c>
+      <c r="AS164">
+        <v>1.14</v>
+      </c>
+      <c r="AT164">
+        <v>1.47</v>
+      </c>
+      <c r="AU164">
+        <v>1.51</v>
+      </c>
+      <c r="AV164">
+        <v>1.13</v>
+      </c>
+      <c r="AW164">
+        <v>2.64</v>
+      </c>
+      <c r="AX164">
+        <v>0</v>
+      </c>
+      <c r="AY164">
+        <v>0</v>
+      </c>
+      <c r="AZ164">
+        <v>0</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>0</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>4</v>
+      </c>
+      <c r="BG164">
+        <v>4</v>
+      </c>
+      <c r="BH164">
+        <v>7</v>
+      </c>
+      <c r="BI164">
+        <v>5</v>
+      </c>
+      <c r="BJ164">
+        <v>11</v>
+      </c>
+      <c r="BK164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>6603997</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45150.75</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165" t="s">
+        <v>65</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>85</v>
+      </c>
+      <c r="P165" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q165">
+        <v>2</v>
+      </c>
+      <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>4</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>0</v>
+      </c>
+      <c r="AC165">
+        <v>5.4</v>
+      </c>
+      <c r="AD165">
+        <v>4.3</v>
+      </c>
+      <c r="AE165">
+        <v>1.42</v>
+      </c>
+      <c r="AF165">
+        <v>0</v>
+      </c>
+      <c r="AG165">
+        <v>0</v>
+      </c>
+      <c r="AH165">
+        <v>0</v>
+      </c>
+      <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <v>1.7</v>
+      </c>
+      <c r="AK165">
+        <v>2</v>
+      </c>
+      <c r="AL165">
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>0</v>
+      </c>
+      <c r="AO165">
+        <v>0</v>
+      </c>
+      <c r="AP165">
+        <v>0</v>
+      </c>
+      <c r="AQ165">
+        <v>0.93</v>
+      </c>
+      <c r="AR165">
+        <v>2.15</v>
+      </c>
+      <c r="AS165">
+        <v>0.87</v>
+      </c>
+      <c r="AT165">
+        <v>2.21</v>
+      </c>
+      <c r="AU165">
+        <v>1.5</v>
+      </c>
+      <c r="AV165">
+        <v>1.46</v>
+      </c>
+      <c r="AW165">
+        <v>2.96</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="AZ165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
+        <v>4</v>
+      </c>
+      <c r="BH165">
+        <v>5</v>
+      </c>
+      <c r="BI165">
+        <v>1</v>
+      </c>
+      <c r="BJ165">
+        <v>5</v>
+      </c>
+      <c r="BK165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6604000</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45150.85416666666</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>67</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>187</v>
+      </c>
+      <c r="P166" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q166">
+        <v>3</v>
+      </c>
+      <c r="R166">
+        <v>2</v>
+      </c>
+      <c r="S166">
+        <v>5</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+      <c r="AB166">
+        <v>0</v>
+      </c>
+      <c r="AC166">
+        <v>3.1</v>
+      </c>
+      <c r="AD166">
+        <v>3.3</v>
+      </c>
+      <c r="AE166">
+        <v>2.2</v>
+      </c>
+      <c r="AF166">
+        <v>0</v>
+      </c>
+      <c r="AG166">
+        <v>0</v>
+      </c>
+      <c r="AH166">
+        <v>0</v>
+      </c>
+      <c r="AI166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
+        <v>2</v>
+      </c>
+      <c r="AK166">
+        <v>1.75</v>
+      </c>
+      <c r="AL166">
+        <v>0</v>
+      </c>
+      <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>0</v>
+      </c>
+      <c r="AO166">
+        <v>0</v>
+      </c>
+      <c r="AP166">
+        <v>0</v>
+      </c>
+      <c r="AQ166">
+        <v>0.54</v>
+      </c>
+      <c r="AR166">
+        <v>1.64</v>
+      </c>
+      <c r="AS166">
+        <v>0.71</v>
+      </c>
+      <c r="AT166">
+        <v>1.53</v>
+      </c>
+      <c r="AU166">
+        <v>1.06</v>
+      </c>
+      <c r="AV166">
+        <v>1.16</v>
+      </c>
+      <c r="AW166">
+        <v>2.22</v>
+      </c>
+      <c r="AX166">
+        <v>0</v>
+      </c>
+      <c r="AY166">
+        <v>0</v>
+      </c>
+      <c r="AZ166">
+        <v>0</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>0</v>
+      </c>
+      <c r="BC166">
+        <v>0</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>0</v>
+      </c>
+      <c r="BG166">
+        <v>2</v>
+      </c>
+      <c r="BH166">
+        <v>4</v>
+      </c>
+      <c r="BI166">
+        <v>3</v>
+      </c>
+      <c r="BJ166">
+        <v>4</v>
+      </c>
+      <c r="BK166">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,9 @@
     <t>['2', '61']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -689,9 +692,6 @@
   </si>
   <si>
     <t>['44', '90+8']</t>
-  </si>
-  <si>
-    <t>['82']</t>
   </si>
   <si>
     <t>['2', '83']</t>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1802,7 +1802,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2184,7 +2184,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -2566,7 +2566,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2757,7 +2757,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2948,7 +2948,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3139,7 +3139,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3521,7 +3521,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3712,7 +3712,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3903,7 +3903,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT16">
         <v>1.53</v>
@@ -4285,7 +4285,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4667,7 +4667,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4858,7 +4858,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5139,7 +5139,7 @@
         <v>1.93</v>
       </c>
       <c r="AT21">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU21">
         <v>1.16</v>
@@ -5240,7 +5240,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5431,7 +5431,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6091,7 +6091,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT26">
         <v>0.92</v>
@@ -6577,7 +6577,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6959,7 +6959,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7341,7 +7341,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7532,7 +7532,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7914,7 +7914,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8195,7 +8195,7 @@
         <v>1.46</v>
       </c>
       <c r="AT37">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8487,7 +8487,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8577,7 +8577,7 @@
         <v>1.46</v>
       </c>
       <c r="AT39">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU39">
         <v>1.14</v>
@@ -8678,7 +8678,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9060,7 +9060,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9147,7 +9147,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT42">
         <v>0.85</v>
@@ -9633,7 +9633,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9824,7 +9824,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10015,7 +10015,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10206,7 +10206,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10588,7 +10588,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10779,7 +10779,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10869,7 +10869,7 @@
         <v>1.14</v>
       </c>
       <c r="AT51">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU51">
         <v>1.46</v>
@@ -11057,7 +11057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS52">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT52">
         <v>1.47</v>
@@ -12116,7 +12116,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12307,7 +12307,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13262,7 +13262,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13352,7 +13352,7 @@
         <v>0.87</v>
       </c>
       <c r="AT64">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13540,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT65">
         <v>0.71</v>
@@ -13644,7 +13644,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13835,7 +13835,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14026,7 +14026,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14307,7 +14307,7 @@
         <v>1.29</v>
       </c>
       <c r="AT69">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU69">
         <v>1.46</v>
@@ -14408,7 +14408,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14599,7 +14599,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14981,7 +14981,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15554,7 +15554,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15641,7 +15641,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT76">
         <v>1.15</v>
@@ -15745,7 +15745,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16127,7 +16127,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16700,7 +16700,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16790,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU82">
         <v>1.26</v>
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -19464,7 +19464,7 @@
         <v>0.71</v>
       </c>
       <c r="AT96">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU96">
         <v>1.12</v>
@@ -20416,10 +20416,10 @@
         <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT101">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU101">
         <v>1.45</v>
@@ -22138,7 +22138,7 @@
         <v>2.57</v>
       </c>
       <c r="AT110">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU110">
         <v>1.8</v>
@@ -22326,7 +22326,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS111">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT111">
         <v>0.93</v>
@@ -24430,7 +24430,7 @@
         <v>1.31</v>
       </c>
       <c r="AT122">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU122">
         <v>1.28</v>
@@ -24618,7 +24618,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT123">
         <v>2.21</v>
@@ -26059,7 +26059,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -27674,7 +27674,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -27868,7 +27868,7 @@
         <v>0.87</v>
       </c>
       <c r="AT140">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU140">
         <v>1.52</v>
@@ -29393,7 +29393,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT148">
         <v>0.93</v>
@@ -30542,7 +30542,7 @@
         <v>1.93</v>
       </c>
       <c r="AT154">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU154">
         <v>1.4</v>
@@ -31494,7 +31494,7 @@
         <v>1.25</v>
       </c>
       <c r="AS159">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT159">
         <v>1.15</v>
@@ -32556,13 +32556,13 @@
         <v>180</v>
       </c>
       <c r="Q165">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S165">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T165">
         <v>0</v>
@@ -32679,22 +32679,22 @@
         <v>0</v>
       </c>
       <c r="BF165">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI165">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ165">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BK165">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:63">
@@ -32886,6 +32886,197 @@
       </c>
       <c r="BK166">
         <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>6603995</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45151.72916666666</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>69</v>
+      </c>
+      <c r="H167" t="s">
+        <v>70</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>188</v>
+      </c>
+      <c r="P167" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q167">
+        <v>5</v>
+      </c>
+      <c r="R167">
+        <v>4</v>
+      </c>
+      <c r="S167">
+        <v>9</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+      <c r="AB167">
+        <v>0</v>
+      </c>
+      <c r="AC167">
+        <v>2.07</v>
+      </c>
+      <c r="AD167">
+        <v>3.3</v>
+      </c>
+      <c r="AE167">
+        <v>3</v>
+      </c>
+      <c r="AF167">
+        <v>0</v>
+      </c>
+      <c r="AG167">
+        <v>0</v>
+      </c>
+      <c r="AH167">
+        <v>0</v>
+      </c>
+      <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>1.67</v>
+      </c>
+      <c r="AK167">
+        <v>2</v>
+      </c>
+      <c r="AL167">
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>0</v>
+      </c>
+      <c r="AO167">
+        <v>0</v>
+      </c>
+      <c r="AP167">
+        <v>0</v>
+      </c>
+      <c r="AQ167">
+        <v>1.86</v>
+      </c>
+      <c r="AR167">
+        <v>1.23</v>
+      </c>
+      <c r="AS167">
+        <v>1.8</v>
+      </c>
+      <c r="AT167">
+        <v>1.21</v>
+      </c>
+      <c r="AU167">
+        <v>1.58</v>
+      </c>
+      <c r="AV167">
+        <v>1.45</v>
+      </c>
+      <c r="AW167">
+        <v>3.03</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>0</v>
+      </c>
+      <c r="AZ167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>0</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>2</v>
+      </c>
+      <c r="BG167">
+        <v>4</v>
+      </c>
+      <c r="BH167">
+        <v>2</v>
+      </c>
+      <c r="BI167">
+        <v>5</v>
+      </c>
+      <c r="BJ167">
+        <v>4</v>
+      </c>
+      <c r="BK167">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,9 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -815,6 +818,9 @@
   </si>
   <si>
     <t>['40', '52']</t>
+  </si>
+  <si>
+    <t>['45+2', '51']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT3">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1802,7 +1808,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2080,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT5">
         <v>0.92</v>
@@ -2184,7 +2190,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2465,7 +2471,7 @@
         <v>1.36</v>
       </c>
       <c r="AT7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2566,7 +2572,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2757,7 +2763,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2948,7 +2954,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3035,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT10">
         <v>2.08</v>
@@ -3139,7 +3145,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3521,7 +3527,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3712,7 +3718,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3802,7 +3808,7 @@
         <v>2.57</v>
       </c>
       <c r="AT14">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3903,7 +3909,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3990,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT15">
         <v>1.47</v>
@@ -4285,7 +4291,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4566,7 +4572,7 @@
         <v>1.36</v>
       </c>
       <c r="AT18">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU18">
         <v>1.41</v>
@@ -4667,7 +4673,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4858,7 +4864,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5049,7 +5055,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5136,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT21">
         <v>1.21</v>
@@ -5240,7 +5246,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5431,7 +5437,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6285,7 +6291,7 @@
         <v>1.31</v>
       </c>
       <c r="AT27">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6476,7 +6482,7 @@
         <v>2.57</v>
       </c>
       <c r="AT28">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU28">
         <v>1.25</v>
@@ -6577,7 +6583,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6664,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT29">
         <v>1.15</v>
@@ -6959,7 +6965,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7341,7 +7347,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7532,7 +7538,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7914,7 +7920,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8001,7 +8007,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT36">
         <v>2.21</v>
@@ -8487,7 +8493,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8574,7 +8580,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT39">
         <v>1.21</v>
@@ -8678,7 +8684,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9060,7 +9066,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9150,7 +9156,7 @@
         <v>1.8</v>
       </c>
       <c r="AT42">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9341,7 +9347,7 @@
         <v>1.31</v>
       </c>
       <c r="AT43">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU43">
         <v>1.73</v>
@@ -9633,7 +9639,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9723,7 +9729,7 @@
         <v>1.46</v>
       </c>
       <c r="AT45">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>1.06</v>
@@ -9824,7 +9830,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10015,7 +10021,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10102,7 +10108,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT47">
         <v>1.53</v>
@@ -10206,7 +10212,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10293,7 +10299,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT48">
         <v>2.08</v>
@@ -10588,7 +10594,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10779,7 +10785,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11251,7 +11257,7 @@
         <v>1.29</v>
       </c>
       <c r="AT53">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU53">
         <v>1.25</v>
@@ -12116,7 +12122,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12203,10 +12209,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT58">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.24</v>
@@ -12307,7 +12313,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12776,7 +12782,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT61">
         <v>1.5</v>
@@ -13262,7 +13268,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13543,7 +13549,7 @@
         <v>1.8</v>
       </c>
       <c r="AT65">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13644,7 +13650,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13835,7 +13841,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14026,7 +14032,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14408,7 +14414,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14599,7 +14605,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14981,7 +14987,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15262,7 +15268,7 @@
         <v>0.71</v>
       </c>
       <c r="AT74">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15554,7 +15560,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15745,7 +15751,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16127,7 +16133,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16214,10 +16220,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT79">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.02</v>
@@ -16405,7 +16411,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -17082,7 +17088,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17273,7 +17279,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17551,10 +17557,10 @@
         <v>0.43</v>
       </c>
       <c r="AS86">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -18509,7 +18515,7 @@
         <v>1.14</v>
       </c>
       <c r="AT91">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>1.47</v>
@@ -19079,7 +19085,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT94">
         <v>0.93</v>
@@ -19183,7 +19189,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19843,7 +19849,7 @@
         <v>0.88</v>
       </c>
       <c r="AS98">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -20037,7 +20043,7 @@
         <v>1.14</v>
       </c>
       <c r="AT99">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU99">
         <v>1.42</v>
@@ -20329,7 +20335,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20520,7 +20526,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20801,7 +20807,7 @@
         <v>0.87</v>
       </c>
       <c r="AT103">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU103">
         <v>1.34</v>
@@ -20902,7 +20908,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21475,7 +21481,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21753,7 +21759,7 @@
         <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT108">
         <v>1.5</v>
@@ -22239,7 +22245,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22430,7 +22436,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22711,7 +22717,7 @@
         <v>0.87</v>
       </c>
       <c r="AT113">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU113">
         <v>1.43</v>
@@ -23281,7 +23287,7 @@
         <v>0.89</v>
       </c>
       <c r="AS116">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT116">
         <v>0.92</v>
@@ -23385,7 +23391,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23472,7 +23478,7 @@
         <v>2.11</v>
       </c>
       <c r="AS117">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT117">
         <v>2.21</v>
@@ -23576,7 +23582,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23767,7 +23773,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23958,7 +23964,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24149,7 +24155,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24239,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AT121">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <v>1.24</v>
@@ -24340,7 +24346,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24722,7 +24728,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25194,7 +25200,7 @@
         <v>1.46</v>
       </c>
       <c r="AT126">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25295,7 +25301,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25486,7 +25492,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25576,7 +25582,7 @@
         <v>0.71</v>
       </c>
       <c r="AT128">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU128">
         <v>1.09</v>
@@ -25955,7 +25961,7 @@
         <v>1.6</v>
       </c>
       <c r="AS130">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT130">
         <v>1.53</v>
@@ -26059,7 +26065,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26146,7 +26152,7 @@
         <v>1.8</v>
       </c>
       <c r="AS131">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT131">
         <v>1.47</v>
@@ -26250,7 +26256,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26441,7 +26447,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -27014,7 +27020,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27101,7 +27107,7 @@
         <v>1.55</v>
       </c>
       <c r="AS136">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT136">
         <v>1.5</v>
@@ -27205,7 +27211,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27295,7 +27301,7 @@
         <v>1.36</v>
       </c>
       <c r="AT137">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU137">
         <v>1.64</v>
@@ -27396,7 +27402,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27587,7 +27593,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27778,7 +27784,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28247,7 +28253,7 @@
         <v>1.36</v>
       </c>
       <c r="AS142">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT142">
         <v>1.15</v>
@@ -28351,7 +28357,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28542,7 +28548,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28632,7 +28638,7 @@
         <v>0.71</v>
       </c>
       <c r="AT144">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>1.06</v>
@@ -28733,7 +28739,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28823,7 +28829,7 @@
         <v>1.46</v>
       </c>
       <c r="AT145">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU145">
         <v>1.5</v>
@@ -28924,7 +28930,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29115,7 +29121,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29202,7 +29208,7 @@
         <v>0.73</v>
       </c>
       <c r="AS147">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT147">
         <v>0.92</v>
@@ -29497,7 +29503,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29688,7 +29694,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29879,7 +29885,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -30157,10 +30163,10 @@
         <v>0.92</v>
       </c>
       <c r="AS152">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT152">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU152">
         <v>1.22</v>
@@ -30452,7 +30458,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30539,7 +30545,7 @@
         <v>1.25</v>
       </c>
       <c r="AS154">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT154">
         <v>1.21</v>
@@ -30643,7 +30649,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30834,7 +30840,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -30924,7 +30930,7 @@
         <v>0.71</v>
       </c>
       <c r="AT156">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU156">
         <v>1.06</v>
@@ -31025,7 +31031,7 @@
         <v>85</v>
       </c>
       <c r="P157" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31407,7 +31413,7 @@
         <v>181</v>
       </c>
       <c r="P159" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31598,7 +31604,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31789,7 +31795,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32171,7 +32177,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -33077,6 +33083,388 @@
       </c>
       <c r="BK167">
         <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>6603998</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45152.75</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>68</v>
+      </c>
+      <c r="H168" t="s">
+        <v>71</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>85</v>
+      </c>
+      <c r="P168" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>3</v>
+      </c>
+      <c r="S168">
+        <v>5</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
+      <c r="AB168">
+        <v>0</v>
+      </c>
+      <c r="AC168">
+        <v>2.15</v>
+      </c>
+      <c r="AD168">
+        <v>3.15</v>
+      </c>
+      <c r="AE168">
+        <v>3.15</v>
+      </c>
+      <c r="AF168">
+        <v>0</v>
+      </c>
+      <c r="AG168">
+        <v>0</v>
+      </c>
+      <c r="AH168">
+        <v>0</v>
+      </c>
+      <c r="AI168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
+        <v>1.83</v>
+      </c>
+      <c r="AK168">
+        <v>1.96</v>
+      </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
+      <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>0</v>
+      </c>
+      <c r="AO168">
+        <v>0</v>
+      </c>
+      <c r="AP168">
+        <v>0</v>
+      </c>
+      <c r="AQ168">
+        <v>1.46</v>
+      </c>
+      <c r="AR168">
+        <v>0.71</v>
+      </c>
+      <c r="AS168">
+        <v>1.43</v>
+      </c>
+      <c r="AT168">
+        <v>0.73</v>
+      </c>
+      <c r="AU168">
+        <v>1.22</v>
+      </c>
+      <c r="AV168">
+        <v>1.22</v>
+      </c>
+      <c r="AW168">
+        <v>2.44</v>
+      </c>
+      <c r="AX168">
+        <v>0</v>
+      </c>
+      <c r="AY168">
+        <v>0</v>
+      </c>
+      <c r="AZ168">
+        <v>0</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>0</v>
+      </c>
+      <c r="BC168">
+        <v>0</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>3</v>
+      </c>
+      <c r="BG168">
+        <v>3</v>
+      </c>
+      <c r="BH168">
+        <v>7</v>
+      </c>
+      <c r="BI168">
+        <v>3</v>
+      </c>
+      <c r="BJ168">
+        <v>10</v>
+      </c>
+      <c r="BK168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>6603996</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45152.85416666666</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>66</v>
+      </c>
+      <c r="H169" t="s">
+        <v>74</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>189</v>
+      </c>
+      <c r="P169" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q169">
+        <v>6</v>
+      </c>
+      <c r="R169">
+        <v>4</v>
+      </c>
+      <c r="S169">
+        <v>10</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+      <c r="AC169">
+        <v>2.25</v>
+      </c>
+      <c r="AD169">
+        <v>3</v>
+      </c>
+      <c r="AE169">
+        <v>2.55</v>
+      </c>
+      <c r="AF169">
+        <v>0</v>
+      </c>
+      <c r="AG169">
+        <v>0</v>
+      </c>
+      <c r="AH169">
+        <v>0</v>
+      </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>1.8</v>
+      </c>
+      <c r="AK169">
+        <v>1.76</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>0</v>
+      </c>
+      <c r="AO169">
+        <v>0</v>
+      </c>
+      <c r="AP169">
+        <v>0</v>
+      </c>
+      <c r="AQ169">
+        <v>1.93</v>
+      </c>
+      <c r="AR169">
+        <v>0.85</v>
+      </c>
+      <c r="AS169">
+        <v>1.8</v>
+      </c>
+      <c r="AT169">
+        <v>1</v>
+      </c>
+      <c r="AU169">
+        <v>1.32</v>
+      </c>
+      <c r="AV169">
+        <v>1.32</v>
+      </c>
+      <c r="AW169">
+        <v>2.64</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>4</v>
+      </c>
+      <c r="BG169">
+        <v>5</v>
+      </c>
+      <c r="BH169">
+        <v>5</v>
+      </c>
+      <c r="BI169">
+        <v>6</v>
+      </c>
+      <c r="BJ169">
+        <v>9</v>
+      </c>
+      <c r="BK169">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,9 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -596,9 +599,6 @@
   </si>
   <si>
     <t>['27', '77']</t>
-  </si>
-  <si>
-    <t>['38']</t>
   </si>
   <si>
     <t>['57', '90+11']</t>
@@ -1182,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1808,7 +1808,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2190,7 +2190,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2572,7 +2572,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2763,7 +2763,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2954,7 +2954,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT18">
         <v>0.73</v>
@@ -6861,7 +6861,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7625,7 +7625,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT34">
         <v>2.08</v>
@@ -9917,7 +9917,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
         <v>2.21</v>
@@ -12018,7 +12018,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
         <v>1.53</v>
@@ -14987,7 +14987,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15456,7 +15456,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT75">
         <v>1.47</v>
@@ -17748,7 +17748,7 @@
         <v>1.43</v>
       </c>
       <c r="AS87">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
         <v>1.15</v>
@@ -21186,7 +21186,7 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
         <v>0.93</v>
@@ -24051,7 +24051,7 @@
         <v>1.44</v>
       </c>
       <c r="AS120">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
         <v>1.5</v>
@@ -26534,7 +26534,7 @@
         <v>0.8</v>
       </c>
       <c r="AS133">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT133">
         <v>0.92</v>
@@ -27298,7 +27298,7 @@
         <v>0.27</v>
       </c>
       <c r="AS137">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT137">
         <v>0.73</v>
@@ -29781,7 +29781,7 @@
         <v>1.5</v>
       </c>
       <c r="AS150">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT150">
         <v>1.47</v>
@@ -31882,7 +31882,7 @@
         <v>1.77</v>
       </c>
       <c r="AS161">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT161">
         <v>1.53</v>
@@ -33465,6 +33465,197 @@
       </c>
       <c r="BK169">
         <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>6604001</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45156.83333333334</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170" t="s">
+        <v>67</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>190</v>
+      </c>
+      <c r="P170" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q170">
+        <v>2</v>
+      </c>
+      <c r="R170">
+        <v>4</v>
+      </c>
+      <c r="S170">
+        <v>6</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+      <c r="AC170">
+        <v>1.69</v>
+      </c>
+      <c r="AD170">
+        <v>7.19</v>
+      </c>
+      <c r="AE170">
+        <v>2.64</v>
+      </c>
+      <c r="AF170">
+        <v>0</v>
+      </c>
+      <c r="AG170">
+        <v>0</v>
+      </c>
+      <c r="AH170">
+        <v>0</v>
+      </c>
+      <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
+        <v>1.75</v>
+      </c>
+      <c r="AK170">
+        <v>2</v>
+      </c>
+      <c r="AL170">
+        <v>0</v>
+      </c>
+      <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>0</v>
+      </c>
+      <c r="AO170">
+        <v>0</v>
+      </c>
+      <c r="AP170">
+        <v>0</v>
+      </c>
+      <c r="AQ170">
+        <v>1.36</v>
+      </c>
+      <c r="AR170">
+        <v>1</v>
+      </c>
+      <c r="AS170">
+        <v>1.33</v>
+      </c>
+      <c r="AT170">
+        <v>1</v>
+      </c>
+      <c r="AU170">
+        <v>1.57</v>
+      </c>
+      <c r="AV170">
+        <v>1.11</v>
+      </c>
+      <c r="AW170">
+        <v>2.68</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>3</v>
+      </c>
+      <c r="BI170">
+        <v>3</v>
+      </c>
+      <c r="BJ170">
+        <v>3</v>
+      </c>
+      <c r="BK170">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,12 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['6', '70']</t>
+  </si>
+  <si>
+    <t>['68', '84']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -821,6 +827,15 @@
   </si>
   <si>
     <t>['45+2', '51']</t>
+  </si>
+  <si>
+    <t>['16', '52', '87']</t>
+  </si>
+  <si>
+    <t>['41', '54']</t>
+  </si>
+  <si>
+    <t>['3', '9', '74']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT2">
         <v>1.53</v>
@@ -1808,7 +1823,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2190,7 +2205,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2280,7 +2295,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2572,7 +2587,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2763,7 +2778,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2850,10 +2865,10 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3044,7 +3059,7 @@
         <v>1.8</v>
       </c>
       <c r="AT10">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>1.03</v>
@@ -3145,7 +3160,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3423,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT12">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3527,7 +3542,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3718,7 +3733,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3805,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3909,7 +3924,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4291,7 +4306,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4381,7 +4396,7 @@
         <v>0.71</v>
       </c>
       <c r="AT17">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU17">
         <v>0.9</v>
@@ -4673,7 +4688,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4864,7 +4879,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4954,7 +4969,7 @@
         <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>0.8</v>
@@ -5055,7 +5070,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5246,7 +5261,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5333,7 +5348,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT22">
         <v>2.21</v>
@@ -5437,7 +5452,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5527,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU23">
         <v>1.25</v>
@@ -5715,10 +5730,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU24">
         <v>1.41</v>
@@ -6288,7 +6303,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -6479,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT28">
         <v>0.73</v>
@@ -6583,7 +6598,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6673,7 +6688,7 @@
         <v>1.43</v>
       </c>
       <c r="AT29">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU29">
         <v>1.02</v>
@@ -6965,7 +6980,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7055,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7246,7 +7261,7 @@
         <v>0.71</v>
       </c>
       <c r="AT32">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU32">
         <v>0.79</v>
@@ -7347,7 +7362,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7434,7 +7449,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT33">
         <v>1.53</v>
@@ -7538,7 +7553,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7628,7 +7643,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU34">
         <v>1.92</v>
@@ -7816,7 +7831,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT35">
         <v>0.92</v>
@@ -7920,7 +7935,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8198,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT37">
         <v>1.21</v>
@@ -8389,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8493,7 +8508,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8684,7 +8699,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8965,7 +8980,7 @@
         <v>1.14</v>
       </c>
       <c r="AT41">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU41">
         <v>1.4</v>
@@ -9066,7 +9081,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9344,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT43">
         <v>0.73</v>
@@ -9538,7 +9553,7 @@
         <v>0.71</v>
       </c>
       <c r="AT44">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU44">
         <v>0.84</v>
@@ -9639,7 +9654,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9726,7 +9741,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -9830,7 +9845,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10021,7 +10036,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10212,7 +10227,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10302,7 +10317,7 @@
         <v>1.43</v>
       </c>
       <c r="AT48">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU48">
         <v>1.06</v>
@@ -10594,7 +10609,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10681,7 +10696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -10785,7 +10800,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11254,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT53">
         <v>0.73</v>
@@ -11448,7 +11463,7 @@
         <v>0.87</v>
       </c>
       <c r="AT54">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11636,10 +11651,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT55">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU55">
         <v>1.81</v>
@@ -12122,7 +12137,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12313,7 +12328,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12591,10 +12606,10 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT60">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>1.98</v>
@@ -12785,7 +12800,7 @@
         <v>1.43</v>
       </c>
       <c r="AT61">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU61">
         <v>1.02</v>
@@ -12973,10 +12988,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT62">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU62">
         <v>1.09</v>
@@ -13164,7 +13179,7 @@
         <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13268,7 +13283,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13650,7 +13665,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13841,7 +13856,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13928,10 +13943,10 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT67">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU67">
         <v>1.59</v>
@@ -14032,7 +14047,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14119,7 +14134,7 @@
         <v>1.2</v>
       </c>
       <c r="AS68">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT68">
         <v>1</v>
@@ -14310,7 +14325,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
         <v>1.21</v>
@@ -14414,7 +14429,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14504,7 +14519,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU70">
         <v>1.31</v>
@@ -14605,7 +14620,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14695,7 +14710,7 @@
         <v>1.14</v>
       </c>
       <c r="AT71">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>1.27</v>
@@ -14883,7 +14898,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT72">
         <v>2.21</v>
@@ -14987,7 +15002,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15077,7 +15092,7 @@
         <v>0.87</v>
       </c>
       <c r="AT73">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU73">
         <v>1.41</v>
@@ -15560,7 +15575,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15650,7 +15665,7 @@
         <v>1.8</v>
       </c>
       <c r="AT76">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU76">
         <v>1.48</v>
@@ -15751,7 +15766,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16029,7 +16044,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT78">
         <v>0.92</v>
@@ -16133,7 +16148,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16605,7 +16620,7 @@
         <v>0.87</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU81">
         <v>1.43</v>
@@ -16984,10 +16999,10 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT83">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU83">
         <v>1.36</v>
@@ -17088,7 +17103,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17175,7 +17190,7 @@
         <v>2.17</v>
       </c>
       <c r="AS84">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT84">
         <v>2.21</v>
@@ -17279,7 +17294,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17366,10 +17381,10 @@
         <v>2.17</v>
       </c>
       <c r="AS85">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT85">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU85">
         <v>1.37</v>
@@ -17751,7 +17766,7 @@
         <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -18130,7 +18145,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT89">
         <v>0.92</v>
@@ -18321,7 +18336,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT90">
         <v>1.47</v>
@@ -18703,10 +18718,10 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU92">
         <v>1.44</v>
@@ -18894,7 +18909,7 @@
         <v>1.71</v>
       </c>
       <c r="AS93">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT93">
         <v>1.53</v>
@@ -19088,7 +19103,7 @@
         <v>1.8</v>
       </c>
       <c r="AT94">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU94">
         <v>1.26</v>
@@ -19189,7 +19204,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19279,7 +19294,7 @@
         <v>0.87</v>
       </c>
       <c r="AT95">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU95">
         <v>1.38</v>
@@ -20231,10 +20246,10 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT100">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20335,7 +20350,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20526,7 +20541,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20613,7 +20628,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT102">
         <v>1.47</v>
@@ -20908,7 +20923,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21189,7 +21204,7 @@
         <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU105">
         <v>1.66</v>
@@ -21377,10 +21392,10 @@
         <v>2.38</v>
       </c>
       <c r="AS106">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT106">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21481,7 +21496,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21762,7 +21777,7 @@
         <v>1.8</v>
       </c>
       <c r="AT108">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU108">
         <v>1.28</v>
@@ -21950,7 +21965,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT109">
         <v>0.92</v>
@@ -22141,7 +22156,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT110">
         <v>1.21</v>
@@ -22245,7 +22260,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22335,7 +22350,7 @@
         <v>1.8</v>
       </c>
       <c r="AT111">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU111">
         <v>1.4</v>
@@ -22436,7 +22451,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22523,10 +22538,10 @@
         <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT112">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU112">
         <v>1.34</v>
@@ -23096,7 +23111,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT115">
         <v>1.47</v>
@@ -23391,7 +23406,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23582,7 +23597,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23669,10 +23684,10 @@
         <v>2.22</v>
       </c>
       <c r="AS118">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT118">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU118">
         <v>1.5</v>
@@ -23773,7 +23788,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23964,7 +23979,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24054,7 +24069,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU120">
         <v>1.68</v>
@@ -24155,7 +24170,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24346,7 +24361,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24433,7 +24448,7 @@
         <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT122">
         <v>1.21</v>
@@ -24728,7 +24743,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24815,10 +24830,10 @@
         <v>1.4</v>
       </c>
       <c r="AS124">
+        <v>1.27</v>
+      </c>
+      <c r="AT124">
         <v>1.29</v>
-      </c>
-      <c r="AT124">
-        <v>1.15</v>
       </c>
       <c r="AU124">
         <v>1.46</v>
@@ -25009,7 +25024,7 @@
         <v>1.14</v>
       </c>
       <c r="AT125">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU125">
         <v>1.49</v>
@@ -25197,7 +25212,7 @@
         <v>0.3</v>
       </c>
       <c r="AS126">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT126">
         <v>0.73</v>
@@ -25301,7 +25316,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25492,7 +25507,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25770,10 +25785,10 @@
         <v>1.6</v>
       </c>
       <c r="AS129">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT129">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU129">
         <v>1.75</v>
@@ -26065,7 +26080,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26256,7 +26271,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26346,7 +26361,7 @@
         <v>1</v>
       </c>
       <c r="AT132">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU132">
         <v>1.19</v>
@@ -26447,7 +26462,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26728,7 +26743,7 @@
         <v>0.87</v>
       </c>
       <c r="AT134">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU134">
         <v>1.53</v>
@@ -26916,7 +26931,7 @@
         <v>1.64</v>
       </c>
       <c r="AS135">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT135">
         <v>1.47</v>
@@ -27020,7 +27035,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27110,7 +27125,7 @@
         <v>1.8</v>
       </c>
       <c r="AT136">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU136">
         <v>1.34</v>
@@ -27211,7 +27226,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27402,7 +27417,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27489,7 +27504,7 @@
         <v>1.55</v>
       </c>
       <c r="AS138">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT138">
         <v>1.53</v>
@@ -27593,7 +27608,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27784,7 +27799,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28065,7 +28080,7 @@
         <v>1.14</v>
       </c>
       <c r="AT141">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU141">
         <v>1.52</v>
@@ -28256,7 +28271,7 @@
         <v>1.43</v>
       </c>
       <c r="AT142">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU142">
         <v>1.21</v>
@@ -28357,7 +28372,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28444,7 +28459,7 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT143">
         <v>2.21</v>
@@ -28548,7 +28563,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28739,7 +28754,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28826,7 +28841,7 @@
         <v>0.5</v>
       </c>
       <c r="AS145">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT145">
         <v>0.73</v>
@@ -28930,7 +28945,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29121,7 +29136,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29402,7 +29417,7 @@
         <v>1.8</v>
       </c>
       <c r="AT148">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -29503,7 +29518,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29590,10 +29605,10 @@
         <v>1.42</v>
       </c>
       <c r="AS149">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT149">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU149">
         <v>1.52</v>
@@ -29694,7 +29709,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29885,7 +29900,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -29972,7 +29987,7 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT151">
         <v>1</v>
@@ -30354,7 +30369,7 @@
         <v>1.62</v>
       </c>
       <c r="AS153">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT153">
         <v>1.47</v>
@@ -30458,7 +30473,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30649,7 +30664,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30840,7 +30855,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31031,7 +31046,7 @@
         <v>85</v>
       </c>
       <c r="P157" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31121,7 +31136,7 @@
         <v>0.87</v>
       </c>
       <c r="AT157">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU157">
         <v>1.46</v>
@@ -31309,10 +31324,10 @@
         <v>0.92</v>
       </c>
       <c r="AS158">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT158">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU158">
         <v>1.69</v>
@@ -31413,7 +31428,7 @@
         <v>181</v>
       </c>
       <c r="P159" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31503,7 +31518,7 @@
         <v>1.8</v>
       </c>
       <c r="AT159">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU159">
         <v>1.63</v>
@@ -31604,7 +31619,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31691,7 +31706,7 @@
         <v>0.92</v>
       </c>
       <c r="AS160">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT160">
         <v>0.92</v>
@@ -31795,7 +31810,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32073,7 +32088,7 @@
         <v>1.08</v>
       </c>
       <c r="AS162">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT162">
         <v>1</v>
@@ -32177,7 +32192,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32267,7 +32282,7 @@
         <v>1</v>
       </c>
       <c r="AT163">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU163">
         <v>1.13</v>
@@ -33323,7 +33338,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33514,16 +33529,16 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R170">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S170">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T170">
         <v>0</v>
@@ -33643,19 +33658,783 @@
         <v>0</v>
       </c>
       <c r="BG170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH170">
+        <v>7</v>
+      </c>
+      <c r="BI170">
+        <v>4</v>
+      </c>
+      <c r="BJ170">
+        <v>7</v>
+      </c>
+      <c r="BK170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>6604002</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45157.75</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>72</v>
+      </c>
+      <c r="H171" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
         <v>3</v>
       </c>
-      <c r="BI170">
+      <c r="N171">
         <v>3</v>
       </c>
-      <c r="BJ170">
+      <c r="O171" t="s">
+        <v>85</v>
+      </c>
+      <c r="P171" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q171">
+        <v>6</v>
+      </c>
+      <c r="R171">
         <v>3</v>
       </c>
-      <c r="BK170">
+      <c r="S171">
+        <v>9</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+      <c r="AC171">
+        <v>2.3</v>
+      </c>
+      <c r="AD171">
+        <v>3.3</v>
+      </c>
+      <c r="AE171">
+        <v>2.8</v>
+      </c>
+      <c r="AF171">
+        <v>0</v>
+      </c>
+      <c r="AG171">
+        <v>0</v>
+      </c>
+      <c r="AH171">
+        <v>0</v>
+      </c>
+      <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
+        <v>1.78</v>
+      </c>
+      <c r="AK171">
+        <v>1.93</v>
+      </c>
+      <c r="AL171">
+        <v>0</v>
+      </c>
+      <c r="AM171">
+        <v>0</v>
+      </c>
+      <c r="AN171">
+        <v>0</v>
+      </c>
+      <c r="AO171">
+        <v>0</v>
+      </c>
+      <c r="AP171">
+        <v>0</v>
+      </c>
+      <c r="AQ171">
+        <v>1.31</v>
+      </c>
+      <c r="AR171">
+        <v>1.5</v>
+      </c>
+      <c r="AS171">
+        <v>1.21</v>
+      </c>
+      <c r="AT171">
+        <v>1.6</v>
+      </c>
+      <c r="AU171">
+        <v>1.3</v>
+      </c>
+      <c r="AV171">
+        <v>1.37</v>
+      </c>
+      <c r="AW171">
+        <v>2.67</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>2</v>
+      </c>
+      <c r="BG171">
         <v>3</v>
+      </c>
+      <c r="BH171">
+        <v>4</v>
+      </c>
+      <c r="BI171">
+        <v>3</v>
+      </c>
+      <c r="BJ171">
+        <v>6</v>
+      </c>
+      <c r="BK171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>6604005</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45157.85416666666</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>65</v>
+      </c>
+      <c r="H172" t="s">
+        <v>66</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>85</v>
+      </c>
+      <c r="P172" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q172">
+        <v>6</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172">
+        <v>7</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
+      <c r="AC172">
+        <v>1.44</v>
+      </c>
+      <c r="AD172">
+        <v>4.4</v>
+      </c>
+      <c r="AE172">
+        <v>5.77</v>
+      </c>
+      <c r="AF172">
+        <v>0</v>
+      </c>
+      <c r="AG172">
+        <v>0</v>
+      </c>
+      <c r="AH172">
+        <v>0</v>
+      </c>
+      <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
+        <v>1.65</v>
+      </c>
+      <c r="AK172">
+        <v>2.11</v>
+      </c>
+      <c r="AL172">
+        <v>0</v>
+      </c>
+      <c r="AM172">
+        <v>0</v>
+      </c>
+      <c r="AN172">
+        <v>0</v>
+      </c>
+      <c r="AO172">
+        <v>0</v>
+      </c>
+      <c r="AP172">
+        <v>0</v>
+      </c>
+      <c r="AQ172">
+        <v>2.57</v>
+      </c>
+      <c r="AR172">
+        <v>1.15</v>
+      </c>
+      <c r="AS172">
+        <v>2.4</v>
+      </c>
+      <c r="AT172">
+        <v>1.29</v>
+      </c>
+      <c r="AU172">
+        <v>1.7</v>
+      </c>
+      <c r="AV172">
+        <v>1.23</v>
+      </c>
+      <c r="AW172">
+        <v>2.93</v>
+      </c>
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>0</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>2</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>6</v>
+      </c>
+      <c r="BI172">
+        <v>4</v>
+      </c>
+      <c r="BJ172">
+        <v>8</v>
+      </c>
+      <c r="BK172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>6604006</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45158.75</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>74</v>
+      </c>
+      <c r="H173" t="s">
+        <v>69</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>191</v>
+      </c>
+      <c r="P173" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q173">
+        <v>1</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+      <c r="S173">
+        <v>4</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <v>3.07</v>
+      </c>
+      <c r="AD173">
+        <v>3.2</v>
+      </c>
+      <c r="AE173">
+        <v>1.92</v>
+      </c>
+      <c r="AF173">
+        <v>0</v>
+      </c>
+      <c r="AG173">
+        <v>0</v>
+      </c>
+      <c r="AH173">
+        <v>0</v>
+      </c>
+      <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
+        <v>1.78</v>
+      </c>
+      <c r="AK173">
+        <v>1.94</v>
+      </c>
+      <c r="AL173">
+        <v>0</v>
+      </c>
+      <c r="AM173">
+        <v>0</v>
+      </c>
+      <c r="AN173">
+        <v>0</v>
+      </c>
+      <c r="AO173">
+        <v>0</v>
+      </c>
+      <c r="AP173">
+        <v>0</v>
+      </c>
+      <c r="AQ173">
+        <v>1.29</v>
+      </c>
+      <c r="AR173">
+        <v>2.08</v>
+      </c>
+      <c r="AS173">
+        <v>1.27</v>
+      </c>
+      <c r="AT173">
+        <v>2</v>
+      </c>
+      <c r="AU173">
+        <v>1.53</v>
+      </c>
+      <c r="AV173">
+        <v>1.35</v>
+      </c>
+      <c r="AW173">
+        <v>2.88</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="AZ173">
+        <v>0</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>0</v>
+      </c>
+      <c r="BC173">
+        <v>0</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>2</v>
+      </c>
+      <c r="BG173">
+        <v>4</v>
+      </c>
+      <c r="BH173">
+        <v>1</v>
+      </c>
+      <c r="BI173">
+        <v>3</v>
+      </c>
+      <c r="BJ173">
+        <v>3</v>
+      </c>
+      <c r="BK173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>6604003</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45158.85416666666</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>76</v>
+      </c>
+      <c r="H174" t="s">
+        <v>68</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>3</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174" t="s">
+        <v>192</v>
+      </c>
+      <c r="P174" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q174">
+        <v>10</v>
+      </c>
+      <c r="R174">
+        <v>4</v>
+      </c>
+      <c r="S174">
+        <v>14</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+      <c r="AC174">
+        <v>1.73</v>
+      </c>
+      <c r="AD174">
+        <v>3.4</v>
+      </c>
+      <c r="AE174">
+        <v>4.05</v>
+      </c>
+      <c r="AF174">
+        <v>0</v>
+      </c>
+      <c r="AG174">
+        <v>0</v>
+      </c>
+      <c r="AH174">
+        <v>0</v>
+      </c>
+      <c r="AI174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
+        <v>2.16</v>
+      </c>
+      <c r="AK174">
+        <v>1.66</v>
+      </c>
+      <c r="AL174">
+        <v>0</v>
+      </c>
+      <c r="AM174">
+        <v>0</v>
+      </c>
+      <c r="AN174">
+        <v>0</v>
+      </c>
+      <c r="AO174">
+        <v>0</v>
+      </c>
+      <c r="AP174">
+        <v>0</v>
+      </c>
+      <c r="AQ174">
+        <v>1.46</v>
+      </c>
+      <c r="AR174">
+        <v>0.93</v>
+      </c>
+      <c r="AS174">
+        <v>1.36</v>
+      </c>
+      <c r="AT174">
+        <v>1.07</v>
+      </c>
+      <c r="AU174">
+        <v>1.47</v>
+      </c>
+      <c r="AV174">
+        <v>1.21</v>
+      </c>
+      <c r="AW174">
+        <v>2.68</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>0</v>
+      </c>
+      <c r="AZ174">
+        <v>0</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>0</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>6</v>
+      </c>
+      <c r="BG174">
+        <v>4</v>
+      </c>
+      <c r="BH174">
+        <v>8</v>
+      </c>
+      <c r="BI174">
+        <v>1</v>
+      </c>
+      <c r="BJ174">
+        <v>14</v>
+      </c>
+      <c r="BK174">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1197,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2104,7 +2104,7 @@
         <v>1.43</v>
       </c>
       <c r="AT5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -3632,7 +3632,7 @@
         <v>1.14</v>
       </c>
       <c r="AT13">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT23">
         <v>1.07</v>
@@ -6115,7 +6115,7 @@
         <v>1.8</v>
       </c>
       <c r="AT26">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU26">
         <v>1.32</v>
@@ -7067,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT31">
         <v>1.6</v>
@@ -7834,7 +7834,7 @@
         <v>1.27</v>
       </c>
       <c r="AT35">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU35">
         <v>1.35</v>
@@ -10505,10 +10505,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT49">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU49">
         <v>1.44</v>
@@ -11842,7 +11842,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT56">
         <v>1.47</v>
@@ -12418,7 +12418,7 @@
         <v>0.71</v>
       </c>
       <c r="AT59">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU59">
         <v>1</v>
@@ -14516,7 +14516,7 @@
         <v>1.4</v>
       </c>
       <c r="AS70">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT70">
         <v>1.29</v>
@@ -16047,7 +16047,7 @@
         <v>2.4</v>
       </c>
       <c r="AT78">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU78">
         <v>1.9</v>
@@ -16808,7 +16808,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT82">
         <v>1.21</v>
@@ -18148,7 +18148,7 @@
         <v>1.21</v>
       </c>
       <c r="AT89">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU89">
         <v>1.37</v>
@@ -19673,7 +19673,7 @@
         <v>2.29</v>
       </c>
       <c r="AS97">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT97">
         <v>2.21</v>
@@ -21583,7 +21583,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT107">
         <v>1.53</v>
@@ -21968,7 +21968,7 @@
         <v>1.36</v>
       </c>
       <c r="AT109">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU109">
         <v>1.43</v>
@@ -23305,7 +23305,7 @@
         <v>1.8</v>
       </c>
       <c r="AT116">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -24257,7 +24257,7 @@
         <v>0.78</v>
       </c>
       <c r="AS121">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT121">
         <v>1</v>
@@ -26358,7 +26358,7 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT132">
         <v>2</v>
@@ -26552,7 +26552,7 @@
         <v>1.33</v>
       </c>
       <c r="AT133">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU133">
         <v>1.68</v>
@@ -29032,7 +29032,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT146">
         <v>1.53</v>
@@ -29226,7 +29226,7 @@
         <v>1.8</v>
       </c>
       <c r="AT147">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU147">
         <v>1.37</v>
@@ -31709,7 +31709,7 @@
         <v>1.27</v>
       </c>
       <c r="AT160">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU160">
         <v>1.51</v>
@@ -32279,7 +32279,7 @@
         <v>1.54</v>
       </c>
       <c r="AS163">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT163">
         <v>1.6</v>
@@ -34105,13 +34105,13 @@
         <v>272</v>
       </c>
       <c r="Q173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R173">
         <v>3</v>
       </c>
       <c r="S173">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T173">
         <v>0</v>
@@ -34228,7 +34228,7 @@
         <v>0</v>
       </c>
       <c r="BF173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG173">
         <v>4</v>
@@ -34237,13 +34237,13 @@
         <v>1</v>
       </c>
       <c r="BI173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ173">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK173">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:63">
@@ -34435,6 +34435,197 @@
       </c>
       <c r="BK174">
         <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>6604004</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45159.83333333334</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" t="s">
+        <v>73</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>120</v>
+      </c>
+      <c r="P175" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q175">
+        <v>6</v>
+      </c>
+      <c r="R175">
+        <v>7</v>
+      </c>
+      <c r="S175">
+        <v>13</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <v>2.31</v>
+      </c>
+      <c r="AD175">
+        <v>3.2</v>
+      </c>
+      <c r="AE175">
+        <v>2.69</v>
+      </c>
+      <c r="AF175">
+        <v>0</v>
+      </c>
+      <c r="AG175">
+        <v>0</v>
+      </c>
+      <c r="AH175">
+        <v>0</v>
+      </c>
+      <c r="AI175">
+        <v>0</v>
+      </c>
+      <c r="AJ175">
+        <v>2</v>
+      </c>
+      <c r="AK175">
+        <v>1.8</v>
+      </c>
+      <c r="AL175">
+        <v>0</v>
+      </c>
+      <c r="AM175">
+        <v>0</v>
+      </c>
+      <c r="AN175">
+        <v>0</v>
+      </c>
+      <c r="AO175">
+        <v>0</v>
+      </c>
+      <c r="AP175">
+        <v>0</v>
+      </c>
+      <c r="AQ175">
+        <v>1</v>
+      </c>
+      <c r="AR175">
+        <v>0.92</v>
+      </c>
+      <c r="AS175">
+        <v>1.14</v>
+      </c>
+      <c r="AT175">
+        <v>0.86</v>
+      </c>
+      <c r="AU175">
+        <v>1.13</v>
+      </c>
+      <c r="AV175">
+        <v>1.32</v>
+      </c>
+      <c r="AW175">
+        <v>2.45</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>0</v>
+      </c>
+      <c r="AZ175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>0</v>
+      </c>
+      <c r="BC175">
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>4</v>
+      </c>
+      <c r="BG175">
+        <v>7</v>
+      </c>
+      <c r="BH175">
+        <v>13</v>
+      </c>
+      <c r="BI175">
+        <v>9</v>
+      </c>
+      <c r="BJ175">
+        <v>17</v>
+      </c>
+      <c r="BK175">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,9 @@
     <t>['68', '84']</t>
   </si>
   <si>
+    <t>['23', '27', '74', '78']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -836,6 +839,12 @@
   </si>
   <si>
     <t>['3', '9', '74']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1823,7 +1832,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2205,7 +2214,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2292,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT6">
         <v>1.6</v>
@@ -2587,7 +2596,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2677,7 +2686,7 @@
         <v>1.14</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2778,7 +2787,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3056,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT10">
         <v>2</v>
@@ -3160,7 +3169,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3250,7 +3259,7 @@
         <v>0.87</v>
       </c>
       <c r="AT11">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3542,7 +3551,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3629,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT13">
         <v>0.86</v>
@@ -3733,7 +3742,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3924,7 +3933,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4202,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
         <v>1.53</v>
@@ -4306,7 +4315,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4587,7 +4596,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>1.41</v>
@@ -4688,7 +4697,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4879,7 +4888,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5070,7 +5079,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5157,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT21">
         <v>1.21</v>
@@ -5261,7 +5270,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5351,7 +5360,7 @@
         <v>1.36</v>
       </c>
       <c r="AT22">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5452,7 +5461,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5921,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT25">
         <v>1.47</v>
@@ -6112,7 +6121,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT26">
         <v>0.86</v>
@@ -6497,7 +6506,7 @@
         <v>2.4</v>
       </c>
       <c r="AT28">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU28">
         <v>1.25</v>
@@ -6598,7 +6607,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6879,7 +6888,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU30">
         <v>1.8</v>
@@ -6980,7 +6989,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7362,7 +7371,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7553,7 +7562,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7935,7 +7944,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8022,10 +8031,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU36">
         <v>1.14</v>
@@ -8407,7 +8416,7 @@
         <v>2.4</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU38">
         <v>1.61</v>
@@ -8508,7 +8517,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8699,7 +8708,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8977,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT41">
         <v>1.29</v>
@@ -9081,7 +9090,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9168,7 +9177,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9362,7 +9371,7 @@
         <v>1.21</v>
       </c>
       <c r="AT43">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU43">
         <v>1.73</v>
@@ -9654,7 +9663,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9845,7 +9854,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9935,7 +9944,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU46">
         <v>1.81</v>
@@ -10036,7 +10045,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10123,7 +10132,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT47">
         <v>1.53</v>
@@ -10227,7 +10236,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10609,7 +10618,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10699,7 +10708,7 @@
         <v>1.21</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10800,7 +10809,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10887,7 +10896,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT51">
         <v>1.21</v>
@@ -11078,7 +11087,7 @@
         <v>2.5</v>
       </c>
       <c r="AS52">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT52">
         <v>1.47</v>
@@ -11272,7 +11281,7 @@
         <v>1.27</v>
       </c>
       <c r="AT53">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU53">
         <v>1.25</v>
@@ -12137,7 +12146,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12224,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12328,7 +12337,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13182,7 +13191,7 @@
         <v>1.27</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU63">
         <v>1.27</v>
@@ -13283,7 +13292,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13561,10 +13570,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT65">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13665,7 +13674,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13752,10 +13761,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -13856,7 +13865,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14047,7 +14056,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14137,7 +14146,7 @@
         <v>1.36</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14429,7 +14438,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14620,7 +14629,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14707,7 +14716,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT71">
         <v>2</v>
@@ -14901,7 +14910,7 @@
         <v>1.21</v>
       </c>
       <c r="AT72">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU72">
         <v>1.46</v>
@@ -15002,7 +15011,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15283,7 +15292,7 @@
         <v>0.71</v>
       </c>
       <c r="AT74">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15575,7 +15584,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15662,7 +15671,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT76">
         <v>1.29</v>
@@ -15766,7 +15775,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15853,7 +15862,7 @@
         <v>1.83</v>
       </c>
       <c r="AS77">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT77">
         <v>1.53</v>
@@ -16148,7 +16157,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16426,10 +16435,10 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU80">
         <v>1.21</v>
@@ -17103,7 +17112,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17193,7 +17202,7 @@
         <v>1.27</v>
       </c>
       <c r="AT84">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU84">
         <v>1.4</v>
@@ -17294,7 +17303,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17575,7 +17584,7 @@
         <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17954,10 +17963,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU88">
         <v>1.41</v>
@@ -18527,7 +18536,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -19100,7 +19109,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT94">
         <v>1.07</v>
@@ -19204,7 +19213,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19676,7 +19685,7 @@
         <v>1.14</v>
       </c>
       <c r="AT97">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU97">
         <v>1.27</v>
@@ -19867,7 +19876,7 @@
         <v>1.43</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU98">
         <v>1.13</v>
@@ -20055,10 +20064,10 @@
         <v>0.38</v>
       </c>
       <c r="AS99">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU99">
         <v>1.42</v>
@@ -20350,7 +20359,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20437,7 +20446,7 @@
         <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT101">
         <v>1.21</v>
@@ -20541,7 +20550,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20923,7 +20932,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21013,7 +21022,7 @@
         <v>0.71</v>
       </c>
       <c r="AT104">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU104">
         <v>1.08</v>
@@ -21496,7 +21505,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21774,7 +21783,7 @@
         <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT108">
         <v>1.6</v>
@@ -22260,7 +22269,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22347,7 +22356,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS111">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT111">
         <v>1.07</v>
@@ -22451,7 +22460,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22732,7 +22741,7 @@
         <v>0.87</v>
       </c>
       <c r="AT113">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU113">
         <v>1.43</v>
@@ -22920,10 +22929,10 @@
         <v>0.78</v>
       </c>
       <c r="AS114">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -23302,7 +23311,7 @@
         <v>0.89</v>
       </c>
       <c r="AS116">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT116">
         <v>0.86</v>
@@ -23406,7 +23415,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23496,7 +23505,7 @@
         <v>1.43</v>
       </c>
       <c r="AT117">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU117">
         <v>1.15</v>
@@ -23597,7 +23606,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23788,7 +23797,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23979,7 +23988,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24170,7 +24179,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24361,7 +24370,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24639,10 +24648,10 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT123">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU123">
         <v>1.49</v>
@@ -24743,7 +24752,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25021,7 +25030,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT125">
         <v>1.07</v>
@@ -25215,7 +25224,7 @@
         <v>1.36</v>
       </c>
       <c r="AT126">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25316,7 +25325,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25406,7 +25415,7 @@
         <v>0.87</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25507,7 +25516,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26080,7 +26089,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26167,7 +26176,7 @@
         <v>1.8</v>
       </c>
       <c r="AS131">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT131">
         <v>1.47</v>
@@ -26271,7 +26280,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26462,7 +26471,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -27035,7 +27044,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27122,7 +27131,7 @@
         <v>1.55</v>
       </c>
       <c r="AS136">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT136">
         <v>1.6</v>
@@ -27226,7 +27235,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27316,7 +27325,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU137">
         <v>1.64</v>
@@ -27417,7 +27426,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27608,7 +27617,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27695,10 +27704,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -27799,7 +27808,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28077,7 +28086,7 @@
         <v>1.91</v>
       </c>
       <c r="AS141">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT141">
         <v>2</v>
@@ -28372,7 +28381,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28462,7 +28471,7 @@
         <v>1.21</v>
       </c>
       <c r="AT143">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU143">
         <v>1.28</v>
@@ -28563,7 +28572,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28754,7 +28763,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28844,7 +28853,7 @@
         <v>1.36</v>
       </c>
       <c r="AT145">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU145">
         <v>1.5</v>
@@ -28945,7 +28954,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29136,7 +29145,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29223,7 +29232,7 @@
         <v>0.73</v>
       </c>
       <c r="AS147">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT147">
         <v>0.86</v>
@@ -29414,7 +29423,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT148">
         <v>1.07</v>
@@ -29518,7 +29527,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29709,7 +29718,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29900,7 +29909,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -29990,7 +29999,7 @@
         <v>2.4</v>
       </c>
       <c r="AT151">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU151">
         <v>1.73</v>
@@ -30473,7 +30482,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30560,7 +30569,7 @@
         <v>1.25</v>
       </c>
       <c r="AS154">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT154">
         <v>1.21</v>
@@ -30664,7 +30673,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30751,10 +30760,10 @@
         <v>2.08</v>
       </c>
       <c r="AS155">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU155">
         <v>1.51</v>
@@ -30855,7 +30864,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -30945,7 +30954,7 @@
         <v>0.71</v>
       </c>
       <c r="AT156">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU156">
         <v>1.06</v>
@@ -31046,7 +31055,7 @@
         <v>85</v>
       </c>
       <c r="P157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31428,7 +31437,7 @@
         <v>181</v>
       </c>
       <c r="P159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31515,7 +31524,7 @@
         <v>1.25</v>
       </c>
       <c r="AS159">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT159">
         <v>1.29</v>
@@ -31619,7 +31628,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31810,7 +31819,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32091,7 +32100,7 @@
         <v>1.36</v>
       </c>
       <c r="AT162">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU162">
         <v>1.48</v>
@@ -32192,7 +32201,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32470,7 +32479,7 @@
         <v>1.57</v>
       </c>
       <c r="AS164">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT164">
         <v>1.47</v>
@@ -32664,7 +32673,7 @@
         <v>0.87</v>
       </c>
       <c r="AT165">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU165">
         <v>1.5</v>
@@ -33043,7 +33052,7 @@
         <v>1.23</v>
       </c>
       <c r="AS167">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT167">
         <v>1.21</v>
@@ -33237,7 +33246,7 @@
         <v>1.43</v>
       </c>
       <c r="AT168">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU168">
         <v>1.22</v>
@@ -33338,7 +33347,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33425,7 +33434,7 @@
         <v>0.85</v>
       </c>
       <c r="AS169">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT169">
         <v>1</v>
@@ -33529,7 +33538,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33619,7 +33628,7 @@
         <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU170">
         <v>1.57</v>
@@ -33720,7 +33729,7 @@
         <v>85</v>
       </c>
       <c r="P171" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34102,7 +34111,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34293,7 +34302,7 @@
         <v>192</v>
       </c>
       <c r="P174" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q174">
         <v>10</v>
@@ -34626,6 +34635,579 @@
       </c>
       <c r="BK175">
         <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>6604012</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45163.83333333334</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>75</v>
+      </c>
+      <c r="H176" t="s">
+        <v>67</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>4</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>193</v>
+      </c>
+      <c r="P176" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q176">
+        <v>6</v>
+      </c>
+      <c r="R176">
+        <v>3</v>
+      </c>
+      <c r="S176">
+        <v>9</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
+      </c>
+      <c r="AC176">
+        <v>1.65</v>
+      </c>
+      <c r="AD176">
+        <v>3.45</v>
+      </c>
+      <c r="AE176">
+        <v>4.7</v>
+      </c>
+      <c r="AF176">
+        <v>0</v>
+      </c>
+      <c r="AG176">
+        <v>0</v>
+      </c>
+      <c r="AH176">
+        <v>0</v>
+      </c>
+      <c r="AI176">
+        <v>0</v>
+      </c>
+      <c r="AJ176">
+        <v>1.85</v>
+      </c>
+      <c r="AK176">
+        <v>1.76</v>
+      </c>
+      <c r="AL176">
+        <v>0</v>
+      </c>
+      <c r="AM176">
+        <v>0</v>
+      </c>
+      <c r="AN176">
+        <v>0</v>
+      </c>
+      <c r="AO176">
+        <v>0</v>
+      </c>
+      <c r="AP176">
+        <v>0</v>
+      </c>
+      <c r="AQ176">
+        <v>1.14</v>
+      </c>
+      <c r="AR176">
+        <v>1</v>
+      </c>
+      <c r="AS176">
+        <v>1.27</v>
+      </c>
+      <c r="AT176">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU176">
+        <v>1.53</v>
+      </c>
+      <c r="AV176">
+        <v>1.1</v>
+      </c>
+      <c r="AW176">
+        <v>2.63</v>
+      </c>
+      <c r="AX176">
+        <v>0</v>
+      </c>
+      <c r="AY176">
+        <v>0</v>
+      </c>
+      <c r="AZ176">
+        <v>0</v>
+      </c>
+      <c r="BA176">
+        <v>0</v>
+      </c>
+      <c r="BB176">
+        <v>0</v>
+      </c>
+      <c r="BC176">
+        <v>0</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>8</v>
+      </c>
+      <c r="BG176">
+        <v>6</v>
+      </c>
+      <c r="BH176">
+        <v>5</v>
+      </c>
+      <c r="BI176">
+        <v>5</v>
+      </c>
+      <c r="BJ176">
+        <v>13</v>
+      </c>
+      <c r="BK176">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>6604009</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45164.75</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>66</v>
+      </c>
+      <c r="H177" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>151</v>
+      </c>
+      <c r="P177" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q177">
+        <v>7</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>9</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <v>2.1</v>
+      </c>
+      <c r="AD177">
+        <v>3.3</v>
+      </c>
+      <c r="AE177">
+        <v>3.1</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>0</v>
+      </c>
+      <c r="AH177">
+        <v>0</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>1.77</v>
+      </c>
+      <c r="AK177">
+        <v>1.95</v>
+      </c>
+      <c r="AL177">
+        <v>0</v>
+      </c>
+      <c r="AM177">
+        <v>0</v>
+      </c>
+      <c r="AN177">
+        <v>0</v>
+      </c>
+      <c r="AO177">
+        <v>0</v>
+      </c>
+      <c r="AP177">
+        <v>0</v>
+      </c>
+      <c r="AQ177">
+        <v>1.8</v>
+      </c>
+      <c r="AR177">
+        <v>0.73</v>
+      </c>
+      <c r="AS177">
+        <v>1.75</v>
+      </c>
+      <c r="AT177">
+        <v>0.75</v>
+      </c>
+      <c r="AU177">
+        <v>1.34</v>
+      </c>
+      <c r="AV177">
+        <v>1.21</v>
+      </c>
+      <c r="AW177">
+        <v>2.55</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>2</v>
+      </c>
+      <c r="BG177">
+        <v>0</v>
+      </c>
+      <c r="BH177">
+        <v>6</v>
+      </c>
+      <c r="BI177">
+        <v>3</v>
+      </c>
+      <c r="BJ177">
+        <v>8</v>
+      </c>
+      <c r="BK177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>6604008</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45164.85416666666</v>
+      </c>
+      <c r="F178">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>69</v>
+      </c>
+      <c r="H178" t="s">
+        <v>65</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>77</v>
+      </c>
+      <c r="P178" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q178">
+        <v>6</v>
+      </c>
+      <c r="R178">
+        <v>5</v>
+      </c>
+      <c r="S178">
+        <v>11</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
+      <c r="AC178">
+        <v>2.37</v>
+      </c>
+      <c r="AD178">
+        <v>3</v>
+      </c>
+      <c r="AE178">
+        <v>2.7</v>
+      </c>
+      <c r="AF178">
+        <v>0</v>
+      </c>
+      <c r="AG178">
+        <v>0</v>
+      </c>
+      <c r="AH178">
+        <v>0</v>
+      </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
+        <v>1.81</v>
+      </c>
+      <c r="AK178">
+        <v>1.79</v>
+      </c>
+      <c r="AL178">
+        <v>0</v>
+      </c>
+      <c r="AM178">
+        <v>0</v>
+      </c>
+      <c r="AN178">
+        <v>0</v>
+      </c>
+      <c r="AO178">
+        <v>0</v>
+      </c>
+      <c r="AP178">
+        <v>0</v>
+      </c>
+      <c r="AQ178">
+        <v>1.8</v>
+      </c>
+      <c r="AR178">
+        <v>2.21</v>
+      </c>
+      <c r="AS178">
+        <v>1.75</v>
+      </c>
+      <c r="AT178">
+        <v>2.13</v>
+      </c>
+      <c r="AU178">
+        <v>1.53</v>
+      </c>
+      <c r="AV178">
+        <v>1.48</v>
+      </c>
+      <c r="AW178">
+        <v>3.01</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>0</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>0</v>
+      </c>
+      <c r="BG178">
+        <v>4</v>
+      </c>
+      <c r="BH178">
+        <v>4</v>
+      </c>
+      <c r="BI178">
+        <v>5</v>
+      </c>
+      <c r="BJ178">
+        <v>4</v>
+      </c>
+      <c r="BK178">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,9 @@
     <t>['23', '27', '74', '78']</t>
   </si>
   <si>
+    <t>['68', '90+5']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -845,6 +848,12 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,7 +1549,7 @@
         <v>2.4</v>
       </c>
       <c r="AT2">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1832,7 +1841,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1922,7 +1931,7 @@
         <v>0.71</v>
       </c>
       <c r="AT4">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2110,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
         <v>0.86</v>
@@ -2214,7 +2223,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2596,7 +2605,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2787,7 +2796,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3169,7 +3178,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3256,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>2.13</v>
@@ -3447,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT12">
         <v>1.07</v>
@@ -3551,7 +3560,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3742,7 +3751,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3933,7 +3942,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4020,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU15">
         <v>0.85</v>
@@ -4214,7 +4223,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU16">
         <v>1.26</v>
@@ -4315,7 +4324,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4697,7 +4706,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4784,10 +4793,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU19">
         <v>1.16</v>
@@ -4888,7 +4897,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5079,7 +5088,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5169,7 +5178,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU21">
         <v>1.16</v>
@@ -5270,7 +5279,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5461,7 +5470,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5739,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT24">
         <v>1.6</v>
@@ -5933,7 +5942,7 @@
         <v>1.27</v>
       </c>
       <c r="AT25">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU25">
         <v>1.49</v>
@@ -6607,7 +6616,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6694,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT29">
         <v>1.29</v>
@@ -6989,7 +6998,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7371,7 +7380,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7461,7 +7470,7 @@
         <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU33">
         <v>0.92</v>
@@ -7562,7 +7571,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7840,7 +7849,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT35">
         <v>0.86</v>
@@ -7944,7 +7953,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8225,7 +8234,7 @@
         <v>1.36</v>
       </c>
       <c r="AT37">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8517,7 +8526,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8604,10 +8613,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>1.14</v>
@@ -8708,7 +8717,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8795,10 +8804,10 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -9090,7 +9099,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9663,7 +9672,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9854,7 +9863,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10045,7 +10054,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10135,7 +10144,7 @@
         <v>1.75</v>
       </c>
       <c r="AT47">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU47">
         <v>1.08</v>
@@ -10236,7 +10245,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10323,7 +10332,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT48">
         <v>2</v>
@@ -10618,7 +10627,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10809,7 +10818,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10899,7 +10908,7 @@
         <v>1.27</v>
       </c>
       <c r="AT51">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>1.46</v>
@@ -11090,7 +11099,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11278,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT53">
         <v>0.75</v>
@@ -11469,7 +11478,7 @@
         <v>1.33</v>
       </c>
       <c r="AS54">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT54">
         <v>1.29</v>
@@ -11854,7 +11863,7 @@
         <v>1.14</v>
       </c>
       <c r="AT56">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU56">
         <v>1.36</v>
@@ -12045,7 +12054,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU57">
         <v>1.68</v>
@@ -12146,7 +12155,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12337,7 +12346,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12806,7 +12815,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
         <v>1.6</v>
@@ -13188,7 +13197,7 @@
         <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT63">
         <v>0.9399999999999999</v>
@@ -13292,7 +13301,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13379,10 +13388,10 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13674,7 +13683,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13865,7 +13874,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14056,7 +14065,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14334,10 +14343,10 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT69">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU69">
         <v>1.46</v>
@@ -14438,7 +14447,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14629,7 +14638,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15011,7 +15020,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15098,7 +15107,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT73">
         <v>1.07</v>
@@ -15483,7 +15492,7 @@
         <v>1.33</v>
       </c>
       <c r="AT75">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -15584,7 +15593,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15775,7 +15784,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15865,7 +15874,7 @@
         <v>1.27</v>
       </c>
       <c r="AT77">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU77">
         <v>1.33</v>
@@ -16157,7 +16166,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16244,7 +16253,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16626,7 +16635,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT81">
         <v>1.6</v>
@@ -16820,7 +16829,7 @@
         <v>1.14</v>
       </c>
       <c r="AT82">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>1.26</v>
@@ -17112,7 +17121,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17199,7 +17208,7 @@
         <v>2.17</v>
       </c>
       <c r="AS84">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT84">
         <v>2.13</v>
@@ -17303,7 +17312,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17581,7 +17590,7 @@
         <v>0.43</v>
       </c>
       <c r="AS86">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT86">
         <v>0.75</v>
@@ -18348,7 +18357,7 @@
         <v>2.4</v>
       </c>
       <c r="AT90">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU90">
         <v>1.83</v>
@@ -18918,10 +18927,10 @@
         <v>1.71</v>
       </c>
       <c r="AS93">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT93">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU93">
         <v>1.42</v>
@@ -19213,7 +19222,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19300,7 +19309,7 @@
         <v>2.29</v>
       </c>
       <c r="AS95">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT95">
         <v>2</v>
@@ -19494,7 +19503,7 @@
         <v>0.71</v>
       </c>
       <c r="AT96">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.12</v>
@@ -19873,7 +19882,7 @@
         <v>0.88</v>
       </c>
       <c r="AS98">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
         <v>0.9399999999999999</v>
@@ -20359,7 +20368,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20449,7 +20458,7 @@
         <v>1.75</v>
       </c>
       <c r="AT101">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU101">
         <v>1.45</v>
@@ -20550,7 +20559,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20640,7 +20649,7 @@
         <v>1.21</v>
       </c>
       <c r="AT102">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20828,7 +20837,7 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20932,7 +20941,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21401,7 +21410,7 @@
         <v>2.38</v>
       </c>
       <c r="AS106">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT106">
         <v>2</v>
@@ -21505,7 +21514,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21595,7 +21604,7 @@
         <v>1.14</v>
       </c>
       <c r="AT107">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -22168,7 +22177,7 @@
         <v>2.4</v>
       </c>
       <c r="AT110">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU110">
         <v>1.8</v>
@@ -22269,7 +22278,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22460,7 +22469,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22738,7 +22747,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT113">
         <v>0.75</v>
@@ -23120,10 +23129,10 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT115">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU115">
         <v>1.4</v>
@@ -23415,7 +23424,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23502,7 +23511,7 @@
         <v>2.11</v>
       </c>
       <c r="AS117">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT117">
         <v>2.13</v>
@@ -23606,7 +23615,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23797,7 +23806,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23887,7 +23896,7 @@
         <v>0.71</v>
       </c>
       <c r="AT119">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU119">
         <v>1.07</v>
@@ -23988,7 +23997,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24179,7 +24188,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24370,7 +24379,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24460,7 +24469,7 @@
         <v>1.21</v>
       </c>
       <c r="AT122">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU122">
         <v>1.28</v>
@@ -24752,7 +24761,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24839,7 +24848,7 @@
         <v>1.4</v>
       </c>
       <c r="AS124">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT124">
         <v>1.29</v>
@@ -25325,7 +25334,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25412,7 +25421,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT127">
         <v>0.9399999999999999</v>
@@ -25516,7 +25525,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25985,10 +25994,10 @@
         <v>1.6</v>
       </c>
       <c r="AS130">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU130">
         <v>1.19</v>
@@ -26089,7 +26098,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26179,7 +26188,7 @@
         <v>1.75</v>
       </c>
       <c r="AT131">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26280,7 +26289,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26471,7 +26480,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26749,7 +26758,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT134">
         <v>1.07</v>
@@ -26943,7 +26952,7 @@
         <v>2.4</v>
       </c>
       <c r="AT135">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU135">
         <v>1.71</v>
@@ -27044,7 +27053,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27235,7 +27244,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27426,7 +27435,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27513,10 +27522,10 @@
         <v>1.55</v>
       </c>
       <c r="AS138">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT138">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27617,7 +27626,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27808,7 +27817,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27895,10 +27904,10 @@
         <v>1.36</v>
       </c>
       <c r="AS140">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT140">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU140">
         <v>1.52</v>
@@ -28277,7 +28286,7 @@
         <v>1.36</v>
       </c>
       <c r="AS142">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT142">
         <v>1.29</v>
@@ -28381,7 +28390,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28572,7 +28581,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28763,7 +28772,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28954,7 +28963,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29044,7 +29053,7 @@
         <v>1.14</v>
       </c>
       <c r="AT146">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU146">
         <v>1.15</v>
@@ -29145,7 +29154,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29527,7 +29536,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29614,7 +29623,7 @@
         <v>1.42</v>
       </c>
       <c r="AS149">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT149">
         <v>1.6</v>
@@ -29718,7 +29727,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29808,7 +29817,7 @@
         <v>1.33</v>
       </c>
       <c r="AT150">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU150">
         <v>1.66</v>
@@ -29909,7 +29918,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -30187,7 +30196,7 @@
         <v>0.92</v>
       </c>
       <c r="AS152">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30381,7 +30390,7 @@
         <v>1.21</v>
       </c>
       <c r="AT153">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU153">
         <v>1.26</v>
@@ -30482,7 +30491,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30572,7 +30581,7 @@
         <v>1.75</v>
       </c>
       <c r="AT154">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU154">
         <v>1.4</v>
@@ -30673,7 +30682,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30864,7 +30873,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31055,7 +31064,7 @@
         <v>85</v>
       </c>
       <c r="P157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31142,7 +31151,7 @@
         <v>2</v>
       </c>
       <c r="AS157">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT157">
         <v>2</v>
@@ -31437,7 +31446,7 @@
         <v>181</v>
       </c>
       <c r="P159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31628,7 +31637,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31715,7 +31724,7 @@
         <v>0.92</v>
       </c>
       <c r="AS160">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT160">
         <v>0.86</v>
@@ -31819,7 +31828,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31909,7 +31918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT161">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU161">
         <v>1.61</v>
@@ -32201,7 +32210,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32482,7 +32491,7 @@
         <v>1.27</v>
       </c>
       <c r="AT164">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU164">
         <v>1.51</v>
@@ -32670,7 +32679,7 @@
         <v>2.15</v>
       </c>
       <c r="AS165">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT165">
         <v>2.13</v>
@@ -32864,7 +32873,7 @@
         <v>0.71</v>
       </c>
       <c r="AT166">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU166">
         <v>1.06</v>
@@ -33055,7 +33064,7 @@
         <v>1.75</v>
       </c>
       <c r="AT167">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU167">
         <v>1.58</v>
@@ -33243,7 +33252,7 @@
         <v>0.71</v>
       </c>
       <c r="AS168">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT168">
         <v>0.75</v>
@@ -33347,7 +33356,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33538,7 +33547,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33729,7 +33738,7 @@
         <v>85</v>
       </c>
       <c r="P171" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34111,7 +34120,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34198,7 +34207,7 @@
         <v>2.08</v>
       </c>
       <c r="AS173">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT173">
         <v>2</v>
@@ -34302,7 +34311,7 @@
         <v>192</v>
       </c>
       <c r="P174" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q174">
         <v>10</v>
@@ -34875,16 +34884,16 @@
         <v>151</v>
       </c>
       <c r="P177" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q177">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S177">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T177">
         <v>0</v>
@@ -35001,22 +35010,22 @@
         <v>0</v>
       </c>
       <c r="BF177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH177">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI177">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ177">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK177">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:63">
@@ -35066,7 +35075,7 @@
         <v>77</v>
       </c>
       <c r="P178" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35208,6 +35217,579 @@
       </c>
       <c r="BK178">
         <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>6604007</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45165.72916666666</v>
+      </c>
+      <c r="F179">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>74</v>
+      </c>
+      <c r="H179" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>85</v>
+      </c>
+      <c r="P179" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q179">
+        <v>4</v>
+      </c>
+      <c r="R179">
+        <v>4</v>
+      </c>
+      <c r="S179">
+        <v>8</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
+        <v>3.26</v>
+      </c>
+      <c r="AD179">
+        <v>3.46</v>
+      </c>
+      <c r="AE179">
+        <v>2.11</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>0</v>
+      </c>
+      <c r="AH179">
+        <v>0</v>
+      </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>1.79</v>
+      </c>
+      <c r="AK179">
+        <v>1.81</v>
+      </c>
+      <c r="AL179">
+        <v>0</v>
+      </c>
+      <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>0</v>
+      </c>
+      <c r="AO179">
+        <v>0</v>
+      </c>
+      <c r="AP179">
+        <v>0</v>
+      </c>
+      <c r="AQ179">
+        <v>1.27</v>
+      </c>
+      <c r="AR179">
+        <v>1.21</v>
+      </c>
+      <c r="AS179">
+        <v>1.19</v>
+      </c>
+      <c r="AT179">
+        <v>1.33</v>
+      </c>
+      <c r="AU179">
+        <v>1.49</v>
+      </c>
+      <c r="AV179">
+        <v>1.44</v>
+      </c>
+      <c r="AW179">
+        <v>2.93</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>4</v>
+      </c>
+      <c r="BG179">
+        <v>4</v>
+      </c>
+      <c r="BH179">
+        <v>4</v>
+      </c>
+      <c r="BI179">
+        <v>4</v>
+      </c>
+      <c r="BJ179">
+        <v>8</v>
+      </c>
+      <c r="BK179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>6604011</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45165.83333333334</v>
+      </c>
+      <c r="F180">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>68</v>
+      </c>
+      <c r="H180" t="s">
+        <v>72</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>85</v>
+      </c>
+      <c r="P180" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q180">
+        <v>11</v>
+      </c>
+      <c r="R180">
+        <v>4</v>
+      </c>
+      <c r="S180">
+        <v>15</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+      <c r="AB180">
+        <v>0</v>
+      </c>
+      <c r="AC180">
+        <v>2.8</v>
+      </c>
+      <c r="AD180">
+        <v>3.3</v>
+      </c>
+      <c r="AE180">
+        <v>2.3</v>
+      </c>
+      <c r="AF180">
+        <v>0</v>
+      </c>
+      <c r="AG180">
+        <v>0</v>
+      </c>
+      <c r="AH180">
+        <v>0</v>
+      </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
+        <v>1.98</v>
+      </c>
+      <c r="AK180">
+        <v>1.83</v>
+      </c>
+      <c r="AL180">
+        <v>0</v>
+      </c>
+      <c r="AM180">
+        <v>0</v>
+      </c>
+      <c r="AN180">
+        <v>0</v>
+      </c>
+      <c r="AO180">
+        <v>0</v>
+      </c>
+      <c r="AP180">
+        <v>0</v>
+      </c>
+      <c r="AQ180">
+        <v>1.43</v>
+      </c>
+      <c r="AR180">
+        <v>1.53</v>
+      </c>
+      <c r="AS180">
+        <v>1.33</v>
+      </c>
+      <c r="AT180">
+        <v>1.63</v>
+      </c>
+      <c r="AU180">
+        <v>1.23</v>
+      </c>
+      <c r="AV180">
+        <v>1.14</v>
+      </c>
+      <c r="AW180">
+        <v>2.37</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>7</v>
+      </c>
+      <c r="BG180">
+        <v>7</v>
+      </c>
+      <c r="BH180">
+        <v>8</v>
+      </c>
+      <c r="BI180">
+        <v>2</v>
+      </c>
+      <c r="BJ180">
+        <v>15</v>
+      </c>
+      <c r="BK180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>6604010</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45166.83333333334</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s">
+        <v>76</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>194</v>
+      </c>
+      <c r="P181" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>3</v>
+      </c>
+      <c r="S181">
+        <v>4</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <v>0</v>
+      </c>
+      <c r="AC181">
+        <v>3.25</v>
+      </c>
+      <c r="AD181">
+        <v>3.25</v>
+      </c>
+      <c r="AE181">
+        <v>1.97</v>
+      </c>
+      <c r="AF181">
+        <v>0</v>
+      </c>
+      <c r="AG181">
+        <v>0</v>
+      </c>
+      <c r="AH181">
+        <v>0</v>
+      </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>1.87</v>
+      </c>
+      <c r="AK181">
+        <v>1.87</v>
+      </c>
+      <c r="AL181">
+        <v>0</v>
+      </c>
+      <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AN181">
+        <v>0</v>
+      </c>
+      <c r="AO181">
+        <v>0</v>
+      </c>
+      <c r="AP181">
+        <v>0</v>
+      </c>
+      <c r="AQ181">
+        <v>0.87</v>
+      </c>
+      <c r="AR181">
+        <v>1.47</v>
+      </c>
+      <c r="AS181">
+        <v>1</v>
+      </c>
+      <c r="AT181">
+        <v>1.38</v>
+      </c>
+      <c r="AU181">
+        <v>1.5</v>
+      </c>
+      <c r="AV181">
+        <v>1.15</v>
+      </c>
+      <c r="AW181">
+        <v>2.65</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
+      <c r="AZ181">
+        <v>0</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>0</v>
+      </c>
+      <c r="BC181">
+        <v>0</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>2</v>
+      </c>
+      <c r="BG181">
+        <v>5</v>
+      </c>
+      <c r="BH181">
+        <v>2</v>
+      </c>
+      <c r="BI181">
+        <v>2</v>
+      </c>
+      <c r="BJ181">
+        <v>4</v>
+      </c>
+      <c r="BK181">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -35651,13 +35651,13 @@
         <v>92</v>
       </c>
       <c r="Q181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R181">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S181">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T181">
         <v>0</v>
@@ -35774,22 +35774,22 @@
         <v>0</v>
       </c>
       <c r="BF181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG181">
+        <v>7</v>
+      </c>
+      <c r="BH181">
         <v>5</v>
       </c>
-      <c r="BH181">
-        <v>2</v>
-      </c>
       <c r="BI181">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ181">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BK181">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,15 @@
     <t>['68', '90+5']</t>
   </si>
   <si>
+    <t>['22', '45+9']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['54', '59']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -815,9 +824,6 @@
   </si>
   <si>
     <t>['36', '83']</t>
-  </si>
-  <si>
-    <t>['7']</t>
   </si>
   <si>
     <t>['13']</t>
@@ -1215,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT2">
         <v>1.63</v>
@@ -1841,7 +1847,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1928,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT4">
         <v>1.38</v>
@@ -2223,7 +2229,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2504,7 +2510,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2605,7 +2611,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2692,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT8">
         <v>0.9399999999999999</v>
@@ -2796,7 +2802,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3077,7 +3083,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU10">
         <v>1.03</v>
@@ -3178,7 +3184,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3459,7 +3465,7 @@
         <v>1.19</v>
       </c>
       <c r="AT12">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3560,7 +3566,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3751,7 +3757,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3838,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3942,7 +3948,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4324,7 +4330,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4411,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT17">
         <v>1.29</v>
@@ -4706,7 +4712,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4897,7 +4903,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4984,10 +4990,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU20">
         <v>0.8</v>
@@ -5088,7 +5094,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5279,7 +5285,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5470,7 +5476,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5557,10 +5563,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT23">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>1.25</v>
@@ -6324,7 +6330,7 @@
         <v>1.21</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6512,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT28">
         <v>0.75</v>
@@ -6616,7 +6622,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6998,7 +7004,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7085,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT31">
         <v>1.6</v>
@@ -7276,10 +7282,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT32">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>0.79</v>
@@ -7380,7 +7386,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7571,7 +7577,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7661,7 +7667,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU34">
         <v>1.92</v>
@@ -7953,7 +7959,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8422,7 +8428,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT38">
         <v>0.9399999999999999</v>
@@ -8526,7 +8532,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8717,7 +8723,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9099,7 +9105,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9189,7 +9195,7 @@
         <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9568,7 +9574,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT44">
         <v>1.6</v>
@@ -9672,7 +9678,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9762,7 +9768,7 @@
         <v>1.36</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU45">
         <v>1.06</v>
@@ -9863,7 +9869,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10054,7 +10060,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10245,7 +10251,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10335,7 +10341,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU48">
         <v>1.06</v>
@@ -10523,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT49">
         <v>0.86</v>
@@ -10627,7 +10633,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10818,7 +10824,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11669,10 +11675,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT55">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.81</v>
@@ -11860,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT56">
         <v>1.38</v>
@@ -12155,7 +12161,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12245,7 +12251,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU58">
         <v>1.24</v>
@@ -12346,7 +12352,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12433,7 +12439,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT59">
         <v>0.86</v>
@@ -12624,10 +12630,10 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU60">
         <v>1.98</v>
@@ -13301,7 +13307,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13683,7 +13689,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13874,7 +13880,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13964,7 +13970,7 @@
         <v>1.21</v>
       </c>
       <c r="AT67">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.59</v>
@@ -14065,7 +14071,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14447,7 +14453,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14534,7 +14540,7 @@
         <v>1.4</v>
       </c>
       <c r="AS70">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT70">
         <v>1.29</v>
@@ -14638,7 +14644,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14728,7 +14734,7 @@
         <v>1.27</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU71">
         <v>1.27</v>
@@ -15020,7 +15026,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15110,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.41</v>
@@ -15298,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT74">
         <v>0.75</v>
@@ -15593,7 +15599,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15784,7 +15790,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16062,7 +16068,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT78">
         <v>0.86</v>
@@ -16166,7 +16172,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16256,7 +16262,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU79">
         <v>1.02</v>
@@ -16826,7 +16832,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT82">
         <v>1.33</v>
@@ -17020,7 +17026,7 @@
         <v>1.36</v>
       </c>
       <c r="AT83">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>1.36</v>
@@ -17121,7 +17127,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17312,7 +17318,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17402,7 +17408,7 @@
         <v>1.21</v>
       </c>
       <c r="AT85">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU85">
         <v>1.37</v>
@@ -18354,7 +18360,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT90">
         <v>1.38</v>
@@ -18548,7 +18554,7 @@
         <v>1.27</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU91">
         <v>1.47</v>
@@ -19121,7 +19127,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.26</v>
@@ -19222,7 +19228,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19312,7 +19318,7 @@
         <v>1</v>
       </c>
       <c r="AT95">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU95">
         <v>1.38</v>
@@ -19500,7 +19506,7 @@
         <v>1.57</v>
       </c>
       <c r="AS96">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT96">
         <v>1.33</v>
@@ -19691,7 +19697,7 @@
         <v>2.29</v>
       </c>
       <c r="AS97">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT97">
         <v>2.13</v>
@@ -20264,7 +20270,7 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT100">
         <v>1.29</v>
@@ -20368,7 +20374,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20559,7 +20565,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20840,7 +20846,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU103">
         <v>1.34</v>
@@ -20941,7 +20947,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21028,7 +21034,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT104">
         <v>2.13</v>
@@ -21222,7 +21228,7 @@
         <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU105">
         <v>1.66</v>
@@ -21413,7 +21419,7 @@
         <v>1.19</v>
       </c>
       <c r="AT106">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21514,7 +21520,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21601,7 +21607,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT107">
         <v>1.63</v>
@@ -22174,7 +22180,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT110">
         <v>1.33</v>
@@ -22278,7 +22284,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22368,7 +22374,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.4</v>
@@ -22469,7 +22475,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -23424,7 +23430,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23615,7 +23621,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23705,7 +23711,7 @@
         <v>1.36</v>
       </c>
       <c r="AT118">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU118">
         <v>1.5</v>
@@ -23806,7 +23812,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23893,7 +23899,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT119">
         <v>1.63</v>
@@ -23997,7 +24003,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24188,7 +24194,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24275,10 +24281,10 @@
         <v>0.78</v>
       </c>
       <c r="AS121">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU121">
         <v>1.24</v>
@@ -24379,7 +24385,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24761,7 +24767,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25042,7 +25048,7 @@
         <v>1.27</v>
       </c>
       <c r="AT125">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.49</v>
@@ -25334,7 +25340,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25525,7 +25531,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25612,10 +25618,10 @@
         <v>0.7</v>
       </c>
       <c r="AS128">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT128">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU128">
         <v>1.09</v>
@@ -25803,7 +25809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS129">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT129">
         <v>1.6</v>
@@ -26098,7 +26104,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26289,7 +26295,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26376,10 +26382,10 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT132">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU132">
         <v>1.19</v>
@@ -26480,7 +26486,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26761,7 +26767,7 @@
         <v>1</v>
       </c>
       <c r="AT134">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU134">
         <v>1.53</v>
@@ -26949,7 +26955,7 @@
         <v>1.64</v>
       </c>
       <c r="AS135">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT135">
         <v>1.38</v>
@@ -27053,7 +27059,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27244,7 +27250,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27435,7 +27441,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27626,7 +27632,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27817,7 +27823,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28098,7 +28104,7 @@
         <v>1.27</v>
       </c>
       <c r="AT141">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU141">
         <v>1.52</v>
@@ -28390,7 +28396,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28581,7 +28587,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28668,10 +28674,10 @@
         <v>0.91</v>
       </c>
       <c r="AS144">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT144">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU144">
         <v>1.06</v>
@@ -28772,7 +28778,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28963,7 +28969,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29050,7 +29056,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT146">
         <v>1.63</v>
@@ -29154,7 +29160,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29435,7 +29441,7 @@
         <v>1.75</v>
       </c>
       <c r="AT148">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -29536,7 +29542,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29727,7 +29733,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29918,7 +29924,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -30005,7 +30011,7 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT151">
         <v>0.9399999999999999</v>
@@ -30199,7 +30205,7 @@
         <v>1.33</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU152">
         <v>1.22</v>
@@ -30491,7 +30497,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30682,7 +30688,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30873,7 +30879,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -30960,7 +30966,7 @@
         <v>0.54</v>
       </c>
       <c r="AS156">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT156">
         <v>0.75</v>
@@ -31064,7 +31070,7 @@
         <v>85</v>
       </c>
       <c r="P157" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31154,7 +31160,7 @@
         <v>1</v>
       </c>
       <c r="AT157">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU157">
         <v>1.46</v>
@@ -31342,10 +31348,10 @@
         <v>0.92</v>
       </c>
       <c r="AS158">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT158">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU158">
         <v>1.69</v>
@@ -31446,7 +31452,7 @@
         <v>181</v>
       </c>
       <c r="P159" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31637,7 +31643,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31828,7 +31834,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32210,7 +32216,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32297,7 +32303,7 @@
         <v>1.54</v>
       </c>
       <c r="AS163">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT163">
         <v>1.6</v>
@@ -32870,7 +32876,7 @@
         <v>1.64</v>
       </c>
       <c r="AS166">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AT166">
         <v>1.63</v>
@@ -33356,7 +33362,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33446,7 +33452,7 @@
         <v>1.75</v>
       </c>
       <c r="AT169">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU169">
         <v>1.32</v>
@@ -33547,7 +33553,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33738,7 +33744,7 @@
         <v>85</v>
       </c>
       <c r="P171" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34016,7 +34022,7 @@
         <v>1.15</v>
       </c>
       <c r="AS172">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AT172">
         <v>1.29</v>
@@ -34120,7 +34126,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34210,7 +34216,7 @@
         <v>1.19</v>
       </c>
       <c r="AT173">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU173">
         <v>1.53</v>
@@ -34311,7 +34317,7 @@
         <v>192</v>
       </c>
       <c r="P174" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q174">
         <v>10</v>
@@ -34401,7 +34407,7 @@
         <v>1.36</v>
       </c>
       <c r="AT174">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU174">
         <v>1.47</v>
@@ -34589,7 +34595,7 @@
         <v>0.92</v>
       </c>
       <c r="AS175">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT175">
         <v>0.86</v>
@@ -34884,7 +34890,7 @@
         <v>151</v>
       </c>
       <c r="P177" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q177">
         <v>10</v>
@@ -35075,7 +35081,7 @@
         <v>77</v>
       </c>
       <c r="P178" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35266,7 +35272,7 @@
         <v>85</v>
       </c>
       <c r="P179" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -35457,7 +35463,7 @@
         <v>85</v>
       </c>
       <c r="P180" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35790,6 +35796,579 @@
       </c>
       <c r="BK181">
         <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>6604014</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>67</v>
+      </c>
+      <c r="H182" t="s">
+        <v>68</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
+        <v>195</v>
+      </c>
+      <c r="P182" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q182">
+        <v>2</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
+        <v>4</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <v>0</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+      <c r="AB182">
+        <v>0</v>
+      </c>
+      <c r="AC182">
+        <v>2.38</v>
+      </c>
+      <c r="AD182">
+        <v>3.03</v>
+      </c>
+      <c r="AE182">
+        <v>2.78</v>
+      </c>
+      <c r="AF182">
+        <v>0</v>
+      </c>
+      <c r="AG182">
+        <v>0</v>
+      </c>
+      <c r="AH182">
+        <v>0</v>
+      </c>
+      <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
+        <v>2.1</v>
+      </c>
+      <c r="AK182">
+        <v>1.68</v>
+      </c>
+      <c r="AL182">
+        <v>0</v>
+      </c>
+      <c r="AM182">
+        <v>0</v>
+      </c>
+      <c r="AN182">
+        <v>0</v>
+      </c>
+      <c r="AO182">
+        <v>0</v>
+      </c>
+      <c r="AP182">
+        <v>0</v>
+      </c>
+      <c r="AQ182">
+        <v>0.71</v>
+      </c>
+      <c r="AR182">
+        <v>1.07</v>
+      </c>
+      <c r="AS182">
+        <v>0.87</v>
+      </c>
+      <c r="AT182">
+        <v>1</v>
+      </c>
+      <c r="AU182">
+        <v>1.03</v>
+      </c>
+      <c r="AV182">
+        <v>1.2</v>
+      </c>
+      <c r="AW182">
+        <v>2.23</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>2</v>
+      </c>
+      <c r="BG182">
+        <v>0</v>
+      </c>
+      <c r="BH182">
+        <v>4</v>
+      </c>
+      <c r="BI182">
+        <v>0</v>
+      </c>
+      <c r="BJ182">
+        <v>6</v>
+      </c>
+      <c r="BK182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>6604017</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45171.75</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>69</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>196</v>
+      </c>
+      <c r="P183" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q183">
+        <v>7</v>
+      </c>
+      <c r="R183">
+        <v>5</v>
+      </c>
+      <c r="S183">
+        <v>12</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <v>0</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+      <c r="AB183">
+        <v>0</v>
+      </c>
+      <c r="AC183">
+        <v>5.07</v>
+      </c>
+      <c r="AD183">
+        <v>3.86</v>
+      </c>
+      <c r="AE183">
+        <v>1.63</v>
+      </c>
+      <c r="AF183">
+        <v>0</v>
+      </c>
+      <c r="AG183">
+        <v>0</v>
+      </c>
+      <c r="AH183">
+        <v>0</v>
+      </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>1.93</v>
+      </c>
+      <c r="AK183">
+        <v>1.91</v>
+      </c>
+      <c r="AL183">
+        <v>0</v>
+      </c>
+      <c r="AM183">
+        <v>0</v>
+      </c>
+      <c r="AN183">
+        <v>0</v>
+      </c>
+      <c r="AO183">
+        <v>0</v>
+      </c>
+      <c r="AP183">
+        <v>0</v>
+      </c>
+      <c r="AQ183">
+        <v>1.14</v>
+      </c>
+      <c r="AR183">
+        <v>2</v>
+      </c>
+      <c r="AS183">
+        <v>1.13</v>
+      </c>
+      <c r="AT183">
+        <v>1.93</v>
+      </c>
+      <c r="AU183">
+        <v>1.18</v>
+      </c>
+      <c r="AV183">
+        <v>1.33</v>
+      </c>
+      <c r="AW183">
+        <v>2.51</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>5</v>
+      </c>
+      <c r="BG183">
+        <v>7</v>
+      </c>
+      <c r="BH183">
+        <v>4</v>
+      </c>
+      <c r="BI183">
+        <v>6</v>
+      </c>
+      <c r="BJ183">
+        <v>9</v>
+      </c>
+      <c r="BK183">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>6604018</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45171.85416666666</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>65</v>
+      </c>
+      <c r="H184" t="s">
+        <v>74</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>197</v>
+      </c>
+      <c r="P184" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q184">
+        <v>4</v>
+      </c>
+      <c r="R184">
+        <v>6</v>
+      </c>
+      <c r="S184">
+        <v>10</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
+      <c r="AC184">
+        <v>1.57</v>
+      </c>
+      <c r="AD184">
+        <v>4</v>
+      </c>
+      <c r="AE184">
+        <v>5.5</v>
+      </c>
+      <c r="AF184">
+        <v>0</v>
+      </c>
+      <c r="AG184">
+        <v>0</v>
+      </c>
+      <c r="AH184">
+        <v>0</v>
+      </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <v>1.84</v>
+      </c>
+      <c r="AK184">
+        <v>1.91</v>
+      </c>
+      <c r="AL184">
+        <v>0</v>
+      </c>
+      <c r="AM184">
+        <v>0</v>
+      </c>
+      <c r="AN184">
+        <v>0</v>
+      </c>
+      <c r="AO184">
+        <v>0</v>
+      </c>
+      <c r="AP184">
+        <v>0</v>
+      </c>
+      <c r="AQ184">
+        <v>2.4</v>
+      </c>
+      <c r="AR184">
+        <v>1</v>
+      </c>
+      <c r="AS184">
+        <v>2.44</v>
+      </c>
+      <c r="AT184">
+        <v>0.93</v>
+      </c>
+      <c r="AU184">
+        <v>1.66</v>
+      </c>
+      <c r="AV184">
+        <v>1.33</v>
+      </c>
+      <c r="AW184">
+        <v>2.99</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>4</v>
+      </c>
+      <c r="BG184">
+        <v>2</v>
+      </c>
+      <c r="BH184">
+        <v>3</v>
+      </c>
+      <c r="BI184">
+        <v>5</v>
+      </c>
+      <c r="BJ184">
+        <v>7</v>
+      </c>
+      <c r="BK184">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,9 @@
     <t>['54', '59']</t>
   </si>
   <si>
+    <t>['42', '46', '67']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -860,6 +863,12 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['49', '90+9']</t>
+  </si>
+  <si>
+    <t>['18', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1847,7 +1856,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2128,7 +2137,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2229,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2611,7 +2620,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2802,7 +2811,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2889,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT9">
         <v>1.6</v>
@@ -3184,7 +3193,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3566,7 +3575,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3656,7 +3665,7 @@
         <v>1.27</v>
       </c>
       <c r="AT13">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3757,7 +3766,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3948,7 +3957,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4330,7 +4339,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4420,7 +4429,7 @@
         <v>0.87</v>
       </c>
       <c r="AT17">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU17">
         <v>0.9</v>
@@ -4712,7 +4721,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4903,7 +4912,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5094,7 +5103,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5285,7 +5294,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5372,7 +5381,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT22">
         <v>2.13</v>
@@ -5476,7 +5485,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6139,7 +6148,7 @@
         <v>1.75</v>
       </c>
       <c r="AT26">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU26">
         <v>1.32</v>
@@ -6327,7 +6336,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>0.93</v>
@@ -6622,7 +6631,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6712,7 +6721,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU29">
         <v>1.02</v>
@@ -7004,7 +7013,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7386,7 +7395,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7473,7 +7482,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT33">
         <v>1.63</v>
@@ -7577,7 +7586,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7858,7 +7867,7 @@
         <v>1.19</v>
       </c>
       <c r="AT35">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>1.35</v>
@@ -7959,7 +7968,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8237,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT37">
         <v>1.33</v>
@@ -8532,7 +8541,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8723,7 +8732,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9004,7 +9013,7 @@
         <v>1.27</v>
       </c>
       <c r="AT41">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU41">
         <v>1.4</v>
@@ -9105,7 +9114,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9383,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
         <v>0.75</v>
@@ -9678,7 +9687,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9765,7 +9774,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT45">
         <v>0.93</v>
@@ -9869,7 +9878,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10060,7 +10069,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10251,7 +10260,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10532,7 +10541,7 @@
         <v>1.13</v>
       </c>
       <c r="AT49">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU49">
         <v>1.44</v>
@@ -10633,7 +10642,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10720,7 +10729,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
         <v>0.9399999999999999</v>
@@ -10824,7 +10833,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11487,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -12161,7 +12170,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12352,7 +12361,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12442,7 +12451,7 @@
         <v>0.87</v>
       </c>
       <c r="AT59">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU59">
         <v>1</v>
@@ -13012,10 +13021,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT62">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU62">
         <v>1.09</v>
@@ -13307,7 +13316,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13689,7 +13698,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13880,7 +13889,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13967,7 +13976,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -14071,7 +14080,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14158,7 +14167,7 @@
         <v>1.2</v>
       </c>
       <c r="AS68">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT68">
         <v>0.9399999999999999</v>
@@ -14453,7 +14462,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14543,7 +14552,7 @@
         <v>1.13</v>
       </c>
       <c r="AT70">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU70">
         <v>1.31</v>
@@ -14644,7 +14653,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14922,7 +14931,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
         <v>2.13</v>
@@ -15026,7 +15035,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15599,7 +15608,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15689,7 +15698,7 @@
         <v>1.75</v>
       </c>
       <c r="AT76">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU76">
         <v>1.48</v>
@@ -15790,7 +15799,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16071,7 +16080,7 @@
         <v>2.44</v>
       </c>
       <c r="AT78">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU78">
         <v>1.9</v>
@@ -16172,7 +16181,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17023,7 +17032,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17127,7 +17136,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17318,7 +17327,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17405,7 +17414,7 @@
         <v>2.17</v>
       </c>
       <c r="AS85">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
         <v>1.93</v>
@@ -17790,7 +17799,7 @@
         <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -18169,10 +18178,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT89">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU89">
         <v>1.37</v>
@@ -18742,7 +18751,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT92">
         <v>1.6</v>
@@ -19228,7 +19237,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -20273,7 +20282,7 @@
         <v>2.44</v>
       </c>
       <c r="AT100">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20374,7 +20383,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20565,7 +20574,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20652,7 +20661,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT102">
         <v>1.38</v>
@@ -20947,7 +20956,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21520,7 +21529,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21989,10 +21998,10 @@
         <v>0.88</v>
       </c>
       <c r="AS109">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT109">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU109">
         <v>1.43</v>
@@ -22284,7 +22293,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22475,7 +22484,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22562,10 +22571,10 @@
         <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU112">
         <v>1.34</v>
@@ -23329,7 +23338,7 @@
         <v>1.75</v>
       </c>
       <c r="AT116">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23430,7 +23439,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23621,7 +23630,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23708,7 +23717,7 @@
         <v>2.22</v>
       </c>
       <c r="AS118">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT118">
         <v>1.93</v>
@@ -23812,7 +23821,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24003,7 +24012,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24194,7 +24203,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24385,7 +24394,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24472,7 +24481,7 @@
         <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT122">
         <v>1.33</v>
@@ -24767,7 +24776,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24857,7 +24866,7 @@
         <v>1.19</v>
       </c>
       <c r="AT124">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU124">
         <v>1.46</v>
@@ -25236,7 +25245,7 @@
         <v>0.3</v>
       </c>
       <c r="AS126">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT126">
         <v>0.75</v>
@@ -25340,7 +25349,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25531,7 +25540,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26104,7 +26113,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26295,7 +26304,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26486,7 +26495,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26576,7 +26585,7 @@
         <v>1.33</v>
       </c>
       <c r="AT133">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU133">
         <v>1.68</v>
@@ -27059,7 +27068,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27250,7 +27259,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27441,7 +27450,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27632,7 +27641,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27823,7 +27832,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28295,7 +28304,7 @@
         <v>1.33</v>
       </c>
       <c r="AT142">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU142">
         <v>1.21</v>
@@ -28396,7 +28405,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28483,7 +28492,7 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT143">
         <v>2.13</v>
@@ -28587,7 +28596,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28778,7 +28787,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28865,7 +28874,7 @@
         <v>0.5</v>
       </c>
       <c r="AS145">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT145">
         <v>0.75</v>
@@ -28969,7 +28978,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29160,7 +29169,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29250,7 +29259,7 @@
         <v>1.75</v>
       </c>
       <c r="AT147">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU147">
         <v>1.37</v>
@@ -29542,7 +29551,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29733,7 +29742,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29924,7 +29933,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -30393,7 +30402,7 @@
         <v>1.62</v>
       </c>
       <c r="AS153">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT153">
         <v>1.38</v>
@@ -30497,7 +30506,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30688,7 +30697,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30879,7 +30888,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31452,7 +31461,7 @@
         <v>181</v>
       </c>
       <c r="P159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31542,7 +31551,7 @@
         <v>1.75</v>
       </c>
       <c r="AT159">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU159">
         <v>1.63</v>
@@ -31643,7 +31652,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31733,7 +31742,7 @@
         <v>1.19</v>
       </c>
       <c r="AT160">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU160">
         <v>1.51</v>
@@ -31834,7 +31843,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32112,7 +32121,7 @@
         <v>1.08</v>
       </c>
       <c r="AS162">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT162">
         <v>0.9399999999999999</v>
@@ -32216,7 +32225,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -33362,7 +33371,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33553,7 +33562,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33744,7 +33753,7 @@
         <v>85</v>
       </c>
       <c r="P171" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33831,7 +33840,7 @@
         <v>1.5</v>
       </c>
       <c r="AS171">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT171">
         <v>1.6</v>
@@ -34025,7 +34034,7 @@
         <v>2.44</v>
       </c>
       <c r="AT172">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU172">
         <v>1.7</v>
@@ -34126,7 +34135,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34317,7 +34326,7 @@
         <v>192</v>
       </c>
       <c r="P174" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>10</v>
@@ -34404,7 +34413,7 @@
         <v>0.93</v>
       </c>
       <c r="AS174">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT174">
         <v>1</v>
@@ -34598,7 +34607,7 @@
         <v>1.13</v>
       </c>
       <c r="AT175">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU175">
         <v>1.13</v>
@@ -34890,7 +34899,7 @@
         <v>151</v>
       </c>
       <c r="P177" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q177">
         <v>10</v>
@@ -35081,7 +35090,7 @@
         <v>77</v>
       </c>
       <c r="P178" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35272,7 +35281,7 @@
         <v>85</v>
       </c>
       <c r="P179" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -35463,7 +35472,7 @@
         <v>85</v>
       </c>
       <c r="P180" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35848,13 +35857,13 @@
         <v>196</v>
       </c>
       <c r="Q182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R182">
         <v>2</v>
       </c>
       <c r="S182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T182">
         <v>0</v>
@@ -36036,7 +36045,7 @@
         <v>196</v>
       </c>
       <c r="P183" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36369,6 +36378,388 @@
       </c>
       <c r="BK184">
         <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>6604015</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45172.72916666666</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" t="s">
+        <v>73</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>5</v>
+      </c>
+      <c r="O185" t="s">
+        <v>198</v>
+      </c>
+      <c r="P185" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q185">
+        <v>7</v>
+      </c>
+      <c r="R185">
+        <v>11</v>
+      </c>
+      <c r="S185">
+        <v>18</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <v>0</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+      <c r="AB185">
+        <v>0</v>
+      </c>
+      <c r="AC185">
+        <v>1.9</v>
+      </c>
+      <c r="AD185">
+        <v>3.4</v>
+      </c>
+      <c r="AE185">
+        <v>3.4</v>
+      </c>
+      <c r="AF185">
+        <v>0</v>
+      </c>
+      <c r="AG185">
+        <v>0</v>
+      </c>
+      <c r="AH185">
+        <v>0</v>
+      </c>
+      <c r="AI185">
+        <v>0</v>
+      </c>
+      <c r="AJ185">
+        <v>1.85</v>
+      </c>
+      <c r="AK185">
+        <v>1.85</v>
+      </c>
+      <c r="AL185">
+        <v>0</v>
+      </c>
+      <c r="AM185">
+        <v>0</v>
+      </c>
+      <c r="AN185">
+        <v>0</v>
+      </c>
+      <c r="AO185">
+        <v>0</v>
+      </c>
+      <c r="AP185">
+        <v>0</v>
+      </c>
+      <c r="AQ185">
+        <v>1.21</v>
+      </c>
+      <c r="AR185">
+        <v>0.86</v>
+      </c>
+      <c r="AS185">
+        <v>1.33</v>
+      </c>
+      <c r="AT185">
+        <v>0.8</v>
+      </c>
+      <c r="AU185">
+        <v>1.3</v>
+      </c>
+      <c r="AV185">
+        <v>1.37</v>
+      </c>
+      <c r="AW185">
+        <v>2.67</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>7</v>
+      </c>
+      <c r="BG185">
+        <v>2</v>
+      </c>
+      <c r="BH185">
+        <v>5</v>
+      </c>
+      <c r="BI185">
+        <v>5</v>
+      </c>
+      <c r="BJ185">
+        <v>12</v>
+      </c>
+      <c r="BK185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>6604016</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45172.83333333334</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>76</v>
+      </c>
+      <c r="H186" t="s">
+        <v>66</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>132</v>
+      </c>
+      <c r="P186" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q186">
+        <v>4</v>
+      </c>
+      <c r="R186">
+        <v>1</v>
+      </c>
+      <c r="S186">
+        <v>5</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
+        <v>1.95</v>
+      </c>
+      <c r="AD186">
+        <v>3.45</v>
+      </c>
+      <c r="AE186">
+        <v>3.55</v>
+      </c>
+      <c r="AF186">
+        <v>0</v>
+      </c>
+      <c r="AG186">
+        <v>0</v>
+      </c>
+      <c r="AH186">
+        <v>0</v>
+      </c>
+      <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
+        <v>1.92</v>
+      </c>
+      <c r="AK186">
+        <v>1.7</v>
+      </c>
+      <c r="AL186">
+        <v>0</v>
+      </c>
+      <c r="AM186">
+        <v>0</v>
+      </c>
+      <c r="AN186">
+        <v>0</v>
+      </c>
+      <c r="AO186">
+        <v>0</v>
+      </c>
+      <c r="AP186">
+        <v>0</v>
+      </c>
+      <c r="AQ186">
+        <v>1.36</v>
+      </c>
+      <c r="AR186">
+        <v>1.29</v>
+      </c>
+      <c r="AS186">
+        <v>1.27</v>
+      </c>
+      <c r="AT186">
+        <v>1.4</v>
+      </c>
+      <c r="AU186">
+        <v>1.51</v>
+      </c>
+      <c r="AV186">
+        <v>1.18</v>
+      </c>
+      <c r="AW186">
+        <v>2.69</v>
+      </c>
+      <c r="AX186">
+        <v>0</v>
+      </c>
+      <c r="AY186">
+        <v>0</v>
+      </c>
+      <c r="AZ186">
+        <v>0</v>
+      </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>0</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>0</v>
+      </c>
+      <c r="BF186">
+        <v>2</v>
+      </c>
+      <c r="BG186">
+        <v>2</v>
+      </c>
+      <c r="BH186">
+        <v>3</v>
+      </c>
+      <c r="BI186">
+        <v>3</v>
+      </c>
+      <c r="BJ186">
+        <v>5</v>
+      </c>
+      <c r="BK186">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['42', '46', '67']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -869,6 +872,9 @@
   </si>
   <si>
     <t>['18', '90+5']</t>
+  </si>
+  <si>
+    <t>['24', '54', '71', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1564,7 +1570,7 @@
         <v>2.44</v>
       </c>
       <c r="AT2">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1752,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT3">
         <v>0.75</v>
@@ -1856,7 +1862,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2134,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT5">
         <v>0.8</v>
@@ -2238,7 +2244,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2328,7 +2334,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2620,7 +2626,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2811,7 +2817,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2901,7 +2907,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3089,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT10">
         <v>1.93</v>
@@ -3193,7 +3199,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3575,7 +3581,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3766,7 +3772,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3957,7 +3963,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4044,7 +4050,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT15">
         <v>1.38</v>
@@ -4238,7 +4244,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU16">
         <v>1.26</v>
@@ -4339,7 +4345,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4721,7 +4727,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4811,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU19">
         <v>1.16</v>
@@ -4912,7 +4918,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5103,7 +5109,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5190,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT21">
         <v>1.33</v>
@@ -5294,7 +5300,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5485,7 +5491,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5766,7 +5772,7 @@
         <v>1.19</v>
       </c>
       <c r="AT24">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU24">
         <v>1.41</v>
@@ -6631,7 +6637,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6718,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
         <v>1.4</v>
@@ -7013,7 +7019,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7103,7 +7109,7 @@
         <v>1.13</v>
       </c>
       <c r="AT31">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7395,7 +7401,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7485,7 +7491,7 @@
         <v>1.27</v>
       </c>
       <c r="AT33">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU33">
         <v>0.92</v>
@@ -7586,7 +7592,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7968,7 +7974,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8055,7 +8061,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT36">
         <v>2.13</v>
@@ -8541,7 +8547,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8628,7 +8634,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT39">
         <v>1.33</v>
@@ -8732,7 +8738,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9114,7 +9120,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9586,7 +9592,7 @@
         <v>0.87</v>
       </c>
       <c r="AT44">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU44">
         <v>0.84</v>
@@ -9687,7 +9693,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9878,7 +9884,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10069,7 +10075,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10156,10 +10162,10 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT47">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU47">
         <v>1.08</v>
@@ -10260,7 +10266,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10347,7 +10353,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
         <v>1.93</v>
@@ -10642,7 +10648,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10833,7 +10839,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -12069,7 +12075,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU57">
         <v>1.68</v>
@@ -12170,7 +12176,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12257,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT58">
         <v>0.93</v>
@@ -12361,7 +12367,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12830,10 +12836,10 @@
         <v>1.8</v>
       </c>
       <c r="AS61">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT61">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU61">
         <v>1.02</v>
@@ -13316,7 +13322,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13698,7 +13704,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13889,7 +13895,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14080,7 +14086,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14462,7 +14468,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14653,7 +14659,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15035,7 +15041,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15608,7 +15614,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15799,7 +15805,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15889,7 +15895,7 @@
         <v>1.27</v>
       </c>
       <c r="AT77">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU77">
         <v>1.33</v>
@@ -16181,7 +16187,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16268,7 +16274,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT79">
         <v>0.93</v>
@@ -16459,7 +16465,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT80">
         <v>0.9399999999999999</v>
@@ -16653,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU81">
         <v>1.43</v>
@@ -17136,7 +17142,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17327,7 +17333,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17605,7 +17611,7 @@
         <v>0.43</v>
       </c>
       <c r="AS86">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT86">
         <v>0.75</v>
@@ -18754,7 +18760,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU92">
         <v>1.44</v>
@@ -18945,7 +18951,7 @@
         <v>1.19</v>
       </c>
       <c r="AT93">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU93">
         <v>1.42</v>
@@ -19133,7 +19139,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19237,7 +19243,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19897,7 +19903,7 @@
         <v>0.88</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT98">
         <v>0.9399999999999999</v>
@@ -20383,7 +20389,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20574,7 +20580,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20956,7 +20962,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21529,7 +21535,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21619,7 +21625,7 @@
         <v>1.13</v>
       </c>
       <c r="AT107">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -21807,10 +21813,10 @@
         <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT108">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU108">
         <v>1.28</v>
@@ -22293,7 +22299,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22484,7 +22490,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -23335,7 +23341,7 @@
         <v>0.89</v>
       </c>
       <c r="AS116">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT116">
         <v>0.8</v>
@@ -23439,7 +23445,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23526,7 +23532,7 @@
         <v>2.11</v>
       </c>
       <c r="AS117">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT117">
         <v>2.13</v>
@@ -23630,7 +23636,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23821,7 +23827,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23911,7 +23917,7 @@
         <v>0.87</v>
       </c>
       <c r="AT119">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU119">
         <v>1.07</v>
@@ -24012,7 +24018,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24102,7 +24108,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU120">
         <v>1.68</v>
@@ -24203,7 +24209,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24394,7 +24400,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24776,7 +24782,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25349,7 +25355,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25540,7 +25546,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25821,7 +25827,7 @@
         <v>2.44</v>
       </c>
       <c r="AT129">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU129">
         <v>1.75</v>
@@ -26009,10 +26015,10 @@
         <v>1.6</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT130">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU130">
         <v>1.19</v>
@@ -26113,7 +26119,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26200,7 +26206,7 @@
         <v>1.8</v>
       </c>
       <c r="AS131">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT131">
         <v>1.38</v>
@@ -26304,7 +26310,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26495,7 +26501,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -27068,7 +27074,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27155,10 +27161,10 @@
         <v>1.55</v>
       </c>
       <c r="AS136">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT136">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU136">
         <v>1.34</v>
@@ -27259,7 +27265,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27450,7 +27456,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27540,7 +27546,7 @@
         <v>1.19</v>
       </c>
       <c r="AT138">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27641,7 +27647,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27832,7 +27838,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28301,7 +28307,7 @@
         <v>1.36</v>
       </c>
       <c r="AS142">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT142">
         <v>1.4</v>
@@ -28405,7 +28411,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28596,7 +28602,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28787,7 +28793,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28978,7 +28984,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29068,7 +29074,7 @@
         <v>1.13</v>
       </c>
       <c r="AT146">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU146">
         <v>1.15</v>
@@ -29169,7 +29175,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29256,7 +29262,7 @@
         <v>0.73</v>
       </c>
       <c r="AS147">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT147">
         <v>0.8</v>
@@ -29551,7 +29557,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29641,7 +29647,7 @@
         <v>1.19</v>
       </c>
       <c r="AT149">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU149">
         <v>1.52</v>
@@ -29742,7 +29748,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29933,7 +29939,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -30211,7 +30217,7 @@
         <v>0.92</v>
       </c>
       <c r="AS152">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT152">
         <v>0.93</v>
@@ -30506,7 +30512,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30593,7 +30599,7 @@
         <v>1.25</v>
       </c>
       <c r="AS154">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT154">
         <v>1.33</v>
@@ -30697,7 +30703,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30888,7 +30894,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31461,7 +31467,7 @@
         <v>181</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31652,7 +31658,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31843,7 +31849,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31933,7 +31939,7 @@
         <v>1.33</v>
       </c>
       <c r="AT161">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU161">
         <v>1.61</v>
@@ -32225,7 +32231,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32315,7 +32321,7 @@
         <v>1.13</v>
       </c>
       <c r="AT163">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU163">
         <v>1.13</v>
@@ -32888,7 +32894,7 @@
         <v>0.87</v>
       </c>
       <c r="AT166">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU166">
         <v>1.06</v>
@@ -33267,7 +33273,7 @@
         <v>0.71</v>
       </c>
       <c r="AS168">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT168">
         <v>0.75</v>
@@ -33371,7 +33377,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33458,7 +33464,7 @@
         <v>0.85</v>
       </c>
       <c r="AS169">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT169">
         <v>0.93</v>
@@ -33562,7 +33568,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33753,7 +33759,7 @@
         <v>85</v>
       </c>
       <c r="P171" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33843,7 +33849,7 @@
         <v>1.33</v>
       </c>
       <c r="AT171">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU171">
         <v>1.3</v>
@@ -34135,7 +34141,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34326,7 +34332,7 @@
         <v>192</v>
       </c>
       <c r="P174" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q174">
         <v>10</v>
@@ -34899,7 +34905,7 @@
         <v>151</v>
       </c>
       <c r="P177" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q177">
         <v>10</v>
@@ -34986,7 +34992,7 @@
         <v>0.73</v>
       </c>
       <c r="AS177">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT177">
         <v>0.75</v>
@@ -35090,7 +35096,7 @@
         <v>77</v>
       </c>
       <c r="P178" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35281,7 +35287,7 @@
         <v>85</v>
       </c>
       <c r="P179" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -35472,7 +35478,7 @@
         <v>85</v>
       </c>
       <c r="P180" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35559,10 +35565,10 @@
         <v>1.53</v>
       </c>
       <c r="AS180">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT180">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU180">
         <v>1.23</v>
@@ -36045,7 +36051,7 @@
         <v>196</v>
       </c>
       <c r="P183" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36427,7 +36433,7 @@
         <v>198</v>
       </c>
       <c r="P185" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36618,7 +36624,7 @@
         <v>132</v>
       </c>
       <c r="P186" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -36760,6 +36766,388 @@
       </c>
       <c r="BK186">
         <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>6604022</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45178.72916666666</v>
+      </c>
+      <c r="F187">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>66</v>
+      </c>
+      <c r="H187" t="s">
+        <v>72</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187" t="s">
+        <v>85</v>
+      </c>
+      <c r="P187" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q187">
+        <v>2</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>2</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
+        <v>2.24</v>
+      </c>
+      <c r="AD187">
+        <v>3.3</v>
+      </c>
+      <c r="AE187">
+        <v>2.68</v>
+      </c>
+      <c r="AF187">
+        <v>0</v>
+      </c>
+      <c r="AG187">
+        <v>0</v>
+      </c>
+      <c r="AH187">
+        <v>0</v>
+      </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
+        <v>1.95</v>
+      </c>
+      <c r="AK187">
+        <v>1.81</v>
+      </c>
+      <c r="AL187">
+        <v>0</v>
+      </c>
+      <c r="AM187">
+        <v>0</v>
+      </c>
+      <c r="AN187">
+        <v>0</v>
+      </c>
+      <c r="AO187">
+        <v>0</v>
+      </c>
+      <c r="AP187">
+        <v>0</v>
+      </c>
+      <c r="AQ187">
+        <v>1.75</v>
+      </c>
+      <c r="AR187">
+        <v>1.63</v>
+      </c>
+      <c r="AS187">
+        <v>1.71</v>
+      </c>
+      <c r="AT187">
+        <v>1.59</v>
+      </c>
+      <c r="AU187">
+        <v>1.35</v>
+      </c>
+      <c r="AV187">
+        <v>1.17</v>
+      </c>
+      <c r="AW187">
+        <v>2.52</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>0</v>
+      </c>
+      <c r="AZ187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>0</v>
+      </c>
+      <c r="BD187">
+        <v>0</v>
+      </c>
+      <c r="BE187">
+        <v>0</v>
+      </c>
+      <c r="BF187">
+        <v>3</v>
+      </c>
+      <c r="BG187">
+        <v>0</v>
+      </c>
+      <c r="BH187">
+        <v>7</v>
+      </c>
+      <c r="BI187">
+        <v>0</v>
+      </c>
+      <c r="BJ187">
+        <v>10</v>
+      </c>
+      <c r="BK187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>6604024</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45178.83333333334</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>68</v>
+      </c>
+      <c r="H188" t="s">
+        <v>75</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>4</v>
+      </c>
+      <c r="N188">
+        <v>5</v>
+      </c>
+      <c r="O188" t="s">
+        <v>199</v>
+      </c>
+      <c r="P188" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q188">
+        <v>2</v>
+      </c>
+      <c r="R188">
+        <v>3</v>
+      </c>
+      <c r="S188">
+        <v>5</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+      <c r="AB188">
+        <v>0</v>
+      </c>
+      <c r="AC188">
+        <v>2.8</v>
+      </c>
+      <c r="AD188">
+        <v>3.2</v>
+      </c>
+      <c r="AE188">
+        <v>2.35</v>
+      </c>
+      <c r="AF188">
+        <v>0</v>
+      </c>
+      <c r="AG188">
+        <v>0</v>
+      </c>
+      <c r="AH188">
+        <v>0</v>
+      </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
+        <v>1.85</v>
+      </c>
+      <c r="AK188">
+        <v>1.85</v>
+      </c>
+      <c r="AL188">
+        <v>0</v>
+      </c>
+      <c r="AM188">
+        <v>0</v>
+      </c>
+      <c r="AN188">
+        <v>0</v>
+      </c>
+      <c r="AO188">
+        <v>0</v>
+      </c>
+      <c r="AP188">
+        <v>0</v>
+      </c>
+      <c r="AQ188">
+        <v>1.33</v>
+      </c>
+      <c r="AR188">
+        <v>1.6</v>
+      </c>
+      <c r="AS188">
+        <v>1.25</v>
+      </c>
+      <c r="AT188">
+        <v>1.69</v>
+      </c>
+      <c r="AU188">
+        <v>1.29</v>
+      </c>
+      <c r="AV188">
+        <v>1.36</v>
+      </c>
+      <c r="AW188">
+        <v>2.65</v>
+      </c>
+      <c r="AX188">
+        <v>0</v>
+      </c>
+      <c r="AY188">
+        <v>0</v>
+      </c>
+      <c r="AZ188">
+        <v>0</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>0</v>
+      </c>
+      <c r="BC188">
+        <v>0</v>
+      </c>
+      <c r="BD188">
+        <v>0</v>
+      </c>
+      <c r="BE188">
+        <v>0</v>
+      </c>
+      <c r="BF188">
+        <v>0</v>
+      </c>
+      <c r="BG188">
+        <v>3</v>
+      </c>
+      <c r="BH188">
+        <v>2</v>
+      </c>
+      <c r="BI188">
+        <v>5</v>
+      </c>
+      <c r="BJ188">
+        <v>2</v>
+      </c>
+      <c r="BK188">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,15 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['51', '80', '90']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -635,9 +644,6 @@
   </si>
   <si>
     <t>['36']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['46']</t>
@@ -1236,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1767,7 @@
         <v>1.71</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1862,7 +1868,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1952,7 +1958,7 @@
         <v>0.87</v>
       </c>
       <c r="AT4">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2244,7 +2250,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT6">
         <v>1.69</v>
@@ -2626,7 +2632,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2716,7 +2722,7 @@
         <v>1.13</v>
       </c>
       <c r="AT8">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2817,7 +2823,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3199,7 +3205,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3286,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT11">
         <v>2.13</v>
@@ -3477,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3581,7 +3587,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3772,7 +3778,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3963,7 +3969,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4053,7 +4059,7 @@
         <v>1.25</v>
       </c>
       <c r="AT15">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU15">
         <v>0.85</v>
@@ -4241,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT16">
         <v>1.59</v>
@@ -4345,7 +4351,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4626,7 +4632,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU18">
         <v>1.41</v>
@@ -4727,7 +4733,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4814,7 +4820,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT19">
         <v>1.59</v>
@@ -4918,7 +4924,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5109,7 +5115,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5300,7 +5306,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5491,7 +5497,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5769,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT24">
         <v>1.69</v>
@@ -5963,7 +5969,7 @@
         <v>1.27</v>
       </c>
       <c r="AT25">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU25">
         <v>1.49</v>
@@ -6151,7 +6157,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT26">
         <v>0.8</v>
@@ -6536,7 +6542,7 @@
         <v>2.44</v>
       </c>
       <c r="AT28">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU28">
         <v>1.25</v>
@@ -6637,7 +6643,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6918,7 +6924,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU30">
         <v>1.8</v>
@@ -7019,7 +7025,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7401,7 +7407,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7592,7 +7598,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7870,7 +7876,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT35">
         <v>0.8</v>
@@ -7974,7 +7980,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8446,7 +8452,7 @@
         <v>2.44</v>
       </c>
       <c r="AT38">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU38">
         <v>1.61</v>
@@ -8547,7 +8553,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8738,7 +8744,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8825,10 +8831,10 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT40">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -9120,7 +9126,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9207,7 +9213,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT42">
         <v>0.93</v>
@@ -9401,7 +9407,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU43">
         <v>1.73</v>
@@ -9693,7 +9699,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9884,7 +9890,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10075,7 +10081,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10266,7 +10272,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10648,7 +10654,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10738,7 +10744,7 @@
         <v>1.33</v>
       </c>
       <c r="AT50">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10839,7 +10845,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11117,10 +11123,10 @@
         <v>2.5</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT52">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11308,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT53">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU53">
         <v>1.25</v>
@@ -11499,7 +11505,7 @@
         <v>1.33</v>
       </c>
       <c r="AS54">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT54">
         <v>1.4</v>
@@ -11884,7 +11890,7 @@
         <v>1.13</v>
       </c>
       <c r="AT56">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU56">
         <v>1.36</v>
@@ -12176,7 +12182,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12367,7 +12373,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13218,10 +13224,10 @@
         <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT63">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU63">
         <v>1.27</v>
@@ -13322,7 +13328,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13409,7 +13415,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT64">
         <v>1.33</v>
@@ -13600,10 +13606,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT65">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13704,7 +13710,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13895,7 +13901,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14086,7 +14092,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14176,7 +14182,7 @@
         <v>1.27</v>
       </c>
       <c r="AT68">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14364,7 +14370,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT69">
         <v>1.33</v>
@@ -14468,7 +14474,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14659,7 +14665,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15041,7 +15047,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15128,7 +15134,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15322,7 +15328,7 @@
         <v>0.87</v>
       </c>
       <c r="AT74">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15513,7 +15519,7 @@
         <v>1.33</v>
       </c>
       <c r="AT75">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -15614,7 +15620,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15701,7 +15707,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT76">
         <v>1.4</v>
@@ -15805,7 +15811,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16187,7 +16193,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16468,7 +16474,7 @@
         <v>1.71</v>
       </c>
       <c r="AT80">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU80">
         <v>1.21</v>
@@ -16656,7 +16662,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT81">
         <v>1.69</v>
@@ -17142,7 +17148,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17229,7 +17235,7 @@
         <v>2.17</v>
       </c>
       <c r="AS84">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT84">
         <v>2.13</v>
@@ -17333,7 +17339,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17614,7 +17620,7 @@
         <v>1.25</v>
       </c>
       <c r="AT86">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17993,10 +17999,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT88">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU88">
         <v>1.41</v>
@@ -18378,7 +18384,7 @@
         <v>2.44</v>
       </c>
       <c r="AT90">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU90">
         <v>1.83</v>
@@ -18948,7 +18954,7 @@
         <v>1.71</v>
       </c>
       <c r="AS93">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT93">
         <v>1.59</v>
@@ -19243,7 +19249,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19330,7 +19336,7 @@
         <v>2.29</v>
       </c>
       <c r="AS95">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT95">
         <v>1.93</v>
@@ -19906,7 +19912,7 @@
         <v>1.25</v>
       </c>
       <c r="AT98">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU98">
         <v>1.13</v>
@@ -20097,7 +20103,7 @@
         <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU99">
         <v>1.42</v>
@@ -20389,7 +20395,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20476,7 +20482,7 @@
         <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT101">
         <v>1.33</v>
@@ -20580,7 +20586,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20670,7 +20676,7 @@
         <v>1.33</v>
       </c>
       <c r="AT102">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20858,7 +20864,7 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT103">
         <v>0.93</v>
@@ -20962,7 +20968,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21431,7 +21437,7 @@
         <v>2.38</v>
       </c>
       <c r="AS106">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT106">
         <v>1.93</v>
@@ -21535,7 +21541,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22299,7 +22305,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22386,7 +22392,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS111">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22490,7 +22496,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22768,10 +22774,10 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT113">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU113">
         <v>1.43</v>
@@ -22962,7 +22968,7 @@
         <v>1.27</v>
       </c>
       <c r="AT114">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -23150,10 +23156,10 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT115">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU115">
         <v>1.4</v>
@@ -23445,7 +23451,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23636,7 +23642,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23827,7 +23833,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24018,7 +24024,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24209,7 +24215,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24400,7 +24406,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24678,7 +24684,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT123">
         <v>2.13</v>
@@ -24782,7 +24788,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24869,7 +24875,7 @@
         <v>1.4</v>
       </c>
       <c r="AS124">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT124">
         <v>1.4</v>
@@ -25254,7 +25260,7 @@
         <v>1.27</v>
       </c>
       <c r="AT126">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25355,7 +25361,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25442,10 +25448,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT127">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25546,7 +25552,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26119,7 +26125,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26209,7 +26215,7 @@
         <v>1.71</v>
       </c>
       <c r="AT131">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26310,7 +26316,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26501,7 +26507,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26779,7 +26785,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -26973,7 +26979,7 @@
         <v>2.44</v>
       </c>
       <c r="AT135">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU135">
         <v>1.71</v>
@@ -27074,7 +27080,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27265,7 +27271,7 @@
         <v>168</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27355,7 +27361,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU137">
         <v>1.64</v>
@@ -27456,7 +27462,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27543,7 +27549,7 @@
         <v>1.55</v>
       </c>
       <c r="AS138">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT138">
         <v>1.59</v>
@@ -27647,7 +27653,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q139">
         <v>9</v>
@@ -27734,10 +27740,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT139">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -27838,7 +27844,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27925,7 +27931,7 @@
         <v>1.36</v>
       </c>
       <c r="AS140">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT140">
         <v>1.33</v>
@@ -28411,7 +28417,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28602,7 +28608,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28793,7 +28799,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28883,7 +28889,7 @@
         <v>1.27</v>
       </c>
       <c r="AT145">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU145">
         <v>1.5</v>
@@ -28984,7 +28990,7 @@
         <v>85</v>
       </c>
       <c r="P146" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29175,7 +29181,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29453,7 +29459,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29557,7 +29563,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29644,7 +29650,7 @@
         <v>1.42</v>
       </c>
       <c r="AS149">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT149">
         <v>1.69</v>
@@ -29748,7 +29754,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29838,7 +29844,7 @@
         <v>1.33</v>
       </c>
       <c r="AT150">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU150">
         <v>1.66</v>
@@ -29939,7 +29945,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -30029,7 +30035,7 @@
         <v>2.44</v>
       </c>
       <c r="AT151">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU151">
         <v>1.73</v>
@@ -30411,7 +30417,7 @@
         <v>1.33</v>
       </c>
       <c r="AT153">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU153">
         <v>1.26</v>
@@ -30512,7 +30518,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30703,7 +30709,7 @@
         <v>85</v>
       </c>
       <c r="P155" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30894,7 +30900,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -30984,7 +30990,7 @@
         <v>0.87</v>
       </c>
       <c r="AT156">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU156">
         <v>1.06</v>
@@ -31172,7 +31178,7 @@
         <v>2</v>
       </c>
       <c r="AS157">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT157">
         <v>1.93</v>
@@ -31467,7 +31473,7 @@
         <v>181</v>
       </c>
       <c r="P159" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31554,7 +31560,7 @@
         <v>1.25</v>
       </c>
       <c r="AS159">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT159">
         <v>1.4</v>
@@ -31658,7 +31664,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31745,7 +31751,7 @@
         <v>0.92</v>
       </c>
       <c r="AS160">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT160">
         <v>0.8</v>
@@ -31849,7 +31855,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32130,7 +32136,7 @@
         <v>1.27</v>
       </c>
       <c r="AT162">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU162">
         <v>1.48</v>
@@ -32231,7 +32237,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32512,7 +32518,7 @@
         <v>1.27</v>
       </c>
       <c r="AT164">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU164">
         <v>1.51</v>
@@ -32700,7 +32706,7 @@
         <v>2.15</v>
       </c>
       <c r="AS165">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT165">
         <v>2.13</v>
@@ -33082,7 +33088,7 @@
         <v>1.23</v>
       </c>
       <c r="AS167">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT167">
         <v>1.33</v>
@@ -33276,7 +33282,7 @@
         <v>1.25</v>
       </c>
       <c r="AT168">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU168">
         <v>1.22</v>
@@ -33377,7 +33383,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33568,7 +33574,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33658,7 +33664,7 @@
         <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU170">
         <v>1.57</v>
@@ -33759,7 +33765,7 @@
         <v>85</v>
       </c>
       <c r="P171" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34141,7 +34147,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34228,7 +34234,7 @@
         <v>2.08</v>
       </c>
       <c r="AS173">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT173">
         <v>1.93</v>
@@ -34332,7 +34338,7 @@
         <v>192</v>
       </c>
       <c r="P174" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q174">
         <v>10</v>
@@ -34804,7 +34810,7 @@
         <v>1.27</v>
       </c>
       <c r="AT176">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU176">
         <v>1.53</v>
@@ -34905,7 +34911,7 @@
         <v>151</v>
       </c>
       <c r="P177" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q177">
         <v>10</v>
@@ -34995,7 +35001,7 @@
         <v>1.71</v>
       </c>
       <c r="AT177">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU177">
         <v>1.34</v>
@@ -35096,7 +35102,7 @@
         <v>77</v>
       </c>
       <c r="P178" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35183,7 +35189,7 @@
         <v>2.21</v>
       </c>
       <c r="AS178">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT178">
         <v>2.13</v>
@@ -35287,7 +35293,7 @@
         <v>85</v>
       </c>
       <c r="P179" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -35374,7 +35380,7 @@
         <v>1.21</v>
       </c>
       <c r="AS179">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT179">
         <v>1.33</v>
@@ -35478,7 +35484,7 @@
         <v>85</v>
       </c>
       <c r="P180" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35756,10 +35762,10 @@
         <v>1.47</v>
       </c>
       <c r="AS181">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT181">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU181">
         <v>1.5</v>
@@ -36051,7 +36057,7 @@
         <v>196</v>
       </c>
       <c r="P183" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36433,7 +36439,7 @@
         <v>198</v>
       </c>
       <c r="P185" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36624,7 +36630,7 @@
         <v>132</v>
       </c>
       <c r="P186" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -36818,13 +36824,13 @@
         <v>85</v>
       </c>
       <c r="Q187">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R187">
         <v>0</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T187">
         <v>0</v>
@@ -36941,22 +36947,22 @@
         <v>0</v>
       </c>
       <c r="BF187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH187">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BI187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ187">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK187">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:63">
@@ -37006,16 +37012,16 @@
         <v>199</v>
       </c>
       <c r="P188" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S188">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T188">
         <v>0</v>
@@ -37132,22 +37138,595 @@
         <v>0</v>
       </c>
       <c r="BF188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG188">
+        <v>6</v>
+      </c>
+      <c r="BH188">
         <v>3</v>
       </c>
-      <c r="BH188">
-        <v>2</v>
-      </c>
       <c r="BI188">
+        <v>7</v>
+      </c>
+      <c r="BJ188">
+        <v>6</v>
+      </c>
+      <c r="BK188">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>6604020</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45179.72916666666</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>74</v>
+      </c>
+      <c r="H189" t="s">
+        <v>71</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189" t="s">
+        <v>200</v>
+      </c>
+      <c r="P189" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q189">
+        <v>7</v>
+      </c>
+      <c r="R189">
         <v>5</v>
       </c>
-      <c r="BJ188">
-        <v>2</v>
-      </c>
-      <c r="BK188">
+      <c r="S189">
+        <v>12</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <v>0</v>
+      </c>
+      <c r="AC189">
+        <v>1.96</v>
+      </c>
+      <c r="AD189">
+        <v>3.2</v>
+      </c>
+      <c r="AE189">
+        <v>3.35</v>
+      </c>
+      <c r="AF189">
+        <v>0</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+      <c r="AH189">
+        <v>0</v>
+      </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
+        <v>2.09</v>
+      </c>
+      <c r="AK189">
+        <v>1.69</v>
+      </c>
+      <c r="AL189">
+        <v>0</v>
+      </c>
+      <c r="AM189">
+        <v>0</v>
+      </c>
+      <c r="AN189">
+        <v>0</v>
+      </c>
+      <c r="AO189">
+        <v>0</v>
+      </c>
+      <c r="AP189">
+        <v>0</v>
+      </c>
+      <c r="AQ189">
+        <v>1.19</v>
+      </c>
+      <c r="AR189">
+        <v>0.75</v>
+      </c>
+      <c r="AS189">
+        <v>1.29</v>
+      </c>
+      <c r="AT189">
+        <v>0.71</v>
+      </c>
+      <c r="AU189">
+        <v>1.48</v>
+      </c>
+      <c r="AV189">
+        <v>1.22</v>
+      </c>
+      <c r="AW189">
+        <v>2.7</v>
+      </c>
+      <c r="AX189">
+        <v>0</v>
+      </c>
+      <c r="AY189">
+        <v>0</v>
+      </c>
+      <c r="AZ189">
+        <v>0</v>
+      </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>0</v>
+      </c>
+      <c r="BC189">
+        <v>0</v>
+      </c>
+      <c r="BD189">
+        <v>0</v>
+      </c>
+      <c r="BE189">
+        <v>0</v>
+      </c>
+      <c r="BF189">
+        <v>5</v>
+      </c>
+      <c r="BG189">
+        <v>3</v>
+      </c>
+      <c r="BH189">
         <v>8</v>
+      </c>
+      <c r="BI189">
+        <v>4</v>
+      </c>
+      <c r="BJ189">
+        <v>13</v>
+      </c>
+      <c r="BK189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>6604021</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45179.83333333334</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>69</v>
+      </c>
+      <c r="H190" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>201</v>
+      </c>
+      <c r="P190" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q190">
+        <v>7</v>
+      </c>
+      <c r="R190">
+        <v>3</v>
+      </c>
+      <c r="S190">
+        <v>10</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <v>1.8</v>
+      </c>
+      <c r="AD190">
+        <v>3.6</v>
+      </c>
+      <c r="AE190">
+        <v>3.95</v>
+      </c>
+      <c r="AF190">
+        <v>0</v>
+      </c>
+      <c r="AG190">
+        <v>0</v>
+      </c>
+      <c r="AH190">
+        <v>0</v>
+      </c>
+      <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
+        <v>1.77</v>
+      </c>
+      <c r="AK190">
+        <v>2</v>
+      </c>
+      <c r="AL190">
+        <v>0</v>
+      </c>
+      <c r="AM190">
+        <v>0</v>
+      </c>
+      <c r="AN190">
+        <v>0</v>
+      </c>
+      <c r="AO190">
+        <v>0</v>
+      </c>
+      <c r="AP190">
+        <v>0</v>
+      </c>
+      <c r="AQ190">
+        <v>1.75</v>
+      </c>
+      <c r="AR190">
+        <v>1.38</v>
+      </c>
+      <c r="AS190">
+        <v>1.71</v>
+      </c>
+      <c r="AT190">
+        <v>1.35</v>
+      </c>
+      <c r="AU190">
+        <v>1.48</v>
+      </c>
+      <c r="AV190">
+        <v>1.18</v>
+      </c>
+      <c r="AW190">
+        <v>2.66</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>0</v>
+      </c>
+      <c r="AZ190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>0</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>0</v>
+      </c>
+      <c r="BF190">
+        <v>3</v>
+      </c>
+      <c r="BG190">
+        <v>3</v>
+      </c>
+      <c r="BH190">
+        <v>5</v>
+      </c>
+      <c r="BI190">
+        <v>1</v>
+      </c>
+      <c r="BJ190">
+        <v>8</v>
+      </c>
+      <c r="BK190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>6604023</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45180.85416666666</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>73</v>
+      </c>
+      <c r="H191" t="s">
+        <v>67</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>202</v>
+      </c>
+      <c r="P191" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>1</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+      <c r="V191">
+        <v>0</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+      <c r="AB191">
+        <v>0</v>
+      </c>
+      <c r="AC191">
+        <v>2.25</v>
+      </c>
+      <c r="AD191">
+        <v>3.15</v>
+      </c>
+      <c r="AE191">
+        <v>2.78</v>
+      </c>
+      <c r="AF191">
+        <v>0</v>
+      </c>
+      <c r="AG191">
+        <v>0</v>
+      </c>
+      <c r="AH191">
+        <v>0</v>
+      </c>
+      <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
+        <v>2</v>
+      </c>
+      <c r="AK191">
+        <v>1.8</v>
+      </c>
+      <c r="AL191">
+        <v>0</v>
+      </c>
+      <c r="AM191">
+        <v>0</v>
+      </c>
+      <c r="AN191">
+        <v>0</v>
+      </c>
+      <c r="AO191">
+        <v>0</v>
+      </c>
+      <c r="AP191">
+        <v>0</v>
+      </c>
+      <c r="AQ191">
+        <v>1</v>
+      </c>
+      <c r="AR191">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS191">
+        <v>1.12</v>
+      </c>
+      <c r="AT191">
+        <v>0.88</v>
+      </c>
+      <c r="AU191">
+        <v>1.49</v>
+      </c>
+      <c r="AV191">
+        <v>1.14</v>
+      </c>
+      <c r="AW191">
+        <v>2.63</v>
+      </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>0</v>
+      </c>
+      <c r="AZ191">
+        <v>0</v>
+      </c>
+      <c r="BA191">
+        <v>0</v>
+      </c>
+      <c r="BB191">
+        <v>0</v>
+      </c>
+      <c r="BC191">
+        <v>0</v>
+      </c>
+      <c r="BD191">
+        <v>0</v>
+      </c>
+      <c r="BE191">
+        <v>0</v>
+      </c>
+      <c r="BF191">
+        <v>2</v>
+      </c>
+      <c r="BG191">
+        <v>2</v>
+      </c>
+      <c r="BH191">
+        <v>1</v>
+      </c>
+      <c r="BI191">
+        <v>3</v>
+      </c>
+      <c r="BJ191">
+        <v>3</v>
+      </c>
+      <c r="BK191">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.71</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT7" t="n">
         <v>0.88</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT8" t="n">
         <v>0.88</v>
@@ -2321,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.71</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU10" t="n">
         <v>1.03</v>
@@ -2730,7 +2730,7 @@
         <v>1.12</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.29</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT18" t="n">
         <v>0.71</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU20" t="n">
         <v>0.8</v>
@@ -4963,7 +4963,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5369,7 +5369,7 @@
         <v>1.29</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU24" t="n">
         <v>1.41</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT25" t="n">
         <v>1.35</v>
@@ -5775,7 +5775,7 @@
         <v>1.71</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU26" t="n">
         <v>1.32</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT27" t="n">
         <v>0.88</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT30" t="n">
         <v>0.88</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU32" t="n">
         <v>0.79</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU34" t="n">
         <v>1.92</v>
@@ -7602,7 +7602,7 @@
         <v>1.29</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU35" t="n">
         <v>1.35</v>
@@ -7805,7 +7805,7 @@
         <v>1.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT41" t="n">
         <v>1.31</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT43" t="n">
         <v>0.71</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU44" t="n">
         <v>0.84</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU46" t="n">
         <v>1.81</v>
@@ -10241,7 +10241,7 @@
         <v>1.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU49" t="n">
         <v>1.44</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT50" t="n">
         <v>0.88</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT51" t="n">
         <v>1.33</v>
@@ -11662,7 +11662,7 @@
         <v>2.44</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU55" t="n">
         <v>1.81</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT56" t="n">
         <v>1.35</v>
@@ -12065,7 +12065,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT57" t="n">
         <v>1.59</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU59" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>2.44</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU60" t="n">
         <v>1.98</v>
@@ -12880,7 +12880,7 @@
         <v>1.25</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU61" t="n">
         <v>1.02</v>
@@ -13892,10 +13892,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU66" t="n">
         <v>1.37</v>
@@ -14095,10 +14095,10 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU67" t="n">
         <v>1.59</v>
@@ -14704,7 +14704,7 @@
         <v>1.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT70" t="n">
         <v>1.31</v>
@@ -14907,10 +14907,10 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15110,10 +15110,10 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -15316,7 +15316,7 @@
         <v>1.12</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU73" t="n">
         <v>1.41</v>
@@ -15719,7 +15719,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT75" t="n">
         <v>1.35</v>
@@ -16125,7 +16125,7 @@
         <v>1.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT77" t="n">
         <v>1.59</v>
@@ -16331,7 +16331,7 @@
         <v>2.44</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU78" t="n">
         <v>1.9</v>
@@ -16940,7 +16940,7 @@
         <v>1.12</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU81" t="n">
         <v>1.43</v>
@@ -17140,7 +17140,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT82" t="n">
         <v>1.33</v>
@@ -17346,7 +17346,7 @@
         <v>1.38</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU83" t="n">
         <v>1.36</v>
@@ -17549,7 +17549,7 @@
         <v>1.29</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU84" t="n">
         <v>1.4</v>
@@ -17749,10 +17749,10 @@
         <v>2.17</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU85" t="n">
         <v>1.37</v>
@@ -18155,7 +18155,7 @@
         <v>1.43</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT87" t="n">
         <v>1.31</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU89" t="n">
         <v>1.37</v>
@@ -18967,7 +18967,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT91" t="n">
         <v>0.88</v>
@@ -19173,7 +19173,7 @@
         <v>1.38</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU92" t="n">
         <v>1.44</v>
@@ -19579,7 +19579,7 @@
         <v>1.71</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -19782,7 +19782,7 @@
         <v>1.12</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU95" t="n">
         <v>1.38</v>
@@ -20185,10 +20185,10 @@
         <v>2.29</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU97" t="n">
         <v>1.27</v>
@@ -20591,7 +20591,7 @@
         <v>0.38</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT99" t="n">
         <v>0.71</v>
@@ -21200,7 +21200,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT102" t="n">
         <v>1.35</v>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU104" t="n">
         <v>1.08</v>
@@ -21809,10 +21809,10 @@
         <v>0.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU105" t="n">
         <v>1.66</v>
@@ -22015,7 +22015,7 @@
         <v>1.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22215,7 +22215,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT107" t="n">
         <v>1.59</v>
@@ -22421,7 +22421,7 @@
         <v>1.71</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU108" t="n">
         <v>1.28</v>
@@ -22624,7 +22624,7 @@
         <v>1.38</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU109" t="n">
         <v>1.43</v>
@@ -23030,7 +23030,7 @@
         <v>1.71</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU111" t="n">
         <v>1.4</v>
@@ -23230,7 +23230,7 @@
         <v>1.22</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT112" t="n">
         <v>1.31</v>
@@ -23636,7 +23636,7 @@
         <v>0.78</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT114" t="n">
         <v>0.88</v>
@@ -24045,7 +24045,7 @@
         <v>1.71</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU116" t="n">
         <v>1.3</v>
@@ -24248,7 +24248,7 @@
         <v>1.25</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU117" t="n">
         <v>1.15</v>
@@ -24451,7 +24451,7 @@
         <v>1.38</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU118" t="n">
         <v>1.5</v>
@@ -24854,10 +24854,10 @@
         <v>1.44</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU120" t="n">
         <v>1.68</v>
@@ -25057,7 +25057,7 @@
         <v>0.78</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT121" t="n">
         <v>0.88</v>
@@ -25260,7 +25260,7 @@
         <v>1.2</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT122" t="n">
         <v>1.33</v>
@@ -25466,7 +25466,7 @@
         <v>1.71</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25869,10 +25869,10 @@
         <v>0.8</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU125" t="n">
         <v>1.49</v>
@@ -26684,7 +26684,7 @@
         <v>2.44</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU129" t="n">
         <v>1.75</v>
@@ -27290,10 +27290,10 @@
         <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU132" t="n">
         <v>1.19</v>
@@ -27493,10 +27493,10 @@
         <v>0.8</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU133" t="n">
         <v>1.68</v>
@@ -27699,7 +27699,7 @@
         <v>1.12</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -28105,7 +28105,7 @@
         <v>1.71</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU136" t="n">
         <v>1.34</v>
@@ -28305,7 +28305,7 @@
         <v>0.27</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT137" t="n">
         <v>0.71</v>
@@ -29117,10 +29117,10 @@
         <v>1.91</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU141" t="n">
         <v>1.52</v>
@@ -29523,10 +29523,10 @@
         <v>2</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU143" t="n">
         <v>1.28</v>
@@ -30132,7 +30132,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT146" t="n">
         <v>1.59</v>
@@ -30338,7 +30338,7 @@
         <v>1.71</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU147" t="n">
         <v>1.37</v>
@@ -30541,7 +30541,7 @@
         <v>1.71</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU148" t="n">
         <v>1.58</v>
@@ -30744,7 +30744,7 @@
         <v>1.29</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU149" t="n">
         <v>1.52</v>
@@ -30944,7 +30944,7 @@
         <v>1.5</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT150" t="n">
         <v>1.35</v>
@@ -31553,7 +31553,7 @@
         <v>1.62</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT153" t="n">
         <v>1.35</v>
@@ -31959,10 +31959,10 @@
         <v>2.08</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT155" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU155" t="n">
         <v>1.51</v>
@@ -32368,7 +32368,7 @@
         <v>1.12</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU157" t="n">
         <v>1.46</v>
@@ -32571,7 +32571,7 @@
         <v>2.44</v>
       </c>
       <c r="AT158" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU158" t="n">
         <v>1.69</v>
@@ -32977,7 +32977,7 @@
         <v>1.29</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU160" t="n">
         <v>1.51</v>
@@ -33177,7 +33177,7 @@
         <v>1.77</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT161" t="n">
         <v>1.59</v>
@@ -33583,10 +33583,10 @@
         <v>1.54</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU163" t="n">
         <v>1.13</v>
@@ -33786,7 +33786,7 @@
         <v>1.57</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT164" t="n">
         <v>1.35</v>
@@ -33992,7 +33992,7 @@
         <v>1.12</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU165" t="n">
         <v>1.5</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT170" t="n">
         <v>0.88</v>
@@ -35207,10 +35207,10 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU171" t="n">
         <v>1.3</v>
@@ -35616,7 +35616,7 @@
         <v>1.29</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -35819,7 +35819,7 @@
         <v>1.38</v>
       </c>
       <c r="AT174" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU174" t="n">
         <v>1.47</v>
@@ -36019,10 +36019,10 @@
         <v>0.92</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU175" t="n">
         <v>1.13</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT176" t="n">
         <v>0.88</v>
@@ -36631,7 +36631,7 @@
         <v>1.71</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU178" t="n">
         <v>1.53</v>
@@ -37443,7 +37443,7 @@
         <v>1</v>
       </c>
       <c r="AT182" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU182" t="n">
         <v>1.03</v>
@@ -37643,10 +37643,10 @@
         <v>2</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU183" t="n">
         <v>1.18</v>
@@ -38049,10 +38049,10 @@
         <v>0.86</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU185" t="n">
         <v>1.3</v>
@@ -38661,7 +38661,7 @@
         <v>1.25</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU188" t="n">
         <v>1.29</v>
@@ -39389,10 +39389,10 @@
         <v>0</v>
       </c>
       <c r="R192" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S192" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T192" t="n">
         <v>0</v>
@@ -39512,19 +39512,19 @@
         <v>0</v>
       </c>
       <c r="BG192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH192" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI192" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ192" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK192" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -39589,13 +39589,13 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S193" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T193" t="n">
         <v>0</v>
@@ -39712,22 +39712,1037 @@
         <v>0</v>
       </c>
       <c r="BF193" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH193" t="n">
         <v>2</v>
       </c>
       <c r="BI193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6604030</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45185.72916666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>11</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>4</v>
+      </c>
+      <c r="N194" t="n">
+        <v>4</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['49', '63', '67', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>1</v>
+      </c>
+      <c r="R194" t="n">
+        <v>7</v>
+      </c>
+      <c r="S194" t="n">
+        <v>8</v>
+      </c>
+      <c r="T194" t="n">
+        <v>0</v>
+      </c>
+      <c r="U194" t="n">
+        <v>0</v>
+      </c>
+      <c r="V194" t="n">
+        <v>0</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0</v>
+      </c>
+      <c r="X194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6604025</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45185.83333333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>11</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
         <v>3</v>
       </c>
-      <c r="BJ193" t="n">
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
         <v>4</v>
       </c>
-      <c r="BK193" t="n">
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['80', '81', '90+4']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>9</v>
+      </c>
+      <c r="R195" t="n">
+        <v>3</v>
+      </c>
+      <c r="S195" t="n">
+        <v>12</v>
+      </c>
+      <c r="T195" t="n">
+        <v>0</v>
+      </c>
+      <c r="U195" t="n">
+        <v>0</v>
+      </c>
+      <c r="V195" t="n">
+        <v>0</v>
+      </c>
+      <c r="W195" t="n">
+        <v>0</v>
+      </c>
+      <c r="X195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE195" t="n">
         <v>6</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6604026</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45186.72916666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>11</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2</v>
+      </c>
+      <c r="N196" t="n">
+        <v>3</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['71', '80']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>4</v>
+      </c>
+      <c r="R196" t="n">
+        <v>5</v>
+      </c>
+      <c r="S196" t="n">
+        <v>9</v>
+      </c>
+      <c r="T196" t="n">
+        <v>0</v>
+      </c>
+      <c r="U196" t="n">
+        <v>0</v>
+      </c>
+      <c r="V196" t="n">
+        <v>0</v>
+      </c>
+      <c r="W196" t="n">
+        <v>0</v>
+      </c>
+      <c r="X196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6604028</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45186.83333333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="n">
+        <v>6</v>
+      </c>
+      <c r="S197" t="n">
+        <v>6</v>
+      </c>
+      <c r="T197" t="n">
+        <v>0</v>
+      </c>
+      <c r="U197" t="n">
+        <v>0</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6604013</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45189.85416666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>9</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>4</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['24', '34', '48', '90+1']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2</v>
+      </c>
+      <c r="R198" t="n">
+        <v>7</v>
+      </c>
+      <c r="S198" t="n">
+        <v>9</v>
+      </c>
+      <c r="T198" t="n">
+        <v>0</v>
+      </c>
+      <c r="U198" t="n">
+        <v>0</v>
+      </c>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0</v>
+      </c>
+      <c r="X198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT4" t="n">
         <v>1.35</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.71</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU10" t="n">
         <v>1.03</v>
@@ -3136,7 +3136,7 @@
         <v>1.19</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT15" t="n">
         <v>1.35</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT17" t="n">
         <v>1.31</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU20" t="n">
         <v>0.8</v>
@@ -5775,7 +5775,7 @@
         <v>1.71</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU26" t="n">
         <v>1.32</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT29" t="n">
         <v>1.31</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT32" t="n">
         <v>0.9399999999999999</v>
@@ -7399,7 +7399,7 @@
         <v>1.53</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU34" t="n">
         <v>1.92</v>
@@ -7602,7 +7602,7 @@
         <v>1.29</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU35" t="n">
         <v>1.35</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT39" t="n">
         <v>1.33</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT44" t="n">
         <v>1.59</v>
@@ -10238,10 +10238,10 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10444,7 +10444,7 @@
         <v>1.06</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU49" t="n">
         <v>1.44</v>
@@ -12471,10 +12471,10 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU59" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>2.44</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU60" t="n">
         <v>1.98</v>
@@ -12877,7 +12877,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT61" t="n">
         <v>1.59</v>
@@ -14910,7 +14910,7 @@
         <v>1.19</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT74" t="n">
         <v>0.71</v>
@@ -16331,7 +16331,7 @@
         <v>2.44</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.9</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT79" t="n">
         <v>0.88</v>
@@ -17752,7 +17752,7 @@
         <v>1.44</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU85" t="n">
         <v>1.37</v>
@@ -17952,7 +17952,7 @@
         <v>0.43</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT86" t="n">
         <v>0.71</v>
@@ -18564,7 +18564,7 @@
         <v>1.44</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU89" t="n">
         <v>1.37</v>
@@ -19782,7 +19782,7 @@
         <v>1.12</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU95" t="n">
         <v>1.38</v>
@@ -19982,7 +19982,7 @@
         <v>1.57</v>
       </c>
       <c r="AS96" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT96" t="n">
         <v>1.33</v>
@@ -20388,7 +20388,7 @@
         <v>0.88</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT98" t="n">
         <v>0.88</v>
@@ -21606,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT104" t="n">
         <v>2.19</v>
@@ -22015,7 +22015,7 @@
         <v>1.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22624,7 +22624,7 @@
         <v>1.38</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU109" t="n">
         <v>1.43</v>
@@ -24045,7 +24045,7 @@
         <v>1.71</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU116" t="n">
         <v>1.3</v>
@@ -24245,7 +24245,7 @@
         <v>2.11</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT117" t="n">
         <v>2.19</v>
@@ -24451,7 +24451,7 @@
         <v>1.38</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU118" t="n">
         <v>1.5</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT119" t="n">
         <v>1.59</v>
@@ -26478,7 +26478,7 @@
         <v>0.7</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT128" t="n">
         <v>0.88</v>
@@ -26884,7 +26884,7 @@
         <v>1.6</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT130" t="n">
         <v>1.59</v>
@@ -27293,7 +27293,7 @@
         <v>1.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU132" t="n">
         <v>1.19</v>
@@ -27496,7 +27496,7 @@
         <v>1.53</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU133" t="n">
         <v>1.68</v>
@@ -29120,7 +29120,7 @@
         <v>1.19</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU141" t="n">
         <v>1.52</v>
@@ -29320,7 +29320,7 @@
         <v>1.36</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT142" t="n">
         <v>1.31</v>
@@ -29726,7 +29726,7 @@
         <v>0.91</v>
       </c>
       <c r="AS144" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT144" t="n">
         <v>0.88</v>
@@ -30338,7 +30338,7 @@
         <v>1.71</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU147" t="n">
         <v>1.37</v>
@@ -31350,7 +31350,7 @@
         <v>0.92</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT152" t="n">
         <v>0.88</v>
@@ -32162,7 +32162,7 @@
         <v>0.54</v>
       </c>
       <c r="AS156" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT156" t="n">
         <v>0.71</v>
@@ -32368,7 +32368,7 @@
         <v>1.12</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU157" t="n">
         <v>1.46</v>
@@ -32977,7 +32977,7 @@
         <v>1.29</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU160" t="n">
         <v>1.51</v>
@@ -34192,7 +34192,7 @@
         <v>1.64</v>
       </c>
       <c r="AS166" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT166" t="n">
         <v>1.59</v>
@@ -34598,7 +34598,7 @@
         <v>0.71</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT168" t="n">
         <v>0.71</v>
@@ -35616,7 +35616,7 @@
         <v>1.29</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -36022,7 +36022,7 @@
         <v>1.06</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU175" t="n">
         <v>1.13</v>
@@ -37034,7 +37034,7 @@
         <v>1.53</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT180" t="n">
         <v>1.59</v>
@@ -37440,7 +37440,7 @@
         <v>1.07</v>
       </c>
       <c r="AS182" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT182" t="n">
         <v>0.9399999999999999</v>
@@ -37646,7 +37646,7 @@
         <v>1.06</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU183" t="n">
         <v>1.18</v>
@@ -38052,7 +38052,7 @@
         <v>1.44</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU185" t="n">
         <v>1.3</v>
@@ -38658,7 +38658,7 @@
         <v>1.6</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT188" t="n">
         <v>1.59</v>
@@ -39470,7 +39470,7 @@
         <v>1.4</v>
       </c>
       <c r="AS192" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT192" t="n">
         <v>1.31</v>
@@ -40285,7 +40285,7 @@
         <v>1.19</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU196" t="n">
         <v>1.56</v>
@@ -40488,7 +40488,7 @@
         <v>1.44</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU197" t="n">
         <v>1.32</v>
@@ -40743,6 +40743,412 @@
       </c>
       <c r="BK198" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6604036</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45191.77083333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>12</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['90+3', '90+6']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>3</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2</v>
+      </c>
+      <c r="S199" t="n">
+        <v>5</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0</v>
+      </c>
+      <c r="V199" t="n">
+        <v>0</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0</v>
+      </c>
+      <c r="X199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6604034</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45191.875</v>
+      </c>
+      <c r="F200" t="n">
+        <v>12</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>2</v>
+      </c>
+      <c r="K200" t="n">
+        <v>3</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>4</v>
+      </c>
+      <c r="N200" t="n">
+        <v>5</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['1', '28', '86', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0</v>
+      </c>
+      <c r="U200" t="n">
+        <v>0</v>
+      </c>
+      <c r="V200" t="n">
+        <v>0</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.53</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT9" t="n">
         <v>1.59</v>
@@ -2730,7 +2730,7 @@
         <v>1.12</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT13" t="n">
         <v>0.88</v>
@@ -3339,7 +3339,7 @@
         <v>2.44</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU17" t="n">
         <v>0.9</v>
@@ -4760,7 +4760,7 @@
         <v>1.71</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU21" t="n">
         <v>1.16</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT25" t="n">
         <v>1.35</v>
@@ -5975,10 +5975,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU27" t="n">
         <v>1.22</v>
@@ -6384,7 +6384,7 @@
         <v>1.35</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -7193,7 +7193,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT33" t="n">
         <v>1.59</v>
@@ -7805,7 +7805,7 @@
         <v>1.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8414,7 +8414,7 @@
         <v>1.35</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU39" t="n">
         <v>1.14</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -9023,7 +9023,7 @@
         <v>1.71</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT43" t="n">
         <v>0.71</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU45" t="n">
         <v>1.06</v>
@@ -9835,7 +9835,7 @@
         <v>1.53</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU46" t="n">
         <v>1.81</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT50" t="n">
         <v>0.88</v>
@@ -10847,10 +10847,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU51" t="n">
         <v>1.46</v>
@@ -11459,7 +11459,7 @@
         <v>1.12</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU54" t="n">
         <v>1.51</v>
@@ -12271,7 +12271,7 @@
         <v>1.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU58" t="n">
         <v>1.24</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU62" t="n">
         <v>1.09</v>
@@ -13489,7 +13489,7 @@
         <v>1.12</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13892,10 +13892,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU66" t="n">
         <v>1.37</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT67" t="n">
         <v>0.9399999999999999</v>
@@ -14298,7 +14298,7 @@
         <v>1.2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT68" t="n">
         <v>0.88</v>
@@ -14504,7 +14504,7 @@
         <v>1.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU69" t="n">
         <v>1.46</v>
@@ -14707,7 +14707,7 @@
         <v>1.06</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU70" t="n">
         <v>1.31</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT71" t="n">
         <v>1.88</v>
@@ -15110,10 +15110,10 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -15925,7 +15925,7 @@
         <v>1.71</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU76" t="n">
         <v>1.48</v>
@@ -16125,7 +16125,7 @@
         <v>1.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT77" t="n">
         <v>1.59</v>
@@ -16534,7 +16534,7 @@
         <v>1.35</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU79" t="n">
         <v>1.02</v>
@@ -17143,7 +17143,7 @@
         <v>1.06</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU82" t="n">
         <v>1.26</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT83" t="n">
         <v>0.9399999999999999</v>
@@ -17549,7 +17549,7 @@
         <v>1.29</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU84" t="n">
         <v>1.4</v>
@@ -17749,7 +17749,7 @@
         <v>2.17</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT85" t="n">
         <v>1.88</v>
@@ -18158,7 +18158,7 @@
         <v>1.53</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT89" t="n">
         <v>0.88</v>
@@ -18967,10 +18967,10 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU91" t="n">
         <v>1.47</v>
@@ -19170,7 +19170,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT92" t="n">
         <v>1.59</v>
@@ -19985,7 +19985,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU96" t="n">
         <v>1.12</v>
@@ -20188,7 +20188,7 @@
         <v>1.06</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU97" t="n">
         <v>1.27</v>
@@ -20591,7 +20591,7 @@
         <v>0.38</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT99" t="n">
         <v>0.71</v>
@@ -20797,7 +20797,7 @@
         <v>2.44</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -21000,7 +21000,7 @@
         <v>1.71</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU101" t="n">
         <v>1.45</v>
@@ -21200,7 +21200,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT102" t="n">
         <v>1.35</v>
@@ -21406,7 +21406,7 @@
         <v>1.12</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU103" t="n">
         <v>1.34</v>
@@ -21609,7 +21609,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU104" t="n">
         <v>1.08</v>
@@ -22621,7 +22621,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT109" t="n">
         <v>0.88</v>
@@ -22827,7 +22827,7 @@
         <v>2.44</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU110" t="n">
         <v>1.8</v>
@@ -23230,10 +23230,10 @@
         <v>1.22</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU112" t="n">
         <v>1.34</v>
@@ -23636,7 +23636,7 @@
         <v>0.78</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT114" t="n">
         <v>0.88</v>
@@ -24248,7 +24248,7 @@
         <v>1.35</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU117" t="n">
         <v>1.15</v>
@@ -24448,7 +24448,7 @@
         <v>2.22</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT118" t="n">
         <v>1.88</v>
@@ -25060,7 +25060,7 @@
         <v>1.06</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU121" t="n">
         <v>1.24</v>
@@ -25260,10 +25260,10 @@
         <v>1.2</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU122" t="n">
         <v>1.28</v>
@@ -25466,7 +25466,7 @@
         <v>1.71</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25669,7 +25669,7 @@
         <v>1.29</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU124" t="n">
         <v>1.46</v>
@@ -25869,7 +25869,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT125" t="n">
         <v>0.9399999999999999</v>
@@ -26072,7 +26072,7 @@
         <v>0.3</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT126" t="n">
         <v>0.71</v>
@@ -26481,7 +26481,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU128" t="n">
         <v>1.09</v>
@@ -28917,7 +28917,7 @@
         <v>1.12</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU140" t="n">
         <v>1.52</v>
@@ -29117,7 +29117,7 @@
         <v>1.91</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT141" t="n">
         <v>1.88</v>
@@ -29323,7 +29323,7 @@
         <v>1.35</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU142" t="n">
         <v>1.21</v>
@@ -29523,10 +29523,10 @@
         <v>2</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU143" t="n">
         <v>1.28</v>
@@ -29729,7 +29729,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU144" t="n">
         <v>1.06</v>
@@ -29929,7 +29929,7 @@
         <v>0.5</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT145" t="n">
         <v>0.71</v>
@@ -31353,7 +31353,7 @@
         <v>1.35</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU152" t="n">
         <v>1.22</v>
@@ -31553,7 +31553,7 @@
         <v>1.62</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT153" t="n">
         <v>1.35</v>
@@ -31759,7 +31759,7 @@
         <v>1.71</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU154" t="n">
         <v>1.4</v>
@@ -31959,10 +31959,10 @@
         <v>2.08</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT155" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU155" t="n">
         <v>1.51</v>
@@ -32774,7 +32774,7 @@
         <v>1.71</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU159" t="n">
         <v>1.63</v>
@@ -33380,7 +33380,7 @@
         <v>1.08</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT162" t="n">
         <v>0.88</v>
@@ -33786,7 +33786,7 @@
         <v>1.57</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT164" t="n">
         <v>1.35</v>
@@ -33992,7 +33992,7 @@
         <v>1.12</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU165" t="n">
         <v>1.5</v>
@@ -34398,7 +34398,7 @@
         <v>1.71</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU167" t="n">
         <v>1.58</v>
@@ -34804,7 +34804,7 @@
         <v>1.71</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU169" t="n">
         <v>1.32</v>
@@ -35207,7 +35207,7 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT171" t="n">
         <v>1.59</v>
@@ -35413,7 +35413,7 @@
         <v>2.44</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU172" t="n">
         <v>1.7</v>
@@ -35816,7 +35816,7 @@
         <v>0.93</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT174" t="n">
         <v>0.9399999999999999</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT176" t="n">
         <v>0.88</v>
@@ -36631,7 +36631,7 @@
         <v>1.71</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU178" t="n">
         <v>1.53</v>
@@ -36834,7 +36834,7 @@
         <v>1.29</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU179" t="n">
         <v>1.49</v>
@@ -37849,7 +37849,7 @@
         <v>2.44</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU184" t="n">
         <v>1.66</v>
@@ -38049,7 +38049,7 @@
         <v>0.86</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT185" t="n">
         <v>0.88</v>
@@ -38252,10 +38252,10 @@
         <v>1.29</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -39473,7 +39473,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU192" t="n">
         <v>1.02</v>
@@ -39673,10 +39673,10 @@
         <v>0.93</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -39879,7 +39879,7 @@
         <v>1.06</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU194" t="n">
         <v>1.18</v>
@@ -40282,7 +40282,7 @@
         <v>0.8</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT196" t="n">
         <v>0.88</v>
@@ -40485,7 +40485,7 @@
         <v>1.93</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT197" t="n">
         <v>1.88</v>
@@ -41010,13 +41010,13 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R200" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S200" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T200" t="n">
         <v>0</v>
@@ -41133,22 +41133,834 @@
         <v>0</v>
       </c>
       <c r="BF200" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG200" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BH200" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI200" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ200" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK200" t="n">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6604031</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45192.77083333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>12</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>1</v>
+      </c>
+      <c r="R201" t="n">
+        <v>7</v>
+      </c>
+      <c r="S201" t="n">
+        <v>8</v>
+      </c>
+      <c r="T201" t="n">
+        <v>0</v>
+      </c>
+      <c r="U201" t="n">
+        <v>0</v>
+      </c>
+      <c r="V201" t="n">
+        <v>0</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0</v>
+      </c>
+      <c r="X201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6604032</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F202" t="n">
+        <v>12</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2</v>
+      </c>
+      <c r="K202" t="n">
+        <v>3</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>3</v>
+      </c>
+      <c r="N202" t="n">
+        <v>5</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['43', '55']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['34', '41', '62']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>4</v>
+      </c>
+      <c r="S202" t="n">
+        <v>9</v>
+      </c>
+      <c r="T202" t="n">
+        <v>0</v>
+      </c>
+      <c r="U202" t="n">
+        <v>0</v>
+      </c>
+      <c r="V202" t="n">
+        <v>0</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0</v>
+      </c>
+      <c r="X202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6604033</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45193.77083333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>12</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['36', '45']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>1</v>
+      </c>
+      <c r="R203" t="n">
+        <v>1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>2</v>
+      </c>
+      <c r="T203" t="n">
+        <v>0</v>
+      </c>
+      <c r="U203" t="n">
+        <v>0</v>
+      </c>
+      <c r="V203" t="n">
+        <v>0</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0</v>
+      </c>
+      <c r="X203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6604035</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45193.875</v>
+      </c>
+      <c r="F204" t="n">
+        <v>12</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>3</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['55', '80', '88']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2</v>
+      </c>
+      <c r="R204" t="n">
+        <v>1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>3</v>
+      </c>
+      <c r="T204" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" t="n">
+        <v>0</v>
+      </c>
+      <c r="V204" t="n">
+        <v>0</v>
+      </c>
+      <c r="W204" t="n">
+        <v>0</v>
+      </c>
+      <c r="X204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -41619,13 +41619,13 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R203" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S203" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T203" t="n">
         <v>0</v>
@@ -41742,22 +41742,22 @@
         <v>0</v>
       </c>
       <c r="BF203" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI203" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ203" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BK203" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204">
@@ -41825,10 +41825,10 @@
         <v>2</v>
       </c>
       <c r="R204" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S204" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T204" t="n">
         <v>0</v>
@@ -41945,22 +41945,22 @@
         <v>0</v>
       </c>
       <c r="BF204" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI204" t="n">
         <v>4</v>
       </c>
-      <c r="BI204" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ204" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK204" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ204"/>
+  <dimension ref="A1:AZ205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.59</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.82</v>
@@ -4069,7 +4069,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR21" t="n">
         <v>1.16</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.71</v>
@@ -6789,7 +6789,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR37" t="n">
         <v>1.18</v>
@@ -6956,7 +6956,7 @@
         <v>2</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.88</v>
@@ -7129,7 +7129,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR39" t="n">
         <v>1.14</v>
@@ -9169,7 +9169,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.9399999999999999</v>
@@ -10696,7 +10696,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.88</v>
@@ -11379,7 +11379,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR64" t="n">
         <v>1.5</v>
@@ -12229,7 +12229,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR69" t="n">
         <v>1.46</v>
@@ -13756,7 +13756,7 @@
         <v>1.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.88</v>
@@ -14439,7 +14439,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR82" t="n">
         <v>1.26</v>
@@ -15796,7 +15796,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.35</v>
@@ -16819,7 +16819,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR96" t="n">
         <v>1.12</v>
@@ -17496,7 +17496,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.41</v>
@@ -17669,7 +17669,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR101" t="n">
         <v>1.45</v>
@@ -19196,10 +19196,10 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR110" t="n">
         <v>1.8</v>
@@ -21239,7 +21239,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR122" t="n">
         <v>1.28</v>
@@ -22426,7 +22426,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.59</v>
@@ -23446,7 +23446,7 @@
         <v>1.64</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.35</v>
@@ -24299,7 +24299,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -26166,7 +26166,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.88</v>
@@ -26679,7 +26679,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR154" t="n">
         <v>1.4</v>
@@ -27356,7 +27356,7 @@
         <v>0.92</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.9399999999999999</v>
@@ -28889,7 +28889,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR167" t="n">
         <v>1.58</v>
@@ -29736,7 +29736,7 @@
         <v>1.15</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.41</v>
@@ -30929,7 +30929,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR179" t="n">
         <v>1.49</v>
@@ -31776,7 +31776,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.82</v>
@@ -34669,7 +34669,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR201" t="n">
         <v>1.14</v>
@@ -35207,6 +35207,176 @@
       </c>
       <c r="AZ204" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6604019</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45196.85416666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>3</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>3</v>
+      </c>
+      <c r="L205" t="n">
+        <v>4</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>4</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['15', '35', '45+4', '74']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
+      <c r="S205" t="n">
+        <v>0</v>
+      </c>
+      <c r="T205" t="n">
+        <v>0</v>
+      </c>
+      <c r="U205" t="n">
+        <v>0</v>
+      </c>
+      <c r="V205" t="n">
+        <v>0</v>
+      </c>
+      <c r="W205" t="n">
+        <v>0</v>
+      </c>
+      <c r="X205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -35361,22 +35361,22 @@
         <v>3.11</v>
       </c>
       <c r="AU205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV205" t="n">
         <v>4</v>
       </c>
-      <c r="AV205" t="n">
+      <c r="AW205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX205" t="n">
         <v>3</v>
       </c>
-      <c r="AW205" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX205" t="n">
-        <v>1</v>
-      </c>
       <c r="AY205" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ205" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ205"/>
+  <dimension ref="A1:AZ206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.71</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.88</v>
@@ -2539,7 +2539,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.24</v>
@@ -4409,7 +4409,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR23" t="n">
         <v>1.25</v>
@@ -5939,7 +5939,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR32" t="n">
         <v>0.79</v>
@@ -6616,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.24</v>
@@ -8486,7 +8486,7 @@
         <v>1.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.59</v>
@@ -9849,7 +9849,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -10356,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.82</v>
@@ -11889,7 +11889,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR67" t="n">
         <v>1.59</v>
@@ -12909,7 +12909,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR73" t="n">
         <v>1.41</v>
@@ -14096,7 +14096,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.88</v>
@@ -14609,7 +14609,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR83" t="n">
         <v>1.36</v>
@@ -16476,10 +16476,10 @@
         <v>0.57</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR94" t="n">
         <v>1.26</v>
@@ -18349,7 +18349,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -18856,7 +18856,7 @@
         <v>1.63</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.59</v>
@@ -19369,7 +19369,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR111" t="n">
         <v>1.4</v>
@@ -20216,7 +20216,7 @@
         <v>0.89</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.88</v>
@@ -21749,7 +21749,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR125" t="n">
         <v>1.49</v>
@@ -22766,7 +22766,7 @@
         <v>1.8</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.35</v>
@@ -23279,7 +23279,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR134" t="n">
         <v>1.53</v>
@@ -23616,7 +23616,7 @@
         <v>1.55</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.59</v>
@@ -25486,7 +25486,7 @@
         <v>0.73</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.88</v>
@@ -25659,7 +25659,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -26676,7 +26676,7 @@
         <v>1.25</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.24</v>
@@ -27359,7 +27359,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR158" t="n">
         <v>1.69</v>
@@ -29226,7 +29226,7 @@
         <v>0.85</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.82</v>
@@ -30079,7 +30079,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR174" t="n">
         <v>1.47</v>
@@ -30586,7 +30586,7 @@
         <v>0.73</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.71</v>
@@ -31439,7 +31439,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR182" t="n">
         <v>1.03</v>
@@ -32286,7 +32286,7 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.59</v>
@@ -33649,7 +33649,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR195" t="n">
         <v>1.53</v>
@@ -35377,6 +35377,176 @@
       </c>
       <c r="AZ205" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6604038</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45198.83333333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>13</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>3</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['12', '48', '84']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
+      <c r="S206" t="n">
+        <v>0</v>
+      </c>
+      <c r="T206" t="n">
+        <v>0</v>
+      </c>
+      <c r="U206" t="n">
+        <v>0</v>
+      </c>
+      <c r="V206" t="n">
+        <v>0</v>
+      </c>
+      <c r="W206" t="n">
+        <v>0</v>
+      </c>
+      <c r="X206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ206"/>
+  <dimension ref="A1:AZ207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,7 +1179,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.88</v>
@@ -3049,7 +3049,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR15" t="n">
         <v>0.85</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.06</v>
@@ -4749,7 +4749,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR25" t="n">
         <v>1.49</v>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.59</v>
@@ -7299,7 +7299,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR40" t="n">
         <v>1.31</v>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.88</v>
@@ -9339,7 +9339,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR52" t="n">
         <v>1.35</v>
@@ -10016,10 +10016,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR56" t="n">
         <v>1.36</v>
@@ -12396,7 +12396,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.41</v>
@@ -13249,7 +13249,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR75" t="n">
         <v>1.66</v>
@@ -14436,7 +14436,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.24</v>
@@ -15799,7 +15799,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR90" t="n">
         <v>1.83</v>
@@ -16986,7 +16986,7 @@
         <v>2.29</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.24</v>
@@ -17839,7 +17839,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR102" t="n">
         <v>1.41</v>
@@ -18686,7 +18686,7 @@
         <v>1.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.59</v>
@@ -20049,7 +20049,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR115" t="n">
         <v>1.4</v>
@@ -21066,7 +21066,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.82</v>
@@ -22769,7 +22769,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR131" t="n">
         <v>1.34</v>
@@ -22936,7 +22936,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.88</v>
@@ -23449,7 +23449,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR135" t="n">
         <v>1.71</v>
@@ -25316,7 +25316,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.59</v>
@@ -25999,7 +25999,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR150" t="n">
         <v>1.66</v>
@@ -26509,7 +26509,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR153" t="n">
         <v>1.26</v>
@@ -28206,7 +28206,7 @@
         <v>1.54</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.59</v>
@@ -28379,7 +28379,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR164" t="n">
         <v>1.51</v>
@@ -30246,7 +30246,7 @@
         <v>0.92</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.88</v>
@@ -31269,7 +31269,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR181" t="n">
         <v>1.5</v>
@@ -31606,7 +31606,7 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.88</v>
@@ -32799,7 +32799,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR190" t="n">
         <v>1.48</v>
@@ -33476,7 +33476,7 @@
         <v>2.13</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ194" t="n">
         <v>2.24</v>
@@ -34666,7 +34666,7 @@
         <v>1.33</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.24</v>
@@ -35531,22 +35531,192 @@
         <v>2.5</v>
       </c>
       <c r="AU206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6604042</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45199.83333333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>13</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>3</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['30', '52', '57']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
+      <c r="S207" t="n">
+        <v>0</v>
+      </c>
+      <c r="T207" t="n">
+        <v>0</v>
+      </c>
+      <c r="U207" t="n">
+        <v>0</v>
+      </c>
+      <c r="V207" t="n">
+        <v>0</v>
+      </c>
+      <c r="W207" t="n">
+        <v>0</v>
+      </c>
+      <c r="X207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV207" t="n">
         <v>4</v>
       </c>
-      <c r="AV206" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW206" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX206" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY206" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ206" t="n">
-        <v>2</v>
+      <c r="AW207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ207"/>
+  <dimension ref="A1:AZ211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.82</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.06</v>
@@ -2709,7 +2709,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.82</v>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR16" t="n">
         <v>1.26</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.71</v>
@@ -3729,7 +3729,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR19" t="n">
         <v>1.16</v>
@@ -4576,10 +4576,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR24" t="n">
         <v>1.41</v>
@@ -4916,10 +4916,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR26" t="n">
         <v>1.32</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.71</v>
@@ -5596,10 +5596,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR30" t="n">
         <v>1.8</v>
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR31" t="n">
         <v>1.34</v>
@@ -6109,7 +6109,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR33" t="n">
         <v>0.92</v>
@@ -6276,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.88</v>
@@ -6446,10 +6446,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR35" t="n">
         <v>1.35</v>
@@ -6956,10 +6956,10 @@
         <v>2</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR38" t="n">
         <v>1.61</v>
@@ -7636,7 +7636,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.82</v>
@@ -7979,7 +7979,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR44" t="n">
         <v>0.84</v>
@@ -8316,7 +8316,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.24</v>
@@ -8489,7 +8489,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR47" t="n">
         <v>1.08</v>
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR49" t="n">
         <v>1.44</v>
@@ -8999,7 +8999,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR50" t="n">
         <v>1.54</v>
@@ -9336,7 +9336,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.44</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.71</v>
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.06</v>
@@ -10186,10 +10186,10 @@
         <v>1.6</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR57" t="n">
         <v>1.68</v>
@@ -10529,7 +10529,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR59" t="n">
         <v>1</v>
@@ -10696,7 +10696,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.88</v>
@@ -10869,7 +10869,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.02</v>
@@ -11206,10 +11206,10 @@
         <v>1.25</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR63" t="n">
         <v>1.27</v>
@@ -11546,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.71</v>
@@ -12059,7 +12059,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR68" t="n">
         <v>1.26</v>
@@ -12226,7 +12226,7 @@
         <v>1.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.24</v>
@@ -13246,7 +13246,7 @@
         <v>1.83</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.44</v>
@@ -13416,7 +13416,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.41</v>
@@ -13589,7 +13589,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR77" t="n">
         <v>1.33</v>
@@ -13756,10 +13756,10 @@
         <v>1.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR78" t="n">
         <v>1.9</v>
@@ -14099,7 +14099,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR80" t="n">
         <v>1.21</v>
@@ -14269,7 +14269,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -14776,7 +14776,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.24</v>
@@ -15286,7 +15286,7 @@
         <v>1.43</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.41</v>
@@ -15456,10 +15456,10 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR88" t="n">
         <v>1.41</v>
@@ -15629,7 +15629,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR89" t="n">
         <v>1.37</v>
@@ -15796,7 +15796,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.44</v>
@@ -16139,7 +16139,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR92" t="n">
         <v>1.44</v>
@@ -16306,10 +16306,10 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR93" t="n">
         <v>1.42</v>
@@ -17159,7 +17159,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR98" t="n">
         <v>1.13</v>
@@ -17496,7 +17496,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.41</v>
@@ -17666,7 +17666,7 @@
         <v>1.38</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.24</v>
@@ -18346,7 +18346,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.06</v>
@@ -18516,7 +18516,7 @@
         <v>2.38</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.88</v>
@@ -18689,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR107" t="n">
         <v>1.23</v>
@@ -18859,7 +18859,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR108" t="n">
         <v>1.28</v>
@@ -19029,7 +19029,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR109" t="n">
         <v>1.43</v>
@@ -19196,7 +19196,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.24</v>
@@ -19366,7 +19366,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.06</v>
@@ -19879,7 +19879,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -20046,7 +20046,7 @@
         <v>1.67</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.44</v>
@@ -20219,7 +20219,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR116" t="n">
         <v>1.3</v>
@@ -20729,7 +20729,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR119" t="n">
         <v>1.07</v>
@@ -20896,10 +20896,10 @@
         <v>1.44</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR120" t="n">
         <v>1.68</v>
@@ -21406,7 +21406,7 @@
         <v>2.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ123" t="n">
         <v>2.24</v>
@@ -21576,7 +21576,7 @@
         <v>1.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.41</v>
@@ -22089,7 +22089,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR127" t="n">
         <v>1.51</v>
@@ -22426,10 +22426,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR129" t="n">
         <v>1.75</v>
@@ -22599,7 +22599,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR130" t="n">
         <v>1.19</v>
@@ -23106,10 +23106,10 @@
         <v>0.8</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR133" t="n">
         <v>1.68</v>
@@ -23446,7 +23446,7 @@
         <v>1.64</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.44</v>
@@ -23619,7 +23619,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -23786,7 +23786,7 @@
         <v>0.27</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.71</v>
@@ -23956,10 +23956,10 @@
         <v>1.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR138" t="n">
         <v>1.41</v>
@@ -24126,10 +24126,10 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR139" t="n">
         <v>1.54</v>
@@ -25319,7 +25319,7 @@
         <v>1</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR146" t="n">
         <v>1.15</v>
@@ -25489,7 +25489,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -25656,7 +25656,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.06</v>
@@ -25826,10 +25826,10 @@
         <v>1.42</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR149" t="n">
         <v>1.52</v>
@@ -25996,7 +25996,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.44</v>
@@ -26166,10 +26166,10 @@
         <v>1.17</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR151" t="n">
         <v>1.73</v>
@@ -27356,7 +27356,7 @@
         <v>0.92</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.06</v>
@@ -27526,7 +27526,7 @@
         <v>1.25</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.41</v>
@@ -27696,10 +27696,10 @@
         <v>0.92</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR160" t="n">
         <v>1.51</v>
@@ -27866,10 +27866,10 @@
         <v>1.77</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR161" t="n">
         <v>1.61</v>
@@ -28039,7 +28039,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR162" t="n">
         <v>1.48</v>
@@ -28209,7 +28209,7 @@
         <v>1</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR163" t="n">
         <v>1.13</v>
@@ -28719,7 +28719,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR166" t="n">
         <v>1.06</v>
@@ -28886,7 +28886,7 @@
         <v>1.23</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.24</v>
@@ -29396,10 +29396,10 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR170" t="n">
         <v>1.57</v>
@@ -29569,7 +29569,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR171" t="n">
         <v>1.3</v>
@@ -29736,7 +29736,7 @@
         <v>1.15</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.41</v>
@@ -29906,7 +29906,7 @@
         <v>2.08</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.88</v>
@@ -30249,7 +30249,7 @@
         <v>1</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR175" t="n">
         <v>1.13</v>
@@ -30419,7 +30419,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR176" t="n">
         <v>1.53</v>
@@ -30756,7 +30756,7 @@
         <v>2.21</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ178" t="n">
         <v>2.24</v>
@@ -30926,7 +30926,7 @@
         <v>1.21</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.24</v>
@@ -31099,7 +31099,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR180" t="n">
         <v>1.23</v>
@@ -31776,7 +31776,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.82</v>
@@ -31949,7 +31949,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR185" t="n">
         <v>1.3</v>
@@ -32289,7 +32289,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR187" t="n">
         <v>1.35</v>
@@ -32459,7 +32459,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR188" t="n">
         <v>1.29</v>
@@ -32626,7 +32626,7 @@
         <v>0.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.71</v>
@@ -32796,7 +32796,7 @@
         <v>1.38</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.44</v>
@@ -32969,7 +32969,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -33646,7 +33646,7 @@
         <v>1</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.06</v>
@@ -33819,7 +33819,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR196" t="n">
         <v>1.56</v>
@@ -34156,10 +34156,10 @@
         <v>1.69</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR198" t="n">
         <v>1.51</v>
@@ -34329,7 +34329,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR199" t="n">
         <v>1.28</v>
@@ -35346,7 +35346,7 @@
         <v>1.31</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.24</v>
@@ -35701,22 +35701,702 @@
         <v>2.28</v>
       </c>
       <c r="AU207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV207" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX207" t="n">
         <v>3</v>
       </c>
       <c r="AY207" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6604039</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45200.75</v>
+      </c>
+      <c r="F208" t="n">
+        <v>13</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>3</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>5</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['55', '60', '90+2']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['24', '74']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
+      <c r="S208" t="n">
+        <v>0</v>
+      </c>
+      <c r="T208" t="n">
+        <v>0</v>
+      </c>
+      <c r="U208" t="n">
+        <v>0</v>
+      </c>
+      <c r="V208" t="n">
+        <v>0</v>
+      </c>
+      <c r="W208" t="n">
+        <v>0</v>
+      </c>
+      <c r="X208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY208" t="n">
         <v>7</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6604041</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45200.85416666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>13</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
+      <c r="S209" t="n">
+        <v>0</v>
+      </c>
+      <c r="T209" t="n">
+        <v>0</v>
+      </c>
+      <c r="U209" t="n">
+        <v>0</v>
+      </c>
+      <c r="V209" t="n">
+        <v>0</v>
+      </c>
+      <c r="W209" t="n">
+        <v>0</v>
+      </c>
+      <c r="X209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6604040</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45201.75</v>
+      </c>
+      <c r="F210" t="n">
+        <v>13</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
+      <c r="S210" t="n">
+        <v>0</v>
+      </c>
+      <c r="T210" t="n">
+        <v>0</v>
+      </c>
+      <c r="U210" t="n">
+        <v>0</v>
+      </c>
+      <c r="V210" t="n">
+        <v>0</v>
+      </c>
+      <c r="W210" t="n">
+        <v>0</v>
+      </c>
+      <c r="X210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6604037</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45201.85416666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>13</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
+      <c r="S211" t="n">
+        <v>0</v>
+      </c>
+      <c r="T211" t="n">
+        <v>0</v>
+      </c>
+      <c r="U211" t="n">
+        <v>0</v>
+      </c>
+      <c r="V211" t="n">
+        <v>0</v>
+      </c>
+      <c r="W211" t="n">
+        <v>0</v>
+      </c>
+      <c r="X211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.44</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.89</v>
@@ -2663,7 +2663,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR10" t="n">
         <v>1.03</v>
@@ -2881,7 +2881,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.44</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.41</v>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR20" t="n">
         <v>0.8</v>
@@ -5061,7 +5061,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR21" t="n">
         <v>1.16</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.41</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.06</v>
@@ -7674,7 +7674,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.56</v>
@@ -7895,7 +7895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR34" t="n">
         <v>1.92</v>
@@ -8331,7 +8331,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR36" t="n">
         <v>1.14</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR37" t="n">
         <v>1.18</v>
@@ -8982,10 +8982,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR39" t="n">
         <v>1.14</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.5</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.82</v>
@@ -10511,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR46" t="n">
         <v>1.81</v>
@@ -10944,10 +10944,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR48" t="n">
         <v>1.06</v>
@@ -11601,7 +11601,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -13342,7 +13342,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.89</v>
@@ -13563,7 +13563,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR60" t="n">
         <v>1.98</v>
@@ -13778,7 +13778,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.5</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.41</v>
@@ -14435,7 +14435,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR64" t="n">
         <v>1.5</v>
@@ -14871,7 +14871,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR66" t="n">
         <v>1.37</v>
@@ -15304,7 +15304,7 @@
         <v>1.2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.83</v>
@@ -15525,7 +15525,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR69" t="n">
         <v>1.46</v>
@@ -15961,7 +15961,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR71" t="n">
         <v>1.27</v>
@@ -16179,7 +16179,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR72" t="n">
         <v>1.46</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.71</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.82</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR82" t="n">
         <v>1.26</v>
@@ -18574,7 +18574,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.06</v>
@@ -18795,7 +18795,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR84" t="n">
         <v>1.4</v>
@@ -19013,7 +19013,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR85" t="n">
         <v>1.37</v>
@@ -19228,7 +19228,7 @@
         <v>0.43</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.71</v>
@@ -20536,7 +20536,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.5</v>
@@ -21193,7 +21193,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR95" t="n">
         <v>1.38</v>
@@ -21408,10 +21408,10 @@
         <v>1.57</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR96" t="n">
         <v>1.12</v>
@@ -21629,7 +21629,7 @@
         <v>1</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR97" t="n">
         <v>1.27</v>
@@ -21844,7 +21844,7 @@
         <v>0.88</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.83</v>
@@ -22501,7 +22501,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR101" t="n">
         <v>1.45</v>
@@ -23152,10 +23152,10 @@
         <v>2</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR104" t="n">
         <v>1.08</v>
@@ -23591,7 +23591,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR106" t="n">
         <v>1.41</v>
@@ -24242,7 +24242,7 @@
         <v>0.88</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.89</v>
@@ -24463,7 +24463,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR110" t="n">
         <v>1.8</v>
@@ -25986,10 +25986,10 @@
         <v>2.11</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR117" t="n">
         <v>1.15</v>
@@ -26204,10 +26204,10 @@
         <v>2.22</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR118" t="n">
         <v>1.5</v>
@@ -26422,7 +26422,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.56</v>
@@ -27079,7 +27079,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR122" t="n">
         <v>1.28</v>
@@ -27297,7 +27297,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR123" t="n">
         <v>1.49</v>
@@ -27948,7 +27948,7 @@
         <v>0.3</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.71</v>
@@ -28384,7 +28384,7 @@
         <v>0.7</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.82</v>
@@ -28820,7 +28820,7 @@
         <v>1.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.56</v>
@@ -29259,7 +29259,7 @@
         <v>1</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR132" t="n">
         <v>1.19</v>
@@ -31003,7 +31003,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -31221,7 +31221,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR141" t="n">
         <v>1.52</v>
@@ -31436,7 +31436,7 @@
         <v>1.36</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.41</v>
@@ -31657,7 +31657,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR143" t="n">
         <v>1.28</v>
@@ -31872,7 +31872,7 @@
         <v>0.91</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.82</v>
@@ -32090,7 +32090,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.71</v>
@@ -33616,7 +33616,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.82</v>
@@ -34055,7 +34055,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR154" t="n">
         <v>1.4</v>
@@ -34273,7 +34273,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR155" t="n">
         <v>1.51</v>
@@ -34488,7 +34488,7 @@
         <v>0.54</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.71</v>
@@ -34709,7 +34709,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR157" t="n">
         <v>1.46</v>
@@ -35796,7 +35796,7 @@
         <v>1.08</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.83</v>
@@ -36453,7 +36453,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ165" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR165" t="n">
         <v>1.5</v>
@@ -36668,7 +36668,7 @@
         <v>1.64</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.56</v>
@@ -36889,7 +36889,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR167" t="n">
         <v>1.58</v>
@@ -37104,7 +37104,7 @@
         <v>0.71</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.71</v>
@@ -38197,7 +38197,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR173" t="n">
         <v>1.53</v>
@@ -38412,7 +38412,7 @@
         <v>0.93</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.06</v>
@@ -39287,7 +39287,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -39505,7 +39505,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR179" t="n">
         <v>1.49</v>
@@ -39720,7 +39720,7 @@
         <v>1.53</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.56</v>
@@ -40156,7 +40156,7 @@
         <v>1.07</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.06</v>
@@ -40377,7 +40377,7 @@
         <v>1</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR183" t="n">
         <v>1.18</v>
@@ -41028,7 +41028,7 @@
         <v>1.29</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.41</v>
@@ -41464,7 +41464,7 @@
         <v>1.6</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.5</v>
@@ -42336,7 +42336,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.41</v>
@@ -42554,7 +42554,7 @@
         <v>0.93</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.82</v>
@@ -42775,7 +42775,7 @@
         <v>1</v>
       </c>
       <c r="AQ194" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR194" t="n">
         <v>1.18</v>
@@ -43429,7 +43429,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR197" t="n">
         <v>1.32</v>
@@ -43862,7 +43862,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.89</v>
@@ -44080,10 +44080,10 @@
         <v>1.81</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR200" t="n">
         <v>1</v>
@@ -44301,7 +44301,7 @@
         <v>1</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR201" t="n">
         <v>1.14</v>
@@ -44516,10 +44516,10 @@
         <v>2.19</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ202" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR202" t="n">
         <v>1.47</v>
@@ -45173,7 +45173,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR205" t="n">
         <v>1.63</v>
@@ -46556,6 +46556,660 @@
         <v>0</v>
       </c>
       <c r="BP211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6604047</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45205.8125</v>
+      </c>
+      <c r="F212" t="n">
+        <v>14</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['90+12']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
+      <c r="S212" t="n">
+        <v>0</v>
+      </c>
+      <c r="T212" t="n">
+        <v>0</v>
+      </c>
+      <c r="U212" t="n">
+        <v>0</v>
+      </c>
+      <c r="V212" t="n">
+        <v>0</v>
+      </c>
+      <c r="W212" t="n">
+        <v>0</v>
+      </c>
+      <c r="X212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6604045</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F213" t="n">
+        <v>14</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>2</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>5</v>
+      </c>
+      <c r="N213" t="n">
+        <v>6</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['29', '36', '46', '71', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
+      <c r="S213" t="n">
+        <v>0</v>
+      </c>
+      <c r="T213" t="n">
+        <v>0</v>
+      </c>
+      <c r="U213" t="n">
+        <v>0</v>
+      </c>
+      <c r="V213" t="n">
+        <v>0</v>
+      </c>
+      <c r="W213" t="n">
+        <v>0</v>
+      </c>
+      <c r="X213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6604043</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45206.85416666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>14</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
+      <c r="S214" t="n">
+        <v>0</v>
+      </c>
+      <c r="T214" t="n">
+        <v>0</v>
+      </c>
+      <c r="U214" t="n">
+        <v>0</v>
+      </c>
+      <c r="V214" t="n">
+        <v>0</v>
+      </c>
+      <c r="W214" t="n">
+        <v>0</v>
+      </c>
+      <c r="X214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP214" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP214"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.5</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.28</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.89</v>
@@ -3535,7 +3535,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR17" t="n">
         <v>0.9</v>
@@ -4407,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR18" t="n">
         <v>1.41</v>
@@ -4622,7 +4622,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.56</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.44</v>
@@ -6366,10 +6366,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR27" t="n">
         <v>1.22</v>
@@ -6587,7 +6587,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR28" t="n">
         <v>1.25</v>
@@ -6805,7 +6805,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.02</v>
@@ -9200,7 +9200,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.44</v>
@@ -9418,10 +9418,10 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR41" t="n">
         <v>1.4</v>
@@ -9639,7 +9639,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR42" t="n">
         <v>1.51</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR43" t="n">
         <v>1.73</v>
@@ -10293,7 +10293,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR45" t="n">
         <v>1.06</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.83</v>
@@ -11598,7 +11598,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.17</v>
@@ -12037,7 +12037,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR53" t="n">
         <v>1.25</v>
@@ -12252,10 +12252,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -13127,7 +13127,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR58" t="n">
         <v>1.24</v>
@@ -13999,7 +13999,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.09</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.17</v>
@@ -14653,7 +14653,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR65" t="n">
         <v>1.36</v>
@@ -14868,7 +14868,7 @@
         <v>2.25</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ66" t="n">
         <v>2.28</v>
@@ -15086,7 +15086,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.06</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR70" t="n">
         <v>1.31</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.83</v>
@@ -16176,7 +16176,7 @@
         <v>2.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ72" t="n">
         <v>2.28</v>
@@ -16394,7 +16394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.06</v>
@@ -16615,7 +16615,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -17051,7 +17051,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR76" t="n">
         <v>1.48</v>
@@ -17266,7 +17266,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.56</v>
@@ -17705,7 +17705,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR79" t="n">
         <v>1.02</v>
@@ -18138,7 +18138,7 @@
         <v>2</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.5</v>
@@ -19010,7 +19010,7 @@
         <v>2.17</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.83</v>
@@ -19231,7 +19231,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR86" t="n">
         <v>1.08</v>
@@ -19449,7 +19449,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.68</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.89</v>
@@ -20318,10 +20318,10 @@
         <v>0.86</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -21190,7 +21190,7 @@
         <v>2.29</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.83</v>
@@ -22062,10 +22062,10 @@
         <v>0.38</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.42</v>
@@ -22283,7 +22283,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR100" t="n">
         <v>1.81</v>
@@ -22716,7 +22716,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.44</v>
@@ -22934,10 +22934,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103" t="n">
         <v>1.34</v>
@@ -24896,10 +24896,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR112" t="n">
         <v>1.34</v>
@@ -25114,10 +25114,10 @@
         <v>0.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.43</v>
@@ -25332,7 +25332,7 @@
         <v>0.78</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.83</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121" t="n">
         <v>1.24</v>
@@ -27076,7 +27076,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.17</v>
@@ -27515,7 +27515,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR124" t="n">
         <v>1.46</v>
@@ -27730,7 +27730,7 @@
         <v>0.8</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.06</v>
@@ -27951,7 +27951,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR126" t="n">
         <v>1.49</v>
@@ -28166,7 +28166,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.83</v>
@@ -28387,7 +28387,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR128" t="n">
         <v>1.09</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.06</v>
@@ -30349,7 +30349,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR137" t="n">
         <v>1.64</v>
@@ -31000,7 +31000,7 @@
         <v>1.36</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.17</v>
@@ -31218,7 +31218,7 @@
         <v>1.91</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.83</v>
@@ -31439,7 +31439,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR142" t="n">
         <v>1.21</v>
@@ -31654,7 +31654,7 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ143" t="n">
         <v>2.28</v>
@@ -31875,7 +31875,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR144" t="n">
         <v>1.06</v>
@@ -32093,7 +32093,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR145" t="n">
         <v>1.5</v>
@@ -33619,7 +33619,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152" t="n">
         <v>1.22</v>
@@ -33834,7 +33834,7 @@
         <v>1.62</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.44</v>
@@ -34270,7 +34270,7 @@
         <v>2.08</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ155" t="n">
         <v>2.28</v>
@@ -34491,7 +34491,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR156" t="n">
         <v>1.06</v>
@@ -34706,7 +34706,7 @@
         <v>2</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.83</v>
@@ -35145,7 +35145,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR159" t="n">
         <v>1.63</v>
@@ -36232,7 +36232,7 @@
         <v>1.57</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.44</v>
@@ -36450,7 +36450,7 @@
         <v>2.15</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ165" t="n">
         <v>2.28</v>
@@ -37107,7 +37107,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37325,7 +37325,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169" t="n">
         <v>1.32</v>
@@ -37758,7 +37758,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.5</v>
@@ -37979,7 +37979,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR172" t="n">
         <v>1.7</v>
@@ -38848,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.83</v>
@@ -39069,7 +39069,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39938,7 +39938,7 @@
         <v>1.47</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.44</v>
@@ -40595,7 +40595,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR184" t="n">
         <v>1.66</v>
@@ -40810,7 +40810,7 @@
         <v>0.86</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.89</v>
@@ -41031,7 +41031,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR186" t="n">
         <v>1.51</v>
@@ -41685,7 +41685,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR189" t="n">
         <v>1.48</v>
@@ -42118,7 +42118,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.83</v>
@@ -42339,7 +42339,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR192" t="n">
         <v>1.02</v>
@@ -42557,7 +42557,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193" t="n">
         <v>1.48</v>
@@ -43208,7 +43208,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.89</v>
@@ -43426,7 +43426,7 @@
         <v>1.93</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.83</v>
@@ -44734,10 +44734,10 @@
         <v>0.88</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR203" t="n">
         <v>1.27</v>
@@ -44952,10 +44952,10 @@
         <v>1.31</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR204" t="n">
         <v>1.57</v>
@@ -47150,66 +47150,720 @@
         <v>3</v>
       </c>
       <c r="AV214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6604048</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F215" t="n">
+        <v>14</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
         <v>2</v>
       </c>
-      <c r="AX214" t="n">
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>4</v>
+      </c>
+      <c r="N215" t="n">
+        <v>5</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['32', '53', '57', '62']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
+      <c r="S215" t="n">
+        <v>0</v>
+      </c>
+      <c r="T215" t="n">
+        <v>0</v>
+      </c>
+      <c r="U215" t="n">
+        <v>0</v>
+      </c>
+      <c r="V215" t="n">
+        <v>0</v>
+      </c>
+      <c r="W215" t="n">
+        <v>0</v>
+      </c>
+      <c r="X215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW215" t="n">
         <v>3</v>
       </c>
-      <c r="AY214" t="n">
+      <c r="AX215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>6604044</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45207.85416666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>14</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>2</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['3', '27']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
+      <c r="S216" t="n">
+        <v>0</v>
+      </c>
+      <c r="T216" t="n">
+        <v>0</v>
+      </c>
+      <c r="U216" t="n">
+        <v>0</v>
+      </c>
+      <c r="V216" t="n">
+        <v>0</v>
+      </c>
+      <c r="W216" t="n">
+        <v>0</v>
+      </c>
+      <c r="X216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX216" t="n">
         <v>5</v>
       </c>
-      <c r="AZ214" t="n">
+      <c r="AY216" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>6604046</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45208.8125</v>
+      </c>
+      <c r="F217" t="n">
+        <v>14</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2</v>
+      </c>
+      <c r="N217" t="n">
+        <v>2</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['39', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
+      <c r="S217" t="n">
+        <v>0</v>
+      </c>
+      <c r="T217" t="n">
+        <v>0</v>
+      </c>
+      <c r="U217" t="n">
+        <v>0</v>
+      </c>
+      <c r="V217" t="n">
+        <v>0</v>
+      </c>
+      <c r="W217" t="n">
+        <v>0</v>
+      </c>
+      <c r="X217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA217" t="n">
         <v>3</v>
       </c>
-      <c r="BA214" t="n">
+      <c r="BB217" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC217" t="n">
         <v>4</v>
       </c>
-      <c r="BB214" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC214" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO214" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP214" t="n">
+      <c r="BD217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP217" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -47804,28 +47804,28 @@
         <v>4</v>
       </c>
       <c r="AV217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB217" t="n">
         <v>2</v>
       </c>
-      <c r="AW217" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX217" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY217" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ217" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA217" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB217" t="n">
-        <v>1</v>
-      </c>
       <c r="BC217" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD217" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR16" t="n">
         <v>1.26</v>
@@ -4625,7 +4625,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR19" t="n">
         <v>1.16</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.28</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>1.25</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.5</v>
@@ -7023,7 +7023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR30" t="n">
         <v>1.8</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.5</v>
@@ -7459,7 +7459,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0.79</v>
@@ -7674,10 +7674,10 @@
         <v>1.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR33" t="n">
         <v>0.92</v>
@@ -8110,7 +8110,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.89</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.17</v>
@@ -8767,7 +8767,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR38" t="n">
         <v>1.61</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.9399999999999999</v>
@@ -10729,7 +10729,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR47" t="n">
         <v>1.08</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.89</v>
@@ -11383,7 +11383,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR50" t="n">
         <v>1.54</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.67</v>
@@ -12473,7 +12473,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.44</v>
@@ -12909,7 +12909,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR57" t="n">
         <v>1.68</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.5</v>
@@ -14214,10 +14214,10 @@
         <v>1.25</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR63" t="n">
         <v>1.27</v>
@@ -15089,7 +15089,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.59</v>
@@ -15304,10 +15304,10 @@
         <v>1.2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR68" t="n">
         <v>1.26</v>
@@ -15522,7 +15522,7 @@
         <v>1.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.17</v>
@@ -15740,7 +15740,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.5</v>
@@ -16397,7 +16397,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.41</v>
@@ -17269,7 +17269,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR77" t="n">
         <v>1.33</v>
@@ -17923,7 +17923,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR80" t="n">
         <v>1.21</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.17</v>
@@ -18574,10 +18574,10 @@
         <v>0.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR83" t="n">
         <v>1.36</v>
@@ -18792,7 +18792,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.28</v>
@@ -19667,7 +19667,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR88" t="n">
         <v>1.41</v>
@@ -20536,7 +20536,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.5</v>
@@ -20754,10 +20754,10 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR93" t="n">
         <v>1.42</v>
@@ -20975,7 +20975,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR94" t="n">
         <v>1.26</v>
@@ -21626,7 +21626,7 @@
         <v>2.29</v>
       </c>
       <c r="AP97" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.28</v>
@@ -21847,7 +21847,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR98" t="n">
         <v>1.13</v>
@@ -23373,7 +23373,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -23588,7 +23588,7 @@
         <v>2.38</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.83</v>
@@ -23806,10 +23806,10 @@
         <v>1.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR107" t="n">
         <v>1.23</v>
@@ -24242,7 +24242,7 @@
         <v>0.88</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.89</v>
@@ -24681,7 +24681,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR111" t="n">
         <v>1.4</v>
@@ -25335,7 +25335,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -25550,7 +25550,7 @@
         <v>1.67</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.44</v>
@@ -26204,7 +26204,7 @@
         <v>2.22</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.83</v>
@@ -26425,7 +26425,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR119" t="n">
         <v>1.07</v>
@@ -26858,7 +26858,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.9399999999999999</v>
@@ -27512,7 +27512,7 @@
         <v>1.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.5</v>
@@ -27733,7 +27733,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR125" t="n">
         <v>1.49</v>
@@ -27948,7 +27948,7 @@
         <v>0.3</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.67</v>
@@ -28169,7 +28169,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR127" t="n">
         <v>1.51</v>
@@ -28823,7 +28823,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR130" t="n">
         <v>1.19</v>
@@ -29256,7 +29256,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.83</v>
@@ -29695,7 +29695,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR134" t="n">
         <v>1.53</v>
@@ -30564,10 +30564,10 @@
         <v>1.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR138" t="n">
         <v>1.41</v>
@@ -30785,7 +30785,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR139" t="n">
         <v>1.54</v>
@@ -32090,7 +32090,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.67</v>
@@ -32308,10 +32308,10 @@
         <v>1.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR146" t="n">
         <v>1.15</v>
@@ -32747,7 +32747,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -32962,7 +32962,7 @@
         <v>1.42</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.5</v>
@@ -33401,7 +33401,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR151" t="n">
         <v>1.73</v>
@@ -34927,7 +34927,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR158" t="n">
         <v>1.69</v>
@@ -35360,7 +35360,7 @@
         <v>0.92</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.89</v>
@@ -35581,7 +35581,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR161" t="n">
         <v>1.61</v>
@@ -35796,10 +35796,10 @@
         <v>1.08</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR162" t="n">
         <v>1.48</v>
@@ -36014,7 +36014,7 @@
         <v>1.54</v>
       </c>
       <c r="AP163" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.5</v>
@@ -36671,7 +36671,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR166" t="n">
         <v>1.06</v>
@@ -37543,7 +37543,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR170" t="n">
         <v>1.57</v>
@@ -38194,7 +38194,7 @@
         <v>2.08</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.83</v>
@@ -38412,10 +38412,10 @@
         <v>0.93</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR174" t="n">
         <v>1.47</v>
@@ -38630,7 +38630,7 @@
         <v>0.92</v>
       </c>
       <c r="AP175" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.89</v>
@@ -38851,7 +38851,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR176" t="n">
         <v>1.53</v>
@@ -39502,7 +39502,7 @@
         <v>1.21</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.17</v>
@@ -39723,7 +39723,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR180" t="n">
         <v>1.23</v>
@@ -40159,7 +40159,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR182" t="n">
         <v>1.03</v>
@@ -40374,7 +40374,7 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.83</v>
@@ -41028,7 +41028,7 @@
         <v>1.29</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.5</v>
@@ -41249,7 +41249,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR187" t="n">
         <v>1.35</v>
@@ -41682,7 +41682,7 @@
         <v>0.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.67</v>
@@ -42121,7 +42121,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -42554,7 +42554,7 @@
         <v>0.93</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.9399999999999999</v>
@@ -42772,7 +42772,7 @@
         <v>2.13</v>
       </c>
       <c r="AP194" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ194" t="n">
         <v>2.28</v>
@@ -42993,7 +42993,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR195" t="n">
         <v>1.53</v>
@@ -44298,7 +44298,7 @@
         <v>1.33</v>
       </c>
       <c r="AP201" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.17</v>
@@ -44516,7 +44516,7 @@
         <v>2.19</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ202" t="n">
         <v>2.28</v>
@@ -45391,7 +45391,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR206" t="n">
         <v>1.38</v>
@@ -45606,7 +45606,7 @@
         <v>1.35</v>
       </c>
       <c r="AP207" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.44</v>
@@ -46045,7 +46045,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR209" t="n">
         <v>1.62</v>
@@ -46260,10 +46260,10 @@
         <v>0.88</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR210" t="n">
         <v>1.5</v>
@@ -47132,7 +47132,7 @@
         <v>1.24</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.17</v>
@@ -47864,6 +47864,660 @@
         <v>0</v>
       </c>
       <c r="BP217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6604054</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45217.75</v>
+      </c>
+      <c r="F218" t="n">
+        <v>15</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>4</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['23', '43', '69', '76']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
+      <c r="S218" t="n">
+        <v>0</v>
+      </c>
+      <c r="T218" t="n">
+        <v>0</v>
+      </c>
+      <c r="U218" t="n">
+        <v>0</v>
+      </c>
+      <c r="V218" t="n">
+        <v>0</v>
+      </c>
+      <c r="W218" t="n">
+        <v>0</v>
+      </c>
+      <c r="X218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6604053</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45217.85416666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>15</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2</v>
+      </c>
+      <c r="K219" t="n">
+        <v>3</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>3</v>
+      </c>
+      <c r="N219" t="n">
+        <v>4</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['45+9']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['36', '45', '65']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
+      <c r="S219" t="n">
+        <v>0</v>
+      </c>
+      <c r="T219" t="n">
+        <v>0</v>
+      </c>
+      <c r="U219" t="n">
+        <v>0</v>
+      </c>
+      <c r="V219" t="n">
+        <v>0</v>
+      </c>
+      <c r="W219" t="n">
+        <v>0</v>
+      </c>
+      <c r="X219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>6604051</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45218.8125</v>
+      </c>
+      <c r="F220" t="n">
+        <v>15</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
+      <c r="S220" t="n">
+        <v>0</v>
+      </c>
+      <c r="T220" t="n">
+        <v>0</v>
+      </c>
+      <c r="U220" t="n">
+        <v>0</v>
+      </c>
+      <c r="V220" t="n">
+        <v>0</v>
+      </c>
+      <c r="W220" t="n">
+        <v>0</v>
+      </c>
+      <c r="X220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP220" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.47</v>
@@ -1573,7 +1573,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.9399999999999999</v>
@@ -2445,7 +2445,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.9399999999999999</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.47</v>
@@ -4189,7 +4189,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR17" t="n">
         <v>0.9</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.67</v>
@@ -5715,7 +5715,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR24" t="n">
         <v>1.41</v>
@@ -6148,10 +6148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR26" t="n">
         <v>1.32</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.67</v>
@@ -6805,7 +6805,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR29" t="n">
         <v>1.02</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.95</v>
@@ -7241,7 +7241,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR31" t="n">
         <v>1.34</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.83</v>
@@ -8113,7 +8113,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR35" t="n">
         <v>1.35</v>
@@ -8764,7 +8764,7 @@
         <v>2</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.95</v>
@@ -9421,7 +9421,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR41" t="n">
         <v>1.4</v>
@@ -9636,7 +9636,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.9399999999999999</v>
@@ -10075,7 +10075,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR44" t="n">
         <v>0.84</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.28</v>
@@ -11165,7 +11165,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR49" t="n">
         <v>1.44</v>
@@ -11816,7 +11816,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.44</v>
@@ -12255,7 +12255,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ55" t="n">
         <v>1</v>
@@ -12906,7 +12906,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.47</v>
@@ -13345,7 +13345,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR59" t="n">
         <v>1</v>
@@ -13560,7 +13560,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.83</v>
@@ -13781,7 +13781,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR61" t="n">
         <v>1.02</v>
@@ -13999,7 +13999,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR62" t="n">
         <v>1.09</v>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.67</v>
@@ -15743,7 +15743,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR70" t="n">
         <v>1.31</v>
@@ -16830,7 +16830,7 @@
         <v>1.83</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.44</v>
@@ -17048,10 +17048,10 @@
         <v>1.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR76" t="n">
         <v>1.48</v>
@@ -17484,10 +17484,10 @@
         <v>1.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR78" t="n">
         <v>1.9</v>
@@ -18141,7 +18141,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -19446,10 +19446,10 @@
         <v>1.43</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR87" t="n">
         <v>1.68</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.95</v>
@@ -19885,7 +19885,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR89" t="n">
         <v>1.37</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.44</v>
@@ -20539,7 +20539,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR92" t="n">
         <v>1.44</v>
@@ -22280,10 +22280,10 @@
         <v>1.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR100" t="n">
         <v>1.81</v>
@@ -22498,7 +22498,7 @@
         <v>1.38</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.17</v>
@@ -23370,7 +23370,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -24027,7 +24027,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR108" t="n">
         <v>1.28</v>
@@ -24245,7 +24245,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR109" t="n">
         <v>1.43</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.17</v>
@@ -24678,7 +24678,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -24899,7 +24899,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR112" t="n">
         <v>1.34</v>
@@ -25771,7 +25771,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR116" t="n">
         <v>1.3</v>
@@ -26640,10 +26640,10 @@
         <v>1.44</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR120" t="n">
         <v>1.68</v>
@@ -27294,7 +27294,7 @@
         <v>2.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ123" t="n">
         <v>2.28</v>
@@ -27515,7 +27515,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR124" t="n">
         <v>1.46</v>
@@ -28602,10 +28602,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR129" t="n">
         <v>1.75</v>
@@ -29474,10 +29474,10 @@
         <v>0.8</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR133" t="n">
         <v>1.68</v>
@@ -29910,7 +29910,7 @@
         <v>1.64</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.44</v>
@@ -30131,7 +30131,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30346,7 +30346,7 @@
         <v>0.27</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.67</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.95</v>
@@ -31439,7 +31439,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR142" t="n">
         <v>1.21</v>
@@ -32529,7 +32529,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ148" t="n">
         <v>1</v>
@@ -32965,7 +32965,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR149" t="n">
         <v>1.52</v>
@@ -33180,7 +33180,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.44</v>
@@ -33398,7 +33398,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.95</v>
@@ -34924,7 +34924,7 @@
         <v>0.92</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ158" t="n">
         <v>1</v>
@@ -35142,10 +35142,10 @@
         <v>1.25</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR159" t="n">
         <v>1.63</v>
@@ -35363,7 +35363,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR160" t="n">
         <v>1.51</v>
@@ -35578,7 +35578,7 @@
         <v>1.77</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.47</v>
@@ -36017,7 +36017,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR163" t="n">
         <v>1.13</v>
@@ -36886,7 +36886,7 @@
         <v>1.23</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.17</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.95</v>
@@ -37761,7 +37761,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR171" t="n">
         <v>1.3</v>
@@ -37976,10 +37976,10 @@
         <v>1.15</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR172" t="n">
         <v>1.7</v>
@@ -38633,7 +38633,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR175" t="n">
         <v>1.13</v>
@@ -39284,7 +39284,7 @@
         <v>2.21</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ178" t="n">
         <v>2.28</v>
@@ -40592,7 +40592,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.9399999999999999</v>
@@ -40813,7 +40813,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR185" t="n">
         <v>1.3</v>
@@ -41031,7 +41031,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR186" t="n">
         <v>1.51</v>
@@ -41467,7 +41467,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR188" t="n">
         <v>1.29</v>
@@ -41900,7 +41900,7 @@
         <v>1.38</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.44</v>
@@ -42339,7 +42339,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR192" t="n">
         <v>1.02</v>
@@ -42990,7 +42990,7 @@
         <v>1</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ195" t="n">
         <v>1</v>
@@ -43211,7 +43211,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR196" t="n">
         <v>1.56</v>
@@ -43644,10 +43644,10 @@
         <v>1.69</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR198" t="n">
         <v>1.51</v>
@@ -43865,7 +43865,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR199" t="n">
         <v>1.28</v>
@@ -44955,7 +44955,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR204" t="n">
         <v>1.57</v>
@@ -45170,7 +45170,7 @@
         <v>1.31</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.17</v>
@@ -45824,10 +45824,10 @@
         <v>1.59</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR208" t="n">
         <v>1.48</v>
@@ -46042,7 +46042,7 @@
         <v>1.59</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.47</v>
@@ -46478,10 +46478,10 @@
         <v>0.88</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR211" t="n">
         <v>1.48</v>
@@ -47353,7 +47353,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR215" t="n">
         <v>1.49</v>
@@ -48455,69 +48455,723 @@
         <v>2.61</v>
       </c>
       <c r="AU220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV220" t="n">
         <v>2</v>
       </c>
-      <c r="AV220" t="n">
-        <v>0</v>
-      </c>
       <c r="AW220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6604052</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45219.8125</v>
+      </c>
+      <c r="F221" t="n">
+        <v>15</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
         <v>2</v>
       </c>
-      <c r="AX220" t="n">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
         <v>3</v>
       </c>
-      <c r="AY220" t="n">
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['32', '38', '58']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
+      <c r="S221" t="n">
+        <v>0</v>
+      </c>
+      <c r="T221" t="n">
+        <v>0</v>
+      </c>
+      <c r="U221" t="n">
+        <v>0</v>
+      </c>
+      <c r="V221" t="n">
+        <v>0</v>
+      </c>
+      <c r="W221" t="n">
+        <v>0</v>
+      </c>
+      <c r="X221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU221" t="n">
         <v>4</v>
       </c>
-      <c r="AZ220" t="n">
+      <c r="AV221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA221" t="n">
         <v>3</v>
       </c>
-      <c r="BA220" t="n">
+      <c r="BB221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>6604049</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45220.75</v>
+      </c>
+      <c r="F222" t="n">
+        <v>15</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
         <v>2</v>
       </c>
-      <c r="BB220" t="n">
+      <c r="L222" t="n">
         <v>2</v>
       </c>
-      <c r="BC220" t="n">
+      <c r="M222" t="n">
+        <v>2</v>
+      </c>
+      <c r="N222" t="n">
         <v>4</v>
       </c>
-      <c r="BD220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP220" t="n">
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['5', '63']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['40', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
+      <c r="S222" t="n">
+        <v>0</v>
+      </c>
+      <c r="T222" t="n">
+        <v>0</v>
+      </c>
+      <c r="U222" t="n">
+        <v>0</v>
+      </c>
+      <c r="V222" t="n">
+        <v>0</v>
+      </c>
+      <c r="W222" t="n">
+        <v>0</v>
+      </c>
+      <c r="X222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>6604050</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45220.85416666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>4</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>5</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['36', '55', '73', '90']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" t="n">
+        <v>0</v>
+      </c>
+      <c r="T223" t="n">
+        <v>0</v>
+      </c>
+      <c r="U223" t="n">
+        <v>0</v>
+      </c>
+      <c r="V223" t="n">
+        <v>0</v>
+      </c>
+      <c r="W223" t="n">
+        <v>0</v>
+      </c>
+      <c r="X223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP223" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.84</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.42</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR10" t="n">
         <v>1.03</v>
@@ -2881,7 +2881,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.84</v>
@@ -3750,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR15" t="n">
         <v>0.85</v>
@@ -4407,7 +4407,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR18" t="n">
         <v>1.41</v>
@@ -4843,7 +4843,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR20" t="n">
         <v>0.8</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR21" t="n">
         <v>1.16</v>
@@ -5279,7 +5279,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR25" t="n">
         <v>1.49</v>
@@ -6366,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.9399999999999999</v>
@@ -6587,7 +6587,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR28" t="n">
         <v>1.25</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.47</v>
@@ -7895,7 +7895,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR34" t="n">
         <v>1.92</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR36" t="n">
         <v>1.14</v>
@@ -8549,7 +8549,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR37" t="n">
         <v>1.18</v>
@@ -8982,10 +8982,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR39" t="n">
         <v>1.14</v>
@@ -9203,7 +9203,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR40" t="n">
         <v>1.31</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.47</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR43" t="n">
         <v>1.73</v>
@@ -10511,7 +10511,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR46" t="n">
         <v>1.81</v>
@@ -10726,7 +10726,7 @@
         <v>1.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.47</v>
@@ -10944,10 +10944,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR48" t="n">
         <v>1.06</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.95</v>
@@ -11598,10 +11598,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -11819,7 +11819,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR52" t="n">
         <v>1.35</v>
@@ -12037,7 +12037,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR53" t="n">
         <v>1.25</v>
@@ -12691,7 +12691,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR56" t="n">
         <v>1.36</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.9399999999999999</v>
@@ -13563,7 +13563,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR60" t="n">
         <v>1.98</v>
@@ -13778,7 +13778,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.42</v>
@@ -14435,7 +14435,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR64" t="n">
         <v>1.5</v>
@@ -14653,7 +14653,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR65" t="n">
         <v>1.36</v>
@@ -14868,10 +14868,10 @@
         <v>2.25</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR66" t="n">
         <v>1.37</v>
@@ -15086,7 +15086,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR69" t="n">
         <v>1.46</v>
@@ -15958,10 +15958,10 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR71" t="n">
         <v>1.27</v>
@@ -16176,10 +16176,10 @@
         <v>2.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR72" t="n">
         <v>1.46</v>
@@ -16615,7 +16615,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -16833,7 +16833,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR75" t="n">
         <v>1.66</v>
@@ -17266,7 +17266,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.47</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.9399999999999999</v>
@@ -17920,7 +17920,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.95</v>
@@ -18359,7 +18359,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR82" t="n">
         <v>1.26</v>
@@ -18795,7 +18795,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR84" t="n">
         <v>1.4</v>
@@ -19010,10 +19010,10 @@
         <v>2.17</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR85" t="n">
         <v>1.37</v>
@@ -19228,10 +19228,10 @@
         <v>0.43</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR86" t="n">
         <v>1.08</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.84</v>
@@ -20103,7 +20103,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR90" t="n">
         <v>1.83</v>
@@ -20318,7 +20318,7 @@
         <v>0.86</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.9399999999999999</v>
@@ -20972,7 +20972,7 @@
         <v>0.57</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94" t="n">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR95" t="n">
         <v>1.38</v>
@@ -21411,7 +21411,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR96" t="n">
         <v>1.12</v>
@@ -21629,7 +21629,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR97" t="n">
         <v>1.27</v>
@@ -21844,7 +21844,7 @@
         <v>0.88</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.95</v>
@@ -22062,10 +22062,10 @@
         <v>0.38</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR99" t="n">
         <v>1.42</v>
@@ -22501,7 +22501,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR101" t="n">
         <v>1.45</v>
@@ -22716,10 +22716,10 @@
         <v>1.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR102" t="n">
         <v>1.41</v>
@@ -23155,7 +23155,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR104" t="n">
         <v>1.08</v>
@@ -23591,7 +23591,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR106" t="n">
         <v>1.41</v>
@@ -24024,7 +24024,7 @@
         <v>1.63</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.42</v>
@@ -24463,7 +24463,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR110" t="n">
         <v>1.8</v>
@@ -24896,7 +24896,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.47</v>
@@ -25117,7 +25117,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR113" t="n">
         <v>1.43</v>
@@ -25332,7 +25332,7 @@
         <v>0.78</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.95</v>
@@ -25553,7 +25553,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR115" t="n">
         <v>1.4</v>
@@ -25768,7 +25768,7 @@
         <v>0.89</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.84</v>
@@ -25986,10 +25986,10 @@
         <v>2.11</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR117" t="n">
         <v>1.15</v>
@@ -26207,7 +26207,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR118" t="n">
         <v>1.5</v>
@@ -27076,10 +27076,10 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR122" t="n">
         <v>1.28</v>
@@ -27297,7 +27297,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR123" t="n">
         <v>1.49</v>
@@ -27730,7 +27730,7 @@
         <v>0.8</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ125" t="n">
         <v>1</v>
@@ -27951,7 +27951,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR126" t="n">
         <v>1.49</v>
@@ -28820,7 +28820,7 @@
         <v>1.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.47</v>
@@ -29038,10 +29038,10 @@
         <v>1.8</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR131" t="n">
         <v>1.34</v>
@@ -29259,7 +29259,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR132" t="n">
         <v>1.19</v>
@@ -29913,7 +29913,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR135" t="n">
         <v>1.71</v>
@@ -30128,7 +30128,7 @@
         <v>1.55</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.42</v>
@@ -30349,7 +30349,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR137" t="n">
         <v>1.64</v>
@@ -31003,7 +31003,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -31218,10 +31218,10 @@
         <v>1.91</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR141" t="n">
         <v>1.52</v>
@@ -31436,7 +31436,7 @@
         <v>1.36</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.47</v>
@@ -31654,10 +31654,10 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR143" t="n">
         <v>1.28</v>
@@ -32093,7 +32093,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR145" t="n">
         <v>1.5</v>
@@ -32526,7 +32526,7 @@
         <v>0.73</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.84</v>
@@ -33183,7 +33183,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR150" t="n">
         <v>1.66</v>
@@ -33616,7 +33616,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.9399999999999999</v>
@@ -33834,10 +33834,10 @@
         <v>1.62</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR153" t="n">
         <v>1.26</v>
@@ -34052,10 +34052,10 @@
         <v>1.25</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR154" t="n">
         <v>1.4</v>
@@ -34270,10 +34270,10 @@
         <v>2.08</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR155" t="n">
         <v>1.51</v>
@@ -34491,7 +34491,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR156" t="n">
         <v>1.06</v>
@@ -34709,7 +34709,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR157" t="n">
         <v>1.46</v>
@@ -36232,10 +36232,10 @@
         <v>1.57</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR164" t="n">
         <v>1.51</v>
@@ -36453,7 +36453,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ165" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR165" t="n">
         <v>1.5</v>
@@ -36889,7 +36889,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR167" t="n">
         <v>1.58</v>
@@ -37104,10 +37104,10 @@
         <v>0.71</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37322,7 +37322,7 @@
         <v>0.85</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.9399999999999999</v>
@@ -37758,7 +37758,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.42</v>
@@ -38197,7 +38197,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR173" t="n">
         <v>1.53</v>
@@ -38848,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.95</v>
@@ -39066,10 +39066,10 @@
         <v>0.73</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39287,7 +39287,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -39505,7 +39505,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR179" t="n">
         <v>1.49</v>
@@ -39720,7 +39720,7 @@
         <v>1.53</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.47</v>
@@ -39941,7 +39941,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR181" t="n">
         <v>1.5</v>
@@ -40377,7 +40377,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR183" t="n">
         <v>1.18</v>
@@ -40810,7 +40810,7 @@
         <v>0.86</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.84</v>
@@ -41246,7 +41246,7 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.47</v>
@@ -41464,7 +41464,7 @@
         <v>1.6</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.42</v>
@@ -41685,7 +41685,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR189" t="n">
         <v>1.48</v>
@@ -41903,7 +41903,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR190" t="n">
         <v>1.48</v>
@@ -42775,7 +42775,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ194" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR194" t="n">
         <v>1.18</v>
@@ -43208,7 +43208,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.84</v>
@@ -43426,10 +43426,10 @@
         <v>1.93</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR197" t="n">
         <v>1.32</v>
@@ -43862,7 +43862,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.84</v>
@@ -44083,7 +44083,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR200" t="n">
         <v>1</v>
@@ -44301,7 +44301,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR201" t="n">
         <v>1.14</v>
@@ -44519,7 +44519,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ202" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR202" t="n">
         <v>1.47</v>
@@ -44734,7 +44734,7 @@
         <v>0.88</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.9399999999999999</v>
@@ -44952,7 +44952,7 @@
         <v>1.31</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.47</v>
@@ -45173,7 +45173,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR205" t="n">
         <v>1.63</v>
@@ -45388,7 +45388,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ206" t="n">
         <v>1</v>
@@ -45609,7 +45609,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR207" t="n">
         <v>1.11</v>
@@ -46696,10 +46696,10 @@
         <v>1.88</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR212" t="n">
         <v>1.29</v>
@@ -46917,7 +46917,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ213" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AR213" t="n">
         <v>1.03</v>
@@ -47135,7 +47135,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR214" t="n">
         <v>1.44</v>
@@ -47568,10 +47568,10 @@
         <v>0.71</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR216" t="n">
         <v>1.25</v>
@@ -47786,7 +47786,7 @@
         <v>0.82</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ217" t="n">
         <v>0.9399999999999999</v>
@@ -48891,31 +48891,31 @@
         <v>2.68</v>
       </c>
       <c r="AU222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB222" t="n">
         <v>6</v>
       </c>
-      <c r="AW222" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX222" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY222" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ222" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA222" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB222" t="n">
-        <v>4</v>
-      </c>
       <c r="BC222" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD222" t="n">
         <v>0</v>
@@ -49109,69 +49109,1159 @@
         <v>2.75</v>
       </c>
       <c r="AU223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>6604056</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F224" t="n">
+        <v>16</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
+      <c r="S224" t="n">
+        <v>0</v>
+      </c>
+      <c r="T224" t="n">
+        <v>0</v>
+      </c>
+      <c r="U224" t="n">
+        <v>0</v>
+      </c>
+      <c r="V224" t="n">
+        <v>0</v>
+      </c>
+      <c r="W224" t="n">
+        <v>0</v>
+      </c>
+      <c r="X224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV224" t="n">
         <v>4</v>
       </c>
-      <c r="AV223" t="n">
+      <c r="AW224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>6604058</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45222.75</v>
+      </c>
+      <c r="F225" t="n">
+        <v>16</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
+      <c r="S225" t="n">
+        <v>0</v>
+      </c>
+      <c r="T225" t="n">
+        <v>0</v>
+      </c>
+      <c r="U225" t="n">
+        <v>0</v>
+      </c>
+      <c r="V225" t="n">
+        <v>0</v>
+      </c>
+      <c r="W225" t="n">
+        <v>0</v>
+      </c>
+      <c r="X225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV225" t="n">
         <v>4</v>
       </c>
-      <c r="AW223" t="n">
+      <c r="AW225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>6604057</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45222.85416666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>16</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['50', '90']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>0</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
+        <v>0</v>
+      </c>
+      <c r="V226" t="n">
+        <v>0</v>
+      </c>
+      <c r="W226" t="n">
+        <v>0</v>
+      </c>
+      <c r="X226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ226" t="n">
         <v>6</v>
       </c>
-      <c r="AX223" t="n">
+      <c r="BA226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6604060</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45223.75</v>
+      </c>
+      <c r="F227" t="n">
+        <v>16</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
         <v>2</v>
       </c>
-      <c r="AY223" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ223" t="n">
+      <c r="J227" t="n">
+        <v>3</v>
+      </c>
+      <c r="K227" t="n">
+        <v>5</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>5</v>
+      </c>
+      <c r="N227" t="n">
+        <v>7</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['16', '28']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['12', '24', '33', '51', '80']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" t="n">
+        <v>0</v>
+      </c>
+      <c r="T227" t="n">
+        <v>0</v>
+      </c>
+      <c r="U227" t="n">
+        <v>0</v>
+      </c>
+      <c r="V227" t="n">
+        <v>0</v>
+      </c>
+      <c r="W227" t="n">
+        <v>0</v>
+      </c>
+      <c r="X227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY227" t="n">
         <v>6</v>
       </c>
-      <c r="BA223" t="n">
+      <c r="AZ227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB227" t="n">
         <v>2</v>
       </c>
-      <c r="BB223" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC223" t="n">
+      <c r="BC227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6604055</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45223.85416666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>16</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
+      <c r="S228" t="n">
+        <v>0</v>
+      </c>
+      <c r="T228" t="n">
+        <v>0</v>
+      </c>
+      <c r="U228" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" t="n">
+        <v>0</v>
+      </c>
+      <c r="W228" t="n">
+        <v>0</v>
+      </c>
+      <c r="X228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU228" t="n">
         <v>3</v>
       </c>
-      <c r="BD223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO223" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP223" t="n">
+      <c r="AV228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP228" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP228"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.21</v>
@@ -3535,7 +3535,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.47</v>
@@ -6369,7 +6369,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR27" t="n">
         <v>1.22</v>
@@ -9200,7 +9200,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.42</v>
@@ -9639,7 +9639,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR42" t="n">
         <v>1.51</v>
@@ -10293,7 +10293,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR45" t="n">
         <v>1.06</v>
@@ -12252,7 +12252,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.47</v>
@@ -13127,7 +13127,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR58" t="n">
         <v>1.24</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.26</v>
@@ -16394,7 +16394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -17705,7 +17705,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR79" t="n">
         <v>1.02</v>
@@ -18138,7 +18138,7 @@
         <v>2</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.42</v>
@@ -20321,7 +20321,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -21190,7 +21190,7 @@
         <v>2.29</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.89</v>
@@ -22934,10 +22934,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR103" t="n">
         <v>1.34</v>
@@ -25114,7 +25114,7 @@
         <v>0.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.63</v>
@@ -26861,7 +26861,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR121" t="n">
         <v>1.24</v>
@@ -28166,7 +28166,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.95</v>
@@ -28387,7 +28387,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR128" t="n">
         <v>1.09</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ134" t="n">
         <v>1</v>
@@ -31000,7 +31000,7 @@
         <v>1.36</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.26</v>
@@ -31875,7 +31875,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR144" t="n">
         <v>1.06</v>
@@ -33619,7 +33619,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR152" t="n">
         <v>1.22</v>
@@ -34706,7 +34706,7 @@
         <v>2</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.89</v>
@@ -36450,7 +36450,7 @@
         <v>2.15</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ165" t="n">
         <v>2.21</v>
@@ -37325,7 +37325,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR169" t="n">
         <v>1.32</v>
@@ -39938,7 +39938,7 @@
         <v>1.47</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.42</v>
@@ -40595,7 +40595,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR184" t="n">
         <v>1.66</v>
@@ -42118,7 +42118,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.95</v>
@@ -42557,7 +42557,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR193" t="n">
         <v>1.48</v>
@@ -44737,7 +44737,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR203" t="n">
         <v>1.27</v>
@@ -47350,7 +47350,7 @@
         <v>1.41</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.47</v>
@@ -47789,7 +47789,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR217" t="n">
         <v>1.56</v>
@@ -49981,31 +49981,31 @@
         <v>2.81</v>
       </c>
       <c r="AU227" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW227" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ227" t="n">
         <v>6</v>
       </c>
-      <c r="AZ227" t="n">
-        <v>4</v>
-      </c>
       <c r="BA227" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC227" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BD227" t="n">
         <v>0</v>
@@ -50199,69 +50199,287 @@
         <v>2.69</v>
       </c>
       <c r="AU228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW228" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY228" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6604059</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45224.8125</v>
+      </c>
+      <c r="F229" t="n">
+        <v>16</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
+      <c r="S229" t="n">
+        <v>0</v>
+      </c>
+      <c r="T229" t="n">
+        <v>0</v>
+      </c>
+      <c r="U229" t="n">
+        <v>0</v>
+      </c>
+      <c r="V229" t="n">
+        <v>0</v>
+      </c>
+      <c r="W229" t="n">
+        <v>0</v>
+      </c>
+      <c r="X229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV229" t="n">
         <v>6</v>
       </c>
-      <c r="AZ228" t="n">
+      <c r="AW229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX229" t="n">
         <v>6</v>
       </c>
-      <c r="BA228" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB228" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC228" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO228" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP228" t="n">
+      <c r="AY229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP229" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP229"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.95</v>
@@ -3099,7 +3099,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>0.95</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>1.25</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.42</v>
@@ -7459,7 +7459,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR32" t="n">
         <v>0.79</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.84</v>
@@ -12473,7 +12473,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.42</v>
@@ -15089,7 +15089,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR67" t="n">
         <v>1.59</v>
@@ -15740,7 +15740,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.47</v>
@@ -16397,7 +16397,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR73" t="n">
         <v>1.41</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.26</v>
@@ -18577,7 +18577,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR83" t="n">
         <v>1.36</v>
@@ -20975,7 +20975,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR94" t="n">
         <v>1.26</v>
@@ -21626,7 +21626,7 @@
         <v>2.29</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.21</v>
@@ -23373,7 +23373,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -23806,7 +23806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.47</v>
@@ -24681,7 +24681,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR111" t="n">
         <v>1.4</v>
@@ -26858,7 +26858,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.95</v>
@@ -27733,7 +27733,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR125" t="n">
         <v>1.49</v>
@@ -29256,7 +29256,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.89</v>
@@ -29695,7 +29695,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR134" t="n">
         <v>1.53</v>
@@ -32308,7 +32308,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.47</v>
@@ -32747,7 +32747,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -34927,7 +34927,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR158" t="n">
         <v>1.69</v>
@@ -36014,7 +36014,7 @@
         <v>1.54</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.42</v>
@@ -38415,7 +38415,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR174" t="n">
         <v>1.47</v>
@@ -38630,7 +38630,7 @@
         <v>0.92</v>
       </c>
       <c r="AP175" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.84</v>
@@ -40159,7 +40159,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR182" t="n">
         <v>1.03</v>
@@ -40374,7 +40374,7 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.89</v>
@@ -42772,7 +42772,7 @@
         <v>2.13</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ194" t="n">
         <v>2.21</v>
@@ -42993,7 +42993,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR195" t="n">
         <v>1.53</v>
@@ -44298,7 +44298,7 @@
         <v>1.33</v>
       </c>
       <c r="AP201" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.26</v>
@@ -45391,7 +45391,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR206" t="n">
         <v>1.38</v>
@@ -45606,7 +45606,7 @@
         <v>1.35</v>
       </c>
       <c r="AP207" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.42</v>
@@ -48222,7 +48222,7 @@
         <v>0.83</v>
       </c>
       <c r="AP219" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.95</v>
@@ -48443,7 +48443,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR220" t="n">
         <v>1.53</v>
@@ -50480,6 +50480,224 @@
         <v>0</v>
       </c>
       <c r="BP229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6604064</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45226.8125</v>
+      </c>
+      <c r="F230" t="n">
+        <v>17</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['30', '53', '90+2']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
+      <c r="S230" t="n">
+        <v>0</v>
+      </c>
+      <c r="T230" t="n">
+        <v>0</v>
+      </c>
+      <c r="U230" t="n">
+        <v>0</v>
+      </c>
+      <c r="V230" t="n">
+        <v>0</v>
+      </c>
+      <c r="W230" t="n">
+        <v>0</v>
+      </c>
+      <c r="X230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP230" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.95</v>
@@ -2442,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR10" t="n">
         <v>1.03</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.63</v>
@@ -4843,7 +4843,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR20" t="n">
         <v>0.8</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.21</v>
@@ -5715,7 +5715,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR24" t="n">
         <v>1.41</v>
@@ -6366,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.95</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.95</v>
@@ -7241,7 +7241,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR31" t="n">
         <v>1.34</v>
@@ -7674,7 +7674,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.47</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR34" t="n">
         <v>1.92</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.26</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.63</v>
@@ -10075,7 +10075,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR44" t="n">
         <v>0.84</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.95</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.21</v>
@@ -10947,7 +10947,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR48" t="n">
         <v>1.06</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.95</v>
@@ -12906,7 +12906,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.47</v>
@@ -13563,7 +13563,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR60" t="n">
         <v>1.98</v>
@@ -13781,7 +13781,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR61" t="n">
         <v>1.02</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.47</v>
@@ -15086,7 +15086,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.95</v>
@@ -15304,7 +15304,7 @@
         <v>1.2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.95</v>
@@ -15961,7 +15961,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR71" t="n">
         <v>1.27</v>
@@ -16176,7 +16176,7 @@
         <v>2.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
         <v>2.21</v>
@@ -16830,7 +16830,7 @@
         <v>1.83</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.42</v>
@@ -18141,7 +18141,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18574,7 +18574,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.95</v>
@@ -19010,10 +19010,10 @@
         <v>2.17</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR85" t="n">
         <v>1.37</v>
@@ -19446,7 +19446,7 @@
         <v>1.43</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.47</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.84</v>
@@ -20536,10 +20536,10 @@
         <v>1.86</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR92" t="n">
         <v>1.44</v>
@@ -21193,7 +21193,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR95" t="n">
         <v>1.38</v>
@@ -22716,7 +22716,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.42</v>
@@ -23370,7 +23370,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.95</v>
@@ -23591,7 +23591,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR106" t="n">
         <v>1.41</v>
@@ -24027,7 +24027,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR108" t="n">
         <v>1.28</v>
@@ -24242,7 +24242,7 @@
         <v>0.88</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.84</v>
@@ -24896,7 +24896,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.47</v>
@@ -26204,10 +26204,10 @@
         <v>2.22</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR118" t="n">
         <v>1.5</v>
@@ -26640,10 +26640,10 @@
         <v>1.44</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR120" t="n">
         <v>1.68</v>
@@ -27076,7 +27076,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.26</v>
@@ -27948,7 +27948,7 @@
         <v>0.3</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.63</v>
@@ -28605,7 +28605,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR129" t="n">
         <v>1.75</v>
@@ -29259,7 +29259,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR132" t="n">
         <v>1.19</v>
@@ -29474,7 +29474,7 @@
         <v>0.8</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.84</v>
@@ -30131,7 +30131,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30346,7 +30346,7 @@
         <v>0.27</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.63</v>
@@ -31221,7 +31221,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR141" t="n">
         <v>1.52</v>
@@ -31654,7 +31654,7 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143" t="n">
         <v>2.21</v>
@@ -32090,7 +32090,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.63</v>
@@ -32965,7 +32965,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR149" t="n">
         <v>1.52</v>
@@ -33180,7 +33180,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.42</v>
@@ -33834,7 +33834,7 @@
         <v>1.62</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.42</v>
@@ -34709,7 +34709,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR157" t="n">
         <v>1.46</v>
@@ -35578,7 +35578,7 @@
         <v>1.77</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.47</v>
@@ -35796,7 +35796,7 @@
         <v>1.08</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.95</v>
@@ -36017,7 +36017,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR163" t="n">
         <v>1.13</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.95</v>
@@ -37758,10 +37758,10 @@
         <v>1.5</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR171" t="n">
         <v>1.3</v>
@@ -38197,7 +38197,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR173" t="n">
         <v>1.53</v>
@@ -38412,7 +38412,7 @@
         <v>0.93</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.95</v>
@@ -40377,7 +40377,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR183" t="n">
         <v>1.18</v>
@@ -40810,7 +40810,7 @@
         <v>0.86</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.84</v>
@@ -41028,7 +41028,7 @@
         <v>1.29</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.47</v>
@@ -41467,7 +41467,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR188" t="n">
         <v>1.29</v>
@@ -42554,7 +42554,7 @@
         <v>0.93</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.95</v>
@@ -42990,7 +42990,7 @@
         <v>1</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.95</v>
@@ -43426,10 +43426,10 @@
         <v>1.93</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR197" t="n">
         <v>1.32</v>
@@ -43644,10 +43644,10 @@
         <v>1.69</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR198" t="n">
         <v>1.51</v>
@@ -44083,7 +44083,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR200" t="n">
         <v>1</v>
@@ -44516,7 +44516,7 @@
         <v>2.19</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ202" t="n">
         <v>2.21</v>
@@ -44734,7 +44734,7 @@
         <v>0.88</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.95</v>
@@ -45827,7 +45827,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR208" t="n">
         <v>1.48</v>
@@ -46478,7 +46478,7 @@
         <v>0.88</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.84</v>
@@ -46699,7 +46699,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR212" t="n">
         <v>1.29</v>
@@ -47132,7 +47132,7 @@
         <v>1.24</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.26</v>
@@ -47568,7 +47568,7 @@
         <v>0.71</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.63</v>
@@ -48004,7 +48004,7 @@
         <v>1.56</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.47</v>
@@ -48661,7 +48661,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AR221" t="n">
         <v>1.61</v>
@@ -48876,7 +48876,7 @@
         <v>1.5</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.47</v>
@@ -49969,7 +49969,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR227" t="n">
         <v>1.38</v>
@@ -50184,7 +50184,7 @@
         <v>1.17</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.26</v>
@@ -50698,6 +50698,660 @@
         <v>0</v>
       </c>
       <c r="BP230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6604065</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F231" t="n">
+        <v>17</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['9', '16']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" t="n">
+        <v>0</v>
+      </c>
+      <c r="T231" t="n">
+        <v>0</v>
+      </c>
+      <c r="U231" t="n">
+        <v>0</v>
+      </c>
+      <c r="V231" t="n">
+        <v>0</v>
+      </c>
+      <c r="W231" t="n">
+        <v>0</v>
+      </c>
+      <c r="X231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6604066</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45227.85416666666</v>
+      </c>
+      <c r="F232" t="n">
+        <v>17</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
+      <c r="S232" t="n">
+        <v>0</v>
+      </c>
+      <c r="T232" t="n">
+        <v>0</v>
+      </c>
+      <c r="U232" t="n">
+        <v>0</v>
+      </c>
+      <c r="V232" t="n">
+        <v>0</v>
+      </c>
+      <c r="W232" t="n">
+        <v>0</v>
+      </c>
+      <c r="X232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6604061</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>17</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
+      <c r="S233" t="n">
+        <v>0</v>
+      </c>
+      <c r="T233" t="n">
+        <v>0</v>
+      </c>
+      <c r="U233" t="n">
+        <v>0</v>
+      </c>
+      <c r="V233" t="n">
+        <v>0</v>
+      </c>
+      <c r="W233" t="n">
+        <v>0</v>
+      </c>
+      <c r="X233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP233" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.47</v>
@@ -1573,7 +1573,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.95</v>
@@ -3317,7 +3317,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.95</v>
@@ -4189,7 +4189,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR17" t="n">
         <v>0.9</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.35</v>
@@ -6151,7 +6151,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR26" t="n">
         <v>1.32</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.63</v>
@@ -6805,7 +6805,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR29" t="n">
         <v>1.02</v>
@@ -8110,10 +8110,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR35" t="n">
         <v>1.35</v>
@@ -8764,7 +8764,7 @@
         <v>2</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.95</v>
@@ -9421,7 +9421,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR41" t="n">
         <v>1.4</v>
@@ -11165,7 +11165,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR49" t="n">
         <v>1.44</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.63</v>
@@ -12255,7 +12255,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.95</v>
@@ -13345,7 +13345,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR59" t="n">
         <v>1</v>
@@ -13560,7 +13560,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.85</v>
@@ -13999,7 +13999,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR62" t="n">
         <v>1.09</v>
@@ -14214,7 +14214,7 @@
         <v>1.25</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.95</v>
@@ -15522,7 +15522,7 @@
         <v>1.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.26</v>
@@ -15743,7 +15743,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR70" t="n">
         <v>1.31</v>
@@ -17051,7 +17051,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR76" t="n">
         <v>1.48</v>
@@ -17484,10 +17484,10 @@
         <v>1.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR78" t="n">
         <v>1.9</v>
@@ -18792,7 +18792,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.21</v>
@@ -19449,7 +19449,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR87" t="n">
         <v>1.68</v>
@@ -19885,7 +19885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR89" t="n">
         <v>1.37</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.42</v>
@@ -20754,7 +20754,7 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.47</v>
@@ -22280,10 +22280,10 @@
         <v>1.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR100" t="n">
         <v>1.81</v>
@@ -23588,7 +23588,7 @@
         <v>2.38</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.85</v>
@@ -24245,7 +24245,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR109" t="n">
         <v>1.43</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.26</v>
@@ -24899,7 +24899,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR112" t="n">
         <v>1.34</v>
@@ -25550,7 +25550,7 @@
         <v>1.67</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.42</v>
@@ -25771,7 +25771,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR116" t="n">
         <v>1.3</v>
@@ -27512,10 +27512,10 @@
         <v>1.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR124" t="n">
         <v>1.46</v>
@@ -28602,7 +28602,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.35</v>
@@ -29477,7 +29477,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR133" t="n">
         <v>1.68</v>
@@ -29910,7 +29910,7 @@
         <v>1.64</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.42</v>
@@ -30564,7 +30564,7 @@
         <v>1.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.47</v>
@@ -31439,7 +31439,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR142" t="n">
         <v>1.21</v>
@@ -32529,7 +32529,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -32962,7 +32962,7 @@
         <v>1.42</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.35</v>
@@ -33398,7 +33398,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.95</v>
@@ -34924,7 +34924,7 @@
         <v>0.92</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.95</v>
@@ -35145,7 +35145,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR159" t="n">
         <v>1.63</v>
@@ -35360,10 +35360,10 @@
         <v>0.92</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR160" t="n">
         <v>1.51</v>
@@ -37976,10 +37976,10 @@
         <v>1.15</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR172" t="n">
         <v>1.7</v>
@@ -38194,7 +38194,7 @@
         <v>2.08</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.85</v>
@@ -38633,7 +38633,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR175" t="n">
         <v>1.13</v>
@@ -39502,7 +39502,7 @@
         <v>1.21</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.26</v>
@@ -40592,7 +40592,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.95</v>
@@ -40813,7 +40813,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR185" t="n">
         <v>1.3</v>
@@ -41031,7 +41031,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR186" t="n">
         <v>1.51</v>
@@ -41682,7 +41682,7 @@
         <v>0.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.63</v>
@@ -42339,7 +42339,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR192" t="n">
         <v>1.02</v>
@@ -43211,7 +43211,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR196" t="n">
         <v>1.56</v>
@@ -43865,7 +43865,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR199" t="n">
         <v>1.28</v>
@@ -44955,7 +44955,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR204" t="n">
         <v>1.57</v>
@@ -45170,7 +45170,7 @@
         <v>1.31</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.26</v>
@@ -46042,7 +46042,7 @@
         <v>1.59</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.47</v>
@@ -46260,7 +46260,7 @@
         <v>0.88</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ210" t="n">
         <v>0.95</v>
@@ -46481,7 +46481,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR211" t="n">
         <v>1.48</v>
@@ -47353,7 +47353,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR215" t="n">
         <v>1.49</v>
@@ -48440,7 +48440,7 @@
         <v>1.06</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ220" t="n">
         <v>0.95</v>
@@ -48658,7 +48658,7 @@
         <v>1.5</v>
       </c>
       <c r="AP221" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.35</v>
@@ -48879,7 +48879,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AR222" t="n">
         <v>1.51</v>
@@ -49097,7 +49097,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR223" t="n">
         <v>1.46</v>
@@ -51352,6 +51352,442 @@
         <v>0</v>
       </c>
       <c r="BP233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6604062</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45229.75</v>
+      </c>
+      <c r="F234" t="n">
+        <v>17</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="n">
+        <v>3</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['16', '76']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" t="n">
+        <v>0</v>
+      </c>
+      <c r="T234" t="n">
+        <v>0</v>
+      </c>
+      <c r="U234" t="n">
+        <v>0</v>
+      </c>
+      <c r="V234" t="n">
+        <v>0</v>
+      </c>
+      <c r="W234" t="n">
+        <v>0</v>
+      </c>
+      <c r="X234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6604063</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45229.85416666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>17</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>2</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>2</v>
+      </c>
+      <c r="L235" t="n">
+        <v>4</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>5</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['30', '34', '83', '90+4']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
+      <c r="S235" t="n">
+        <v>0</v>
+      </c>
+      <c r="T235" t="n">
+        <v>0</v>
+      </c>
+      <c r="U235" t="n">
+        <v>0</v>
+      </c>
+      <c r="V235" t="n">
+        <v>0</v>
+      </c>
+      <c r="W235" t="n">
+        <v>0</v>
+      </c>
+      <c r="X235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP235" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -51507,31 +51507,31 @@
         <v>2.76</v>
       </c>
       <c r="AU234" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV234" t="n">
         <v>2</v>
       </c>
       <c r="AW234" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX234" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ234" t="n">
         <v>6</v>
       </c>
-      <c r="AZ234" t="n">
+      <c r="BA234" t="n">
         <v>5</v>
-      </c>
-      <c r="BA234" t="n">
-        <v>2</v>
       </c>
       <c r="BB234" t="n">
         <v>6</v>
       </c>
       <c r="BC234" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD234" t="n">
         <v>0</v>
@@ -51725,31 +51725,31 @@
         <v>2.92</v>
       </c>
       <c r="AU235" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV235" t="n">
         <v>2</v>
       </c>
       <c r="AW235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY235" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ235" t="n">
         <v>6</v>
       </c>
-      <c r="AZ235" t="n">
+      <c r="BA235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB235" t="n">
         <v>5</v>
       </c>
-      <c r="BA235" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB235" t="n">
-        <v>2</v>
-      </c>
       <c r="BC235" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD235" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.8</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.35</v>
@@ -2009,7 +2009,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.85</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.8</v>
@@ -3535,7 +3535,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR15" t="n">
         <v>0.85</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR16" t="n">
         <v>1.26</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.4</v>
@@ -4407,7 +4407,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR18" t="n">
         <v>1.41</v>
@@ -4622,10 +4622,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR19" t="n">
         <v>1.16</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.85</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR21" t="n">
         <v>1.16</v>
@@ -5279,7 +5279,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR25" t="n">
         <v>1.49</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.8</v>
@@ -6369,7 +6369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR27" t="n">
         <v>1.22</v>
@@ -6587,7 +6587,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR28" t="n">
         <v>1.25</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.4</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.95</v>
@@ -7677,7 +7677,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR33" t="n">
         <v>0.92</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR36" t="n">
         <v>1.14</v>
@@ -8549,7 +8549,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR37" t="n">
         <v>1.18</v>
@@ -8982,10 +8982,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR39" t="n">
         <v>1.14</v>
@@ -9200,10 +9200,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR40" t="n">
         <v>1.31</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.4</v>
@@ -9636,10 +9636,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR42" t="n">
         <v>1.51</v>
@@ -9857,7 +9857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR43" t="n">
         <v>1.73</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.35</v>
@@ -10293,7 +10293,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR45" t="n">
         <v>1.06</v>
@@ -10511,7 +10511,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR46" t="n">
         <v>1.81</v>
@@ -10726,10 +10726,10 @@
         <v>1.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR47" t="n">
         <v>1.08</v>
@@ -10944,7 +10944,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.85</v>
@@ -11598,10 +11598,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -11816,10 +11816,10 @@
         <v>2.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR52" t="n">
         <v>1.35</v>
@@ -12037,7 +12037,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR53" t="n">
         <v>1.25</v>
@@ -12252,7 +12252,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.4</v>
@@ -12691,7 +12691,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR56" t="n">
         <v>1.36</v>
@@ -12909,7 +12909,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR57" t="n">
         <v>1.68</v>
@@ -13124,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR58" t="n">
         <v>1.24</v>
@@ -13342,7 +13342,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.8</v>
@@ -13778,7 +13778,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.35</v>
@@ -14432,10 +14432,10 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR64" t="n">
         <v>1.5</v>
@@ -14650,10 +14650,10 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR65" t="n">
         <v>1.36</v>
@@ -14868,10 +14868,10 @@
         <v>2.25</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR66" t="n">
         <v>1.37</v>
@@ -15525,7 +15525,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR69" t="n">
         <v>1.46</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.85</v>
@@ -16179,7 +16179,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR72" t="n">
         <v>1.46</v>
@@ -16394,7 +16394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.95</v>
@@ -16612,10 +16612,10 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -16833,7 +16833,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR75" t="n">
         <v>1.66</v>
@@ -17048,7 +17048,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.4</v>
@@ -17266,10 +17266,10 @@
         <v>1.83</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR77" t="n">
         <v>1.33</v>
@@ -17702,10 +17702,10 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR79" t="n">
         <v>1.02</v>
@@ -17920,7 +17920,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.95</v>
@@ -18138,7 +18138,7 @@
         <v>2</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.35</v>
@@ -18359,7 +18359,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR82" t="n">
         <v>1.26</v>
@@ -18795,7 +18795,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR84" t="n">
         <v>1.4</v>
@@ -19228,10 +19228,10 @@
         <v>0.43</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR86" t="n">
         <v>1.08</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.95</v>
@@ -20103,7 +20103,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR90" t="n">
         <v>1.83</v>
@@ -20318,10 +20318,10 @@
         <v>0.86</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -20757,7 +20757,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR93" t="n">
         <v>1.42</v>
@@ -20972,7 +20972,7 @@
         <v>0.57</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.95</v>
@@ -21190,7 +21190,7 @@
         <v>2.29</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.85</v>
@@ -21408,10 +21408,10 @@
         <v>1.57</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR96" t="n">
         <v>1.12</v>
@@ -21629,7 +21629,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR97" t="n">
         <v>1.27</v>
@@ -21844,7 +21844,7 @@
         <v>0.88</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.95</v>
@@ -22062,10 +22062,10 @@
         <v>0.38</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR99" t="n">
         <v>1.42</v>
@@ -22498,10 +22498,10 @@
         <v>1.38</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR101" t="n">
         <v>1.45</v>
@@ -22719,7 +22719,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR102" t="n">
         <v>1.41</v>
@@ -22934,10 +22934,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR103" t="n">
         <v>1.34</v>
@@ -23152,10 +23152,10 @@
         <v>2</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR104" t="n">
         <v>1.08</v>
@@ -23809,7 +23809,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR107" t="n">
         <v>1.23</v>
@@ -24024,7 +24024,7 @@
         <v>1.63</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.35</v>
@@ -24463,7 +24463,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR110" t="n">
         <v>1.8</v>
@@ -24678,7 +24678,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.95</v>
@@ -25114,10 +25114,10 @@
         <v>0.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR113" t="n">
         <v>1.43</v>
@@ -25332,7 +25332,7 @@
         <v>0.78</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.95</v>
@@ -25553,7 +25553,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR115" t="n">
         <v>1.4</v>
@@ -25768,7 +25768,7 @@
         <v>0.89</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.8</v>
@@ -25986,10 +25986,10 @@
         <v>2.11</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR117" t="n">
         <v>1.15</v>
@@ -26422,10 +26422,10 @@
         <v>1.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR119" t="n">
         <v>1.07</v>
@@ -26861,7 +26861,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR121" t="n">
         <v>1.24</v>
@@ -27079,7 +27079,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR122" t="n">
         <v>1.28</v>
@@ -27294,10 +27294,10 @@
         <v>2.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR123" t="n">
         <v>1.49</v>
@@ -27730,7 +27730,7 @@
         <v>0.8</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.95</v>
@@ -27951,7 +27951,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR126" t="n">
         <v>1.49</v>
@@ -28166,7 +28166,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.95</v>
@@ -28384,10 +28384,10 @@
         <v>0.7</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR128" t="n">
         <v>1.09</v>
@@ -28820,10 +28820,10 @@
         <v>1.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR130" t="n">
         <v>1.19</v>
@@ -29038,10 +29038,10 @@
         <v>1.8</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR131" t="n">
         <v>1.34</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.95</v>
@@ -29913,7 +29913,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR135" t="n">
         <v>1.71</v>
@@ -30128,7 +30128,7 @@
         <v>1.55</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.35</v>
@@ -30349,7 +30349,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR137" t="n">
         <v>1.64</v>
@@ -30567,7 +30567,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR138" t="n">
         <v>1.41</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.95</v>
@@ -31000,10 +31000,10 @@
         <v>1.36</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -31218,7 +31218,7 @@
         <v>1.91</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.85</v>
@@ -31436,7 +31436,7 @@
         <v>1.36</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.4</v>
@@ -31657,7 +31657,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR143" t="n">
         <v>1.28</v>
@@ -31872,10 +31872,10 @@
         <v>0.91</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR144" t="n">
         <v>1.06</v>
@@ -32093,7 +32093,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR145" t="n">
         <v>1.5</v>
@@ -32311,7 +32311,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR146" t="n">
         <v>1.15</v>
@@ -32526,7 +32526,7 @@
         <v>0.73</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.8</v>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.95</v>
@@ -33183,7 +33183,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR150" t="n">
         <v>1.66</v>
@@ -33616,10 +33616,10 @@
         <v>0.92</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR152" t="n">
         <v>1.22</v>
@@ -33837,7 +33837,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR153" t="n">
         <v>1.26</v>
@@ -34052,10 +34052,10 @@
         <v>1.25</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR154" t="n">
         <v>1.4</v>
@@ -34270,10 +34270,10 @@
         <v>2.08</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR155" t="n">
         <v>1.51</v>
@@ -34488,10 +34488,10 @@
         <v>0.54</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR156" t="n">
         <v>1.06</v>
@@ -34706,7 +34706,7 @@
         <v>2</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.85</v>
@@ -35142,7 +35142,7 @@
         <v>1.25</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.4</v>
@@ -35581,7 +35581,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR161" t="n">
         <v>1.61</v>
@@ -36232,10 +36232,10 @@
         <v>1.57</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR164" t="n">
         <v>1.51</v>
@@ -36450,10 +36450,10 @@
         <v>2.15</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ165" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR165" t="n">
         <v>1.5</v>
@@ -36668,10 +36668,10 @@
         <v>1.64</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR166" t="n">
         <v>1.06</v>
@@ -36886,10 +36886,10 @@
         <v>1.23</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR167" t="n">
         <v>1.58</v>
@@ -37104,10 +37104,10 @@
         <v>0.71</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37322,10 +37322,10 @@
         <v>0.85</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR169" t="n">
         <v>1.32</v>
@@ -38848,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.95</v>
@@ -39066,10 +39066,10 @@
         <v>0.73</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39284,10 +39284,10 @@
         <v>2.21</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -39505,7 +39505,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR179" t="n">
         <v>1.49</v>
@@ -39720,10 +39720,10 @@
         <v>1.53</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR180" t="n">
         <v>1.23</v>
@@ -39938,10 +39938,10 @@
         <v>1.47</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR181" t="n">
         <v>1.5</v>
@@ -40156,7 +40156,7 @@
         <v>1.07</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.95</v>
@@ -40595,7 +40595,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR184" t="n">
         <v>1.66</v>
@@ -41246,10 +41246,10 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR187" t="n">
         <v>1.35</v>
@@ -41464,7 +41464,7 @@
         <v>1.6</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.35</v>
@@ -41685,7 +41685,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR189" t="n">
         <v>1.48</v>
@@ -41900,10 +41900,10 @@
         <v>1.38</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR190" t="n">
         <v>1.48</v>
@@ -42118,7 +42118,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.95</v>
@@ -42336,7 +42336,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.4</v>
@@ -42557,7 +42557,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR193" t="n">
         <v>1.48</v>
@@ -42775,7 +42775,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ194" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR194" t="n">
         <v>1.18</v>
@@ -43208,7 +43208,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.8</v>
@@ -43862,7 +43862,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.8</v>
@@ -44080,7 +44080,7 @@
         <v>1.81</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.85</v>
@@ -44301,7 +44301,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR201" t="n">
         <v>1.14</v>
@@ -44519,7 +44519,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ202" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR202" t="n">
         <v>1.47</v>
@@ -44737,7 +44737,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR203" t="n">
         <v>1.27</v>
@@ -44952,7 +44952,7 @@
         <v>1.31</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.4</v>
@@ -45173,7 +45173,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR205" t="n">
         <v>1.63</v>
@@ -45388,7 +45388,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.95</v>
@@ -45609,7 +45609,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR207" t="n">
         <v>1.11</v>
@@ -45824,7 +45824,7 @@
         <v>1.59</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.35</v>
@@ -46045,7 +46045,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR209" t="n">
         <v>1.62</v>
@@ -46696,7 +46696,7 @@
         <v>1.88</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.85</v>
@@ -46914,10 +46914,10 @@
         <v>2.24</v>
       </c>
       <c r="AP213" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ213" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR213" t="n">
         <v>1.03</v>
@@ -47135,7 +47135,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR214" t="n">
         <v>1.44</v>
@@ -47350,7 +47350,7 @@
         <v>1.41</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.4</v>
@@ -47571,7 +47571,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR216" t="n">
         <v>1.25</v>
@@ -47786,10 +47786,10 @@
         <v>0.82</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR217" t="n">
         <v>1.56</v>
@@ -48007,7 +48007,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR218" t="n">
         <v>1.42</v>
@@ -49094,7 +49094,7 @@
         <v>0.89</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.8</v>
@@ -49312,10 +49312,10 @@
         <v>1.44</v>
       </c>
       <c r="AP224" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR224" t="n">
         <v>1.04</v>
@@ -49530,10 +49530,10 @@
         <v>2.28</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ225" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AR225" t="n">
         <v>1.26</v>
@@ -49748,10 +49748,10 @@
         <v>0.67</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR226" t="n">
         <v>1.56</v>
@@ -49966,7 +49966,7 @@
         <v>1.83</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.85</v>
@@ -50187,7 +50187,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR228" t="n">
         <v>1.26</v>
@@ -50402,10 +50402,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR229" t="n">
         <v>1.47</v>
@@ -51788,6 +51788,1314 @@
         <v>0</v>
       </c>
       <c r="BP235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>6604068</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45231.75</v>
+      </c>
+      <c r="F236" t="n">
+        <v>18</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
+      <c r="S236" t="n">
+        <v>0</v>
+      </c>
+      <c r="T236" t="n">
+        <v>0</v>
+      </c>
+      <c r="U236" t="n">
+        <v>0</v>
+      </c>
+      <c r="V236" t="n">
+        <v>0</v>
+      </c>
+      <c r="W236" t="n">
+        <v>0</v>
+      </c>
+      <c r="X236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>6604069</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45231.85416666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>18</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
+      <c r="S237" t="n">
+        <v>0</v>
+      </c>
+      <c r="T237" t="n">
+        <v>0</v>
+      </c>
+      <c r="U237" t="n">
+        <v>0</v>
+      </c>
+      <c r="V237" t="n">
+        <v>0</v>
+      </c>
+      <c r="W237" t="n">
+        <v>0</v>
+      </c>
+      <c r="X237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>6604070</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45232.75</v>
+      </c>
+      <c r="F238" t="n">
+        <v>18</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>3</v>
+      </c>
+      <c r="K238" t="n">
+        <v>3</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>3</v>
+      </c>
+      <c r="N238" t="n">
+        <v>4</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['3', '10', '27']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
+      <c r="S238" t="n">
+        <v>0</v>
+      </c>
+      <c r="T238" t="n">
+        <v>0</v>
+      </c>
+      <c r="U238" t="n">
+        <v>0</v>
+      </c>
+      <c r="V238" t="n">
+        <v>0</v>
+      </c>
+      <c r="W238" t="n">
+        <v>0</v>
+      </c>
+      <c r="X238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>6604071</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45232.85416666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>18</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>2</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+      <c r="S239" t="n">
+        <v>0</v>
+      </c>
+      <c r="T239" t="n">
+        <v>0</v>
+      </c>
+      <c r="U239" t="n">
+        <v>0</v>
+      </c>
+      <c r="V239" t="n">
+        <v>0</v>
+      </c>
+      <c r="W239" t="n">
+        <v>0</v>
+      </c>
+      <c r="X239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>6604067</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45233.75</v>
+      </c>
+      <c r="F240" t="n">
+        <v>18</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
+      <c r="S240" t="n">
+        <v>0</v>
+      </c>
+      <c r="T240" t="n">
+        <v>0</v>
+      </c>
+      <c r="U240" t="n">
+        <v>0</v>
+      </c>
+      <c r="V240" t="n">
+        <v>0</v>
+      </c>
+      <c r="W240" t="n">
+        <v>0</v>
+      </c>
+      <c r="X240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>6604072</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45233.85416666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>18</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['63', '88']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" t="n">
+        <v>0</v>
+      </c>
+      <c r="T241" t="n">
+        <v>0</v>
+      </c>
+      <c r="U241" t="n">
+        <v>0</v>
+      </c>
+      <c r="V241" t="n">
+        <v>0</v>
+      </c>
+      <c r="W241" t="n">
+        <v>0</v>
+      </c>
+      <c r="X241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP241" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.45</v>
@@ -1573,7 +1573,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.95</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.35</v>
@@ -2663,7 +2663,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR10" t="n">
         <v>1.03</v>
@@ -3099,7 +3099,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.9</v>
@@ -4189,7 +4189,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR17" t="n">
         <v>0.9</v>
@@ -4843,7 +4843,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR20" t="n">
         <v>0.8</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.15</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR23" t="n">
         <v>1.25</v>
@@ -6151,7 +6151,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR26" t="n">
         <v>1.32</v>
@@ -6366,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.9</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.75</v>
@@ -6805,7 +6805,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR29" t="n">
         <v>1.02</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.35</v>
@@ -7459,7 +7459,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR32" t="n">
         <v>0.79</v>
@@ -7674,7 +7674,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.45</v>
@@ -7895,7 +7895,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR34" t="n">
         <v>1.92</v>
@@ -8113,7 +8113,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR35" t="n">
         <v>1.35</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.35</v>
@@ -8764,7 +8764,7 @@
         <v>2</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.95</v>
@@ -9421,7 +9421,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR41" t="n">
         <v>1.4</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.75</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.9</v>
@@ -10947,7 +10947,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR48" t="n">
         <v>1.06</v>
@@ -11162,10 +11162,10 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR49" t="n">
         <v>1.44</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.95</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -12470,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.4</v>
@@ -13345,7 +13345,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR59" t="n">
         <v>1</v>
@@ -13560,10 +13560,10 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR60" t="n">
         <v>1.98</v>
@@ -13996,10 +13996,10 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR62" t="n">
         <v>1.09</v>
@@ -15086,10 +15086,10 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR67" t="n">
         <v>1.59</v>
@@ -15304,7 +15304,7 @@
         <v>1.2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.95</v>
@@ -15740,10 +15740,10 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
         <v>1.31</v>
@@ -15961,7 +15961,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR71" t="n">
         <v>1.27</v>
@@ -16176,7 +16176,7 @@
         <v>2.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ72" t="n">
         <v>2.15</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR73" t="n">
         <v>1.41</v>
@@ -17051,7 +17051,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR76" t="n">
         <v>1.48</v>
@@ -17484,10 +17484,10 @@
         <v>1.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR78" t="n">
         <v>1.9</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.35</v>
@@ -18574,10 +18574,10 @@
         <v>0.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR83" t="n">
         <v>1.36</v>
@@ -19010,10 +19010,10 @@
         <v>2.17</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR85" t="n">
         <v>1.37</v>
@@ -19449,7 +19449,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR87" t="n">
         <v>1.68</v>
@@ -19882,10 +19882,10 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR89" t="n">
         <v>1.37</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.4</v>
@@ -20536,7 +20536,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.35</v>
@@ -20975,7 +20975,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR94" t="n">
         <v>1.26</v>
@@ -21193,7 +21193,7 @@
         <v>1</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR95" t="n">
         <v>1.38</v>
@@ -21626,7 +21626,7 @@
         <v>2.29</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.15</v>
@@ -22280,10 +22280,10 @@
         <v>1.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR100" t="n">
         <v>1.81</v>
@@ -22716,7 +22716,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.4</v>
@@ -23373,7 +23373,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -23591,7 +23591,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR106" t="n">
         <v>1.41</v>
@@ -23806,7 +23806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.45</v>
@@ -24242,10 +24242,10 @@
         <v>0.88</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR109" t="n">
         <v>1.43</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.35</v>
@@ -24681,7 +24681,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR111" t="n">
         <v>1.4</v>
@@ -24896,10 +24896,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR112" t="n">
         <v>1.34</v>
@@ -25771,7 +25771,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR116" t="n">
         <v>1.3</v>
@@ -26204,10 +26204,10 @@
         <v>2.22</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR118" t="n">
         <v>1.5</v>
@@ -26858,7 +26858,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.9</v>
@@ -27076,7 +27076,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.35</v>
@@ -27515,7 +27515,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR124" t="n">
         <v>1.46</v>
@@ -27733,7 +27733,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR125" t="n">
         <v>1.49</v>
@@ -27948,7 +27948,7 @@
         <v>0.3</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.75</v>
@@ -28602,7 +28602,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.35</v>
@@ -29256,10 +29256,10 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR132" t="n">
         <v>1.19</v>
@@ -29477,7 +29477,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR133" t="n">
         <v>1.68</v>
@@ -29695,7 +29695,7 @@
         <v>1</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR134" t="n">
         <v>1.53</v>
@@ -29910,7 +29910,7 @@
         <v>1.64</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.4</v>
@@ -31221,7 +31221,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR141" t="n">
         <v>1.52</v>
@@ -31439,7 +31439,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR142" t="n">
         <v>1.21</v>
@@ -31654,7 +31654,7 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ143" t="n">
         <v>2.15</v>
@@ -32090,7 +32090,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.75</v>
@@ -32308,7 +32308,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.45</v>
@@ -32529,7 +32529,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -32747,7 +32747,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -33398,7 +33398,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.95</v>
@@ -33834,7 +33834,7 @@
         <v>1.62</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.4</v>
@@ -34709,7 +34709,7 @@
         <v>1</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR157" t="n">
         <v>1.46</v>
@@ -34924,10 +34924,10 @@
         <v>0.92</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR158" t="n">
         <v>1.69</v>
@@ -35145,7 +35145,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR159" t="n">
         <v>1.63</v>
@@ -35363,7 +35363,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR160" t="n">
         <v>1.51</v>
@@ -35796,7 +35796,7 @@
         <v>1.08</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.95</v>
@@ -36014,7 +36014,7 @@
         <v>1.54</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.35</v>
@@ -37758,7 +37758,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.35</v>
@@ -37976,10 +37976,10 @@
         <v>1.15</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR172" t="n">
         <v>1.7</v>
@@ -38197,7 +38197,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR173" t="n">
         <v>1.53</v>
@@ -38412,10 +38412,10 @@
         <v>0.93</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR174" t="n">
         <v>1.47</v>
@@ -38630,10 +38630,10 @@
         <v>0.92</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR175" t="n">
         <v>1.13</v>
@@ -40159,7 +40159,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR182" t="n">
         <v>1.03</v>
@@ -40374,10 +40374,10 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR183" t="n">
         <v>1.18</v>
@@ -40592,7 +40592,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.9</v>
@@ -40810,10 +40810,10 @@
         <v>0.86</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR185" t="n">
         <v>1.3</v>
@@ -41028,10 +41028,10 @@
         <v>1.29</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR186" t="n">
         <v>1.51</v>
@@ -42339,7 +42339,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR192" t="n">
         <v>1.02</v>
@@ -42554,7 +42554,7 @@
         <v>0.93</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.9</v>
@@ -42772,7 +42772,7 @@
         <v>2.13</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ194" t="n">
         <v>2.15</v>
@@ -42993,7 +42993,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR195" t="n">
         <v>1.53</v>
@@ -43211,7 +43211,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR196" t="n">
         <v>1.56</v>
@@ -43426,10 +43426,10 @@
         <v>1.93</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR197" t="n">
         <v>1.32</v>
@@ -43865,7 +43865,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR199" t="n">
         <v>1.28</v>
@@ -44083,7 +44083,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR200" t="n">
         <v>1</v>
@@ -44298,7 +44298,7 @@
         <v>1.33</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.35</v>
@@ -44516,7 +44516,7 @@
         <v>2.19</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ202" t="n">
         <v>2.15</v>
@@ -44734,7 +44734,7 @@
         <v>0.88</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.9</v>
@@ -44955,7 +44955,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR204" t="n">
         <v>1.57</v>
@@ -45170,7 +45170,7 @@
         <v>1.31</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.35</v>
@@ -45391,7 +45391,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR206" t="n">
         <v>1.38</v>
@@ -45606,7 +45606,7 @@
         <v>1.35</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.4</v>
@@ -46042,7 +46042,7 @@
         <v>1.59</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.45</v>
@@ -46481,7 +46481,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR211" t="n">
         <v>1.48</v>
@@ -46699,7 +46699,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR212" t="n">
         <v>1.29</v>
@@ -47132,7 +47132,7 @@
         <v>1.24</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.35</v>
@@ -47353,7 +47353,7 @@
         <v>1</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR215" t="n">
         <v>1.49</v>
@@ -47568,7 +47568,7 @@
         <v>0.71</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.75</v>
@@ -48004,7 +48004,7 @@
         <v>1.56</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.45</v>
@@ -48222,7 +48222,7 @@
         <v>0.83</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.95</v>
@@ -48443,7 +48443,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR220" t="n">
         <v>1.53</v>
@@ -48658,7 +48658,7 @@
         <v>1.5</v>
       </c>
       <c r="AP221" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.35</v>
@@ -48879,7 +48879,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR222" t="n">
         <v>1.51</v>
@@ -49097,7 +49097,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR223" t="n">
         <v>1.46</v>
@@ -49969,7 +49969,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR227" t="n">
         <v>1.38</v>
@@ -50184,7 +50184,7 @@
         <v>1.17</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.35</v>
@@ -50620,10 +50620,10 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR230" t="n">
         <v>1.14</v>
@@ -50838,7 +50838,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.35</v>
@@ -51056,7 +51056,7 @@
         <v>0.95</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ232" t="n">
         <v>0.95</v>
@@ -51277,7 +51277,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR233" t="n">
         <v>1.47</v>
@@ -51495,7 +51495,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR234" t="n">
         <v>1.54</v>
@@ -51710,10 +51710,10 @@
         <v>0.84</v>
       </c>
       <c r="AP235" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AR235" t="n">
         <v>1.59</v>
@@ -53033,69 +53033,941 @@
         <v>2.84</v>
       </c>
       <c r="AU241" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV241" t="n">
         <v>5</v>
       </c>
       <c r="AW241" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX241" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY241" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ241" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA241" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB241" t="n">
         <v>2</v>
       </c>
       <c r="BC241" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>6604075</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45235.75</v>
+      </c>
+      <c r="F242" t="n">
+        <v>19</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
+      <c r="S242" t="n">
+        <v>0</v>
+      </c>
+      <c r="T242" t="n">
+        <v>0</v>
+      </c>
+      <c r="U242" t="n">
+        <v>0</v>
+      </c>
+      <c r="V242" t="n">
+        <v>0</v>
+      </c>
+      <c r="W242" t="n">
+        <v>0</v>
+      </c>
+      <c r="X242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>6604077</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45235.85416666666</v>
+      </c>
+      <c r="F243" t="n">
+        <v>19</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>2</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>2</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['30', '45+1']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
+      <c r="S243" t="n">
+        <v>0</v>
+      </c>
+      <c r="T243" t="n">
+        <v>0</v>
+      </c>
+      <c r="U243" t="n">
+        <v>0</v>
+      </c>
+      <c r="V243" t="n">
+        <v>0</v>
+      </c>
+      <c r="W243" t="n">
+        <v>0</v>
+      </c>
+      <c r="X243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA243" t="n">
         <v>7</v>
       </c>
-      <c r="BD241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP241" t="n">
+      <c r="BB243" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>6604074</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45236.75</v>
+      </c>
+      <c r="F244" t="n">
+        <v>19</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="n">
+        <v>2</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
+      <c r="S244" t="n">
+        <v>0</v>
+      </c>
+      <c r="T244" t="n">
+        <v>0</v>
+      </c>
+      <c r="U244" t="n">
+        <v>0</v>
+      </c>
+      <c r="V244" t="n">
+        <v>0</v>
+      </c>
+      <c r="W244" t="n">
+        <v>0</v>
+      </c>
+      <c r="X244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>6604076</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45236.85416666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>19</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>5</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>5</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['50', '52', '68', '80', '82']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+      <c r="S245" t="n">
+        <v>0</v>
+      </c>
+      <c r="T245" t="n">
+        <v>0</v>
+      </c>
+      <c r="U245" t="n">
+        <v>0</v>
+      </c>
+      <c r="V245" t="n">
+        <v>0</v>
+      </c>
+      <c r="W245" t="n">
+        <v>0</v>
+      </c>
+      <c r="X245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP245" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.4</v>
@@ -1791,7 +1791,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.33</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.75</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.81</v>
@@ -5715,7 +5715,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR24" t="n">
         <v>1.41</v>
@@ -6369,7 +6369,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR27" t="n">
         <v>1.22</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.95</v>
@@ -7241,7 +7241,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR31" t="n">
         <v>1.34</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.9</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.81</v>
@@ -9639,7 +9639,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR42" t="n">
         <v>1.51</v>
@@ -10072,10 +10072,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR44" t="n">
         <v>0.84</v>
@@ -10293,7 +10293,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR45" t="n">
         <v>1.06</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.15</v>
@@ -12906,7 +12906,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.45</v>
@@ -13127,7 +13127,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR58" t="n">
         <v>1.24</v>
@@ -13342,7 +13342,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.76</v>
@@ -13781,7 +13781,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR61" t="n">
         <v>1.02</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.75</v>
@@ -16830,7 +16830,7 @@
         <v>1.83</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.4</v>
@@ -17705,7 +17705,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR79" t="n">
         <v>1.02</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -19446,7 +19446,7 @@
         <v>1.43</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.33</v>
@@ -20321,7 +20321,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR91" t="n">
         <v>1.47</v>
@@ -20539,7 +20539,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR92" t="n">
         <v>1.44</v>
@@ -21408,7 +21408,7 @@
         <v>1.57</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.35</v>
@@ -22937,7 +22937,7 @@
         <v>1</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR103" t="n">
         <v>1.34</v>
@@ -23152,7 +23152,7 @@
         <v>2</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ104" t="n">
         <v>2.15</v>
@@ -23370,7 +23370,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.9</v>
@@ -24027,7 +24027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR108" t="n">
         <v>1.28</v>
@@ -26422,7 +26422,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.45</v>
@@ -26640,10 +26640,10 @@
         <v>1.44</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR120" t="n">
         <v>1.68</v>
@@ -26861,7 +26861,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR121" t="n">
         <v>1.24</v>
@@ -28384,10 +28384,10 @@
         <v>0.7</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR128" t="n">
         <v>1.09</v>
@@ -28605,7 +28605,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR129" t="n">
         <v>1.75</v>
@@ -29474,7 +29474,7 @@
         <v>0.8</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.76</v>
@@ -30131,7 +30131,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30346,7 +30346,7 @@
         <v>0.27</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.75</v>
@@ -31872,10 +31872,10 @@
         <v>0.91</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR144" t="n">
         <v>1.06</v>
@@ -32965,7 +32965,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR149" t="n">
         <v>1.52</v>
@@ -33180,7 +33180,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.4</v>
@@ -33619,7 +33619,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR152" t="n">
         <v>1.22</v>
@@ -34488,7 +34488,7 @@
         <v>0.54</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.75</v>
@@ -35578,7 +35578,7 @@
         <v>1.77</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.45</v>
@@ -36017,7 +36017,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR163" t="n">
         <v>1.13</v>
@@ -36668,7 +36668,7 @@
         <v>1.64</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.45</v>
@@ -37325,7 +37325,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR169" t="n">
         <v>1.32</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.95</v>
@@ -37761,7 +37761,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR171" t="n">
         <v>1.3</v>
@@ -40156,7 +40156,7 @@
         <v>1.07</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.9</v>
@@ -40595,7 +40595,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR184" t="n">
         <v>1.66</v>
@@ -41467,7 +41467,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR188" t="n">
         <v>1.29</v>
@@ -42336,7 +42336,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.33</v>
@@ -42557,7 +42557,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR193" t="n">
         <v>1.48</v>
@@ -42990,7 +42990,7 @@
         <v>1</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.9</v>
@@ -43644,10 +43644,10 @@
         <v>1.69</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR198" t="n">
         <v>1.51</v>
@@ -44080,7 +44080,7 @@
         <v>1.81</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.81</v>
@@ -44737,7 +44737,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR203" t="n">
         <v>1.27</v>
@@ -45827,7 +45827,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR208" t="n">
         <v>1.48</v>
@@ -46478,7 +46478,7 @@
         <v>0.88</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.76</v>
@@ -46914,7 +46914,7 @@
         <v>2.24</v>
       </c>
       <c r="AP213" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ213" t="n">
         <v>2.15</v>
@@ -47789,7 +47789,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR217" t="n">
         <v>1.56</v>
@@ -48661,7 +48661,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR221" t="n">
         <v>1.61</v>
@@ -48876,7 +48876,7 @@
         <v>1.5</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.33</v>
@@ -49312,7 +49312,7 @@
         <v>1.44</v>
       </c>
       <c r="AP224" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.4</v>
@@ -50405,7 +50405,7 @@
         <v>1</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR229" t="n">
         <v>1.47</v>
@@ -50841,7 +50841,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR231" t="n">
         <v>1.43</v>
@@ -51274,7 +51274,7 @@
         <v>1.89</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.81</v>
@@ -52800,7 +52800,7 @@
         <v>1.26</v>
       </c>
       <c r="AP240" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.35</v>
@@ -53021,7 +53021,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ241" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR241" t="n">
         <v>1.49</v>
@@ -53687,31 +53687,31 @@
         <v>2.98</v>
       </c>
       <c r="AU244" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB244" t="n">
         <v>3</v>
       </c>
-      <c r="AV244" t="n">
+      <c r="BC244" t="n">
         <v>5</v>
-      </c>
-      <c r="AW244" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX244" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY244" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ244" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA244" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB244" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC244" t="n">
-        <v>3</v>
       </c>
       <c r="BD244" t="n">
         <v>0</v>
@@ -53905,69 +53905,505 @@
         <v>2.71</v>
       </c>
       <c r="AU245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV245" t="n">
         <v>2</v>
       </c>
-      <c r="AV245" t="n">
-        <v>0</v>
-      </c>
       <c r="AW245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>6604078</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45237.75</v>
+      </c>
+      <c r="F246" t="n">
+        <v>19</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2</v>
+      </c>
+      <c r="M246" t="n">
+        <v>2</v>
+      </c>
+      <c r="N246" t="n">
+        <v>4</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['32', '90+6']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['63', '89']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="n">
+        <v>0</v>
+      </c>
+      <c r="T246" t="n">
+        <v>0</v>
+      </c>
+      <c r="U246" t="n">
+        <v>0</v>
+      </c>
+      <c r="V246" t="n">
+        <v>0</v>
+      </c>
+      <c r="W246" t="n">
+        <v>0</v>
+      </c>
+      <c r="X246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW246" t="n">
         <v>3</v>
       </c>
-      <c r="AY245" t="n">
+      <c r="AX246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA246" t="n">
         <v>3</v>
       </c>
-      <c r="AZ245" t="n">
+      <c r="BB246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>6604073</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45237.85416666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>19</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
         <v>3</v>
       </c>
-      <c r="BA245" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB245" t="n">
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['45', '90+3']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" t="n">
+        <v>0</v>
+      </c>
+      <c r="T247" t="n">
+        <v>0</v>
+      </c>
+      <c r="U247" t="n">
+        <v>0</v>
+      </c>
+      <c r="V247" t="n">
+        <v>0</v>
+      </c>
+      <c r="W247" t="n">
+        <v>0</v>
+      </c>
+      <c r="X247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG247" t="n">
         <v>2</v>
       </c>
-      <c r="BC245" t="n">
+      <c r="AH247" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX247" t="n">
         <v>3</v>
       </c>
-      <c r="BD245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO245" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP245" t="n">
+      <c r="AY247" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP247" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -54344,28 +54344,28 @@
         <v>2</v>
       </c>
       <c r="AV247" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX247" t="n">
         <v>5</v>
       </c>
-      <c r="AX247" t="n">
-        <v>3</v>
-      </c>
       <c r="AY247" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ247" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA247" t="n">
         <v>0</v>
       </c>
       <c r="BB247" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC247" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD247" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP247"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.76</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.33</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.81</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.9</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.76</v>
@@ -3750,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR15" t="n">
         <v>0.85</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR16" t="n">
         <v>1.26</v>
@@ -4407,7 +4407,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR18" t="n">
         <v>1.41</v>
@@ -4622,10 +4622,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR19" t="n">
         <v>1.16</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR21" t="n">
         <v>1.16</v>
@@ -5279,7 +5279,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.33</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR25" t="n">
         <v>1.49</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.76</v>
@@ -6587,7 +6587,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR28" t="n">
         <v>1.25</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.33</v>
@@ -7677,7 +7677,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR33" t="n">
         <v>0.92</v>
@@ -8110,7 +8110,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.76</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR36" t="n">
         <v>1.14</v>
@@ -8549,7 +8549,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR37" t="n">
         <v>1.18</v>
@@ -8982,10 +8982,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR39" t="n">
         <v>1.14</v>
@@ -9200,10 +9200,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.31</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.33</v>
@@ -9636,7 +9636,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.86</v>
@@ -9857,7 +9857,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR43" t="n">
         <v>1.73</v>
@@ -10511,7 +10511,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR46" t="n">
         <v>1.81</v>
@@ -10726,10 +10726,10 @@
         <v>1.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR47" t="n">
         <v>1.08</v>
@@ -10944,7 +10944,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.81</v>
@@ -11598,10 +11598,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -11816,10 +11816,10 @@
         <v>2.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR52" t="n">
         <v>1.35</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR53" t="n">
         <v>1.25</v>
@@ -12252,7 +12252,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.33</v>
@@ -12691,7 +12691,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR56" t="n">
         <v>1.36</v>
@@ -12909,7 +12909,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR57" t="n">
         <v>1.68</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.86</v>
@@ -13778,7 +13778,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.33</v>
@@ -14214,7 +14214,7 @@
         <v>1.25</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.95</v>
@@ -14432,10 +14432,10 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR64" t="n">
         <v>1.5</v>
@@ -14650,10 +14650,10 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR65" t="n">
         <v>1.36</v>
@@ -14868,10 +14868,10 @@
         <v>2.25</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR66" t="n">
         <v>1.37</v>
@@ -15522,10 +15522,10 @@
         <v>1.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR69" t="n">
         <v>1.46</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.81</v>
@@ -16179,7 +16179,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR72" t="n">
         <v>1.46</v>
@@ -16394,7 +16394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.9</v>
@@ -16615,7 +16615,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -16833,7 +16833,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR75" t="n">
         <v>1.66</v>
@@ -17048,7 +17048,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.33</v>
@@ -17266,10 +17266,10 @@
         <v>1.83</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR77" t="n">
         <v>1.33</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.86</v>
@@ -17920,7 +17920,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.95</v>
@@ -18138,7 +18138,7 @@
         <v>2</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.33</v>
@@ -18359,7 +18359,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR82" t="n">
         <v>1.26</v>
@@ -18792,10 +18792,10 @@
         <v>2.17</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR84" t="n">
         <v>1.4</v>
@@ -19228,10 +19228,10 @@
         <v>0.43</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR86" t="n">
         <v>1.08</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.95</v>
@@ -20103,7 +20103,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR90" t="n">
         <v>1.83</v>
@@ -20318,7 +20318,7 @@
         <v>0.86</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.86</v>
@@ -20754,10 +20754,10 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR93" t="n">
         <v>1.42</v>
@@ -20972,7 +20972,7 @@
         <v>0.57</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.9</v>
@@ -21190,7 +21190,7 @@
         <v>2.29</v>
       </c>
       <c r="AP95" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.81</v>
@@ -21411,7 +21411,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR96" t="n">
         <v>1.12</v>
@@ -21629,7 +21629,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR97" t="n">
         <v>1.27</v>
@@ -21844,7 +21844,7 @@
         <v>0.88</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.95</v>
@@ -22062,10 +22062,10 @@
         <v>0.38</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR99" t="n">
         <v>1.42</v>
@@ -22498,10 +22498,10 @@
         <v>1.38</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR101" t="n">
         <v>1.45</v>
@@ -22719,7 +22719,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR102" t="n">
         <v>1.41</v>
@@ -22934,7 +22934,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.86</v>
@@ -23155,7 +23155,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR104" t="n">
         <v>1.08</v>
@@ -23588,7 +23588,7 @@
         <v>2.38</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.81</v>
@@ -23809,7 +23809,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR107" t="n">
         <v>1.23</v>
@@ -24024,7 +24024,7 @@
         <v>1.63</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.33</v>
@@ -24463,7 +24463,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR110" t="n">
         <v>1.8</v>
@@ -24678,7 +24678,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.9</v>
@@ -25114,10 +25114,10 @@
         <v>0.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR113" t="n">
         <v>1.43</v>
@@ -25332,7 +25332,7 @@
         <v>0.78</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.95</v>
@@ -25550,10 +25550,10 @@
         <v>1.67</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR115" t="n">
         <v>1.4</v>
@@ -25768,7 +25768,7 @@
         <v>0.89</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.76</v>
@@ -25986,10 +25986,10 @@
         <v>2.11</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR117" t="n">
         <v>1.15</v>
@@ -26425,7 +26425,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR119" t="n">
         <v>1.07</v>
@@ -27079,7 +27079,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR122" t="n">
         <v>1.28</v>
@@ -27294,10 +27294,10 @@
         <v>2.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR123" t="n">
         <v>1.49</v>
@@ -27512,7 +27512,7 @@
         <v>1.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.33</v>
@@ -27730,7 +27730,7 @@
         <v>0.8</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.9</v>
@@ -27951,7 +27951,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR126" t="n">
         <v>1.49</v>
@@ -28166,7 +28166,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.95</v>
@@ -28820,10 +28820,10 @@
         <v>1.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR130" t="n">
         <v>1.19</v>
@@ -29038,10 +29038,10 @@
         <v>1.8</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR131" t="n">
         <v>1.34</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.9</v>
@@ -29913,7 +29913,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR135" t="n">
         <v>1.71</v>
@@ -30128,7 +30128,7 @@
         <v>1.55</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.33</v>
@@ -30349,7 +30349,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR137" t="n">
         <v>1.64</v>
@@ -30564,10 +30564,10 @@
         <v>1.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR138" t="n">
         <v>1.41</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.95</v>
@@ -31000,10 +31000,10 @@
         <v>1.36</v>
       </c>
       <c r="AP140" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -31218,7 +31218,7 @@
         <v>1.91</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.81</v>
@@ -31436,7 +31436,7 @@
         <v>1.36</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.33</v>
@@ -31657,7 +31657,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR143" t="n">
         <v>1.28</v>
@@ -32093,7 +32093,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR145" t="n">
         <v>1.5</v>
@@ -32311,7 +32311,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR146" t="n">
         <v>1.15</v>
@@ -32526,7 +32526,7 @@
         <v>0.73</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.76</v>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.9</v>
@@ -32962,7 +32962,7 @@
         <v>1.42</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.33</v>
@@ -33183,7 +33183,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR150" t="n">
         <v>1.66</v>
@@ -33616,7 +33616,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.86</v>
@@ -33837,7 +33837,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR153" t="n">
         <v>1.26</v>
@@ -34052,10 +34052,10 @@
         <v>1.25</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR154" t="n">
         <v>1.4</v>
@@ -34270,10 +34270,10 @@
         <v>2.08</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR155" t="n">
         <v>1.51</v>
@@ -34491,7 +34491,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR156" t="n">
         <v>1.06</v>
@@ -34706,7 +34706,7 @@
         <v>2</v>
       </c>
       <c r="AP157" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.81</v>
@@ -35142,7 +35142,7 @@
         <v>1.25</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.33</v>
@@ -35360,7 +35360,7 @@
         <v>0.92</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.76</v>
@@ -35581,7 +35581,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR161" t="n">
         <v>1.61</v>
@@ -36232,10 +36232,10 @@
         <v>1.57</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR164" t="n">
         <v>1.51</v>
@@ -36450,10 +36450,10 @@
         <v>2.15</v>
       </c>
       <c r="AP165" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ165" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR165" t="n">
         <v>1.5</v>
@@ -36671,7 +36671,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR166" t="n">
         <v>1.06</v>
@@ -36886,10 +36886,10 @@
         <v>1.23</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR167" t="n">
         <v>1.58</v>
@@ -37104,10 +37104,10 @@
         <v>0.71</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37322,7 +37322,7 @@
         <v>0.85</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.86</v>
@@ -38194,7 +38194,7 @@
         <v>2.08</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.81</v>
@@ -38848,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.95</v>
@@ -39066,10 +39066,10 @@
         <v>0.73</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39284,10 +39284,10 @@
         <v>2.21</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -39502,10 +39502,10 @@
         <v>1.21</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR179" t="n">
         <v>1.49</v>
@@ -39720,10 +39720,10 @@
         <v>1.53</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR180" t="n">
         <v>1.23</v>
@@ -39938,10 +39938,10 @@
         <v>1.47</v>
       </c>
       <c r="AP181" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR181" t="n">
         <v>1.5</v>
@@ -41246,10 +41246,10 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR187" t="n">
         <v>1.35</v>
@@ -41464,7 +41464,7 @@
         <v>1.6</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.33</v>
@@ -41682,10 +41682,10 @@
         <v>0.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR189" t="n">
         <v>1.48</v>
@@ -41900,10 +41900,10 @@
         <v>1.38</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR190" t="n">
         <v>1.48</v>
@@ -42118,7 +42118,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP191" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.95</v>
@@ -42775,7 +42775,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ194" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR194" t="n">
         <v>1.18</v>
@@ -43208,7 +43208,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.76</v>
@@ -43862,7 +43862,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.76</v>
@@ -44301,7 +44301,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR201" t="n">
         <v>1.14</v>
@@ -44519,7 +44519,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ202" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR202" t="n">
         <v>1.47</v>
@@ -44952,7 +44952,7 @@
         <v>1.31</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.33</v>
@@ -45173,7 +45173,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR205" t="n">
         <v>1.63</v>
@@ -45388,7 +45388,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.9</v>
@@ -45609,7 +45609,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR207" t="n">
         <v>1.11</v>
@@ -45824,7 +45824,7 @@
         <v>1.59</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.33</v>
@@ -46045,7 +46045,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR209" t="n">
         <v>1.62</v>
@@ -46260,7 +46260,7 @@
         <v>0.88</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ210" t="n">
         <v>0.95</v>
@@ -46696,7 +46696,7 @@
         <v>1.88</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.81</v>
@@ -46917,7 +46917,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ213" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR213" t="n">
         <v>1.03</v>
@@ -47135,7 +47135,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR214" t="n">
         <v>1.44</v>
@@ -47350,7 +47350,7 @@
         <v>1.41</v>
       </c>
       <c r="AP215" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.33</v>
@@ -47571,7 +47571,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR216" t="n">
         <v>1.25</v>
@@ -47786,7 +47786,7 @@
         <v>0.82</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ217" t="n">
         <v>0.86</v>
@@ -48007,7 +48007,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR218" t="n">
         <v>1.42</v>
@@ -48440,7 +48440,7 @@
         <v>1.06</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ220" t="n">
         <v>0.9</v>
@@ -49094,7 +49094,7 @@
         <v>0.89</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.76</v>
@@ -49315,7 +49315,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR224" t="n">
         <v>1.04</v>
@@ -49530,10 +49530,10 @@
         <v>2.28</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ225" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR225" t="n">
         <v>1.26</v>
@@ -49748,10 +49748,10 @@
         <v>0.67</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR226" t="n">
         <v>1.56</v>
@@ -49966,7 +49966,7 @@
         <v>1.83</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.81</v>
@@ -50187,7 +50187,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR228" t="n">
         <v>1.26</v>
@@ -50402,7 +50402,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP229" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.86</v>
@@ -51492,7 +51492,7 @@
         <v>1.47</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.33</v>
@@ -51928,10 +51928,10 @@
         <v>1.47</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AR236" t="n">
         <v>1.56</v>
@@ -52146,10 +52146,10 @@
         <v>1.42</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR237" t="n">
         <v>1.26</v>
@@ -52364,10 +52364,10 @@
         <v>0.63</v>
       </c>
       <c r="AP238" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR238" t="n">
         <v>1.44</v>
@@ -52582,10 +52582,10 @@
         <v>2.21</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ239" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AR239" t="n">
         <v>1.41</v>
@@ -52803,7 +52803,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR240" t="n">
         <v>1.04</v>
@@ -53018,7 +53018,7 @@
         <v>0.95</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ241" t="n">
         <v>0.86</v>
@@ -54404,6 +54404,1314 @@
         <v>0</v>
       </c>
       <c r="BP247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>6604079</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45241.77083333334</v>
+      </c>
+      <c r="F248" t="n">
+        <v>20</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
+      <c r="S248" t="n">
+        <v>0</v>
+      </c>
+      <c r="T248" t="n">
+        <v>0</v>
+      </c>
+      <c r="U248" t="n">
+        <v>0</v>
+      </c>
+      <c r="V248" t="n">
+        <v>0</v>
+      </c>
+      <c r="W248" t="n">
+        <v>0</v>
+      </c>
+      <c r="X248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>6604080</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45241.85416666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>20</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" t="n">
+        <v>0</v>
+      </c>
+      <c r="T249" t="n">
+        <v>0</v>
+      </c>
+      <c r="U249" t="n">
+        <v>0</v>
+      </c>
+      <c r="V249" t="n">
+        <v>0</v>
+      </c>
+      <c r="W249" t="n">
+        <v>0</v>
+      </c>
+      <c r="X249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>6604084</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45242.79166666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>20</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" t="n">
+        <v>0</v>
+      </c>
+      <c r="T250" t="n">
+        <v>0</v>
+      </c>
+      <c r="U250" t="n">
+        <v>0</v>
+      </c>
+      <c r="V250" t="n">
+        <v>0</v>
+      </c>
+      <c r="W250" t="n">
+        <v>0</v>
+      </c>
+      <c r="X250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>6604083</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45242.79166666666</v>
+      </c>
+      <c r="F251" t="n">
+        <v>20</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
+      <c r="S251" t="n">
+        <v>0</v>
+      </c>
+      <c r="T251" t="n">
+        <v>0</v>
+      </c>
+      <c r="U251" t="n">
+        <v>0</v>
+      </c>
+      <c r="V251" t="n">
+        <v>0</v>
+      </c>
+      <c r="W251" t="n">
+        <v>0</v>
+      </c>
+      <c r="X251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>6604081</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45243.75</v>
+      </c>
+      <c r="F252" t="n">
+        <v>20</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" t="n">
+        <v>0</v>
+      </c>
+      <c r="T252" t="n">
+        <v>0</v>
+      </c>
+      <c r="U252" t="n">
+        <v>0</v>
+      </c>
+      <c r="V252" t="n">
+        <v>0</v>
+      </c>
+      <c r="W252" t="n">
+        <v>0</v>
+      </c>
+      <c r="X252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>6604082</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45243.85416666666</v>
+      </c>
+      <c r="F253" t="n">
+        <v>20</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
+      <c r="S253" t="n">
+        <v>0</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0</v>
+      </c>
+      <c r="V253" t="n">
+        <v>0</v>
+      </c>
+      <c r="W253" t="n">
+        <v>0</v>
+      </c>
+      <c r="X253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP253" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.38</v>
@@ -1573,7 +1573,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.33</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.81</v>
@@ -5497,7 +5497,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>1.25</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.38</v>
@@ -6151,7 +6151,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR26" t="n">
         <v>1.32</v>
@@ -7456,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0.79</v>
@@ -8113,7 +8113,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR35" t="n">
         <v>1.35</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.33</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.33</v>
@@ -11165,7 +11165,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR49" t="n">
         <v>1.44</v>
@@ -11598,7 +11598,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.29</v>
@@ -12473,7 +12473,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -13342,10 +13342,10 @@
         <v>0.8</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR59" t="n">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>2.25</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ66" t="n">
         <v>2.19</v>
@@ -15089,7 +15089,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.59</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.81</v>
@@ -16397,7 +16397,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.41</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.76</v>
@@ -17266,7 +17266,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.52</v>
@@ -17487,7 +17487,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR78" t="n">
         <v>1.9</v>
@@ -18577,7 +18577,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR83" t="n">
         <v>1.36</v>
@@ -19885,7 +19885,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR89" t="n">
         <v>1.37</v>
@@ -20318,7 +20318,7 @@
         <v>0.86</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.86</v>
@@ -20975,7 +20975,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR94" t="n">
         <v>1.26</v>
@@ -21408,7 +21408,7 @@
         <v>1.57</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.29</v>
@@ -22062,7 +22062,7 @@
         <v>0.38</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.76</v>
@@ -23152,7 +23152,7 @@
         <v>2</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ104" t="n">
         <v>2.19</v>
@@ -23373,7 +23373,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -24245,7 +24245,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR109" t="n">
         <v>1.43</v>
@@ -24681,7 +24681,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR111" t="n">
         <v>1.4</v>
@@ -25332,7 +25332,7 @@
         <v>0.78</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.95</v>
@@ -25771,7 +25771,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR116" t="n">
         <v>1.3</v>
@@ -26422,7 +26422,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.52</v>
@@ -27730,10 +27730,10 @@
         <v>0.8</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR125" t="n">
         <v>1.49</v>
@@ -28384,7 +28384,7 @@
         <v>0.7</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.86</v>
@@ -29477,7 +29477,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR133" t="n">
         <v>1.68</v>
@@ -29695,7 +29695,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR134" t="n">
         <v>1.53</v>
@@ -31218,7 +31218,7 @@
         <v>1.91</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.81</v>
@@ -31872,7 +31872,7 @@
         <v>0.91</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.86</v>
@@ -32529,7 +32529,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -32747,7 +32747,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -34270,7 +34270,7 @@
         <v>2.08</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ155" t="n">
         <v>2.19</v>
@@ -34488,7 +34488,7 @@
         <v>0.54</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.76</v>
@@ -34927,7 +34927,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR158" t="n">
         <v>1.69</v>
@@ -35363,7 +35363,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR160" t="n">
         <v>1.51</v>
@@ -36232,7 +36232,7 @@
         <v>1.57</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.38</v>
@@ -36668,7 +36668,7 @@
         <v>1.64</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.52</v>
@@ -38415,7 +38415,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR174" t="n">
         <v>1.47</v>
@@ -38633,7 +38633,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR175" t="n">
         <v>1.13</v>
@@ -38848,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.95</v>
@@ -40156,10 +40156,10 @@
         <v>1.07</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR182" t="n">
         <v>1.03</v>
@@ -40813,7 +40813,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR185" t="n">
         <v>1.3</v>
@@ -42336,7 +42336,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.33</v>
@@ -42993,7 +42993,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR195" t="n">
         <v>1.53</v>
@@ -43208,10 +43208,10 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR196" t="n">
         <v>1.56</v>
@@ -43865,7 +43865,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR199" t="n">
         <v>1.28</v>
@@ -44080,7 +44080,7 @@
         <v>1.81</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.81</v>
@@ -44952,7 +44952,7 @@
         <v>1.31</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.33</v>
@@ -45391,7 +45391,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR206" t="n">
         <v>1.38</v>
@@ -46481,7 +46481,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR211" t="n">
         <v>1.48</v>
@@ -46914,7 +46914,7 @@
         <v>2.24</v>
       </c>
       <c r="AP213" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ213" t="n">
         <v>2.19</v>
@@ -47786,7 +47786,7 @@
         <v>0.82</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ217" t="n">
         <v>0.86</v>
@@ -48443,7 +48443,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR220" t="n">
         <v>1.53</v>
@@ -49097,7 +49097,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR223" t="n">
         <v>1.46</v>
@@ -49312,7 +49312,7 @@
         <v>1.44</v>
       </c>
       <c r="AP224" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.38</v>
@@ -49748,7 +49748,7 @@
         <v>0.67</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ226" t="n">
         <v>0.76</v>
@@ -50623,7 +50623,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR230" t="n">
         <v>1.14</v>
@@ -51713,7 +51713,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR235" t="n">
         <v>1.59</v>
@@ -51928,7 +51928,7 @@
         <v>1.47</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ236" t="n">
         <v>1.52</v>
@@ -52800,7 +52800,7 @@
         <v>1.26</v>
       </c>
       <c r="AP240" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.29</v>
@@ -53457,7 +53457,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR243" t="n">
         <v>1.29</v>
@@ -53893,7 +53893,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AR245" t="n">
         <v>1.4</v>
@@ -54108,7 +54108,7 @@
         <v>1.35</v>
       </c>
       <c r="AP246" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.33</v>
@@ -54544,7 +54544,7 @@
         <v>1.35</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AQ248" t="n">
         <v>1.29</v>
@@ -55712,6 +55712,660 @@
         <v>0</v>
       </c>
       <c r="BP253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>6604086</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45253.8125</v>
+      </c>
+      <c r="F254" t="n">
+        <v>21</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
+      <c r="S254" t="n">
+        <v>0</v>
+      </c>
+      <c r="T254" t="n">
+        <v>0</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0</v>
+      </c>
+      <c r="V254" t="n">
+        <v>0</v>
+      </c>
+      <c r="W254" t="n">
+        <v>0</v>
+      </c>
+      <c r="X254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>6604089</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45253.8125</v>
+      </c>
+      <c r="F255" t="n">
+        <v>21</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>3</v>
+      </c>
+      <c r="L255" t="n">
+        <v>4</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="n">
+        <v>5</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['44', '45+3', '69', '90+4']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
+      <c r="S255" t="n">
+        <v>0</v>
+      </c>
+      <c r="T255" t="n">
+        <v>0</v>
+      </c>
+      <c r="U255" t="n">
+        <v>0</v>
+      </c>
+      <c r="V255" t="n">
+        <v>0</v>
+      </c>
+      <c r="W255" t="n">
+        <v>0</v>
+      </c>
+      <c r="X255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>6604090</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45254.8125</v>
+      </c>
+      <c r="F256" t="n">
+        <v>21</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="n">
+        <v>2</v>
+      </c>
+      <c r="N256" t="n">
+        <v>3</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['57', '88']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
+      <c r="S256" t="n">
+        <v>0</v>
+      </c>
+      <c r="T256" t="n">
+        <v>0</v>
+      </c>
+      <c r="U256" t="n">
+        <v>0</v>
+      </c>
+      <c r="V256" t="n">
+        <v>0</v>
+      </c>
+      <c r="W256" t="n">
+        <v>0</v>
+      </c>
+      <c r="X256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP256" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP256"/>
+  <dimension ref="A1:BP258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.86</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.33</v>
@@ -2881,7 +2881,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR17" t="n">
         <v>0.9</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.76</v>
@@ -5279,7 +5279,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.86</v>
@@ -6805,7 +6805,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR29" t="n">
         <v>1.02</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.95</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.81</v>
@@ -8331,7 +8331,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR36" t="n">
         <v>1.14</v>
@@ -9421,7 +9421,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR41" t="n">
         <v>1.4</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.76</v>
@@ -10508,10 +10508,10 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR46" t="n">
         <v>1.81</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.95</v>
@@ -12255,7 +12255,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -12906,7 +12906,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.52</v>
@@ -13999,7 +13999,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR62" t="n">
         <v>1.09</v>
@@ -14871,7 +14871,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR66" t="n">
         <v>1.37</v>
@@ -15086,7 +15086,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15743,7 +15743,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR70" t="n">
         <v>1.31</v>
@@ -16176,10 +16176,10 @@
         <v>2.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR72" t="n">
         <v>1.46</v>
@@ -16830,7 +16830,7 @@
         <v>1.83</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.38</v>
@@ -17051,7 +17051,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR76" t="n">
         <v>1.48</v>
@@ -18795,7 +18795,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR84" t="n">
         <v>1.4</v>
@@ -19010,7 +19010,7 @@
         <v>2.17</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.81</v>
@@ -19446,10 +19446,10 @@
         <v>1.43</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR87" t="n">
         <v>1.68</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.73</v>
@@ -21629,7 +21629,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR97" t="n">
         <v>1.27</v>
@@ -22283,7 +22283,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR100" t="n">
         <v>1.81</v>
@@ -22716,7 +22716,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.38</v>
@@ -23155,7 +23155,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR104" t="n">
         <v>1.08</v>
@@ -23370,7 +23370,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -24896,10 +24896,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR112" t="n">
         <v>1.34</v>
@@ -25989,7 +25989,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR117" t="n">
         <v>1.15</v>
@@ -26640,7 +26640,7 @@
         <v>1.44</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.33</v>
@@ -27076,7 +27076,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.29</v>
@@ -27297,7 +27297,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR123" t="n">
         <v>1.49</v>
@@ -27515,7 +27515,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR124" t="n">
         <v>1.46</v>
@@ -29474,7 +29474,7 @@
         <v>0.8</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.73</v>
@@ -30346,7 +30346,7 @@
         <v>0.27</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.76</v>
@@ -31439,7 +31439,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR142" t="n">
         <v>1.21</v>
@@ -31654,10 +31654,10 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR143" t="n">
         <v>1.28</v>
@@ -33180,7 +33180,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.38</v>
@@ -33834,7 +33834,7 @@
         <v>1.62</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.38</v>
@@ -34273,7 +34273,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR155" t="n">
         <v>1.51</v>
@@ -35145,7 +35145,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR159" t="n">
         <v>1.63</v>
@@ -35578,7 +35578,7 @@
         <v>1.77</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.52</v>
@@ -36453,7 +36453,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ165" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR165" t="n">
         <v>1.5</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.95</v>
@@ -37758,7 +37758,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.33</v>
@@ -37979,7 +37979,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR172" t="n">
         <v>1.7</v>
@@ -39287,7 +39287,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR178" t="n">
         <v>1.53</v>
@@ -40810,7 +40810,7 @@
         <v>0.86</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.73</v>
@@ -41031,7 +41031,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR186" t="n">
         <v>1.51</v>
@@ -42339,7 +42339,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR192" t="n">
         <v>1.02</v>
@@ -42775,7 +42775,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ194" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR194" t="n">
         <v>1.18</v>
@@ -42990,7 +42990,7 @@
         <v>1</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ195" t="n">
         <v>1</v>
@@ -43426,7 +43426,7 @@
         <v>1.93</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.81</v>
@@ -43644,7 +43644,7 @@
         <v>1.69</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.33</v>
@@ -44519,7 +44519,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ202" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR202" t="n">
         <v>1.47</v>
@@ -44734,7 +44734,7 @@
         <v>0.88</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.86</v>
@@ -44955,7 +44955,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR204" t="n">
         <v>1.57</v>
@@ -46478,7 +46478,7 @@
         <v>0.88</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.73</v>
@@ -46917,7 +46917,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ213" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR213" t="n">
         <v>1.03</v>
@@ -47353,7 +47353,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR215" t="n">
         <v>1.49</v>
@@ -47568,7 +47568,7 @@
         <v>0.71</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.76</v>
@@ -48876,10 +48876,10 @@
         <v>1.5</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR222" t="n">
         <v>1.51</v>
@@ -49533,7 +49533,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ225" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR225" t="n">
         <v>1.26</v>
@@ -50184,7 +50184,7 @@
         <v>1.17</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.29</v>
@@ -51056,7 +51056,7 @@
         <v>0.95</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ232" t="n">
         <v>0.95</v>
@@ -51274,7 +51274,7 @@
         <v>1.89</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.81</v>
@@ -51495,7 +51495,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR234" t="n">
         <v>1.54</v>
@@ -52585,7 +52585,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ239" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR239" t="n">
         <v>1.41</v>
@@ -53239,7 +53239,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR242" t="n">
         <v>1.14</v>
@@ -53454,7 +53454,7 @@
         <v>0.95</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ243" t="n">
         <v>1</v>
@@ -54326,7 +54326,7 @@
         <v>0.9</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AQ247" t="n">
         <v>0.86</v>
@@ -54983,7 +54983,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ250" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AR250" t="n">
         <v>1.54</v>
@@ -56303,69 +56303,505 @@
         <v>2.74</v>
       </c>
       <c r="AU256" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV256" t="n">
         <v>3</v>
       </c>
       <c r="AW256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>6604085</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45255.8125</v>
+      </c>
+      <c r="F257" t="n">
+        <v>21</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1</v>
+      </c>
+      <c r="K257" t="n">
         <v>2</v>
       </c>
-      <c r="AX256" t="n">
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
         <v>3</v>
       </c>
-      <c r="AY256" t="n">
+      <c r="N257" t="n">
+        <v>4</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['44', '50', '80']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
+      <c r="S257" t="n">
+        <v>0</v>
+      </c>
+      <c r="T257" t="n">
+        <v>0</v>
+      </c>
+      <c r="U257" t="n">
+        <v>0</v>
+      </c>
+      <c r="V257" t="n">
+        <v>0</v>
+      </c>
+      <c r="W257" t="n">
+        <v>0</v>
+      </c>
+      <c r="X257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW257" t="n">
         <v>6</v>
       </c>
-      <c r="AZ256" t="n">
+      <c r="AX257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC257" t="n">
         <v>6</v>
       </c>
-      <c r="BA256" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB256" t="n">
+      <c r="BD257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>6604088</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45255.8125</v>
+      </c>
+      <c r="F258" t="n">
+        <v>21</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
         <v>2</v>
       </c>
-      <c r="BC256" t="n">
+      <c r="N258" t="n">
+        <v>2</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['64', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
+      <c r="S258" t="n">
+        <v>0</v>
+      </c>
+      <c r="T258" t="n">
+        <v>0</v>
+      </c>
+      <c r="U258" t="n">
+        <v>0</v>
+      </c>
+      <c r="V258" t="n">
+        <v>0</v>
+      </c>
+      <c r="W258" t="n">
+        <v>0</v>
+      </c>
+      <c r="X258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB258" t="n">
         <v>3</v>
       </c>
-      <c r="BD256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO256" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP256" t="n">
+      <c r="BC258" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP258" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP258"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR10" t="n">
         <v>1.03</v>
@@ -4843,7 +4843,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR20" t="n">
         <v>0.8</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.23</v>
@@ -7674,7 +7674,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.52</v>
@@ -7895,7 +7895,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR34" t="n">
         <v>1.92</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.29</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.86</v>
@@ -10947,7 +10947,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR48" t="n">
         <v>1.06</v>
@@ -13563,7 +13563,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR60" t="n">
         <v>1.98</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.41</v>
@@ -15304,7 +15304,7 @@
         <v>1.2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.95</v>
@@ -15961,7 +15961,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR71" t="n">
         <v>1.27</v>
@@ -18574,7 +18574,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ83" t="n">
         <v>1</v>
@@ -19013,7 +19013,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR85" t="n">
         <v>1.37</v>
@@ -20536,7 +20536,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.33</v>
@@ -21193,7 +21193,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR95" t="n">
         <v>1.38</v>
@@ -23591,7 +23591,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR106" t="n">
         <v>1.41</v>
@@ -24242,7 +24242,7 @@
         <v>0.88</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.73</v>
@@ -26204,10 +26204,10 @@
         <v>2.22</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR118" t="n">
         <v>1.5</v>
@@ -27948,7 +27948,7 @@
         <v>0.3</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.76</v>
@@ -29259,7 +29259,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR132" t="n">
         <v>1.19</v>
@@ -31221,7 +31221,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR141" t="n">
         <v>1.52</v>
@@ -32090,7 +32090,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.76</v>
@@ -34709,7 +34709,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR157" t="n">
         <v>1.46</v>
@@ -35796,7 +35796,7 @@
         <v>1.08</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.95</v>
@@ -38197,7 +38197,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR173" t="n">
         <v>1.53</v>
@@ -38412,7 +38412,7 @@
         <v>0.93</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ174" t="n">
         <v>1</v>
@@ -40377,7 +40377,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR183" t="n">
         <v>1.18</v>
@@ -41028,7 +41028,7 @@
         <v>1.29</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.41</v>
@@ -42554,7 +42554,7 @@
         <v>0.93</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.86</v>
@@ -43429,7 +43429,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR197" t="n">
         <v>1.32</v>
@@ -44083,7 +44083,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR200" t="n">
         <v>1</v>
@@ -44516,7 +44516,7 @@
         <v>2.19</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ202" t="n">
         <v>2.23</v>
@@ -46699,7 +46699,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR212" t="n">
         <v>1.29</v>
@@ -47132,7 +47132,7 @@
         <v>1.24</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.29</v>
@@ -48004,7 +48004,7 @@
         <v>1.56</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.52</v>
@@ -49969,7 +49969,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR227" t="n">
         <v>1.38</v>
@@ -50838,7 +50838,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.33</v>
@@ -51277,7 +51277,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR233" t="n">
         <v>1.47</v>
@@ -53675,7 +53675,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AR244" t="n">
         <v>1.59</v>
@@ -53890,7 +53890,7 @@
         <v>0.8</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.73</v>
@@ -56802,6 +56802,224 @@
         <v>0</v>
       </c>
       <c r="BP258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6604087</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45256.79166666666</v>
+      </c>
+      <c r="F259" t="n">
+        <v>21</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="n">
+        <v>2</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
+      <c r="S259" t="n">
+        <v>0</v>
+      </c>
+      <c r="T259" t="n">
+        <v>0</v>
+      </c>
+      <c r="U259" t="n">
+        <v>0</v>
+      </c>
+      <c r="V259" t="n">
+        <v>0</v>
+      </c>
+      <c r="W259" t="n">
+        <v>0</v>
+      </c>
+      <c r="X259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP259" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -56963,25 +56963,25 @@
         <v>5</v>
       </c>
       <c r="AW259" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX259" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY259" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ259" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA259" t="n">
         <v>2</v>
       </c>
       <c r="BB259" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC259" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD259" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.52</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.77</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.23</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.86</v>
@@ -4407,7 +4407,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR18" t="n">
         <v>1.41</v>
@@ -4622,7 +4622,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.52</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.29</v>
@@ -5715,7 +5715,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR24" t="n">
         <v>1.41</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR28" t="n">
         <v>1.25</v>
@@ -7023,7 +7023,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR30" t="n">
         <v>1.8</v>
@@ -7241,7 +7241,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR31" t="n">
         <v>1.34</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.23</v>
@@ -8764,10 +8764,10 @@
         <v>2</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR38" t="n">
         <v>1.61</v>
@@ -9200,7 +9200,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.38</v>
@@ -9857,7 +9857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR43" t="n">
         <v>1.73</v>
@@ -10075,7 +10075,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR44" t="n">
         <v>0.84</v>
@@ -10726,7 +10726,7 @@
         <v>1.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.52</v>
@@ -11383,7 +11383,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR50" t="n">
         <v>1.54</v>
@@ -12037,7 +12037,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR53" t="n">
         <v>1.25</v>
@@ -12252,7 +12252,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.41</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ55" t="n">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.86</v>
@@ -13560,7 +13560,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.77</v>
@@ -13781,7 +13781,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR61" t="n">
         <v>1.02</v>
@@ -14217,7 +14217,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR63" t="n">
         <v>1.27</v>
@@ -14432,7 +14432,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.29</v>
@@ -14653,7 +14653,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR65" t="n">
         <v>1.36</v>
@@ -15307,7 +15307,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR68" t="n">
         <v>1.26</v>
@@ -16394,7 +16394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -16615,7 +16615,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -17484,7 +17484,7 @@
         <v>1.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.73</v>
@@ -17920,10 +17920,10 @@
         <v>1.17</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR80" t="n">
         <v>1.21</v>
@@ -18138,10 +18138,10 @@
         <v>2</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -19231,7 +19231,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR86" t="n">
         <v>1.08</v>
@@ -19667,7 +19667,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR88" t="n">
         <v>1.41</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.38</v>
@@ -20539,7 +20539,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR92" t="n">
         <v>1.44</v>
@@ -20972,7 +20972,7 @@
         <v>0.57</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ94" t="n">
         <v>1</v>
@@ -21190,7 +21190,7 @@
         <v>2.29</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.77</v>
@@ -21847,7 +21847,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR98" t="n">
         <v>1.13</v>
@@ -22065,7 +22065,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR99" t="n">
         <v>1.42</v>
@@ -22280,7 +22280,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.41</v>
@@ -22934,7 +22934,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.86</v>
@@ -24024,10 +24024,10 @@
         <v>1.63</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR108" t="n">
         <v>1.28</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.29</v>
@@ -25114,10 +25114,10 @@
         <v>0.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR113" t="n">
         <v>1.43</v>
@@ -25335,7 +25335,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -25768,7 +25768,7 @@
         <v>0.89</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.73</v>
@@ -26643,7 +26643,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR120" t="n">
         <v>1.68</v>
@@ -27951,7 +27951,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR126" t="n">
         <v>1.49</v>
@@ -28166,10 +28166,10 @@
         <v>0.8</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR127" t="n">
         <v>1.51</v>
@@ -28602,10 +28602,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR129" t="n">
         <v>1.75</v>
@@ -29038,7 +29038,7 @@
         <v>1.8</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.38</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ134" t="n">
         <v>1</v>
@@ -29910,7 +29910,7 @@
         <v>1.64</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.38</v>
@@ -30128,10 +30128,10 @@
         <v>1.55</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30349,7 +30349,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR137" t="n">
         <v>1.64</v>
@@ -30785,7 +30785,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR139" t="n">
         <v>1.54</v>
@@ -31000,7 +31000,7 @@
         <v>1.36</v>
       </c>
       <c r="AP140" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.29</v>
@@ -32093,7 +32093,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR145" t="n">
         <v>1.5</v>
@@ -32526,7 +32526,7 @@
         <v>0.73</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.73</v>
@@ -32965,7 +32965,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR149" t="n">
         <v>1.52</v>
@@ -33398,10 +33398,10 @@
         <v>1.17</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR151" t="n">
         <v>1.73</v>
@@ -34052,7 +34052,7 @@
         <v>1.25</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.29</v>
@@ -34491,7 +34491,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR156" t="n">
         <v>1.06</v>
@@ -34706,7 +34706,7 @@
         <v>2</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.77</v>
@@ -34924,7 +34924,7 @@
         <v>0.92</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ158" t="n">
         <v>1</v>
@@ -35799,7 +35799,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR162" t="n">
         <v>1.48</v>
@@ -36017,7 +36017,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR163" t="n">
         <v>1.13</v>
@@ -36450,7 +36450,7 @@
         <v>2.15</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ165" t="n">
         <v>2.23</v>
@@ -37107,7 +37107,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37322,7 +37322,7 @@
         <v>0.85</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.86</v>
@@ -37543,7 +37543,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR170" t="n">
         <v>1.57</v>
@@ -37761,7 +37761,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR171" t="n">
         <v>1.3</v>
@@ -37976,7 +37976,7 @@
         <v>1.15</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.41</v>
@@ -38851,7 +38851,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR176" t="n">
         <v>1.53</v>
@@ -39066,10 +39066,10 @@
         <v>0.73</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39938,7 +39938,7 @@
         <v>1.47</v>
       </c>
       <c r="AP181" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.38</v>
@@ -40592,7 +40592,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.86</v>
@@ -41246,7 +41246,7 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.52</v>
@@ -41467,7 +41467,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR188" t="n">
         <v>1.29</v>
@@ -41685,7 +41685,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR189" t="n">
         <v>1.48</v>
@@ -42118,10 +42118,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP191" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -43647,7 +43647,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR198" t="n">
         <v>1.51</v>
@@ -45170,7 +45170,7 @@
         <v>1.31</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.29</v>
@@ -45388,7 +45388,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ206" t="n">
         <v>1</v>
@@ -45827,7 +45827,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR208" t="n">
         <v>1.48</v>
@@ -46042,7 +46042,7 @@
         <v>1.59</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.52</v>
@@ -46263,7 +46263,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR210" t="n">
         <v>1.5</v>
@@ -47350,7 +47350,7 @@
         <v>1.41</v>
       </c>
       <c r="AP215" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.41</v>
@@ -47571,7 +47571,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR216" t="n">
         <v>1.25</v>
@@ -48225,7 +48225,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR219" t="n">
         <v>1.11</v>
@@ -48658,10 +48658,10 @@
         <v>1.5</v>
       </c>
       <c r="AP221" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR221" t="n">
         <v>1.61</v>
@@ -49751,7 +49751,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR226" t="n">
         <v>1.56</v>
@@ -49966,7 +49966,7 @@
         <v>1.83</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.77</v>
@@ -50402,7 +50402,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP229" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.86</v>
@@ -50841,7 +50841,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR231" t="n">
         <v>1.43</v>
@@ -51059,7 +51059,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR232" t="n">
         <v>1.27</v>
@@ -51710,7 +51710,7 @@
         <v>0.84</v>
       </c>
       <c r="AP235" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.73</v>
@@ -52364,10 +52364,10 @@
         <v>0.63</v>
       </c>
       <c r="AP238" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR238" t="n">
         <v>1.44</v>
@@ -52582,7 +52582,7 @@
         <v>2.21</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ239" t="n">
         <v>2.23</v>
@@ -53672,7 +53672,7 @@
         <v>1.85</v>
       </c>
       <c r="AP244" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AQ244" t="n">
         <v>1.77</v>
@@ -54111,7 +54111,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR246" t="n">
         <v>1.06</v>
@@ -54765,7 +54765,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR249" t="n">
         <v>1.29</v>
@@ -55201,7 +55201,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AR251" t="n">
         <v>1.51</v>
@@ -55416,7 +55416,7 @@
         <v>1.45</v>
       </c>
       <c r="AP252" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ252" t="n">
         <v>1.52</v>
@@ -55634,7 +55634,7 @@
         <v>1.4</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ253" t="n">
         <v>1.38</v>
@@ -57020,6 +57020,660 @@
         <v>0</v>
       </c>
       <c r="BP259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>6604093</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45259.8125</v>
+      </c>
+      <c r="F260" t="n">
+        <v>22</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>2</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="n">
+        <v>3</v>
+      </c>
+      <c r="L260" t="n">
+        <v>7</v>
+      </c>
+      <c r="M260" t="n">
+        <v>2</v>
+      </c>
+      <c r="N260" t="n">
+        <v>9</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['11', '29', '66', '77', '82', '90+3', '90+4']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['34', '90']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
+      <c r="S260" t="n">
+        <v>0</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0</v>
+      </c>
+      <c r="U260" t="n">
+        <v>0</v>
+      </c>
+      <c r="V260" t="n">
+        <v>0</v>
+      </c>
+      <c r="W260" t="n">
+        <v>0</v>
+      </c>
+      <c r="X260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>6604096</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45259.8125</v>
+      </c>
+      <c r="F261" t="n">
+        <v>22</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="n">
+        <v>2</v>
+      </c>
+      <c r="N261" t="n">
+        <v>3</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['45+1', '52']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
+      <c r="S261" t="n">
+        <v>0</v>
+      </c>
+      <c r="T261" t="n">
+        <v>0</v>
+      </c>
+      <c r="U261" t="n">
+        <v>0</v>
+      </c>
+      <c r="V261" t="n">
+        <v>0</v>
+      </c>
+      <c r="W261" t="n">
+        <v>0</v>
+      </c>
+      <c r="X261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>6604092</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45260.85416666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>22</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>3</v>
+      </c>
+      <c r="N262" t="n">
+        <v>3</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['45+1', '53', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
+      <c r="S262" t="n">
+        <v>0</v>
+      </c>
+      <c r="T262" t="n">
+        <v>0</v>
+      </c>
+      <c r="U262" t="n">
+        <v>0</v>
+      </c>
+      <c r="V262" t="n">
+        <v>0</v>
+      </c>
+      <c r="W262" t="n">
+        <v>0</v>
+      </c>
+      <c r="X262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP262" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.73</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.41</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -3750,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR15" t="n">
         <v>0.85</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR16" t="n">
         <v>1.26</v>
@@ -4625,7 +4625,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR19" t="n">
         <v>1.16</v>
@@ -5061,7 +5061,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR21" t="n">
         <v>1.16</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.41</v>
@@ -5933,7 +5933,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR25" t="n">
         <v>1.49</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.73</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.41</v>
@@ -7677,7 +7677,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR33" t="n">
         <v>0.92</v>
@@ -8110,7 +8110,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.73</v>
@@ -8549,7 +8549,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR37" t="n">
         <v>1.18</v>
@@ -8982,10 +8982,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR39" t="n">
         <v>1.14</v>
@@ -9203,7 +9203,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR40" t="n">
         <v>1.31</v>
@@ -9636,7 +9636,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.86</v>
@@ -10729,7 +10729,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR47" t="n">
         <v>1.08</v>
@@ -10944,7 +10944,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.77</v>
@@ -11601,7 +11601,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -11816,10 +11816,10 @@
         <v>2.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR52" t="n">
         <v>1.35</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.86</v>
@@ -12691,7 +12691,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR56" t="n">
         <v>1.36</v>
@@ -12909,7 +12909,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR57" t="n">
         <v>1.68</v>
@@ -13778,7 +13778,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.41</v>
@@ -14214,7 +14214,7 @@
         <v>1.25</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.91</v>
@@ -14435,7 +14435,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR64" t="n">
         <v>1.5</v>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.86</v>
@@ -15522,10 +15522,10 @@
         <v>1.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR69" t="n">
         <v>1.46</v>
@@ -16833,7 +16833,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR75" t="n">
         <v>1.66</v>
@@ -17048,7 +17048,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.41</v>
@@ -17269,7 +17269,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR77" t="n">
         <v>1.33</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.86</v>
@@ -18359,7 +18359,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR82" t="n">
         <v>1.26</v>
@@ -18792,7 +18792,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.23</v>
@@ -19228,7 +19228,7 @@
         <v>0.43</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.86</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.91</v>
@@ -20103,7 +20103,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR90" t="n">
         <v>1.83</v>
@@ -20754,10 +20754,10 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR93" t="n">
         <v>1.42</v>
@@ -21411,7 +21411,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR96" t="n">
         <v>1.12</v>
@@ -21844,7 +21844,7 @@
         <v>0.88</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.91</v>
@@ -22498,10 +22498,10 @@
         <v>1.38</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR101" t="n">
         <v>1.45</v>
@@ -22719,7 +22719,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR102" t="n">
         <v>1.41</v>
@@ -23588,7 +23588,7 @@
         <v>2.38</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.77</v>
@@ -23809,7 +23809,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR107" t="n">
         <v>1.23</v>
@@ -24463,7 +24463,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR110" t="n">
         <v>1.8</v>
@@ -24678,7 +24678,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -25550,10 +25550,10 @@
         <v>1.67</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR115" t="n">
         <v>1.4</v>
@@ -25986,7 +25986,7 @@
         <v>2.11</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ117" t="n">
         <v>2.23</v>
@@ -26425,7 +26425,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR119" t="n">
         <v>1.07</v>
@@ -27079,7 +27079,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR122" t="n">
         <v>1.28</v>
@@ -27294,7 +27294,7 @@
         <v>2.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ123" t="n">
         <v>2.23</v>
@@ -27512,7 +27512,7 @@
         <v>1.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.41</v>
@@ -28820,10 +28820,10 @@
         <v>1.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR130" t="n">
         <v>1.19</v>
@@ -29041,7 +29041,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR131" t="n">
         <v>1.34</v>
@@ -29913,7 +29913,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR135" t="n">
         <v>1.71</v>
@@ -30564,10 +30564,10 @@
         <v>1.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR138" t="n">
         <v>1.41</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.91</v>
@@ -31003,7 +31003,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -31436,7 +31436,7 @@
         <v>1.36</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.41</v>
@@ -32311,7 +32311,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR146" t="n">
         <v>1.15</v>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ148" t="n">
         <v>1</v>
@@ -32962,7 +32962,7 @@
         <v>1.42</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.41</v>
@@ -33183,7 +33183,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR150" t="n">
         <v>1.66</v>
@@ -33616,7 +33616,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.86</v>
@@ -33837,7 +33837,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR153" t="n">
         <v>1.26</v>
@@ -34055,7 +34055,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR154" t="n">
         <v>1.4</v>
@@ -35142,7 +35142,7 @@
         <v>1.25</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.41</v>
@@ -35360,7 +35360,7 @@
         <v>0.92</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.73</v>
@@ -35581,7 +35581,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR161" t="n">
         <v>1.61</v>
@@ -36235,7 +36235,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR164" t="n">
         <v>1.51</v>
@@ -36671,7 +36671,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR166" t="n">
         <v>1.06</v>
@@ -36886,10 +36886,10 @@
         <v>1.23</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR167" t="n">
         <v>1.58</v>
@@ -37104,7 +37104,7 @@
         <v>0.71</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.86</v>
@@ -38194,7 +38194,7 @@
         <v>2.08</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.77</v>
@@ -39284,7 +39284,7 @@
         <v>2.21</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ178" t="n">
         <v>2.23</v>
@@ -39502,10 +39502,10 @@
         <v>1.21</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR179" t="n">
         <v>1.49</v>
@@ -39720,10 +39720,10 @@
         <v>1.53</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR180" t="n">
         <v>1.23</v>
@@ -39941,7 +39941,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR181" t="n">
         <v>1.5</v>
@@ -41249,7 +41249,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR187" t="n">
         <v>1.35</v>
@@ -41464,7 +41464,7 @@
         <v>1.6</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.41</v>
@@ -41682,7 +41682,7 @@
         <v>0.75</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.86</v>
@@ -41900,10 +41900,10 @@
         <v>1.38</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR190" t="n">
         <v>1.48</v>
@@ -43862,7 +43862,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.73</v>
@@ -44301,7 +44301,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR201" t="n">
         <v>1.14</v>
@@ -45173,7 +45173,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR205" t="n">
         <v>1.63</v>
@@ -45609,7 +45609,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR207" t="n">
         <v>1.11</v>
@@ -45824,7 +45824,7 @@
         <v>1.59</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.41</v>
@@ -46045,7 +46045,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR209" t="n">
         <v>1.62</v>
@@ -46260,7 +46260,7 @@
         <v>0.88</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ210" t="n">
         <v>0.91</v>
@@ -46696,7 +46696,7 @@
         <v>1.88</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.77</v>
@@ -47135,7 +47135,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR214" t="n">
         <v>1.44</v>
@@ -48007,7 +48007,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR218" t="n">
         <v>1.42</v>
@@ -48440,7 +48440,7 @@
         <v>1.06</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ220" t="n">
         <v>1</v>
@@ -49094,7 +49094,7 @@
         <v>0.89</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.73</v>
@@ -49315,7 +49315,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR224" t="n">
         <v>1.04</v>
@@ -49530,7 +49530,7 @@
         <v>2.28</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ225" t="n">
         <v>2.23</v>
@@ -50187,7 +50187,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR228" t="n">
         <v>1.26</v>
@@ -51492,7 +51492,7 @@
         <v>1.47</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.41</v>
@@ -51931,7 +51931,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR236" t="n">
         <v>1.56</v>
@@ -52146,10 +52146,10 @@
         <v>1.42</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR237" t="n">
         <v>1.26</v>
@@ -52803,7 +52803,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR240" t="n">
         <v>1.04</v>
@@ -53018,7 +53018,7 @@
         <v>0.95</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ241" t="n">
         <v>0.86</v>
@@ -54547,7 +54547,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR248" t="n">
         <v>1.6</v>
@@ -54762,7 +54762,7 @@
         <v>0.95</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ249" t="n">
         <v>0.91</v>
@@ -54980,7 +54980,7 @@
         <v>2.15</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AQ250" t="n">
         <v>2.23</v>
@@ -55198,7 +55198,7 @@
         <v>0.75</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ251" t="n">
         <v>0.86</v>
@@ -55419,7 +55419,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ252" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR252" t="n">
         <v>1.48</v>
@@ -55637,7 +55637,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR253" t="n">
         <v>1.39</v>
@@ -57674,6 +57674,660 @@
         <v>0</v>
       </c>
       <c r="BP262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>6604091</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45261.8125</v>
+      </c>
+      <c r="F263" t="n">
+        <v>22</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
+      <c r="S263" t="n">
+        <v>0</v>
+      </c>
+      <c r="T263" t="n">
+        <v>0</v>
+      </c>
+      <c r="U263" t="n">
+        <v>0</v>
+      </c>
+      <c r="V263" t="n">
+        <v>0</v>
+      </c>
+      <c r="W263" t="n">
+        <v>0</v>
+      </c>
+      <c r="X263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>6604094</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45261.8125</v>
+      </c>
+      <c r="F264" t="n">
+        <v>22</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>3</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>3</v>
+      </c>
+      <c r="L264" t="n">
+        <v>4</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>4</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['14', '32', '34', '71']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
+      <c r="S264" t="n">
+        <v>0</v>
+      </c>
+      <c r="T264" t="n">
+        <v>0</v>
+      </c>
+      <c r="U264" t="n">
+        <v>0</v>
+      </c>
+      <c r="V264" t="n">
+        <v>0</v>
+      </c>
+      <c r="W264" t="n">
+        <v>0</v>
+      </c>
+      <c r="X264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>6604095</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45261.8125</v>
+      </c>
+      <c r="F265" t="n">
+        <v>22</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>2</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="n">
+        <v>2</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
+      <c r="S265" t="n">
+        <v>0</v>
+      </c>
+      <c r="T265" t="n">
+        <v>0</v>
+      </c>
+      <c r="U265" t="n">
+        <v>0</v>
+      </c>
+      <c r="V265" t="n">
+        <v>0</v>
+      </c>
+      <c r="W265" t="n">
+        <v>0</v>
+      </c>
+      <c r="X265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP265" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
